--- a/target/classes/初级工题库.xlsx
+++ b/target/classes/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4104" uniqueCount="1923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4133" uniqueCount="1950">
   <si>
     <t>题型</t>
   </si>
@@ -5830,6 +5830,87 @@
   </si>
   <si>
     <t>您一共做了: 84题	您的得分： 63.095238095238095	做题时长约为42.35Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 66.66666666666666	做题时长约为2.0833333333333335Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 64题	您的得分： 70.3125	做题时长约为119.23333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.7166666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.06666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.16666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 99题	您的得分： 58.58585858585859	做题时长约为12.6Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 56.00000000000001	做题时长约为1008.7333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 59.0	做题时长约为266.45Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 60.0	做题时长约为21.7Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 54.0	做题时长约为48.75Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 54题	您的得分： 79.62962962962963	做题时长约为12.066666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 62.5	做题时长约为422.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 66.66666666666666	做题时长约为13.466666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.2Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 66.66666666666666	做题时长约为0.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.11666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 5题	您的得分： 60.0	做题时长约为0.43333333333333335Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.13333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为1.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.21666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 27题	您的得分： 81.48148148148148	做题时长约为24.716666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 62题	您的得分： 87.09677419354838	做题时长约为14.116666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 5题	您的得分： 100.0	做题时长约为4.266666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 7题	您的得分： 100.0	做题时长约为0.6166666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 11题	您的得分： 100.0	做题时长约为0.7333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 274题	您的得分： 79.56204379562044	做题时长约为988.65Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 61题	您的得分： 85.24590163934425	做题时长约为7.583333333333333Min</t>
   </si>
 </sst>
 </file>
@@ -5889,7 +5970,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1280">
+  <cellXfs count="2389">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -6920,197 +7001,1306 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7530,10 +8720,10 @@
         <v>1573</v>
       </c>
       <c r="R2" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T2" t="n">
-        <v>1.721785896631E12</v>
+        <v>1.723021653529E12</v>
       </c>
       <c r="AA2" t="s">
         <v>1903</v>
@@ -7565,10 +8755,10 @@
         <v>1574</v>
       </c>
       <c r="R3" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T3" t="n">
-        <v>1.721786173552E12</v>
+        <v>1.723021689222E12</v>
       </c>
       <c r="AA3" t="s">
         <v>1904</v>
@@ -7600,16 +8790,16 @@
         <v>1575</v>
       </c>
       <c r="R4" t="n">
-        <v>3.65</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T4" t="n">
-        <v>1.722588087543E12</v>
+        <v>1.723021693313E12</v>
       </c>
       <c r="AA4" t="s">
         <v>1905</v>
       </c>
       <c r="AB4" t="n">
-        <v>401.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7638,10 +8828,10 @@
         <v>1576</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.721961315938E12</v>
+        <v>1.723021700722E12</v>
       </c>
       <c r="AA5" t="s">
         <v>1906</v>
@@ -7676,7 +8866,7 @@
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.721699922394E12</v>
+        <v>1.722848848459E12</v>
       </c>
       <c r="AA6" t="s">
         <v>1907</v>
@@ -7708,10 +8898,10 @@
         <v>997</v>
       </c>
       <c r="R7" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T7" t="n">
-        <v>1.721786747234E12</v>
+        <v>1.723021703275E12</v>
       </c>
       <c r="AA7" t="s">
         <v>1908</v>
@@ -7743,10 +8933,10 @@
         <v>1296</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7219613199E12</v>
+        <v>1.72302170874E12</v>
       </c>
       <c r="AA8" t="s">
         <v>1909</v>
@@ -7778,10 +8968,10 @@
         <v>551</v>
       </c>
       <c r="R9" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T9" t="n">
-        <v>1.721786821633E12</v>
+        <v>1.722849083416E12</v>
       </c>
       <c r="AA9" t="s">
         <v>1910</v>
@@ -7813,10 +9003,10 @@
         <v>1578</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T10" t="n">
-        <v>1.721700132699E12</v>
+        <v>1.723021711394E12</v>
       </c>
       <c r="AA10" t="s">
         <v>1911</v>
@@ -7848,10 +9038,10 @@
         <v>1579</v>
       </c>
       <c r="R11" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T11" t="n">
-        <v>1.721786849834E12</v>
+        <v>1.723021795982E12</v>
       </c>
       <c r="AA11" t="s">
         <v>1912</v>
@@ -7883,10 +9073,10 @@
         <v>1580</v>
       </c>
       <c r="R12" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T12" t="n">
-        <v>1.721786946731E12</v>
+        <v>1.723021801821E12</v>
       </c>
       <c r="AA12" t="s">
         <v>1913</v>
@@ -7921,7 +9111,7 @@
         <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.721700156285E12</v>
+        <v>1.722849303932E12</v>
       </c>
       <c r="AA13" t="s">
         <v>1914</v>
@@ -7953,10 +9143,10 @@
         <v>1582</v>
       </c>
       <c r="R14" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T14" t="n">
-        <v>1.721786951244E12</v>
+        <v>1.72284932789E12</v>
       </c>
       <c r="AA14" t="s">
         <v>1915</v>
@@ -7988,10 +9178,10 @@
         <v>902</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T15" t="n">
-        <v>1.721700181709E12</v>
+        <v>1.723021805415E12</v>
       </c>
       <c r="AA15" t="s">
         <v>1916</v>
@@ -8026,7 +9216,7 @@
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.721700188223E12</v>
+        <v>1.722849416941E12</v>
       </c>
       <c r="AA16" t="s">
         <v>1917</v>
@@ -8058,10 +9248,10 @@
         <v>1584</v>
       </c>
       <c r="R17" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T17" t="n">
-        <v>1.721786956993E12</v>
+        <v>1.722849425765E12</v>
       </c>
       <c r="AA17" t="s">
         <v>1918</v>
@@ -8093,10 +9283,10 @@
         <v>1585</v>
       </c>
       <c r="R18" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T18" t="n">
-        <v>1.721787104757E12</v>
+        <v>1.722849429072E12</v>
       </c>
       <c r="AA18" t="s">
         <v>1919</v>
@@ -8128,10 +9318,10 @@
         <v>1586</v>
       </c>
       <c r="R19" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T19" t="n">
-        <v>1.721787123595E12</v>
+        <v>1.723021807575E12</v>
       </c>
       <c r="AA19" t="s">
         <v>1920</v>
@@ -8163,10 +9353,10 @@
         <v>1587</v>
       </c>
       <c r="R20" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.721961357952E12</v>
+        <v>1.723021810772E12</v>
       </c>
       <c r="AA20" t="s">
         <v>1921</v>
@@ -8201,7 +9391,7 @@
         <v>0.0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72170033747E12</v>
+        <v>1.722849453859E12</v>
       </c>
       <c r="AA21" t="s">
         <v>1922</v>
@@ -8233,10 +9423,13 @@
         <v>1589</v>
       </c>
       <c r="R22" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T22" t="n">
-        <v>1.721787148558E12</v>
+        <v>1.72302181486E12</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>1923</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -8265,10 +9458,13 @@
         <v>1590</v>
       </c>
       <c r="R23" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.721961378795E12</v>
+        <v>1.723021819539E12</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1924</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -8300,7 +9496,10 @@
         <v>0.0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.721700430031E12</v>
+        <v>1.722849497812E12</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>1925</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -8329,10 +9528,13 @@
         <v>1591</v>
       </c>
       <c r="R25" t="n">
-        <v>4.65</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="T25" t="n">
-        <v>1.722588096734E12</v>
+        <v>1.723102903759E12</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>1926</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -8361,10 +9563,13 @@
         <v>1592</v>
       </c>
       <c r="R26" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T26" t="n">
-        <v>1.721787264832E12</v>
+        <v>1.722849505112E12</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1927</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -8393,10 +9598,13 @@
         <v>1592</v>
       </c>
       <c r="R27" t="n">
-        <v>3.65</v>
+        <v>3.2499999999999996</v>
       </c>
       <c r="T27" t="n">
-        <v>1.722588127046E12</v>
+        <v>1.723102921753E12</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>1928</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -8428,7 +9636,10 @@
         <v>0.0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.721700660066E12</v>
+        <v>1.722849745397E12</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>1929</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -8457,10 +9668,13 @@
         <v>1594</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.721700666174E12</v>
+        <v>1.723021892475E12</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>1930</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -8492,7 +9706,10 @@
         <v>0.0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.721700671292E12</v>
+        <v>1.722849761704E12</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>1931</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -8524,7 +9741,10 @@
         <v>0.0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.721700675885E12</v>
+        <v>1.722849771015E12</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>1932</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -8556,7 +9776,10 @@
         <v>0.0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.721700682307E12</v>
+        <v>1.722849861788E12</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>1933</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -8585,10 +9808,13 @@
         <v>997</v>
       </c>
       <c r="R33" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T33" t="n">
-        <v>1.721787284709E12</v>
+        <v>1.722849864834E12</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>1934</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -8617,10 +9843,13 @@
         <v>1596</v>
       </c>
       <c r="R34" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T34" t="n">
-        <v>1.721787291106E12</v>
+        <v>1.72284987129E12</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>1935</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -8649,10 +9878,13 @@
         <v>1597</v>
       </c>
       <c r="R35" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T35" t="n">
-        <v>1.721787294922E12</v>
+        <v>1.722849876852E12</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>1936</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -8684,7 +9916,10 @@
         <v>0.0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.721700850735E12</v>
+        <v>1.722849924659E12</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>1926</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -8713,10 +9948,13 @@
         <v>1599</v>
       </c>
       <c r="R37" t="n">
-        <v>4.600000000000001</v>
+        <v>2.8500000000000014</v>
       </c>
       <c r="T37" t="n">
-        <v>1.72258813196E12</v>
+        <v>1.723102951515E12</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>1937</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -8745,10 +9983,13 @@
         <v>1600</v>
       </c>
       <c r="R38" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T38" t="n">
-        <v>1.721787495644E12</v>
+        <v>1.723021929391E12</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>1938</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -8777,10 +10018,13 @@
         <v>1563</v>
       </c>
       <c r="R39" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.72170092437E12</v>
+        <v>1.723021935407E12</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>1939</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -8809,10 +10053,13 @@
         <v>1563</v>
       </c>
       <c r="R40" t="n">
-        <v>3.3</v>
+        <v>2.8999999999999995</v>
       </c>
       <c r="T40" t="n">
-        <v>1.722588135116E12</v>
+        <v>1.723102955017E12</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>1938</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -8841,10 +10088,13 @@
         <v>997</v>
       </c>
       <c r="R41" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T41" t="n">
-        <v>1.721700937156E12</v>
+        <v>1.723021944453E12</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>1940</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -8873,10 +10123,13 @@
         <v>997</v>
       </c>
       <c r="R42" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T42" t="n">
-        <v>1.721961467772E12</v>
+        <v>1.723021947933E12</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>1941</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -8908,7 +10161,10 @@
         <v>0.0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.721700949359E12</v>
+        <v>1.722850022776E12</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>1942</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -8937,10 +10193,13 @@
         <v>1602</v>
       </c>
       <c r="R44" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T44" t="n">
-        <v>1.721787532745E12</v>
+        <v>1.722850025377E12</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>1943</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -8969,10 +10228,13 @@
         <v>1603</v>
       </c>
       <c r="R45" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T45" t="n">
-        <v>1.721788126722E12</v>
+        <v>1.723021949534E12</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>1944</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -9001,10 +10263,13 @@
         <v>1604</v>
       </c>
       <c r="R46" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T46" t="n">
-        <v>1.721701126332E12</v>
+        <v>1.723021952053E12</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>1945</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -9033,10 +10298,13 @@
         <v>1605</v>
       </c>
       <c r="R47" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T47" t="n">
-        <v>1.722588138181E12</v>
+        <v>1.723021955107E12</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>1946</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -9065,10 +10333,13 @@
         <v>1606</v>
       </c>
       <c r="R48" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T48" t="n">
-        <v>1.721788134896E12</v>
+        <v>1.722850046313E12</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>1947</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -9097,10 +10368,13 @@
         <v>1607</v>
       </c>
       <c r="R49" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T49" t="n">
-        <v>1.721788139041E12</v>
+        <v>1.723021957043E12</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>1948</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -9129,10 +10403,13 @@
         <v>1608</v>
       </c>
       <c r="R50" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T50" t="n">
-        <v>1.721788146141E12</v>
+        <v>1.723021965527E12</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>1949</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -9161,10 +10438,10 @@
         <v>1609</v>
       </c>
       <c r="R51" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T51" t="n">
-        <v>1.721701180106E12</v>
+        <v>1.723021968161E12</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -9193,10 +10470,10 @@
         <v>1610</v>
       </c>
       <c r="R52" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T52" t="n">
-        <v>1.721788221404E12</v>
+        <v>1.723021972072E12</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -9225,10 +10502,10 @@
         <v>1611</v>
       </c>
       <c r="R53" t="n">
-        <v>1.65</v>
+        <v>4.65</v>
       </c>
       <c r="T53" t="n">
-        <v>1.721961484711E12</v>
+        <v>1.723102961495E12</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -9257,10 +10534,10 @@
         <v>1612</v>
       </c>
       <c r="R54" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T54" t="n">
-        <v>1.72170121565E12</v>
+        <v>1.723021996753E12</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -9289,10 +10566,10 @@
         <v>1613</v>
       </c>
       <c r="R55" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T55" t="n">
-        <v>1.721701271431E12</v>
+        <v>1.723021998746E12</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -9321,10 +10598,10 @@
         <v>1614</v>
       </c>
       <c r="R56" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T56" t="n">
-        <v>1.721788241276E12</v>
+        <v>1.723022001881E12</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -9356,7 +10633,7 @@
         <v>0.0</v>
       </c>
       <c r="T57" t="n">
-        <v>1.721701285858E12</v>
+        <v>1.722906719884E12</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -9385,10 +10662,10 @@
         <v>1584</v>
       </c>
       <c r="R58" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T58" t="n">
-        <v>1.721788410778E12</v>
+        <v>1.722906727604E12</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -9420,7 +10697,7 @@
         <v>0.0</v>
       </c>
       <c r="T59" t="n">
-        <v>1.721701352067E12</v>
+        <v>1.722906733643E12</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -9452,7 +10729,7 @@
         <v>0.0</v>
       </c>
       <c r="T60" t="n">
-        <v>1.721701369194E12</v>
+        <v>1.722906737162E12</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -9481,10 +10758,10 @@
         <v>1618</v>
       </c>
       <c r="R61" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T61" t="n">
-        <v>1.721788413099E12</v>
+        <v>1.722906741677E12</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -9516,7 +10793,7 @@
         <v>0.0</v>
       </c>
       <c r="T62" t="n">
-        <v>1.721701387274E12</v>
+        <v>1.722906814398E12</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -9545,10 +10822,10 @@
         <v>1620</v>
       </c>
       <c r="R63" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T63" t="n">
-        <v>1.721788416484E12</v>
+        <v>1.722906828806E12</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -9580,7 +10857,7 @@
         <v>0.0</v>
       </c>
       <c r="T64" t="n">
-        <v>1.721701405238E12</v>
+        <v>1.722906835688E12</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -9609,10 +10886,10 @@
         <v>1622</v>
       </c>
       <c r="R65" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T65" t="n">
-        <v>1.721701410279E12</v>
+        <v>1.723022047096E12</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -9641,10 +10918,10 @@
         <v>1623</v>
       </c>
       <c r="R66" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T66" t="n">
-        <v>1.721788419336E12</v>
+        <v>1.722906906684E12</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -9676,7 +10953,7 @@
         <v>0.0</v>
       </c>
       <c r="T67" t="n">
-        <v>1.721701423956E12</v>
+        <v>1.722906912301E12</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -9708,7 +10985,7 @@
         <v>0.0</v>
       </c>
       <c r="T68" t="n">
-        <v>1.721701452737E12</v>
+        <v>1.722906917154E12</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -9737,10 +11014,10 @@
         <v>1626</v>
       </c>
       <c r="R69" t="n">
-        <v>3.65</v>
+        <v>3.2500000000000004</v>
       </c>
       <c r="T69" t="n">
-        <v>1.722588144236E12</v>
+        <v>1.723102969161E12</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -9769,10 +11046,10 @@
         <v>1297</v>
       </c>
       <c r="R70" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T70" t="n">
-        <v>1.721788501846E12</v>
+        <v>1.723022097957E12</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -9804,7 +11081,7 @@
         <v>0.0</v>
       </c>
       <c r="T71" t="n">
-        <v>1.721701559583E12</v>
+        <v>1.722906977013E12</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -9833,10 +11110,10 @@
         <v>1628</v>
       </c>
       <c r="R72" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T72" t="n">
-        <v>1.721961501167E12</v>
+        <v>1.723022100821E12</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -9868,7 +11145,7 @@
         <v>0.0</v>
       </c>
       <c r="T73" t="n">
-        <v>1.721701577192E12</v>
+        <v>1.722908798483E12</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -9897,10 +11174,10 @@
         <v>1630</v>
       </c>
       <c r="R74" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T74" t="n">
-        <v>1.721788509811E12</v>
+        <v>1.723022103769E12</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -9932,7 +11209,7 @@
         <v>0.0</v>
       </c>
       <c r="T75" t="n">
-        <v>1.721701584467E12</v>
+        <v>1.722908818652E12</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -9961,10 +11238,10 @@
         <v>1632</v>
       </c>
       <c r="R76" t="n">
-        <v>2.3</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T76" t="n">
-        <v>1.722588175018E12</v>
+        <v>1.72302228239E12</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -9996,7 +11273,7 @@
         <v>0.0</v>
       </c>
       <c r="T77" t="n">
-        <v>1.721701655858E12</v>
+        <v>1.722908862145E12</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -10028,7 +11305,7 @@
         <v>0.0</v>
       </c>
       <c r="T78" t="n">
-        <v>1.721701659015E12</v>
+        <v>1.722908866221E12</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -10060,7 +11337,7 @@
         <v>0.0</v>
       </c>
       <c r="T79" t="n">
-        <v>1.721701668954E12</v>
+        <v>1.722908875586E12</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -10089,10 +11366,10 @@
         <v>1636</v>
       </c>
       <c r="R80" t="n">
-        <v>3.65</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T80" t="n">
-        <v>1.722588180224E12</v>
+        <v>1.723022304614E12</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -10121,10 +11398,10 @@
         <v>1637</v>
       </c>
       <c r="R81" t="n">
-        <v>3.65</v>
+        <v>3.2500000000000004</v>
       </c>
       <c r="T81" t="n">
-        <v>1.722588185894E12</v>
+        <v>1.723102973733E12</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -10153,10 +11430,10 @@
         <v>566</v>
       </c>
       <c r="R82" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T82" t="n">
-        <v>1.721701688041E12</v>
+        <v>1.723022311387E12</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -10185,10 +11462,10 @@
         <v>1638</v>
       </c>
       <c r="R83" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T83" t="n">
-        <v>1.721961688777E12</v>
+        <v>1.723022321287E12</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -10220,7 +11497,7 @@
         <v>0.0</v>
       </c>
       <c r="T84" t="n">
-        <v>1.721701803815E12</v>
+        <v>1.722909093282E12</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -10252,7 +11529,7 @@
         <v>0.0</v>
       </c>
       <c r="T85" t="n">
-        <v>1.721701810023E12</v>
+        <v>1.722909106699E12</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -10281,10 +11558,10 @@
         <v>1641</v>
       </c>
       <c r="R86" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T86" t="n">
-        <v>1.721789222251E12</v>
+        <v>1.72302242146E12</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -10316,7 +11593,7 @@
         <v>0.0</v>
       </c>
       <c r="T87" t="n">
-        <v>1.721701895882E12</v>
+        <v>1.72290912116E12</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -10348,7 +11625,7 @@
         <v>0.0</v>
       </c>
       <c r="T88" t="n">
-        <v>1.72170190017E12</v>
+        <v>1.722909127284E12</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -10377,10 +11654,10 @@
         <v>1644</v>
       </c>
       <c r="R89" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T89" t="n">
-        <v>1.721701908069E12</v>
+        <v>1.72302242651E12</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -10409,10 +11686,10 @@
         <v>1645</v>
       </c>
       <c r="R90" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T90" t="n">
-        <v>1.721789228613E12</v>
+        <v>1.723022435874E12</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -10444,7 +11721,7 @@
         <v>0.0</v>
       </c>
       <c r="T91" t="n">
-        <v>1.721701917847E12</v>
+        <v>1.722909177906E12</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -10473,10 +11750,10 @@
         <v>1647</v>
       </c>
       <c r="R92" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T92" t="n">
-        <v>1.721961692348E12</v>
+        <v>1.7230224409E12</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -10508,7 +11785,7 @@
         <v>0.0</v>
       </c>
       <c r="T93" t="n">
-        <v>1.72170204006E12</v>
+        <v>1.722909191584E12</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -10537,10 +11814,10 @@
         <v>1649</v>
       </c>
       <c r="R94" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T94" t="n">
-        <v>1.721961698176E12</v>
+        <v>1.723022444656E12</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -10569,10 +11846,10 @@
         <v>1650</v>
       </c>
       <c r="R95" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T95" t="n">
-        <v>1.721961701833E12</v>
+        <v>1.723022446327E12</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -10604,7 +11881,7 @@
         <v>0.0</v>
       </c>
       <c r="T96" t="n">
-        <v>1.721702082865E12</v>
+        <v>1.722909237658E12</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -10633,10 +11910,10 @@
         <v>1652</v>
       </c>
       <c r="R97" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T97" t="n">
-        <v>1.721789279864E12</v>
+        <v>1.722909241446E12</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -10665,10 +11942,10 @@
         <v>1653</v>
       </c>
       <c r="R98" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T98" t="n">
-        <v>1.721789780753E12</v>
+        <v>1.723022450457E12</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -10697,10 +11974,10 @@
         <v>1654</v>
       </c>
       <c r="R99" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T99" t="n">
-        <v>1.721702100417E12</v>
+        <v>1.723022569683E12</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -10729,10 +12006,10 @@
         <v>1655</v>
       </c>
       <c r="R100" t="n">
-        <v>3.3</v>
+        <v>2.8999999999999995</v>
       </c>
       <c r="T100" t="n">
-        <v>1.722588191723E12</v>
+        <v>1.723102977181E12</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -10761,10 +12038,10 @@
         <v>1628</v>
       </c>
       <c r="R101" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T101" t="n">
-        <v>1.721702119366E12</v>
+        <v>1.723022578266E12</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -10796,7 +12073,7 @@
         <v>0.0</v>
       </c>
       <c r="T102" t="n">
-        <v>1.721703294625E12</v>
+        <v>1.722914612665E12</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -10825,10 +12102,10 @@
         <v>607</v>
       </c>
       <c r="R103" t="n">
-        <v>3.65</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T103" t="n">
-        <v>1.722588197927E12</v>
+        <v>1.723022582241E12</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -10857,10 +12134,10 @@
         <v>1657</v>
       </c>
       <c r="R104" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T104" t="n">
-        <v>1.721789993515E12</v>
+        <v>1.723022585713E12</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -10889,10 +12166,10 @@
         <v>1658</v>
       </c>
       <c r="R105" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T105" t="n">
-        <v>1.721961867025E12</v>
+        <v>1.723022592308E12</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -10924,7 +12201,7 @@
         <v>0.0</v>
       </c>
       <c r="T106" t="n">
-        <v>1.721703424531E12</v>
+        <v>1.722914662199E12</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -10953,10 +12230,10 @@
         <v>1660</v>
       </c>
       <c r="R107" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T107" t="n">
-        <v>1.721703428576E12</v>
+        <v>1.723022595159E12</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -10985,10 +12262,10 @@
         <v>1661</v>
       </c>
       <c r="R108" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T108" t="n">
-        <v>1.721790149804E12</v>
+        <v>1.722914714561E12</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -11017,10 +12294,10 @@
         <v>1662</v>
       </c>
       <c r="R109" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T109" t="n">
-        <v>1.721703498057E12</v>
+        <v>1.72302259885E12</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -11049,10 +12326,10 @@
         <v>1663</v>
       </c>
       <c r="R110" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T110" t="n">
-        <v>1.721790154489E12</v>
+        <v>1.722914856395E12</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -11081,10 +12358,10 @@
         <v>1662</v>
       </c>
       <c r="R111" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T111" t="n">
-        <v>1.721790159592E12</v>
+        <v>1.722914860273E12</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -11113,10 +12390,10 @@
         <v>1067</v>
       </c>
       <c r="R112" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T112" t="n">
-        <v>1.721703541575E12</v>
+        <v>1.723022601868E12</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -11145,10 +12422,10 @@
         <v>1664</v>
       </c>
       <c r="R113" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T113" t="n">
-        <v>1.721703597411E12</v>
+        <v>1.723077454695E12</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -11177,10 +12454,10 @@
         <v>1665</v>
       </c>
       <c r="R114" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T114" t="n">
-        <v>1.721961878327E12</v>
+        <v>1.723077462524E12</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -11212,7 +12489,7 @@
         <v>0.0</v>
       </c>
       <c r="T115" t="n">
-        <v>1.721703614183E12</v>
+        <v>1.722914941533E12</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -11244,7 +12521,7 @@
         <v>0.0</v>
       </c>
       <c r="T116" t="n">
-        <v>1.721703617711E12</v>
+        <v>1.722914946742E12</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -11276,7 +12553,7 @@
         <v>0.0</v>
       </c>
       <c r="T117" t="n">
-        <v>1.721703630662E12</v>
+        <v>1.722915053823E12</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -11308,7 +12585,7 @@
         <v>0.0</v>
       </c>
       <c r="T118" t="n">
-        <v>1.721703638135E12</v>
+        <v>1.722927007237E12</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -11337,10 +12614,10 @@
         <v>1670</v>
       </c>
       <c r="R119" t="n">
-        <v>3.65</v>
+        <v>3.2500000000000004</v>
       </c>
       <c r="T119" t="n">
-        <v>1.722588302265E12</v>
+        <v>1.723102980338E12</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -11369,10 +12646,10 @@
         <v>1263</v>
       </c>
       <c r="R120" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T120" t="n">
-        <v>1.721790273646E12</v>
+        <v>1.723077481403E12</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -11401,10 +12678,10 @@
         <v>1671</v>
       </c>
       <c r="R121" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T121" t="n">
-        <v>1.721961986802E12</v>
+        <v>1.723077485484E12</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -11433,10 +12710,10 @@
         <v>1672</v>
       </c>
       <c r="R122" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T122" t="n">
-        <v>1.721790282576E12</v>
+        <v>1.723077494051E12</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -11465,10 +12742,10 @@
         <v>1673</v>
       </c>
       <c r="R123" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T123" t="n">
-        <v>1.722588305231E12</v>
+        <v>1.723077496384E12</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -11497,10 +12774,10 @@
         <v>1674</v>
       </c>
       <c r="R124" t="n">
-        <v>4.300000000000001</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="T124" t="n">
-        <v>1.722588308437E12</v>
+        <v>1.723077501831E12</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -11529,10 +12806,10 @@
         <v>1675</v>
       </c>
       <c r="R125" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T125" t="n">
-        <v>1.721790677023E12</v>
+        <v>1.723077523263E12</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -11561,10 +12838,10 @@
         <v>1173</v>
       </c>
       <c r="R126" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T126" t="n">
-        <v>1.721703706411E12</v>
+        <v>1.723077528827E12</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -11593,10 +12870,10 @@
         <v>1676</v>
       </c>
       <c r="R127" t="n">
-        <v>6.600000000000001</v>
+        <v>4.5000000000000036</v>
       </c>
       <c r="T127" t="n">
-        <v>1.722588311057E12</v>
+        <v>1.723102983483E12</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -11625,10 +12902,10 @@
         <v>1677</v>
       </c>
       <c r="R128" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T128" t="n">
-        <v>1.722588313604E12</v>
+        <v>1.7230775337E12</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -11657,10 +12934,10 @@
         <v>1678</v>
       </c>
       <c r="R129" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T129" t="n">
-        <v>1.721790775023E12</v>
+        <v>1.723077587871E12</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -11689,10 +12966,10 @@
         <v>1679</v>
       </c>
       <c r="R130" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T130" t="n">
-        <v>1.721790983348E12</v>
+        <v>1.72307761608E12</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -11721,10 +12998,10 @@
         <v>1680</v>
       </c>
       <c r="R131" t="n">
-        <v>2.3</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T131" t="n">
-        <v>1.722588320503E12</v>
+        <v>1.72307762141E12</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -11756,7 +13033,7 @@
         <v>0.0</v>
       </c>
       <c r="T132" t="n">
-        <v>1.721704033553E12</v>
+        <v>1.722928462352E12</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -11785,10 +13062,10 @@
         <v>1682</v>
       </c>
       <c r="R133" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T133" t="n">
-        <v>1.721791053432E12</v>
+        <v>1.723077622969E12</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -11820,7 +13097,7 @@
         <v>0.0</v>
       </c>
       <c r="T134" t="n">
-        <v>1.721704045021E12</v>
+        <v>1.722928537322E12</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -11852,7 +13129,7 @@
         <v>0.0</v>
       </c>
       <c r="T135" t="n">
-        <v>1.721704052366E12</v>
+        <v>1.722928540592E12</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -11881,10 +13158,10 @@
         <v>1684</v>
       </c>
       <c r="R136" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T136" t="n">
-        <v>1.721704059933E12</v>
+        <v>1.723077635944E12</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -11916,7 +13193,7 @@
         <v>0.0</v>
       </c>
       <c r="T137" t="n">
-        <v>1.721704066748E12</v>
+        <v>1.72292856462E12</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -11945,10 +13222,10 @@
         <v>1685</v>
       </c>
       <c r="R138" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T138" t="n">
-        <v>1.721791064306E12</v>
+        <v>1.723077645622E12</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -11977,10 +13254,10 @@
         <v>1686</v>
       </c>
       <c r="R139" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T139" t="n">
-        <v>1.721791068609E12</v>
+        <v>1.722928608445E12</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -12009,10 +13286,10 @@
         <v>1687</v>
       </c>
       <c r="R140" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T140" t="n">
-        <v>1.721704090364E12</v>
+        <v>1.723077648132E12</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -12041,10 +13318,10 @@
         <v>1688</v>
       </c>
       <c r="R141" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T141" t="n">
-        <v>1.721791231636E12</v>
+        <v>1.722928945157E12</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -12076,7 +13353,7 @@
         <v>0.0</v>
       </c>
       <c r="T142" t="n">
-        <v>1.721704140855E12</v>
+        <v>1.722928948396E12</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -12108,7 +13385,7 @@
         <v>0.0</v>
       </c>
       <c r="T143" t="n">
-        <v>1.721704158265E12</v>
+        <v>1.722928958393E12</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -12137,10 +13414,10 @@
         <v>1691</v>
       </c>
       <c r="R144" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T144" t="n">
-        <v>1.721962234029E12</v>
+        <v>1.723077650619E12</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -12169,10 +13446,10 @@
         <v>1176</v>
       </c>
       <c r="R145" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T145" t="n">
-        <v>1.721791242549E12</v>
+        <v>1.722928967882E12</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -12204,7 +13481,7 @@
         <v>0.0</v>
       </c>
       <c r="T146" t="n">
-        <v>1.721704183708E12</v>
+        <v>1.722928976223E12</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -12233,10 +13510,10 @@
         <v>1693</v>
       </c>
       <c r="R147" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T147" t="n">
-        <v>1.721704236828E12</v>
+        <v>1.723077666007E12</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -12265,10 +13542,10 @@
         <v>1694</v>
       </c>
       <c r="R148" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T148" t="n">
-        <v>1.721704241718E12</v>
+        <v>1.723077670969E12</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -12297,10 +13574,10 @@
         <v>1695</v>
       </c>
       <c r="R149" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T149" t="n">
-        <v>1.721704244732E12</v>
+        <v>1.723077675213E12</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -12332,7 +13609,7 @@
         <v>0.0</v>
       </c>
       <c r="T150" t="n">
-        <v>1.721704253423E12</v>
+        <v>1.722929292474E12</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -12361,10 +13638,10 @@
         <v>1340</v>
       </c>
       <c r="R151" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T151" t="n">
-        <v>1.721791247157E12</v>
+        <v>1.722929296577E12</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -12396,7 +13673,7 @@
         <v>0.0</v>
       </c>
       <c r="T152" t="n">
-        <v>1.72170438777E12</v>
+        <v>1.722929588873E12</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -12425,10 +13702,10 @@
         <v>1698</v>
       </c>
       <c r="R153" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T153" t="n">
-        <v>1.722588324175E12</v>
+        <v>1.723077678434E12</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -12457,10 +13734,10 @@
         <v>1699</v>
       </c>
       <c r="R154" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T154" t="n">
-        <v>1.721803111423E12</v>
+        <v>1.722929597378E12</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -12489,10 +13766,10 @@
         <v>1700</v>
       </c>
       <c r="R155" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T155" t="n">
-        <v>1.721704415477E12</v>
+        <v>1.723077682382E12</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -12521,10 +13798,10 @@
         <v>1701</v>
       </c>
       <c r="R156" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T156" t="n">
-        <v>1.721803115763E12</v>
+        <v>1.723077684198E12</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -12553,10 +13830,10 @@
         <v>1702</v>
       </c>
       <c r="R157" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T157" t="n">
-        <v>1.722588359671E12</v>
+        <v>1.723077685793E12</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -12585,10 +13862,10 @@
         <v>1700</v>
       </c>
       <c r="R158" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T158" t="n">
-        <v>1.721704430282E12</v>
+        <v>1.723077689758E12</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -12617,10 +13894,10 @@
         <v>1703</v>
       </c>
       <c r="R159" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T159" t="n">
-        <v>1.721803127849E12</v>
+        <v>1.723077727902E12</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -12652,7 +13929,7 @@
         <v>0.0</v>
       </c>
       <c r="T160" t="n">
-        <v>1.721704546719E12</v>
+        <v>1.722930087883E12</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -12684,7 +13961,7 @@
         <v>0.0</v>
       </c>
       <c r="T161" t="n">
-        <v>1.721704552177E12</v>
+        <v>1.722930091969E12</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -12713,10 +13990,10 @@
         <v>1706</v>
       </c>
       <c r="R162" t="n">
-        <v>3.3</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="T162" t="n">
-        <v>1.722588369701E12</v>
+        <v>1.723077732705E12</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -12745,10 +14022,10 @@
         <v>1707</v>
       </c>
       <c r="R163" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T163" t="n">
-        <v>1.721803380147E12</v>
+        <v>1.72293010591E12</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -12777,10 +14054,10 @@
         <v>1708</v>
       </c>
       <c r="R164" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T164" t="n">
-        <v>1.721803385316E12</v>
+        <v>1.723077737062E12</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -12809,10 +14086,10 @@
         <v>1709</v>
       </c>
       <c r="R165" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T165" t="n">
-        <v>1.721803411178E12</v>
+        <v>1.723077756448E12</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -12841,10 +14118,10 @@
         <v>1710</v>
       </c>
       <c r="R166" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T166" t="n">
-        <v>1.721803442208E12</v>
+        <v>1.722930156439E12</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -12873,10 +14150,10 @@
         <v>1711</v>
       </c>
       <c r="R167" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T167" t="n">
-        <v>1.722588372258E12</v>
+        <v>1.723077759429E12</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -12905,10 +14182,10 @@
         <v>1712</v>
       </c>
       <c r="R168" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T168" t="n">
-        <v>1.721803462582E12</v>
+        <v>1.722930163494E12</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -12937,10 +14214,10 @@
         <v>1713</v>
       </c>
       <c r="R169" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T169" t="n">
-        <v>1.72180349574E12</v>
+        <v>1.723077763394E12</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -12969,10 +14246,10 @@
         <v>1714</v>
       </c>
       <c r="R170" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T170" t="n">
-        <v>1.72180350309E12</v>
+        <v>1.722930222462E12</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -13004,7 +14281,7 @@
         <v>0.0</v>
       </c>
       <c r="T171" t="n">
-        <v>1.721704635852E12</v>
+        <v>1.722930241933E12</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -13033,10 +14310,10 @@
         <v>1711</v>
       </c>
       <c r="R172" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T172" t="n">
-        <v>1.721704652079E12</v>
+        <v>1.723077767078E12</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -13065,10 +14342,10 @@
         <v>1716</v>
       </c>
       <c r="R173" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T173" t="n">
-        <v>1.721803623043E12</v>
+        <v>1.723077773414E12</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -13100,7 +14377,7 @@
         <v>0.0</v>
       </c>
       <c r="T174" t="n">
-        <v>1.721704685167E12</v>
+        <v>1.722930279599E12</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -13132,7 +14409,7 @@
         <v>0.0</v>
       </c>
       <c r="T175" t="n">
-        <v>1.721704696026E12</v>
+        <v>1.722930334252E12</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -13164,7 +14441,7 @@
         <v>0.0</v>
       </c>
       <c r="T176" t="n">
-        <v>1.721704705726E12</v>
+        <v>1.72293034339E12</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -13193,10 +14470,10 @@
         <v>1720</v>
       </c>
       <c r="R177" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T177" t="n">
-        <v>1.72170471209E12</v>
+        <v>1.723077787976E12</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -13228,7 +14505,7 @@
         <v>0.0</v>
       </c>
       <c r="T178" t="n">
-        <v>1.721704722896E12</v>
+        <v>1.722930353647E12</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -13257,10 +14534,10 @@
         <v>1722</v>
       </c>
       <c r="R179" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T179" t="n">
-        <v>1.721962452087E12</v>
+        <v>1.723077793879E12</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -13289,10 +14566,10 @@
         <v>1723</v>
       </c>
       <c r="R180" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T180" t="n">
-        <v>1.721804025341E12</v>
+        <v>1.722930368662E12</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -13324,7 +14601,7 @@
         <v>0.0</v>
       </c>
       <c r="T181" t="n">
-        <v>1.721704858965E12</v>
+        <v>1.722930372153E12</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -13353,10 +14630,10 @@
         <v>1699</v>
       </c>
       <c r="R182" t="n">
-        <v>2.3</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="T182" t="n">
-        <v>1.722588376675E12</v>
+        <v>1.723102985645E12</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -13388,7 +14665,7 @@
         <v>0.0</v>
       </c>
       <c r="T183" t="n">
-        <v>1.721704874988E12</v>
+        <v>1.722930390945E12</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -13417,10 +14694,10 @@
         <v>1726</v>
       </c>
       <c r="R184" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T184" t="n">
-        <v>1.721804062386E12</v>
+        <v>1.722930443364E12</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -13449,10 +14726,10 @@
         <v>1727</v>
       </c>
       <c r="R185" t="n">
-        <v>2.3</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="T185" t="n">
-        <v>1.722588382895E12</v>
+        <v>1.723102989947E12</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -13481,10 +14758,10 @@
         <v>1727</v>
       </c>
       <c r="R186" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T186" t="n">
-        <v>1.721804084013E12</v>
+        <v>1.72293045576E12</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -13513,10 +14790,10 @@
         <v>1727</v>
       </c>
       <c r="R187" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T187" t="n">
-        <v>1.721704916364E12</v>
+        <v>1.723077810411E12</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -13548,7 +14825,7 @@
         <v>0.0</v>
       </c>
       <c r="T188" t="n">
-        <v>1.721704924673E12</v>
+        <v>1.722930470255E12</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -13580,7 +14857,7 @@
         <v>0.0</v>
       </c>
       <c r="T189" t="n">
-        <v>1.721704931019E12</v>
+        <v>1.722930479339E12</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -13609,10 +14886,10 @@
         <v>1729</v>
       </c>
       <c r="R190" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T190" t="n">
-        <v>1.721962500467E12</v>
+        <v>1.723077817821E12</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -13641,10 +14918,10 @@
         <v>1729</v>
       </c>
       <c r="R191" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T191" t="n">
-        <v>1.721962507632E12</v>
+        <v>1.723077823093E12</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -13673,10 +14950,10 @@
         <v>1385</v>
       </c>
       <c r="R192" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T192" t="n">
-        <v>1.721804131999E12</v>
+        <v>1.723077825416E12</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -13705,10 +14982,10 @@
         <v>1729</v>
       </c>
       <c r="R193" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T193" t="n">
-        <v>1.72170496246E12</v>
+        <v>1.723077925792E12</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -13737,10 +15014,10 @@
         <v>1729</v>
       </c>
       <c r="R194" t="n">
-        <v>3.65</v>
+        <v>5.95</v>
       </c>
       <c r="T194" t="n">
-        <v>1.722588387277E12</v>
+        <v>1.723102994912E12</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -13769,10 +15046,10 @@
         <v>1729</v>
       </c>
       <c r="R195" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T195" t="n">
-        <v>1.721962777274E12</v>
+        <v>1.723077936279E12</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -13804,7 +15081,7 @@
         <v>0.0</v>
       </c>
       <c r="T196" t="n">
-        <v>1.72170498266E12</v>
+        <v>1.722930530852E12</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -13833,10 +15110,10 @@
         <v>1730</v>
       </c>
       <c r="R197" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T197" t="n">
-        <v>1.721704984762E12</v>
+        <v>1.723077939777E12</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -13868,7 +15145,7 @@
         <v>0.0</v>
       </c>
       <c r="T198" t="n">
-        <v>1.721705038547E12</v>
+        <v>1.722930564525E12</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -13897,10 +15174,10 @@
         <v>1732</v>
       </c>
       <c r="R199" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T199" t="n">
-        <v>1.721962779183E12</v>
+        <v>1.723077942171E12</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -13932,7 +15209,7 @@
         <v>0.0</v>
       </c>
       <c r="T200" t="n">
-        <v>1.721705046788E12</v>
+        <v>1.722930572484E12</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -13961,10 +15238,10 @@
         <v>1729</v>
       </c>
       <c r="R201" t="n">
-        <v>4.300000000000001</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="T201" t="n">
-        <v>1.722588394442E12</v>
+        <v>1.723077945707E12</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -13996,7 +15273,7 @@
         <v>0.0</v>
       </c>
       <c r="T202" t="n">
-        <v>1.721716771397E12</v>
+        <v>1.7229319497E12</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -14025,10 +15302,10 @@
         <v>1734</v>
       </c>
       <c r="R203" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T203" t="n">
-        <v>1.72180451521E12</v>
+        <v>1.722931955194E12</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -14060,7 +15337,7 @@
         <v>0.0</v>
       </c>
       <c r="T204" t="n">
-        <v>1.721716792333E12</v>
+        <v>1.722932007575E12</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -14089,10 +15366,10 @@
         <v>1735</v>
       </c>
       <c r="R205" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T205" t="n">
-        <v>1.721962823061E12</v>
+        <v>1.723077950887E12</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -14124,7 +15401,7 @@
         <v>0.0</v>
       </c>
       <c r="T206" t="n">
-        <v>1.721716811334E12</v>
+        <v>1.722932019396E12</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -14153,10 +15430,10 @@
         <v>1736</v>
       </c>
       <c r="R207" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T207" t="n">
-        <v>1.721804592168E12</v>
+        <v>1.722932026222E12</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -14188,7 +15465,7 @@
         <v>0.0</v>
       </c>
       <c r="T208" t="n">
-        <v>1.721716822919E12</v>
+        <v>1.7229320369E12</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -14220,7 +15497,7 @@
         <v>0.0</v>
       </c>
       <c r="T209" t="n">
-        <v>1.721716829536E12</v>
+        <v>1.722932044011E12</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -14249,10 +15526,10 @@
         <v>1739</v>
       </c>
       <c r="R210" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T210" t="n">
-        <v>1.721716831984E12</v>
+        <v>1.723077954118E12</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -14281,10 +15558,10 @@
         <v>1740</v>
       </c>
       <c r="R211" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T211" t="n">
-        <v>1.721804594427E12</v>
+        <v>1.72293206643E12</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -14313,10 +15590,10 @@
         <v>1741</v>
       </c>
       <c r="R212" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T212" t="n">
-        <v>1.72171685142E12</v>
+        <v>1.723077958253E12</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -14348,7 +15625,7 @@
         <v>0.0</v>
       </c>
       <c r="T213" t="n">
-        <v>1.721716857021E12</v>
+        <v>1.722932086737E12</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -14377,10 +15654,10 @@
         <v>1743</v>
       </c>
       <c r="R214" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T214" t="n">
-        <v>1.721804612789E12</v>
+        <v>1.722932108312E12</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -14412,7 +15689,7 @@
         <v>0.0</v>
       </c>
       <c r="T215" t="n">
-        <v>1.721716886514E12</v>
+        <v>1.722932110158E12</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -14444,7 +15721,7 @@
         <v>0.0</v>
       </c>
       <c r="T216" t="n">
-        <v>1.721716891984E12</v>
+        <v>1.722932152668E12</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -14476,7 +15753,7 @@
         <v>0.0</v>
       </c>
       <c r="T217" t="n">
-        <v>1.72171689581E12</v>
+        <v>1.722932156675E12</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -14505,10 +15782,10 @@
         <v>1747</v>
       </c>
       <c r="R218" t="n">
-        <v>3.65</v>
+        <v>4.250000000000002</v>
       </c>
       <c r="T218" t="n">
-        <v>1.722588476174E12</v>
+        <v>1.723102998446E12</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -14537,10 +15814,10 @@
         <v>1748</v>
       </c>
       <c r="R219" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T219" t="n">
-        <v>1.721804667852E12</v>
+        <v>1.722932182755E12</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -14572,7 +15849,7 @@
         <v>0.0</v>
       </c>
       <c r="T220" t="n">
-        <v>1.721716948148E12</v>
+        <v>1.722932188848E12</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -14601,10 +15878,10 @@
         <v>1750</v>
       </c>
       <c r="R221" t="n">
-        <v>4.300000000000001</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="T221" t="n">
-        <v>1.72258847944E12</v>
+        <v>1.723077965087E12</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -14633,10 +15910,10 @@
         <v>1751</v>
       </c>
       <c r="R222" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T222" t="n">
-        <v>1.721804718347E12</v>
+        <v>1.722932199935E12</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -14668,7 +15945,7 @@
         <v>0.0</v>
       </c>
       <c r="T223" t="n">
-        <v>1.721716982037E12</v>
+        <v>1.722932204956E12</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -14697,10 +15974,10 @@
         <v>1752</v>
       </c>
       <c r="R224" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T224" t="n">
-        <v>1.721804832255E12</v>
+        <v>1.723078045372E12</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -14729,10 +16006,10 @@
         <v>1753</v>
       </c>
       <c r="R225" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T225" t="n">
-        <v>1.722588482294E12</v>
+        <v>1.723078047287E12</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -14761,10 +16038,10 @@
         <v>1190</v>
       </c>
       <c r="R226" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T226" t="n">
-        <v>1.721805756097E12</v>
+        <v>1.722932327035E12</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -14793,10 +16070,10 @@
         <v>1754</v>
       </c>
       <c r="R227" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T227" t="n">
-        <v>1.721805773321E12</v>
+        <v>1.722932333598E12</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -14825,10 +16102,10 @@
         <v>1755</v>
       </c>
       <c r="R228" t="n">
-        <v>4.65</v>
+        <v>3.9000000000000017</v>
       </c>
       <c r="T228" t="n">
-        <v>1.722588495351E12</v>
+        <v>1.723103001256E12</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -14860,7 +16137,7 @@
         <v>0.0</v>
       </c>
       <c r="T229" t="n">
-        <v>1.721717108508E12</v>
+        <v>1.722932348993E12</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -14889,10 +16166,10 @@
         <v>1757</v>
       </c>
       <c r="R230" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T230" t="n">
-        <v>1.721805803198E12</v>
+        <v>1.722932353252E12</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -14924,7 +16201,7 @@
         <v>0.0</v>
       </c>
       <c r="T231" t="n">
-        <v>1.721717122139E12</v>
+        <v>1.722932358984E12</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -14956,7 +16233,7 @@
         <v>0.0</v>
       </c>
       <c r="T232" t="n">
-        <v>1.721717134827E12</v>
+        <v>1.722932362665E12</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -14985,10 +16262,10 @@
         <v>1760</v>
       </c>
       <c r="R233" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T233" t="n">
-        <v>1.721717147435E12</v>
+        <v>1.723078095508E12</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -15017,10 +16294,10 @@
         <v>1761</v>
       </c>
       <c r="R234" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T234" t="n">
-        <v>1.721805807845E12</v>
+        <v>1.723078099231E12</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -15049,10 +16326,10 @@
         <v>1762</v>
       </c>
       <c r="R235" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T235" t="n">
-        <v>1.721805819454E12</v>
+        <v>1.722932508747E12</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -15084,7 +16361,7 @@
         <v>0.0</v>
       </c>
       <c r="T236" t="n">
-        <v>1.721717200257E12</v>
+        <v>1.722932512672E12</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -15113,10 +16390,10 @@
         <v>1764</v>
       </c>
       <c r="R237" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T237" t="n">
-        <v>1.721963056092E12</v>
+        <v>1.723078103066E12</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -15145,10 +16422,10 @@
         <v>1765</v>
       </c>
       <c r="R238" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T238" t="n">
-        <v>1.721717209988E12</v>
+        <v>1.723078105871E12</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -15177,10 +16454,10 @@
         <v>1766</v>
       </c>
       <c r="R239" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T239" t="n">
-        <v>1.721963063097E12</v>
+        <v>1.723078114976E12</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -15209,10 +16486,10 @@
         <v>1767</v>
       </c>
       <c r="R240" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T240" t="n">
-        <v>1.721717242332E12</v>
+        <v>1.723078121286E12</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -15241,10 +16518,10 @@
         <v>1768</v>
       </c>
       <c r="R241" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T241" t="n">
-        <v>1.721717277457E12</v>
+        <v>1.723078131549E12</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -15273,10 +16550,10 @@
         <v>1769</v>
       </c>
       <c r="R242" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T242" t="n">
-        <v>1.721717290766E12</v>
+        <v>1.723078147283E12</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -15305,10 +16582,10 @@
         <v>1770</v>
       </c>
       <c r="R243" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T243" t="n">
-        <v>1.721805863043E12</v>
+        <v>1.722932592774E12</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -15340,7 +16617,7 @@
         <v>0.0</v>
       </c>
       <c r="T244" t="n">
-        <v>1.721717332197E12</v>
+        <v>1.722932601595E12</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -15369,10 +16646,10 @@
         <v>1772</v>
       </c>
       <c r="R245" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T245" t="n">
-        <v>1.721805870602E12</v>
+        <v>1.723078153029E12</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -15401,10 +16678,10 @@
         <v>1773</v>
       </c>
       <c r="R246" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T246" t="n">
-        <v>1.721805877329E12</v>
+        <v>1.723078161969E12</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -15436,7 +16713,7 @@
         <v>0.0</v>
       </c>
       <c r="T247" t="n">
-        <v>1.721717385361E12</v>
+        <v>1.722932633456E12</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -15468,7 +16745,7 @@
         <v>0.0</v>
       </c>
       <c r="T248" t="n">
-        <v>1.721717392483E12</v>
+        <v>1.722932638385E12</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -15497,10 +16774,10 @@
         <v>1776</v>
       </c>
       <c r="R249" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T249" t="n">
-        <v>1.721805887257E12</v>
+        <v>1.72307824473E12</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -15529,10 +16806,10 @@
         <v>1777</v>
       </c>
       <c r="R250" t="n">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="T250" t="n">
-        <v>1.721963093574E12</v>
+        <v>1.723103004736E12</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -15561,10 +16838,10 @@
         <v>825</v>
       </c>
       <c r="R251" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T251" t="n">
-        <v>1.721963099671E12</v>
+        <v>1.723078261971E12</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -15593,10 +16870,10 @@
         <v>1778</v>
       </c>
       <c r="R252" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T252" t="n">
-        <v>1.721805974801E12</v>
+        <v>1.722932676292E12</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -15625,10 +16902,10 @@
         <v>1779</v>
       </c>
       <c r="R253" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T253" t="n">
-        <v>1.721806030778E12</v>
+        <v>1.723078270213E12</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -15657,10 +16934,10 @@
         <v>1780</v>
       </c>
       <c r="R254" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T254" t="n">
-        <v>1.721806032901E12</v>
+        <v>1.723078273397E12</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -15689,10 +16966,10 @@
         <v>1763</v>
       </c>
       <c r="R255" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T255" t="n">
-        <v>1.721806036108E12</v>
+        <v>1.722932708765E12</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -15721,10 +16998,10 @@
         <v>1781</v>
       </c>
       <c r="R256" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T256" t="n">
-        <v>1.721718136174E12</v>
+        <v>1.723078276477E12</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -15753,10 +17030,10 @@
         <v>1782</v>
       </c>
       <c r="R257" t="n">
-        <v>4.65</v>
+        <v>5.5500000000000025</v>
       </c>
       <c r="T257" t="n">
-        <v>1.72258850195E12</v>
+        <v>1.723103064787E12</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -15785,10 +17062,10 @@
         <v>1783</v>
       </c>
       <c r="R258" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T258" t="n">
-        <v>1.721963509327E12</v>
+        <v>1.723078289415E12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -15817,7 +17094,7 @@
         <v>0.0</v>
       </c>
       <c r="T259" t="n">
-        <v>1.721718151599E12</v>
+        <v>1.722932765271E12</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -15846,10 +17123,10 @@
         <v>1784</v>
       </c>
       <c r="R260" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T260" t="n">
-        <v>1.721718154932E12</v>
+        <v>1.723078296235E12</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -15881,7 +17158,7 @@
         <v>0.0</v>
       </c>
       <c r="T261" t="n">
-        <v>1.721718200259E12</v>
+        <v>1.722932780668E12</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -15910,10 +17187,10 @@
         <v>1786</v>
       </c>
       <c r="R262" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T262" t="n">
-        <v>1.72171820476E12</v>
+        <v>1.723078301408E12</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -15942,10 +17219,10 @@
         <v>1787</v>
       </c>
       <c r="R263" t="n">
-        <v>3.65</v>
+        <v>4.250000000000002</v>
       </c>
       <c r="T263" t="n">
-        <v>1.72258850866E12</v>
+        <v>1.723103067752E12</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -15974,10 +17251,10 @@
         <v>1788</v>
       </c>
       <c r="R264" t="n">
-        <v>3.65</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T264" t="n">
-        <v>1.722588516188E12</v>
+        <v>1.723078343497E12</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -16006,10 +17283,10 @@
         <v>1789</v>
       </c>
       <c r="R265" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T265" t="n">
-        <v>1.721963593515E12</v>
+        <v>1.72307834885E12</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -16038,10 +17315,10 @@
         <v>1790</v>
       </c>
       <c r="R266" t="n">
-        <v>7.900000000000002</v>
+        <v>6.6500000000000075</v>
       </c>
       <c r="T266" t="n">
-        <v>1.722588520838E12</v>
+        <v>1.723103069945E12</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -16070,10 +17347,10 @@
         <v>1791</v>
       </c>
       <c r="R267" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T267" t="n">
-        <v>1.721806215381E12</v>
+        <v>1.723078354348E12</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -16102,10 +17379,10 @@
         <v>1792</v>
       </c>
       <c r="R268" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T268" t="n">
-        <v>1.721806220322E12</v>
+        <v>1.722932905294E12</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -16134,10 +17411,10 @@
         <v>1793</v>
       </c>
       <c r="R269" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T269" t="n">
-        <v>1.721963611424E12</v>
+        <v>1.72307836207E12</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -16166,10 +17443,10 @@
         <v>945</v>
       </c>
       <c r="R270" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T270" t="n">
-        <v>1.721718406019E12</v>
+        <v>1.723078369336E12</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -16198,10 +17475,10 @@
         <v>1383</v>
       </c>
       <c r="R271" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T271" t="n">
-        <v>1.721806255476E12</v>
+        <v>1.723078374453E12</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -16230,10 +17507,10 @@
         <v>1794</v>
       </c>
       <c r="R272" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T272" t="n">
-        <v>1.721718426294E12</v>
+        <v>1.723078379014E12</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -16262,10 +17539,10 @@
         <v>1795</v>
       </c>
       <c r="R273" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T273" t="n">
-        <v>1.72180626737E12</v>
+        <v>1.723078386313E12</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -16294,10 +17571,10 @@
         <v>1796</v>
       </c>
       <c r="R274" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T274" t="n">
-        <v>1.721806272513E12</v>
+        <v>1.72293298318E12</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -16326,10 +17603,10 @@
         <v>1797</v>
       </c>
       <c r="R275" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T275" t="n">
-        <v>1.721806283372E12</v>
+        <v>1.723078399313E12</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -16358,10 +17635,10 @@
         <v>1798</v>
       </c>
       <c r="R276" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T276" t="n">
-        <v>1.721718512226E12</v>
+        <v>1.7230784086E12</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -16393,7 +17670,7 @@
         <v>0.0</v>
       </c>
       <c r="T277" t="n">
-        <v>1.721718519326E12</v>
+        <v>1.722933006408E12</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -16425,7 +17702,7 @@
         <v>0.0</v>
       </c>
       <c r="T278" t="n">
-        <v>1.721718523818E12</v>
+        <v>1.722933010478E12</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -16454,10 +17731,10 @@
         <v>1801</v>
       </c>
       <c r="R279" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T279" t="n">
-        <v>1.721963615014E12</v>
+        <v>1.723078413945E12</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -16486,10 +17763,10 @@
         <v>1802</v>
       </c>
       <c r="R280" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T280" t="n">
-        <v>1.72196361728E12</v>
+        <v>1.723078417751E12</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -16518,10 +17795,10 @@
         <v>1803</v>
       </c>
       <c r="R281" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T281" t="n">
-        <v>1.721963623329E12</v>
+        <v>1.723078424215E12</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -16550,10 +17827,10 @@
         <v>1804</v>
       </c>
       <c r="R282" t="n">
-        <v>3.65</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T282" t="n">
-        <v>1.722588525604E12</v>
+        <v>1.72307842672E12</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -16582,10 +17859,10 @@
         <v>1805</v>
       </c>
       <c r="R283" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T283" t="n">
-        <v>1.72180728959E12</v>
+        <v>1.722933029443E12</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -16614,10 +17891,10 @@
         <v>1806</v>
       </c>
       <c r="R284" t="n">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="T284" t="n">
-        <v>1.721963675349E12</v>
+        <v>1.72310307575E12</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -16646,10 +17923,10 @@
         <v>1807</v>
       </c>
       <c r="R285" t="n">
-        <v>2.3</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="T285" t="n">
-        <v>1.722588533555E12</v>
+        <v>1.723103081503E12</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -16678,10 +17955,10 @@
         <v>1808</v>
       </c>
       <c r="R286" t="n">
-        <v>5.900000000000002</v>
+        <v>5.150000000000004</v>
       </c>
       <c r="T286" t="n">
-        <v>1.722588535445E12</v>
+        <v>1.72310308862E12</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -16710,10 +17987,10 @@
         <v>1809</v>
       </c>
       <c r="R287" t="n">
-        <v>4.65</v>
+        <v>5.250000000000002</v>
       </c>
       <c r="T287" t="n">
-        <v>1.722588538662E12</v>
+        <v>1.723103092573E12</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -16742,10 +18019,10 @@
         <v>1810</v>
       </c>
       <c r="R288" t="n">
-        <v>3.3</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="T288" t="n">
-        <v>1.722588625372E12</v>
+        <v>1.723078490194E12</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -16774,10 +18051,10 @@
         <v>1811</v>
       </c>
       <c r="R289" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T289" t="n">
-        <v>1.721718971759E12</v>
+        <v>1.723078496457E12</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -16809,7 +18086,7 @@
         <v>0.0</v>
       </c>
       <c r="T290" t="n">
-        <v>1.721718977297E12</v>
+        <v>1.722933104729E12</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -16841,7 +18118,7 @@
         <v>0.0</v>
       </c>
       <c r="T291" t="n">
-        <v>1.721718981809E12</v>
+        <v>1.722933109872E12</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -16870,10 +18147,10 @@
         <v>1814</v>
       </c>
       <c r="R292" t="n">
-        <v>3.3</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="T292" t="n">
-        <v>1.722588634921E12</v>
+        <v>1.723103094634E12</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -16902,10 +18179,10 @@
         <v>1815</v>
       </c>
       <c r="R293" t="n">
-        <v>2.3</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="T293" t="n">
-        <v>1.722588638679E12</v>
+        <v>1.723103097463E12</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -16934,10 +18211,10 @@
         <v>1816</v>
       </c>
       <c r="R294" t="n">
-        <v>5.950000000000001</v>
+        <v>3.8500000000000028</v>
       </c>
       <c r="T294" t="n">
-        <v>1.722588844572E12</v>
+        <v>1.723103102052E12</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -16966,10 +18243,10 @@
         <v>1817</v>
       </c>
       <c r="R295" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T295" t="n">
-        <v>1.721808748144E12</v>
+        <v>1.723078519435E12</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -16998,10 +18275,10 @@
         <v>1818</v>
       </c>
       <c r="R296" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T296" t="n">
-        <v>1.721719070575E12</v>
+        <v>1.723078525597E12</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -17033,7 +18310,7 @@
         <v>0.0</v>
       </c>
       <c r="T297" t="n">
-        <v>1.721719074144E12</v>
+        <v>1.72293322029E12</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -17065,7 +18342,7 @@
         <v>0.0</v>
       </c>
       <c r="T298" t="n">
-        <v>1.721719080178E12</v>
+        <v>1.722933224652E12</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -17097,7 +18374,7 @@
         <v>0.0</v>
       </c>
       <c r="T299" t="n">
-        <v>1.721719083128E12</v>
+        <v>1.722933227402E12</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -17129,7 +18406,7 @@
         <v>0.0</v>
       </c>
       <c r="T300" t="n">
-        <v>1.721719087091E12</v>
+        <v>1.722933231677E12</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -17158,10 +18435,10 @@
         <v>1823</v>
       </c>
       <c r="R301" t="n">
-        <v>3.65</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T301" t="n">
-        <v>1.722588850684E12</v>
+        <v>1.723078529181E12</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -17190,10 +18467,10 @@
         <v>1824</v>
       </c>
       <c r="R302" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T302" t="n">
-        <v>1.721722202135E12</v>
+        <v>1.723078534525E12</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -17222,10 +18499,10 @@
         <v>1825</v>
       </c>
       <c r="R303" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T303" t="n">
-        <v>1.721722225437E12</v>
+        <v>1.723078539867E12</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -17254,10 +18531,10 @@
         <v>1826</v>
       </c>
       <c r="R304" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T304" t="n">
-        <v>1.721808963236E12</v>
+        <v>1.722933520275E12</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -17286,10 +18563,10 @@
         <v>1827</v>
       </c>
       <c r="R305" t="n">
-        <v>3.65</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="T305" t="n">
-        <v>1.722589272675E12</v>
+        <v>1.723103110448E12</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -17318,10 +18595,10 @@
         <v>1493</v>
       </c>
       <c r="R306" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T306" t="n">
-        <v>1.72180905778E12</v>
+        <v>1.723078549307E12</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -17353,7 +18630,7 @@
         <v>0.0</v>
       </c>
       <c r="T307" t="n">
-        <v>1.721722638287E12</v>
+        <v>1.722933638346E12</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -17385,7 +18662,7 @@
         <v>0.0</v>
       </c>
       <c r="T308" t="n">
-        <v>1.721722661318E12</v>
+        <v>1.722933675942E12</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -17414,10 +18691,10 @@
         <v>1830</v>
       </c>
       <c r="R309" t="n">
-        <v>4.900000000000002</v>
+        <v>3.1500000000000026</v>
       </c>
       <c r="T309" t="n">
-        <v>1.722589277562E12</v>
+        <v>1.723103113189E12</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -17446,10 +18723,10 @@
         <v>1831</v>
       </c>
       <c r="R310" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T310" t="n">
-        <v>1.721722696774E12</v>
+        <v>1.723078556213E12</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -17481,7 +18758,7 @@
         <v>0.0</v>
       </c>
       <c r="T311" t="n">
-        <v>1.721722700112E12</v>
+        <v>1.722933718644E12</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -17510,10 +18787,10 @@
         <v>1833</v>
       </c>
       <c r="R312" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T312" t="n">
-        <v>1.721809119809E12</v>
+        <v>1.723078598955E12</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -17542,10 +18819,10 @@
         <v>1834</v>
       </c>
       <c r="R313" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T313" t="n">
-        <v>1.721963917148E12</v>
+        <v>1.723078603851E12</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -17574,10 +18851,10 @@
         <v>1835</v>
       </c>
       <c r="R314" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T314" t="n">
-        <v>1.721722730405E12</v>
+        <v>1.723078609689E12</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -17609,7 +18886,7 @@
         <v>0.0</v>
       </c>
       <c r="T315" t="n">
-        <v>1.721722779484E12</v>
+        <v>1.722934081441E12</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -17638,10 +18915,10 @@
         <v>1837</v>
       </c>
       <c r="R316" t="n">
-        <v>3.65</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T316" t="n">
-        <v>1.722589283952E12</v>
+        <v>1.723078615623E12</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -17670,10 +18947,10 @@
         <v>1838</v>
       </c>
       <c r="R317" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T317" t="n">
-        <v>1.721810385642E12</v>
+        <v>1.722934113728E12</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -17702,10 +18979,10 @@
         <v>1173</v>
       </c>
       <c r="R318" t="n">
-        <v>4.600000000000001</v>
+        <v>2.8500000000000014</v>
       </c>
       <c r="T318" t="n">
-        <v>1.722589288925E12</v>
+        <v>1.723103116991E12</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -17734,10 +19011,10 @@
         <v>1839</v>
       </c>
       <c r="R319" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T319" t="n">
-        <v>1.722589292297E12</v>
+        <v>1.723078620504E12</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -17766,10 +19043,10 @@
         <v>1840</v>
       </c>
       <c r="R320" t="n">
-        <v>3.65</v>
+        <v>4.250000000000002</v>
       </c>
       <c r="T320" t="n">
-        <v>1.722589294947E12</v>
+        <v>1.723103120928E12</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -17798,10 +19075,10 @@
         <v>1841</v>
       </c>
       <c r="R321" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T321" t="n">
-        <v>1.721810562846E12</v>
+        <v>1.723078628619E12</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -17830,10 +19107,10 @@
         <v>1842</v>
       </c>
       <c r="R322" t="n">
-        <v>3.65</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="T322" t="n">
-        <v>1.722589301784E12</v>
+        <v>1.723103125227E12</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -17862,10 +19139,10 @@
         <v>1843</v>
       </c>
       <c r="R323" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T323" t="n">
-        <v>1.721723468311E12</v>
+        <v>1.72307865403E12</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -17894,10 +19171,10 @@
         <v>1844</v>
       </c>
       <c r="R324" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T324" t="n">
-        <v>1.721964080217E12</v>
+        <v>1.72307865577E12</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -17926,10 +19203,10 @@
         <v>1845</v>
       </c>
       <c r="R325" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T325" t="n">
-        <v>1.721810692389E12</v>
+        <v>1.723078663599E12</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -17958,10 +19235,10 @@
         <v>1846</v>
       </c>
       <c r="R326" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T326" t="n">
-        <v>1.721810697728E12</v>
+        <v>1.723078667883E12</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -17990,10 +19267,10 @@
         <v>1847</v>
       </c>
       <c r="R327" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T327" t="n">
-        <v>1.72196408453E12</v>
+        <v>1.723078672393E12</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -18025,7 +19302,7 @@
         <v>0.0</v>
       </c>
       <c r="T328" t="n">
-        <v>1.721723544401E12</v>
+        <v>1.722934355983E12</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -18057,7 +19334,7 @@
         <v>0.0</v>
       </c>
       <c r="T329" t="n">
-        <v>1.721723550135E12</v>
+        <v>1.722934362488E12</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -18086,10 +19363,10 @@
         <v>1850</v>
       </c>
       <c r="R330" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T330" t="n">
-        <v>1.721723554028E12</v>
+        <v>1.723078674772E12</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -18118,10 +19395,10 @@
         <v>1851</v>
       </c>
       <c r="R331" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T331" t="n">
-        <v>1.721723560515E12</v>
+        <v>1.723078684057E12</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -18153,7 +19430,7 @@
         <v>0.0</v>
       </c>
       <c r="T332" t="n">
-        <v>1.721723573721E12</v>
+        <v>1.722934437974E12</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -18182,10 +19459,10 @@
         <v>1853</v>
       </c>
       <c r="R333" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T333" t="n">
-        <v>1.721723606902E12</v>
+        <v>1.723078918179E12</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -18214,10 +19491,10 @@
         <v>1527</v>
       </c>
       <c r="R334" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T334" t="n">
-        <v>1.721723640768E12</v>
+        <v>1.723079875837E12</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -18246,10 +19523,10 @@
         <v>1854</v>
       </c>
       <c r="R335" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T335" t="n">
-        <v>1.721723645449E12</v>
+        <v>1.723079881896E12</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -18278,10 +19555,10 @@
         <v>1855</v>
       </c>
       <c r="R336" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T336" t="n">
-        <v>1.721964093025E12</v>
+        <v>1.723079886972E12</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -18310,10 +19587,10 @@
         <v>1856</v>
       </c>
       <c r="R337" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T337" t="n">
-        <v>1.722589393801E12</v>
+        <v>1.723079889099E12</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -18342,10 +19619,10 @@
         <v>1857</v>
       </c>
       <c r="R338" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="T338" t="n">
-        <v>1.721964127348E12</v>
+        <v>1.723079892539E12</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -18374,10 +19651,10 @@
         <v>1643</v>
       </c>
       <c r="R339" t="n">
-        <v>3.65</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="T339" t="n">
-        <v>1.722589491486E12</v>
+        <v>1.723103136627E12</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -18406,10 +19683,10 @@
         <v>1858</v>
       </c>
       <c r="R340" t="n">
-        <v>4.900000000000002</v>
+        <v>3.1500000000000026</v>
       </c>
       <c r="T340" t="n">
-        <v>1.722589939479E12</v>
+        <v>1.723103138699E12</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -18438,10 +19715,10 @@
         <v>1859</v>
       </c>
       <c r="R341" t="n">
-        <v>7.950000000000001</v>
+        <v>5.100000000000005</v>
       </c>
       <c r="T341" t="n">
-        <v>1.722589943945E12</v>
+        <v>1.723103144921E12</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -18470,10 +19747,10 @@
         <v>1860</v>
       </c>
       <c r="R342" t="n">
-        <v>5.900000000000002</v>
+        <v>5.150000000000004</v>
       </c>
       <c r="T342" t="n">
-        <v>1.722589946654E12</v>
+        <v>1.72310315124E12</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -18502,10 +19779,10 @@
         <v>1861</v>
       </c>
       <c r="R343" t="n">
-        <v>4.900000000000002</v>
+        <v>5.150000000000004</v>
       </c>
       <c r="T343" t="n">
-        <v>1.722590000073E12</v>
+        <v>1.723103162939E12</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -18537,7 +19814,7 @@
         <v>0.0</v>
       </c>
       <c r="T344" t="n">
-        <v>1.721723828391E12</v>
+        <v>1.72293580765E12</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -18569,7 +19846,7 @@
         <v>0.0</v>
       </c>
       <c r="T345" t="n">
-        <v>1.721723834404E12</v>
+        <v>1.722935811632E12</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -18598,10 +19875,10 @@
         <v>1864</v>
       </c>
       <c r="R346" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T346" t="n">
-        <v>1.7225900027E12</v>
+        <v>1.723079931761E12</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -18630,10 +19907,10 @@
         <v>1865</v>
       </c>
       <c r="R347" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T347" t="n">
-        <v>1.721723863779E12</v>
+        <v>1.723079949762E12</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -18662,10 +19939,10 @@
         <v>1866</v>
       </c>
       <c r="R348" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T348" t="n">
-        <v>1.72181122415E12</v>
+        <v>1.723079957504E12</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -18694,10 +19971,10 @@
         <v>1867</v>
       </c>
       <c r="R349" t="n">
-        <v>3.65</v>
+        <v>5.95</v>
       </c>
       <c r="T349" t="n">
-        <v>1.722590008422E12</v>
+        <v>1.723103165923E12</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -18729,7 +20006,7 @@
         <v>0.0</v>
       </c>
       <c r="T350" t="n">
-        <v>1.721724006283E12</v>
+        <v>1.722935862905E12</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -18758,10 +20035,10 @@
         <v>1536</v>
       </c>
       <c r="R351" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T351" t="n">
-        <v>1.721811293318E12</v>
+        <v>1.722935866902E12</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -18793,7 +20070,7 @@
         <v>0.0</v>
       </c>
       <c r="T352" t="n">
-        <v>1.721724117427E12</v>
+        <v>1.722935871894E12</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -18822,10 +20099,10 @@
         <v>1869</v>
       </c>
       <c r="R353" t="n">
-        <v>3.65</v>
+        <v>5.250000000000002</v>
       </c>
       <c r="T353" t="n">
-        <v>1.722590135675E12</v>
+        <v>1.723103167986E12</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -18854,10 +20131,10 @@
         <v>1870</v>
       </c>
       <c r="R354" t="n">
-        <v>1.65</v>
+        <v>4.65</v>
       </c>
       <c r="T354" t="n">
-        <v>1.721964203488E12</v>
+        <v>1.723103172735E12</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -18886,10 +20163,10 @@
         <v>1871</v>
       </c>
       <c r="R355" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T355" t="n">
-        <v>1.721964210789E12</v>
+        <v>1.723079981816E12</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -18918,10 +20195,10 @@
         <v>1872</v>
       </c>
       <c r="R356" t="n">
-        <v>3.3</v>
+        <v>4.25</v>
       </c>
       <c r="T356" t="n">
-        <v>1.722590141998E12</v>
+        <v>1.723103177117E12</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -18950,10 +20227,10 @@
         <v>1873</v>
       </c>
       <c r="R357" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T357" t="n">
-        <v>1.721724305866E12</v>
+        <v>1.72308040751E12</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -18982,10 +20259,10 @@
         <v>1874</v>
       </c>
       <c r="R358" t="n">
-        <v>3.65</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T358" t="n">
-        <v>1.722590147769E12</v>
+        <v>1.723080409483E12</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -19014,10 +20291,10 @@
         <v>870</v>
       </c>
       <c r="R359" t="n">
-        <v>0.65</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T359" t="n">
-        <v>1.721811571116E12</v>
+        <v>1.722935929953E12</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -19049,7 +20326,7 @@
         <v>0.0</v>
       </c>
       <c r="T360" t="n">
-        <v>1.721724346954E12</v>
+        <v>1.722935933048E12</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -19078,10 +20355,10 @@
         <v>1876</v>
       </c>
       <c r="R361" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T361" t="n">
-        <v>1.721811581067E12</v>
+        <v>1.723080461678E12</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -19110,10 +20387,10 @@
         <v>1877</v>
       </c>
       <c r="R362" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T362" t="n">
-        <v>1.721724394051E12</v>
+        <v>1.72308046996E12</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -19142,10 +20419,10 @@
         <v>1878</v>
       </c>
       <c r="R363" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T363" t="n">
-        <v>1.721964231127E12</v>
+        <v>1.723080472349E12</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -19174,10 +20451,10 @@
         <v>1879</v>
       </c>
       <c r="R364" t="n">
-        <v>2.3</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="T364" t="n">
-        <v>1.722590523096E12</v>
+        <v>1.723103180351E12</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -19206,10 +20483,10 @@
         <v>1880</v>
       </c>
       <c r="R365" t="n">
-        <v>2.3</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T365" t="n">
-        <v>1.722590526927E12</v>
+        <v>1.723080482766E12</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -19238,10 +20515,10 @@
         <v>1881</v>
       </c>
       <c r="R366" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T366" t="n">
-        <v>1.721964312578E12</v>
+        <v>1.723080506279E12</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -19270,10 +20547,10 @@
         <v>1882</v>
       </c>
       <c r="R367" t="n">
-        <v>5.900000000000002</v>
+        <v>6.350000000000007</v>
       </c>
       <c r="T367" t="n">
-        <v>1.722590547526E12</v>
+        <v>1.723103195739E12</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -19305,7 +20582,7 @@
         <v>0.0</v>
       </c>
       <c r="T368" t="n">
-        <v>1.721724484134E12</v>
+        <v>1.722936077826E12</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -19334,10 +20611,10 @@
         <v>1884</v>
       </c>
       <c r="R369" t="n">
-        <v>5.250000000000002</v>
+        <v>5.150000000000004</v>
       </c>
       <c r="T369" t="n">
-        <v>1.722590549429E12</v>
+        <v>1.723103201719E12</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -19366,10 +20643,10 @@
         <v>1885</v>
       </c>
       <c r="R370" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T370" t="n">
-        <v>1.72172451612E12</v>
+        <v>1.723080516534E12</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -19398,10 +20675,10 @@
         <v>1886</v>
       </c>
       <c r="R371" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T371" t="n">
-        <v>1.7218671077E12</v>
+        <v>1.723080520472E12</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -19430,10 +20707,10 @@
         <v>1887</v>
       </c>
       <c r="R372" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T372" t="n">
-        <v>1.721867202931E12</v>
+        <v>1.723080523331E12</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -19465,7 +20742,7 @@
         <v>0.0</v>
       </c>
       <c r="T373" t="n">
-        <v>1.721724538343E12</v>
+        <v>1.722936126771E12</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -19497,7 +20774,7 @@
         <v>0.0</v>
       </c>
       <c r="T374" t="n">
-        <v>1.721724546073E12</v>
+        <v>1.722936129816E12</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -19526,10 +20803,10 @@
         <v>1292</v>
       </c>
       <c r="R375" t="n">
-        <v>4.600000000000001</v>
+        <v>4.200000000000001</v>
       </c>
       <c r="T375" t="n">
-        <v>1.722590552685E12</v>
+        <v>1.723103206569E12</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -19561,7 +20838,7 @@
         <v>0.0</v>
       </c>
       <c r="T376" t="n">
-        <v>1.721724708494E12</v>
+        <v>1.722936138362E12</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -19590,10 +20867,10 @@
         <v>1890</v>
       </c>
       <c r="R377" t="n">
-        <v>5.900000000000002</v>
+        <v>5.100000000000005</v>
       </c>
       <c r="T377" t="n">
-        <v>1.722590555095E12</v>
+        <v>1.723103299313E12</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -19622,10 +20899,10 @@
         <v>1551</v>
       </c>
       <c r="R378" t="n">
-        <v>3.3</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="T378" t="n">
-        <v>1.722590561088E12</v>
+        <v>1.723080541232E12</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -19654,10 +20931,10 @@
         <v>1891</v>
       </c>
       <c r="R379" t="n">
-        <v>7.250000000000002</v>
+        <v>5.150000000000004</v>
       </c>
       <c r="T379" t="n">
-        <v>1.722590564072E12</v>
+        <v>1.723103302348E12</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -19686,10 +20963,10 @@
         <v>1892</v>
       </c>
       <c r="R380" t="n">
-        <v>6.600000000000001</v>
+        <v>5.150000000000004</v>
       </c>
       <c r="T380" t="n">
-        <v>1.722590568311E12</v>
+        <v>1.723103305166E12</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -19718,10 +20995,10 @@
         <v>1566</v>
       </c>
       <c r="R381" t="n">
-        <v>8.600000000000001</v>
+        <v>5.950000000000008</v>
       </c>
       <c r="T381" t="n">
-        <v>1.722590571403E12</v>
+        <v>1.723103307579E12</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -19750,10 +21027,10 @@
         <v>1893</v>
       </c>
       <c r="R382" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T382" t="n">
-        <v>1.721892009361E12</v>
+        <v>1.723080551815E12</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -19785,7 +21062,7 @@
         <v>0.0</v>
       </c>
       <c r="T383" t="n">
-        <v>1.721725288045E12</v>
+        <v>1.722936209124E12</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -19814,10 +21091,10 @@
         <v>1895</v>
       </c>
       <c r="R384" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T384" t="n">
-        <v>1.721892012623E12</v>
+        <v>1.723080556114E12</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -19846,10 +21123,10 @@
         <v>1218</v>
       </c>
       <c r="R385" t="n">
-        <v>7.250000000000002</v>
+        <v>5.100000000000005</v>
       </c>
       <c r="T385" t="n">
-        <v>1.722590574938E12</v>
+        <v>1.723103311974E12</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -19881,7 +21158,7 @@
         <v>0.0</v>
       </c>
       <c r="T386" t="n">
-        <v>1.721725298802E12</v>
+        <v>1.722936237418E12</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -19910,10 +21187,10 @@
         <v>1896</v>
       </c>
       <c r="R387" t="n">
-        <v>3.3</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="T387" t="n">
-        <v>1.722590580602E12</v>
+        <v>1.723080566108E12</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -19942,10 +21219,10 @@
         <v>1897</v>
       </c>
       <c r="R388" t="n">
-        <v>4.65</v>
+        <v>3.9000000000000017</v>
       </c>
       <c r="T388" t="n">
-        <v>1.722590588864E12</v>
+        <v>1.723103316921E12</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -19974,10 +21251,10 @@
         <v>1898</v>
       </c>
       <c r="R389" t="n">
-        <v>6.600000000000001</v>
+        <v>4.5000000000000036</v>
       </c>
       <c r="T389" t="n">
-        <v>1.722590591586E12</v>
+        <v>1.723103321727E12</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -20006,10 +21283,10 @@
         <v>1866</v>
       </c>
       <c r="R390" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T390" t="n">
-        <v>1.721892149019E12</v>
+        <v>1.723080661238E12</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -20038,10 +21315,10 @@
         <v>1895</v>
       </c>
       <c r="R391" t="n">
-        <v>4.300000000000001</v>
+        <v>3.9000000000000017</v>
       </c>
       <c r="T391" t="n">
-        <v>1.722590597311E12</v>
+        <v>1.723103324039E12</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -20070,10 +21347,10 @@
         <v>873</v>
       </c>
       <c r="R392" t="n">
-        <v>5.950000000000001</v>
+        <v>5.5000000000000036</v>
       </c>
       <c r="T392" t="n">
-        <v>1.722590605299E12</v>
+        <v>1.723103331008E12</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -20102,10 +21379,10 @@
         <v>1895</v>
       </c>
       <c r="R393" t="n">
-        <v>5.900000000000002</v>
+        <v>5.150000000000004</v>
       </c>
       <c r="T393" t="n">
-        <v>1.722590610667E12</v>
+        <v>1.723103335817E12</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -20134,10 +21411,10 @@
         <v>1895</v>
       </c>
       <c r="R394" t="n">
-        <v>5.900000000000002</v>
+        <v>3.800000000000004</v>
       </c>
       <c r="T394" t="n">
-        <v>1.722590611575E12</v>
+        <v>1.723103339043E12</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -20169,7 +21446,7 @@
         <v>0.0</v>
       </c>
       <c r="T395" t="n">
-        <v>1.7217253679E12</v>
+        <v>1.722936290132E12</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -20198,10 +21475,10 @@
         <v>1900</v>
       </c>
       <c r="R396" t="n">
-        <v>4.600000000000001</v>
+        <v>2.8500000000000014</v>
       </c>
       <c r="T396" t="n">
-        <v>1.722590613935E12</v>
+        <v>1.723103341346E12</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -20221,7 +21498,7 @@
         <v>0.0</v>
       </c>
       <c r="T397" t="n">
-        <v>1.721725373717E12</v>
+        <v>1.722936296496E12</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -20241,7 +21518,7 @@
         <v>0.0</v>
       </c>
       <c r="T398" t="n">
-        <v>1.721725378299E12</v>
+        <v>1.722936300748E12</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -20258,10 +21535,10 @@
         <v>4</v>
       </c>
       <c r="R399" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T399" t="n">
-        <v>1.721725383232E12</v>
+        <v>1.723080700363E12</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -20278,10 +21555,10 @@
         <v>4</v>
       </c>
       <c r="R400" t="n">
-        <v>0.65</v>
+        <v>2.65</v>
       </c>
       <c r="T400" t="n">
-        <v>1.721892341014E12</v>
+        <v>1.723080703681E12</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -20298,10 +21575,10 @@
         <v>4</v>
       </c>
       <c r="R401" t="n">
-        <v>0.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T401" t="n">
-        <v>1.721892343181E12</v>
+        <v>1.723080705873E12</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -20318,10 +21595,10 @@
         <v>3</v>
       </c>
       <c r="R402" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T402" t="n">
-        <v>1.721892345874E12</v>
+        <v>1.722990308959E12</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -20341,7 +21618,7 @@
         <v>0.0</v>
       </c>
       <c r="T403" t="n">
-        <v>1.721725416383E12</v>
+        <v>1.722848014541E12</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -20361,7 +21638,7 @@
         <v>0.0</v>
       </c>
       <c r="T404" t="n">
-        <v>1.721725418736E12</v>
+        <v>1.722848017107E12</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -20381,7 +21658,7 @@
         <v>0.0</v>
       </c>
       <c r="T405" t="n">
-        <v>1.721725422821E12</v>
+        <v>1.722848021385E12</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -20398,10 +21675,10 @@
         <v>3</v>
       </c>
       <c r="R406" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="T406" t="n">
-        <v>1.721725425287E12</v>
+        <v>1.723103343993E12</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -20418,10 +21695,10 @@
         <v>4</v>
       </c>
       <c r="R407" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T407" t="n">
-        <v>1.721892347848E12</v>
+        <v>1.723080709579E12</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -20438,10 +21715,10 @@
         <v>4</v>
       </c>
       <c r="R408" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T408" t="n">
-        <v>1.721892350125E12</v>
+        <v>1.722990323177E12</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -20458,10 +21735,10 @@
         <v>4</v>
       </c>
       <c r="R409" t="n">
-        <v>0.65</v>
+        <v>2.3</v>
       </c>
       <c r="T409" t="n">
-        <v>1.721892352968E12</v>
+        <v>1.723080713043E12</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -20478,10 +21755,10 @@
         <v>4</v>
       </c>
       <c r="R410" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T410" t="n">
-        <v>1.721892355061E12</v>
+        <v>1.723080715067E12</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -20498,10 +21775,10 @@
         <v>4</v>
       </c>
       <c r="R411" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T411" t="n">
-        <v>1.721725447675E12</v>
+        <v>1.722990337303E12</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -20521,7 +21798,7 @@
         <v>0.0</v>
       </c>
       <c r="T412" t="n">
-        <v>1.72172545122E12</v>
+        <v>1.722848052438E12</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -20541,7 +21818,7 @@
         <v>0.0</v>
       </c>
       <c r="T413" t="n">
-        <v>1.721725456026E12</v>
+        <v>1.722848070349E12</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -20561,7 +21838,7 @@
         <v>0.0</v>
       </c>
       <c r="T414" t="n">
-        <v>1.721725461284E12</v>
+        <v>1.722848076146E12</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -20581,7 +21858,7 @@
         <v>0.0</v>
       </c>
       <c r="T415" t="n">
-        <v>1.721725463589E12</v>
+        <v>1.722848099748E12</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -20598,10 +21875,10 @@
         <v>4</v>
       </c>
       <c r="R416" t="n">
-        <v>0.65</v>
+        <v>2.3</v>
       </c>
       <c r="T416" t="n">
-        <v>1.721892357731E12</v>
+        <v>1.723080718198E12</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -20618,10 +21895,10 @@
         <v>3</v>
       </c>
       <c r="R417" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="T417" t="n">
-        <v>1.721725495339E12</v>
+        <v>1.723103345833E12</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -20638,10 +21915,10 @@
         <v>4</v>
       </c>
       <c r="R418" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T418" t="n">
-        <v>1.72189235964E12</v>
+        <v>1.722990351746E12</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -20661,7 +21938,7 @@
         <v>0.0</v>
       </c>
       <c r="T419" t="n">
-        <v>1.72172556396E12</v>
+        <v>1.722848109976E12</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -20678,10 +21955,10 @@
         <v>4</v>
       </c>
       <c r="R420" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T420" t="n">
-        <v>1.721892361075E12</v>
+        <v>1.722990354486E12</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -20701,7 +21978,7 @@
         <v>0.0</v>
       </c>
       <c r="T421" t="n">
-        <v>1.721725572316E12</v>
+        <v>1.7228481159E12</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -20718,10 +21995,10 @@
         <v>4</v>
       </c>
       <c r="R422" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T422" t="n">
-        <v>1.721892362521E12</v>
+        <v>1.723080721357E12</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -20741,7 +22018,7 @@
         <v>0.0</v>
       </c>
       <c r="T423" t="n">
-        <v>1.721725577778E12</v>
+        <v>1.722848120157E12</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -20761,7 +22038,7 @@
         <v>0.0</v>
       </c>
       <c r="T424" t="n">
-        <v>1.721725605976E12</v>
+        <v>1.722848124919E12</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -20778,10 +22055,10 @@
         <v>4</v>
       </c>
       <c r="R425" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T425" t="n">
-        <v>1.721892364641E12</v>
+        <v>1.723080723312E12</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -20798,10 +22075,10 @@
         <v>4</v>
       </c>
       <c r="R426" t="n">
-        <v>0.65</v>
+        <v>2.3</v>
       </c>
       <c r="T426" t="n">
-        <v>1.721892368266E12</v>
+        <v>1.723080725353E12</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -20818,10 +22095,10 @@
         <v>3</v>
       </c>
       <c r="R427" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T427" t="n">
-        <v>1.721964518972E12</v>
+        <v>1.723080728088E12</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -20838,10 +22115,10 @@
         <v>4</v>
       </c>
       <c r="R428" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T428" t="n">
-        <v>1.721892374418E12</v>
+        <v>1.723080730844E12</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -20861,7 +22138,7 @@
         <v>0.0</v>
       </c>
       <c r="T429" t="n">
-        <v>1.721725713531E12</v>
+        <v>1.722848147258E12</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -20881,7 +22158,7 @@
         <v>0.0</v>
       </c>
       <c r="T430" t="n">
-        <v>1.721725715643E12</v>
+        <v>1.722848149591E12</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -20898,10 +22175,10 @@
         <v>4</v>
       </c>
       <c r="R431" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T431" t="n">
-        <v>1.721725719128E12</v>
+        <v>1.722990415452E12</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -20918,10 +22195,10 @@
         <v>3</v>
       </c>
       <c r="R432" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T432" t="n">
-        <v>1.721892377392E12</v>
+        <v>1.722990417859E12</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -20938,10 +22215,10 @@
         <v>4</v>
       </c>
       <c r="R433" t="n">
-        <v>2.3</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T433" t="n">
-        <v>1.722590616568E12</v>
+        <v>1.72308073805E12</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -20961,7 +22238,7 @@
         <v>0.0</v>
       </c>
       <c r="T434" t="n">
-        <v>1.721725778792E12</v>
+        <v>1.722848275298E12</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -20981,7 +22258,7 @@
         <v>0.0</v>
       </c>
       <c r="T435" t="n">
-        <v>1.721725783374E12</v>
+        <v>1.722848279533E12</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -20998,10 +22275,10 @@
         <v>4</v>
       </c>
       <c r="R436" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T436" t="n">
-        <v>1.721725788084E12</v>
+        <v>1.722990645107E12</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -21018,10 +22295,10 @@
         <v>3</v>
       </c>
       <c r="R437" t="n">
-        <v>0.0</v>
+        <v>1.65</v>
       </c>
       <c r="T437" t="n">
-        <v>1.721725791187E12</v>
+        <v>1.723080740253E12</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -21041,7 +22318,7 @@
         <v>0.0</v>
       </c>
       <c r="T438" t="n">
-        <v>1.721725793855E12</v>
+        <v>1.722848287699E12</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -21061,7 +22338,7 @@
         <v>0.0</v>
       </c>
       <c r="T439" t="n">
-        <v>1.721725796434E12</v>
+        <v>1.722848288952E12</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -21078,10 +22355,10 @@
         <v>4</v>
       </c>
       <c r="R440" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T440" t="n">
-        <v>1.7218925428E12</v>
+        <v>1.723080742042E12</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -21098,10 +22375,10 @@
         <v>4</v>
       </c>
       <c r="R441" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T441" t="n">
-        <v>1.721892545195E12</v>
+        <v>1.723080743946E12</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -21121,7 +22398,7 @@
         <v>0.0</v>
       </c>
       <c r="T442" t="n">
-        <v>1.721725848617E12</v>
+        <v>1.722848452689E12</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -21141,7 +22418,7 @@
         <v>0.0</v>
       </c>
       <c r="T443" t="n">
-        <v>1.721725851185E12</v>
+        <v>1.722848454605E12</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -21161,7 +22438,7 @@
         <v>0.0</v>
       </c>
       <c r="T444" t="n">
-        <v>1.721725862494E12</v>
+        <v>1.722848456977E12</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -21178,10 +22455,10 @@
         <v>4</v>
       </c>
       <c r="R445" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T445" t="n">
-        <v>1.721964526808E12</v>
+        <v>1.723080746133E12</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -21201,7 +22478,7 @@
         <v>0.0</v>
       </c>
       <c r="T446" t="n">
-        <v>1.721725945228E12</v>
+        <v>1.722848480901E12</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -21221,7 +22498,7 @@
         <v>0.0</v>
       </c>
       <c r="T447" t="n">
-        <v>1.721725947634E12</v>
+        <v>1.722848482775E12</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -21241,7 +22518,7 @@
         <v>0.0</v>
       </c>
       <c r="T448" t="n">
-        <v>1.72172595029E12</v>
+        <v>1.722848484273E12</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -21261,7 +22538,7 @@
         <v>0.0</v>
       </c>
       <c r="T449" t="n">
-        <v>1.72172595378E12</v>
+        <v>1.722848485957E12</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -21278,10 +22555,10 @@
         <v>4</v>
       </c>
       <c r="R450" t="n">
-        <v>0.65</v>
+        <v>2.3</v>
       </c>
       <c r="T450" t="n">
-        <v>1.721892552476E12</v>
+        <v>1.72308074975E12</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -21298,10 +22575,10 @@
         <v>4</v>
       </c>
       <c r="R451" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T451" t="n">
-        <v>1.721892555198E12</v>
+        <v>1.72308075367E12</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -21318,10 +22595,10 @@
         <v>3</v>
       </c>
       <c r="R452" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T452" t="n">
-        <v>1.721725977007E12</v>
+        <v>1.722990665644E12</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -21341,7 +22618,7 @@
         <v>0.0</v>
       </c>
       <c r="T453" t="n">
-        <v>1.721725979996E12</v>
+        <v>1.72284849494E12</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -21358,10 +22635,10 @@
         <v>4</v>
       </c>
       <c r="R454" t="n">
-        <v>0.65</v>
+        <v>3.3</v>
       </c>
       <c r="T454" t="n">
-        <v>1.721892557908E12</v>
+        <v>1.723103348039E12</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -21381,7 +22658,7 @@
         <v>0.0</v>
       </c>
       <c r="T455" t="n">
-        <v>1.721725985288E12</v>
+        <v>1.722848498918E12</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -21398,10 +22675,10 @@
         <v>4</v>
       </c>
       <c r="R456" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T456" t="n">
-        <v>1.721892560041E12</v>
+        <v>1.723080758664E12</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -21418,10 +22695,10 @@
         <v>4</v>
       </c>
       <c r="R457" t="n">
-        <v>1.65</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T457" t="n">
-        <v>1.721964528708E12</v>
+        <v>1.723080760779E12</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -21441,7 +22718,7 @@
         <v>0.0</v>
       </c>
       <c r="T458" t="n">
-        <v>1.721725996588E12</v>
+        <v>1.722848578878E12</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -21458,10 +22735,10 @@
         <v>3</v>
       </c>
       <c r="R459" t="n">
-        <v>4.900000000000002</v>
+        <v>2.8000000000000025</v>
       </c>
       <c r="T459" t="n">
-        <v>1.722590617715E12</v>
+        <v>1.723103349256E12</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -21481,7 +22758,7 @@
         <v>0.0</v>
       </c>
       <c r="T460" t="n">
-        <v>1.721726002629E12</v>
+        <v>1.722848582005E12</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -21501,7 +22778,7 @@
         <v>0.0</v>
       </c>
       <c r="T461" t="n">
-        <v>1.721726004473E12</v>
+        <v>1.722848583427E12</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -21518,10 +22795,10 @@
         <v>4</v>
       </c>
       <c r="R462" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T462" t="n">
-        <v>1.721892566551E12</v>
+        <v>1.722990679101E12</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -21538,10 +22815,10 @@
         <v>4</v>
       </c>
       <c r="R463" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T463" t="n">
-        <v>1.72189256945E12</v>
+        <v>1.723080765743E12</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -21558,10 +22835,10 @@
         <v>3</v>
       </c>
       <c r="R464" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T464" t="n">
-        <v>1.721726027232E12</v>
+        <v>1.722990811571E12</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -21581,7 +22858,7 @@
         <v>0.0</v>
       </c>
       <c r="T465" t="n">
-        <v>1.721726029834E12</v>
+        <v>1.722848601355E12</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -21601,7 +22878,7 @@
         <v>0.0</v>
       </c>
       <c r="T466" t="n">
-        <v>1.721726032198E12</v>
+        <v>1.722848603246E12</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -21618,10 +22895,10 @@
         <v>4</v>
       </c>
       <c r="R467" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T467" t="n">
-        <v>1.721892571513E12</v>
+        <v>1.723080767955E12</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -21638,10 +22915,10 @@
         <v>4</v>
       </c>
       <c r="R468" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T468" t="n">
-        <v>1.721726037649E12</v>
+        <v>1.722990817453E12</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -21658,10 +22935,10 @@
         <v>3</v>
       </c>
       <c r="R469" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T469" t="n">
-        <v>1.721726041251E12</v>
+        <v>1.722990820485E12</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -21681,7 +22958,7 @@
         <v>0.0</v>
       </c>
       <c r="T470" t="n">
-        <v>1.721726043481E12</v>
+        <v>1.722848684509E12</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -21698,10 +22975,10 @@
         <v>4</v>
       </c>
       <c r="R471" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T471" t="n">
-        <v>1.721892573901E12</v>
+        <v>1.723080770047E12</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -21718,10 +22995,10 @@
         <v>4</v>
       </c>
       <c r="R472" t="n">
-        <v>1.65</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T472" t="n">
-        <v>1.721964534087E12</v>
+        <v>1.723080772427E12</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -21741,7 +23018,7 @@
         <v>0.0</v>
       </c>
       <c r="T473" t="n">
-        <v>1.721726054886E12</v>
+        <v>1.722848697014E12</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -21758,10 +23035,10 @@
         <v>4</v>
       </c>
       <c r="R474" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T474" t="n">
-        <v>1.721726057922E12</v>
+        <v>1.722990925249E12</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -21778,10 +23055,10 @@
         <v>4</v>
       </c>
       <c r="R475" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T475" t="n">
-        <v>1.721726059379E12</v>
+        <v>1.722990927642E12</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -21801,7 +23078,7 @@
         <v>0.0</v>
       </c>
       <c r="T476" t="n">
-        <v>1.721726061482E12</v>
+        <v>1.722848701693E12</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -21818,10 +23095,10 @@
         <v>3</v>
       </c>
       <c r="R477" t="n">
-        <v>0.0</v>
+        <v>1.65</v>
       </c>
       <c r="T477" t="n">
-        <v>1.721726112303E12</v>
+        <v>1.72308077538E12</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -21841,7 +23118,7 @@
         <v>0.0</v>
       </c>
       <c r="T478" t="n">
-        <v>1.721726152893E12</v>
+        <v>1.722848706684E12</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -21861,7 +23138,7 @@
         <v>0.0</v>
       </c>
       <c r="T479" t="n">
-        <v>1.721726154601E12</v>
+        <v>1.722848708641E12</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -21881,7 +23158,7 @@
         <v>0.0</v>
       </c>
       <c r="T480" t="n">
-        <v>1.721726156818E12</v>
+        <v>1.722848710411E12</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -21898,10 +23175,10 @@
         <v>4</v>
       </c>
       <c r="R481" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T481" t="n">
-        <v>1.721892577616E12</v>
+        <v>1.722990933615E12</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -21921,7 +23198,7 @@
         <v>0.0</v>
       </c>
       <c r="T482" t="n">
-        <v>1.72172616074E12</v>
+        <v>1.722848716129E12</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -21938,10 +23215,10 @@
         <v>3</v>
       </c>
       <c r="R483" t="n">
-        <v>1.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T483" t="n">
-        <v>1.721964536027E12</v>
+        <v>1.722990936357E12</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -21958,10 +23235,10 @@
         <v>4</v>
       </c>
       <c r="R484" t="n">
-        <v>1.65</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T484" t="n">
-        <v>1.721964538537E12</v>
+        <v>1.723080777006E12</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -21981,7 +23258,7 @@
         <v>0.0</v>
       </c>
       <c r="T485" t="n">
-        <v>1.721726169451E12</v>
+        <v>1.722848721505E12</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -21998,10 +23275,10 @@
         <v>4</v>
       </c>
       <c r="R486" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T486" t="n">
-        <v>1.721726171273E12</v>
+        <v>1.722991002658E12</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -22021,7 +23298,7 @@
         <v>0.0</v>
       </c>
       <c r="T487" t="n">
-        <v>1.721726173224E12</v>
+        <v>1.722848725185E12</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -22038,10 +23315,10 @@
         <v>4</v>
       </c>
       <c r="R488" t="n">
-        <v>0.0</v>
+        <v>0.65</v>
       </c>
       <c r="T488" t="n">
-        <v>1.721726175418E12</v>
+        <v>1.722991004721E12</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -22058,10 +23335,10 @@
         <v>4</v>
       </c>
       <c r="R489" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T489" t="n">
-        <v>1.721892585968E12</v>
+        <v>1.722991006481E12</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -22081,7 +23358,7 @@
         <v>0.0</v>
       </c>
       <c r="T490" t="n">
-        <v>1.721726205613E12</v>
+        <v>1.72284873342E12</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -22098,10 +23375,10 @@
         <v>4</v>
       </c>
       <c r="R491" t="n">
-        <v>3.65</v>
+        <v>2.8999999999999995</v>
       </c>
       <c r="T491" t="n">
-        <v>1.722590620652E12</v>
+        <v>1.723103350477E12</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -22118,10 +23395,10 @@
         <v>3</v>
       </c>
       <c r="R492" t="n">
-        <v>2.3</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T492" t="n">
-        <v>1.722590622719E12</v>
+        <v>1.723080780789E12</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -22141,7 +23418,7 @@
         <v>0.0</v>
       </c>
       <c r="T493" t="n">
-        <v>1.721726219124E12</v>
+        <v>1.722848739786E12</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -22161,7 +23438,7 @@
         <v>0.0</v>
       </c>
       <c r="T494" t="n">
-        <v>1.721726221607E12</v>
+        <v>1.722848742926E12</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -22178,10 +23455,10 @@
         <v>3</v>
       </c>
       <c r="R495" t="n">
-        <v>1.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T495" t="n">
-        <v>1.721964546563E12</v>
+        <v>1.723080783795E12</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -22198,10 +23475,10 @@
         <v>4</v>
       </c>
       <c r="R496" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T496" t="n">
-        <v>1.72189260275E12</v>
+        <v>1.723080785655E12</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -22218,10 +23495,10 @@
         <v>4</v>
       </c>
       <c r="R497" t="n">
-        <v>0.65</v>
+        <v>0.0</v>
       </c>
       <c r="T497" t="n">
-        <v>1.721892606706E12</v>
+        <v>1.722991026882E12</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -22241,7 +23518,7 @@
         <v>0.0</v>
       </c>
       <c r="T498" t="n">
-        <v>1.721726362868E12</v>
+        <v>1.722848756038E12</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -22258,10 +23535,10 @@
         <v>4</v>
       </c>
       <c r="R499" t="n">
-        <v>0.65</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T499" t="n">
-        <v>1.721892608378E12</v>
+        <v>1.723080787477E12</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -22281,7 +23558,7 @@
         <v>0.0</v>
       </c>
       <c r="T500" t="n">
-        <v>1.721726368742E12</v>
+        <v>1.722848759364E12</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/初级工题库.xlsx
+++ b/target/classes/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4133" uniqueCount="1950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="1981">
   <si>
     <t>题型</t>
   </si>
@@ -5911,6 +5911,99 @@
   </si>
   <si>
     <t>您一共做了: 61题	您的得分： 85.24590163934425	做题时长约为7.583333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 7题	您的得分： 85.71428571428571	做题时长约为1.4833333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.03333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.15Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 143题	您的得分： 74.82517482517483	做题时长约为41.63333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 100.0	做题时长约为17.216666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 6题	您的得分： 83.33333333333334	做题时长约为1.15Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.2Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.3Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 108题	您的得分： 80.55555555555556	做题时长约为22.716666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 62题	您的得分： 93.54838709677419	做题时长约为35.06666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 75.0	做题时长约为0.8833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 53题	您的得分： 90.56603773584906	做题时长约为3.9833333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 7题	您的得分： 100.0	做题时长约为2.65Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.45Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 24题	您的得分： 100.0	做题时长约为1.3833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 14题	您的得分： 92.85714285714286	做题时长约为1.15Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.15Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 11题	您的得分： 100.0	做题时长约为0.7833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 10题	您的得分： 70.0	做题时长约为2.3333333333333335Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.18333333333333332Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 75.0	做题时长约为0.5666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.06666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.15Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 50题	您的得分： 92.0	做题时长约为4.8Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 75.0	做题时长约为0.38333333333333336Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.08333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.016666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.08333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 5题	您的得分： 100.0	做题时长约为0.31666666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 31题	您的得分： 87.09677419354838	做题时长约为1.9333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 75.0	做题时长约为0.3Min</t>
   </si>
 </sst>
 </file>
@@ -5970,7 +6063,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2389">
+  <cellXfs count="2977">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -8301,6 +8394,594 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8790,10 +9471,10 @@
         <v>1575</v>
       </c>
       <c r="R4" t="n">
-        <v>2.5999999999999996</v>
+        <v>2.8999999999999995</v>
       </c>
       <c r="T4" t="n">
-        <v>1.723021693313E12</v>
+        <v>1.723515312036E12</v>
       </c>
       <c r="AA4" t="s">
         <v>1905</v>
@@ -8828,10 +9509,10 @@
         <v>1576</v>
       </c>
       <c r="R5" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T5" t="n">
-        <v>1.723021700722E12</v>
+        <v>1.723452547354E12</v>
       </c>
       <c r="AA5" t="s">
         <v>1906</v>
@@ -8933,10 +9614,10 @@
         <v>1296</v>
       </c>
       <c r="R8" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72302170874E12</v>
+        <v>1.723452552792E12</v>
       </c>
       <c r="AA8" t="s">
         <v>1909</v>
@@ -9353,10 +10034,10 @@
         <v>1587</v>
       </c>
       <c r="R20" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T20" t="n">
-        <v>1.723021810772E12</v>
+        <v>1.72345255759E12</v>
       </c>
       <c r="AA20" t="s">
         <v>1921</v>
@@ -9458,10 +10139,10 @@
         <v>1590</v>
       </c>
       <c r="R23" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T23" t="n">
-        <v>1.723021819539E12</v>
+        <v>1.723452562014E12</v>
       </c>
       <c r="AA23" t="s">
         <v>1924</v>
@@ -9528,10 +10209,10 @@
         <v>1591</v>
       </c>
       <c r="R25" t="n">
-        <v>2.9000000000000004</v>
+        <v>2.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.723102903759E12</v>
+        <v>1.723513948004E12</v>
       </c>
       <c r="AA25" t="s">
         <v>1926</v>
@@ -9598,10 +10279,10 @@
         <v>1592</v>
       </c>
       <c r="R27" t="n">
-        <v>3.2499999999999996</v>
+        <v>2.5499999999999994</v>
       </c>
       <c r="T27" t="n">
-        <v>1.723102921753E12</v>
+        <v>1.723513953517E12</v>
       </c>
       <c r="AA27" t="s">
         <v>1928</v>
@@ -9668,10 +10349,10 @@
         <v>1594</v>
       </c>
       <c r="R29" t="n">
-        <v>2.0</v>
+        <v>1.65</v>
       </c>
       <c r="T29" t="n">
-        <v>1.723021892475E12</v>
+        <v>1.723452587306E12</v>
       </c>
       <c r="AA29" t="s">
         <v>1930</v>
@@ -9948,10 +10629,10 @@
         <v>1599</v>
       </c>
       <c r="R37" t="n">
-        <v>2.8500000000000014</v>
+        <v>2.1500000000000012</v>
       </c>
       <c r="T37" t="n">
-        <v>1.723102951515E12</v>
+        <v>1.72351395945E12</v>
       </c>
       <c r="AA37" t="s">
         <v>1937</v>
@@ -10018,10 +10699,10 @@
         <v>1563</v>
       </c>
       <c r="R39" t="n">
-        <v>2.0</v>
+        <v>1.65</v>
       </c>
       <c r="T39" t="n">
-        <v>1.723021935407E12</v>
+        <v>1.723452604272E12</v>
       </c>
       <c r="AA39" t="s">
         <v>1939</v>
@@ -10053,10 +10734,10 @@
         <v>1563</v>
       </c>
       <c r="R40" t="n">
-        <v>2.8999999999999995</v>
+        <v>2.1999999999999993</v>
       </c>
       <c r="T40" t="n">
-        <v>1.723102955017E12</v>
+        <v>1.723514247705E12</v>
       </c>
       <c r="AA40" t="s">
         <v>1938</v>
@@ -10443,6 +11124,9 @@
       <c r="T51" t="n">
         <v>1.723021968161E12</v>
       </c>
+      <c r="AA51" t="s">
+        <v>1950</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1">
@@ -10475,6 +11159,9 @@
       <c r="T52" t="n">
         <v>1.723021972072E12</v>
       </c>
+      <c r="AA52" t="s">
+        <v>1951</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1">
@@ -10502,10 +11189,13 @@
         <v>1611</v>
       </c>
       <c r="R53" t="n">
-        <v>4.65</v>
+        <v>3.2000000000000015</v>
       </c>
       <c r="T53" t="n">
-        <v>1.723102961495E12</v>
+        <v>1.723777531015E12</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>1936</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -10539,6 +11229,9 @@
       <c r="T54" t="n">
         <v>1.723021996753E12</v>
       </c>
+      <c r="AA54" t="s">
+        <v>1952</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1">
@@ -10571,6 +11264,9 @@
       <c r="T55" t="n">
         <v>1.723021998746E12</v>
       </c>
+      <c r="AA55" t="s">
+        <v>1953</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1">
@@ -10603,6 +11299,9 @@
       <c r="T56" t="n">
         <v>1.723022001881E12</v>
       </c>
+      <c r="AA56" t="s">
+        <v>1954</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1">
@@ -10635,6 +11334,9 @@
       <c r="T57" t="n">
         <v>1.722906719884E12</v>
       </c>
+      <c r="AA57" t="s">
+        <v>1955</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1">
@@ -10667,6 +11369,9 @@
       <c r="T58" t="n">
         <v>1.722906727604E12</v>
       </c>
+      <c r="AA58" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1">
@@ -10699,6 +11404,9 @@
       <c r="T59" t="n">
         <v>1.722906733643E12</v>
       </c>
+      <c r="AA59" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1">
@@ -10731,6 +11439,9 @@
       <c r="T60" t="n">
         <v>1.722906737162E12</v>
       </c>
+      <c r="AA60" t="s">
+        <v>1958</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
@@ -10763,6 +11474,9 @@
       <c r="T61" t="n">
         <v>1.722906741677E12</v>
       </c>
+      <c r="AA61" t="s">
+        <v>1959</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1">
@@ -10795,6 +11509,9 @@
       <c r="T62" t="n">
         <v>1.722906814398E12</v>
       </c>
+      <c r="AA62" t="s">
+        <v>1960</v>
+      </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1">
@@ -10827,6 +11544,9 @@
       <c r="T63" t="n">
         <v>1.722906828806E12</v>
       </c>
+      <c r="AA63" t="s">
+        <v>1961</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1">
@@ -10859,6 +11579,9 @@
       <c r="T64" t="n">
         <v>1.722906835688E12</v>
       </c>
+      <c r="AA64" t="s">
+        <v>1951</v>
+      </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1">
@@ -10891,6 +11614,9 @@
       <c r="T65" t="n">
         <v>1.723022047096E12</v>
       </c>
+      <c r="AA65" t="s">
+        <v>1962</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1">
@@ -10923,6 +11649,9 @@
       <c r="T66" t="n">
         <v>1.722906906684E12</v>
       </c>
+      <c r="AA66" t="s">
+        <v>1963</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1">
@@ -10955,6 +11684,9 @@
       <c r="T67" t="n">
         <v>1.722906912301E12</v>
       </c>
+      <c r="AA67" t="s">
+        <v>1964</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1">
@@ -10987,6 +11719,9 @@
       <c r="T68" t="n">
         <v>1.722906917154E12</v>
       </c>
+      <c r="AA68" t="s">
+        <v>1965</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1">
@@ -11014,10 +11749,13 @@
         <v>1626</v>
       </c>
       <c r="R69" t="n">
-        <v>3.2500000000000004</v>
+        <v>2.5500000000000003</v>
       </c>
       <c r="T69" t="n">
-        <v>1.723102969161E12</v>
+        <v>1.723514267447E12</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>1966</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -11051,6 +11789,9 @@
       <c r="T70" t="n">
         <v>1.723022097957E12</v>
       </c>
+      <c r="AA70" t="s">
+        <v>1967</v>
+      </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1">
@@ -11083,6 +11824,9 @@
       <c r="T71" t="n">
         <v>1.722906977013E12</v>
       </c>
+      <c r="AA71" t="s">
+        <v>1968</v>
+      </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1">
@@ -11110,10 +11854,13 @@
         <v>1628</v>
       </c>
       <c r="R72" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T72" t="n">
-        <v>1.723022100821E12</v>
+        <v>1.723452640472E12</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>1969</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -11147,6 +11894,9 @@
       <c r="T73" t="n">
         <v>1.722908798483E12</v>
       </c>
+      <c r="AA73" t="s">
+        <v>1970</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1">
@@ -11179,6 +11929,9 @@
       <c r="T74" t="n">
         <v>1.723022103769E12</v>
       </c>
+      <c r="AA74" t="s">
+        <v>1971</v>
+      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1">
@@ -11211,6 +11964,9 @@
       <c r="T75" t="n">
         <v>1.722908818652E12</v>
       </c>
+      <c r="AA75" t="s">
+        <v>1951</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1">
@@ -11238,10 +11994,13 @@
         <v>1632</v>
       </c>
       <c r="R76" t="n">
-        <v>2.5999999999999996</v>
+        <v>2.8999999999999995</v>
       </c>
       <c r="T76" t="n">
-        <v>1.72302228239E12</v>
+        <v>1.723515323985E12</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>1969</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -11275,6 +12034,9 @@
       <c r="T77" t="n">
         <v>1.722908862145E12</v>
       </c>
+      <c r="AA77" t="s">
+        <v>1972</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1">
@@ -11307,6 +12069,9 @@
       <c r="T78" t="n">
         <v>1.722908866221E12</v>
       </c>
+      <c r="AA78" t="s">
+        <v>1973</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1">
@@ -11339,6 +12104,9 @@
       <c r="T79" t="n">
         <v>1.722908875586E12</v>
       </c>
+      <c r="AA79" t="s">
+        <v>1974</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1">
@@ -11366,10 +12134,13 @@
         <v>1636</v>
       </c>
       <c r="R80" t="n">
-        <v>2.5999999999999996</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T80" t="n">
-        <v>1.723022304614E12</v>
+        <v>1.723514309867E12</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>1975</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -11398,10 +12169,13 @@
         <v>1637</v>
       </c>
       <c r="R81" t="n">
-        <v>3.2500000000000004</v>
+        <v>2.5500000000000003</v>
       </c>
       <c r="T81" t="n">
-        <v>1.723102973733E12</v>
+        <v>1.72351431208E12</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -11430,10 +12204,13 @@
         <v>566</v>
       </c>
       <c r="R82" t="n">
-        <v>2.0</v>
+        <v>1.65</v>
       </c>
       <c r="T82" t="n">
-        <v>1.723022311387E12</v>
+        <v>1.723452862932E12</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -11462,10 +12239,13 @@
         <v>1638</v>
       </c>
       <c r="R83" t="n">
-        <v>2.3</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T83" t="n">
-        <v>1.723022321287E12</v>
+        <v>1.723514313831E12</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>1977</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -11499,6 +12279,9 @@
       <c r="T84" t="n">
         <v>1.722909093282E12</v>
       </c>
+      <c r="AA84" t="s">
+        <v>1978</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1">
@@ -11531,6 +12314,9 @@
       <c r="T85" t="n">
         <v>1.722909106699E12</v>
       </c>
+      <c r="AA85" t="s">
+        <v>1979</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1">
@@ -11563,6 +12349,9 @@
       <c r="T86" t="n">
         <v>1.72302242146E12</v>
       </c>
+      <c r="AA86" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1">
@@ -11595,6 +12384,9 @@
       <c r="T87" t="n">
         <v>1.72290912116E12</v>
       </c>
+      <c r="AA87" t="s">
+        <v>1917</v>
+      </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1">
@@ -11627,6 +12419,9 @@
       <c r="T88" t="n">
         <v>1.722909127284E12</v>
       </c>
+      <c r="AA88" t="s">
+        <v>1976</v>
+      </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1">
@@ -11654,10 +12449,10 @@
         <v>1644</v>
       </c>
       <c r="R89" t="n">
-        <v>2.0</v>
+        <v>1.65</v>
       </c>
       <c r="T89" t="n">
-        <v>1.72302242651E12</v>
+        <v>1.72345292299E12</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -11750,10 +12545,10 @@
         <v>1647</v>
       </c>
       <c r="R92" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T92" t="n">
-        <v>1.7230224409E12</v>
+        <v>1.723453562455E12</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -11942,10 +12737,10 @@
         <v>1653</v>
       </c>
       <c r="R98" t="n">
-        <v>2.65</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T98" t="n">
-        <v>1.723022450457E12</v>
+        <v>1.72351534548E12</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -11974,10 +12769,10 @@
         <v>1654</v>
       </c>
       <c r="R99" t="n">
-        <v>2.0</v>
+        <v>1.65</v>
       </c>
       <c r="T99" t="n">
-        <v>1.723022569683E12</v>
+        <v>1.723453586313E12</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -12006,10 +12801,10 @@
         <v>1655</v>
       </c>
       <c r="R100" t="n">
-        <v>2.8999999999999995</v>
+        <v>2.1999999999999993</v>
       </c>
       <c r="T100" t="n">
-        <v>1.723102977181E12</v>
+        <v>1.723514320405E12</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -12102,10 +12897,10 @@
         <v>607</v>
       </c>
       <c r="R103" t="n">
-        <v>2.5999999999999996</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T103" t="n">
-        <v>1.723022582241E12</v>
+        <v>1.72351432659E12</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -12166,10 +12961,10 @@
         <v>1658</v>
       </c>
       <c r="R105" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T105" t="n">
-        <v>1.723022592308E12</v>
+        <v>1.723453635783E12</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -12390,10 +13185,10 @@
         <v>1067</v>
       </c>
       <c r="R112" t="n">
-        <v>2.0</v>
+        <v>1.65</v>
       </c>
       <c r="T112" t="n">
-        <v>1.723022601868E12</v>
+        <v>1.723453639501E12</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -12422,10 +13217,10 @@
         <v>1664</v>
       </c>
       <c r="R113" t="n">
-        <v>2.0</v>
+        <v>1.65</v>
       </c>
       <c r="T113" t="n">
-        <v>1.723077454695E12</v>
+        <v>1.72345365582E12</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -12454,10 +13249,10 @@
         <v>1665</v>
       </c>
       <c r="R114" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T114" t="n">
-        <v>1.723077462524E12</v>
+        <v>1.723453660992E12</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -12614,10 +13409,10 @@
         <v>1670</v>
       </c>
       <c r="R119" t="n">
-        <v>3.2500000000000004</v>
+        <v>2.5500000000000003</v>
       </c>
       <c r="T119" t="n">
-        <v>1.723102980338E12</v>
+        <v>1.723514329025E12</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -12678,10 +13473,10 @@
         <v>1671</v>
       </c>
       <c r="R121" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T121" t="n">
-        <v>1.723077485484E12</v>
+        <v>1.723453668422E12</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -12710,10 +13505,10 @@
         <v>1672</v>
       </c>
       <c r="R122" t="n">
-        <v>2.65</v>
+        <v>3.2000000000000015</v>
       </c>
       <c r="T122" t="n">
-        <v>1.723077494051E12</v>
+        <v>1.723777535565E12</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -12774,10 +13569,10 @@
         <v>1674</v>
       </c>
       <c r="R124" t="n">
-        <v>2.9000000000000004</v>
+        <v>2.2</v>
       </c>
       <c r="T124" t="n">
-        <v>1.723077501831E12</v>
+        <v>1.723514357767E12</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -12870,10 +13665,10 @@
         <v>1676</v>
       </c>
       <c r="R127" t="n">
-        <v>4.5000000000000036</v>
+        <v>2.7500000000000036</v>
       </c>
       <c r="T127" t="n">
-        <v>1.723102983483E12</v>
+        <v>1.723777097164E12</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -12934,10 +13729,10 @@
         <v>1678</v>
       </c>
       <c r="R129" t="n">
-        <v>2.65</v>
+        <v>3.2500000000000004</v>
       </c>
       <c r="T129" t="n">
-        <v>1.723077587871E12</v>
+        <v>1.723777106139E12</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -12966,10 +13761,10 @@
         <v>1679</v>
       </c>
       <c r="R130" t="n">
-        <v>2.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T130" t="n">
-        <v>1.72307761608E12</v>
+        <v>1.723514470077E12</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -12998,10 +13793,10 @@
         <v>1680</v>
       </c>
       <c r="R131" t="n">
-        <v>2.5999999999999996</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T131" t="n">
-        <v>1.72307762141E12</v>
+        <v>1.723514474639E12</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -13158,10 +13953,10 @@
         <v>1684</v>
       </c>
       <c r="R136" t="n">
-        <v>2.0</v>
+        <v>1.65</v>
       </c>
       <c r="T136" t="n">
-        <v>1.723077635944E12</v>
+        <v>1.723453799755E12</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -13990,10 +14785,10 @@
         <v>1706</v>
       </c>
       <c r="R162" t="n">
-        <v>2.2499999999999996</v>
+        <v>2.8999999999999995</v>
       </c>
       <c r="T162" t="n">
-        <v>1.723077732705E12</v>
+        <v>1.723514484594E12</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -14342,10 +15137,10 @@
         <v>1716</v>
       </c>
       <c r="R173" t="n">
-        <v>2.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T173" t="n">
-        <v>1.723077773414E12</v>
+        <v>1.723514503932E12</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -14470,10 +15265,10 @@
         <v>1720</v>
       </c>
       <c r="R177" t="n">
-        <v>2.0</v>
+        <v>3.2499999999999996</v>
       </c>
       <c r="T177" t="n">
-        <v>1.723077787976E12</v>
+        <v>1.723777538085E12</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -14630,10 +15425,10 @@
         <v>1699</v>
       </c>
       <c r="R182" t="n">
-        <v>3.5999999999999996</v>
+        <v>2.8999999999999995</v>
       </c>
       <c r="T182" t="n">
-        <v>1.723102985645E12</v>
+        <v>1.723514514173E12</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -14726,10 +15521,10 @@
         <v>1727</v>
       </c>
       <c r="R185" t="n">
-        <v>3.5999999999999996</v>
+        <v>2.8999999999999995</v>
       </c>
       <c r="T185" t="n">
-        <v>1.723102989947E12</v>
+        <v>1.723514519615E12</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -14790,10 +15585,10 @@
         <v>1727</v>
       </c>
       <c r="R187" t="n">
-        <v>2.0</v>
+        <v>2.65</v>
       </c>
       <c r="T187" t="n">
-        <v>1.723077810411E12</v>
+        <v>1.723514524487E12</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -14886,10 +15681,10 @@
         <v>1729</v>
       </c>
       <c r="R190" t="n">
-        <v>2.3</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T190" t="n">
-        <v>1.723077817821E12</v>
+        <v>1.723514535869E12</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -14918,10 +15713,10 @@
         <v>1729</v>
       </c>
       <c r="R191" t="n">
-        <v>2.3</v>
+        <v>4.100000000000003</v>
       </c>
       <c r="T191" t="n">
-        <v>1.723077823093E12</v>
+        <v>1.723777934366E12</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -15014,10 +15809,10 @@
         <v>1729</v>
       </c>
       <c r="R194" t="n">
-        <v>5.95</v>
+        <v>3.050000000000004</v>
       </c>
       <c r="T194" t="n">
-        <v>1.723102994912E12</v>
+        <v>1.723777548547E12</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -15238,10 +16033,10 @@
         <v>1729</v>
       </c>
       <c r="R201" t="n">
-        <v>2.9000000000000004</v>
+        <v>2.2</v>
       </c>
       <c r="T201" t="n">
-        <v>1.723077945707E12</v>
+        <v>1.723514552714E12</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -15782,10 +16577,10 @@
         <v>1747</v>
       </c>
       <c r="R218" t="n">
-        <v>4.250000000000002</v>
+        <v>2.8500000000000014</v>
       </c>
       <c r="T218" t="n">
-        <v>1.723102998446E12</v>
+        <v>1.723533661041E12</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -15878,10 +16673,10 @@
         <v>1750</v>
       </c>
       <c r="R221" t="n">
-        <v>2.9000000000000004</v>
+        <v>2.2</v>
       </c>
       <c r="T221" t="n">
-        <v>1.723077965087E12</v>
+        <v>1.723514562523E12</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -16102,10 +16897,10 @@
         <v>1755</v>
       </c>
       <c r="R228" t="n">
-        <v>3.9000000000000017</v>
+        <v>3.1500000000000026</v>
       </c>
       <c r="T228" t="n">
-        <v>1.723103001256E12</v>
+        <v>1.72377755096E12</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -16262,10 +17057,10 @@
         <v>1760</v>
       </c>
       <c r="R233" t="n">
-        <v>2.0</v>
+        <v>3.2500000000000004</v>
       </c>
       <c r="T233" t="n">
-        <v>1.723078095508E12</v>
+        <v>1.723777124031E12</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -16454,10 +17249,10 @@
         <v>1766</v>
       </c>
       <c r="R239" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T239" t="n">
-        <v>1.723078114976E12</v>
+        <v>1.723454322398E12</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -16486,10 +17281,10 @@
         <v>1767</v>
       </c>
       <c r="R240" t="n">
-        <v>2.0</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T240" t="n">
-        <v>1.723078121286E12</v>
+        <v>1.723777131484E12</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -16518,10 +17313,10 @@
         <v>1768</v>
       </c>
       <c r="R241" t="n">
-        <v>2.0</v>
+        <v>1.65</v>
       </c>
       <c r="T241" t="n">
-        <v>1.723078131549E12</v>
+        <v>1.723454366008E12</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -16646,10 +17441,10 @@
         <v>1772</v>
       </c>
       <c r="R245" t="n">
-        <v>2.65</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T245" t="n">
-        <v>1.723078153029E12</v>
+        <v>1.723515404541E12</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -16678,10 +17473,10 @@
         <v>1773</v>
       </c>
       <c r="R246" t="n">
-        <v>2.65</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T246" t="n">
-        <v>1.723078161969E12</v>
+        <v>1.723515406161E12</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -16806,10 +17601,10 @@
         <v>1777</v>
       </c>
       <c r="R250" t="n">
-        <v>3.3</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T250" t="n">
-        <v>1.723103004736E12</v>
+        <v>1.723514717288E12</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -17030,10 +17825,10 @@
         <v>1782</v>
       </c>
       <c r="R257" t="n">
-        <v>5.5500000000000025</v>
+        <v>4.050000000000005</v>
       </c>
       <c r="T257" t="n">
-        <v>1.723103064787E12</v>
+        <v>1.7237779403E12</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -17062,10 +17857,10 @@
         <v>1783</v>
       </c>
       <c r="R258" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T258" t="n">
-        <v>1.723078289415E12</v>
+        <v>1.72345439406E12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -17123,10 +17918,10 @@
         <v>1784</v>
       </c>
       <c r="R260" t="n">
-        <v>2.0</v>
+        <v>1.65</v>
       </c>
       <c r="T260" t="n">
-        <v>1.723078296235E12</v>
+        <v>1.723454396322E12</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -17219,10 +18014,10 @@
         <v>1787</v>
       </c>
       <c r="R263" t="n">
-        <v>4.250000000000002</v>
+        <v>3.1500000000000017</v>
       </c>
       <c r="T263" t="n">
-        <v>1.723103067752E12</v>
+        <v>1.723777560374E12</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -17251,10 +18046,10 @@
         <v>1788</v>
       </c>
       <c r="R264" t="n">
-        <v>2.5999999999999996</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T264" t="n">
-        <v>1.723078343497E12</v>
+        <v>1.723514755173E12</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -17315,10 +18110,10 @@
         <v>1790</v>
       </c>
       <c r="R266" t="n">
-        <v>6.6500000000000075</v>
+        <v>4.8000000000000105</v>
       </c>
       <c r="T266" t="n">
-        <v>1.723103069945E12</v>
+        <v>1.723777956013E12</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -17347,10 +18142,10 @@
         <v>1791</v>
       </c>
       <c r="R267" t="n">
-        <v>2.65</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T267" t="n">
-        <v>1.723078354348E12</v>
+        <v>1.723516604997E12</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -17411,10 +18206,10 @@
         <v>1793</v>
       </c>
       <c r="R269" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T269" t="n">
-        <v>1.72307836207E12</v>
+        <v>1.723454482754E12</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -17443,10 +18238,10 @@
         <v>945</v>
       </c>
       <c r="R270" t="n">
-        <v>2.0</v>
+        <v>2.65</v>
       </c>
       <c r="T270" t="n">
-        <v>1.723078369336E12</v>
+        <v>1.723514775959E12</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -17539,10 +18334,10 @@
         <v>1795</v>
       </c>
       <c r="R273" t="n">
-        <v>2.65</v>
+        <v>3.2500000000000004</v>
       </c>
       <c r="T273" t="n">
-        <v>1.723078386313E12</v>
+        <v>1.723777156852E12</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -17603,10 +18398,10 @@
         <v>1797</v>
       </c>
       <c r="R275" t="n">
-        <v>2.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T275" t="n">
-        <v>1.723078399313E12</v>
+        <v>1.723514787279E12</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -17763,10 +18558,10 @@
         <v>1802</v>
       </c>
       <c r="R280" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T280" t="n">
-        <v>1.723078417751E12</v>
+        <v>1.723454511224E12</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -17827,10 +18622,10 @@
         <v>1804</v>
       </c>
       <c r="R282" t="n">
-        <v>2.5999999999999996</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T282" t="n">
-        <v>1.72307842672E12</v>
+        <v>1.723514789701E12</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -17891,10 +18686,10 @@
         <v>1806</v>
       </c>
       <c r="R284" t="n">
-        <v>3.3</v>
+        <v>2.8999999999999995</v>
       </c>
       <c r="T284" t="n">
-        <v>1.72310307575E12</v>
+        <v>1.723777164894E12</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -17923,10 +18718,10 @@
         <v>1807</v>
       </c>
       <c r="R285" t="n">
-        <v>3.5999999999999996</v>
+        <v>3.1999999999999997</v>
       </c>
       <c r="T285" t="n">
-        <v>1.723103081503E12</v>
+        <v>1.723777170079E12</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -17955,10 +18750,10 @@
         <v>1808</v>
       </c>
       <c r="R286" t="n">
-        <v>5.150000000000004</v>
+        <v>3.0500000000000047</v>
       </c>
       <c r="T286" t="n">
-        <v>1.72310308862E12</v>
+        <v>1.723777570058E12</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -17987,10 +18782,10 @@
         <v>1809</v>
       </c>
       <c r="R287" t="n">
-        <v>5.250000000000002</v>
+        <v>3.1500000000000026</v>
       </c>
       <c r="T287" t="n">
-        <v>1.723103092573E12</v>
+        <v>1.723777575481E12</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -18019,10 +18814,10 @@
         <v>1810</v>
       </c>
       <c r="R288" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T288" t="n">
-        <v>1.723078490194E12</v>
+        <v>1.723454593022E12</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -18051,10 +18846,10 @@
         <v>1811</v>
       </c>
       <c r="R289" t="n">
-        <v>2.0</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T289" t="n">
-        <v>1.723078496457E12</v>
+        <v>1.723777181074E12</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -18147,10 +18942,10 @@
         <v>1814</v>
       </c>
       <c r="R292" t="n">
-        <v>6.6000000000000005</v>
+        <v>3.1000000000000028</v>
       </c>
       <c r="T292" t="n">
-        <v>1.723103094634E12</v>
+        <v>1.723777578202E12</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -18179,10 +18974,10 @@
         <v>1815</v>
       </c>
       <c r="R293" t="n">
-        <v>3.5999999999999996</v>
+        <v>2.8999999999999995</v>
       </c>
       <c r="T293" t="n">
-        <v>1.723103097463E12</v>
+        <v>1.723514830531E12</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -18211,10 +19006,10 @@
         <v>1816</v>
       </c>
       <c r="R294" t="n">
-        <v>3.8500000000000028</v>
+        <v>2.8000000000000025</v>
       </c>
       <c r="T294" t="n">
-        <v>1.723103102052E12</v>
+        <v>1.723516627657E12</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -18435,10 +19230,10 @@
         <v>1823</v>
       </c>
       <c r="R301" t="n">
-        <v>2.5999999999999996</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T301" t="n">
-        <v>1.723078529181E12</v>
+        <v>1.723514885273E12</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -18467,10 +19262,10 @@
         <v>1824</v>
       </c>
       <c r="R302" t="n">
-        <v>2.0</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T302" t="n">
-        <v>1.723078534525E12</v>
+        <v>1.723777186774E12</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -18563,10 +19358,10 @@
         <v>1827</v>
       </c>
       <c r="R305" t="n">
-        <v>5.949999999999999</v>
+        <v>3.150000000000001</v>
       </c>
       <c r="T305" t="n">
-        <v>1.723103110448E12</v>
+        <v>1.723777580316E12</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -18691,10 +19486,10 @@
         <v>1830</v>
       </c>
       <c r="R309" t="n">
-        <v>3.1500000000000026</v>
+        <v>2.4500000000000024</v>
       </c>
       <c r="T309" t="n">
-        <v>1.723103113189E12</v>
+        <v>1.723514907363E12</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -18723,10 +19518,10 @@
         <v>1831</v>
       </c>
       <c r="R310" t="n">
-        <v>2.0</v>
+        <v>4.25</v>
       </c>
       <c r="T310" t="n">
-        <v>1.723078556213E12</v>
+        <v>1.7237779455E12</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -18787,10 +19582,10 @@
         <v>1833</v>
       </c>
       <c r="R312" t="n">
-        <v>2.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T312" t="n">
-        <v>1.723078598955E12</v>
+        <v>1.723514943875E12</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -18819,10 +19614,10 @@
         <v>1834</v>
       </c>
       <c r="R313" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T313" t="n">
-        <v>1.723078603851E12</v>
+        <v>1.723454649607E12</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -18851,10 +19646,10 @@
         <v>1835</v>
       </c>
       <c r="R314" t="n">
-        <v>2.0</v>
+        <v>1.65</v>
       </c>
       <c r="T314" t="n">
-        <v>1.723078609689E12</v>
+        <v>1.723454656616E12</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -18915,10 +19710,10 @@
         <v>1837</v>
       </c>
       <c r="R316" t="n">
-        <v>2.5999999999999996</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T316" t="n">
-        <v>1.723078615623E12</v>
+        <v>1.723514947269E12</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -18979,10 +19774,10 @@
         <v>1173</v>
       </c>
       <c r="R318" t="n">
-        <v>2.8500000000000014</v>
+        <v>2.1500000000000012</v>
       </c>
       <c r="T318" t="n">
-        <v>1.723103116991E12</v>
+        <v>1.723514950653E12</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -19043,10 +19838,10 @@
         <v>1840</v>
       </c>
       <c r="R320" t="n">
-        <v>4.250000000000002</v>
+        <v>2.8500000000000014</v>
       </c>
       <c r="T320" t="n">
-        <v>1.723103120928E12</v>
+        <v>1.723533736926E12</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -19107,10 +19902,10 @@
         <v>1842</v>
       </c>
       <c r="R322" t="n">
-        <v>4.600000000000001</v>
+        <v>2.8500000000000014</v>
       </c>
       <c r="T322" t="n">
-        <v>1.723103125227E12</v>
+        <v>1.723777216111E12</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -19491,10 +20286,10 @@
         <v>1527</v>
       </c>
       <c r="R334" t="n">
-        <v>2.0</v>
+        <v>3.1500000000000026</v>
       </c>
       <c r="T334" t="n">
-        <v>1.723079875837E12</v>
+        <v>1.723777596322E12</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -19523,10 +20318,10 @@
         <v>1854</v>
       </c>
       <c r="R335" t="n">
-        <v>2.0</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T335" t="n">
-        <v>1.723079881896E12</v>
+        <v>1.723777224884E12</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -19619,10 +20414,10 @@
         <v>1857</v>
       </c>
       <c r="R338" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T338" t="n">
-        <v>1.723079892539E12</v>
+        <v>1.723454735817E12</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -19651,10 +20446,10 @@
         <v>1643</v>
       </c>
       <c r="R339" t="n">
-        <v>4.600000000000001</v>
+        <v>2.8500000000000014</v>
       </c>
       <c r="T339" t="n">
-        <v>1.723103136627E12</v>
+        <v>1.723777228406E12</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -19683,10 +20478,10 @@
         <v>1858</v>
       </c>
       <c r="R340" t="n">
-        <v>3.1500000000000026</v>
+        <v>2.4500000000000024</v>
       </c>
       <c r="T340" t="n">
-        <v>1.723103138699E12</v>
+        <v>1.723514986122E12</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -19715,10 +20510,10 @@
         <v>1859</v>
       </c>
       <c r="R341" t="n">
-        <v>5.100000000000005</v>
+        <v>3.6000000000000076</v>
       </c>
       <c r="T341" t="n">
-        <v>1.723103144921E12</v>
+        <v>1.723777598582E12</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -19747,10 +20542,10 @@
         <v>1860</v>
       </c>
       <c r="R342" t="n">
-        <v>5.150000000000004</v>
+        <v>3.350000000000006</v>
       </c>
       <c r="T342" t="n">
-        <v>1.72310315124E12</v>
+        <v>1.723777262706E12</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -19779,10 +20574,10 @@
         <v>1861</v>
       </c>
       <c r="R343" t="n">
-        <v>5.150000000000004</v>
+        <v>3.300000000000007</v>
       </c>
       <c r="T343" t="n">
-        <v>1.723103162939E12</v>
+        <v>1.723777269397E12</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -19907,10 +20702,10 @@
         <v>1865</v>
       </c>
       <c r="R347" t="n">
-        <v>2.0</v>
+        <v>1.65</v>
       </c>
       <c r="T347" t="n">
-        <v>1.723079949762E12</v>
+        <v>1.723454793551E12</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -19939,10 +20734,10 @@
         <v>1866</v>
       </c>
       <c r="R348" t="n">
-        <v>2.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T348" t="n">
-        <v>1.723079957504E12</v>
+        <v>1.723515021413E12</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -19971,10 +20766,10 @@
         <v>1867</v>
       </c>
       <c r="R349" t="n">
-        <v>5.95</v>
+        <v>3.1500000000000017</v>
       </c>
       <c r="T349" t="n">
-        <v>1.723103165923E12</v>
+        <v>1.723777600611E12</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -20099,10 +20894,10 @@
         <v>1869</v>
       </c>
       <c r="R353" t="n">
-        <v>5.250000000000002</v>
+        <v>3.1000000000000036</v>
       </c>
       <c r="T353" t="n">
-        <v>1.723103167986E12</v>
+        <v>1.723777603728E12</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -20131,10 +20926,10 @@
         <v>1870</v>
       </c>
       <c r="R354" t="n">
-        <v>4.65</v>
+        <v>3.2000000000000015</v>
       </c>
       <c r="T354" t="n">
-        <v>1.723103172735E12</v>
+        <v>1.72377760591E12</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -20195,10 +20990,10 @@
         <v>1872</v>
       </c>
       <c r="R356" t="n">
-        <v>4.25</v>
+        <v>3.150000000000001</v>
       </c>
       <c r="T356" t="n">
-        <v>1.723103177117E12</v>
+        <v>1.723777608053E12</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -20259,10 +21054,10 @@
         <v>1874</v>
       </c>
       <c r="R358" t="n">
-        <v>2.5999999999999996</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T358" t="n">
-        <v>1.723080409483E12</v>
+        <v>1.723515042325E12</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -20355,10 +21150,10 @@
         <v>1876</v>
       </c>
       <c r="R361" t="n">
-        <v>2.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T361" t="n">
-        <v>1.723080461678E12</v>
+        <v>1.723515053367E12</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -20451,10 +21246,10 @@
         <v>1879</v>
       </c>
       <c r="R364" t="n">
-        <v>3.5999999999999996</v>
+        <v>2.8999999999999995</v>
       </c>
       <c r="T364" t="n">
-        <v>1.723103180351E12</v>
+        <v>1.723515058461E12</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -20547,10 +21342,10 @@
         <v>1882</v>
       </c>
       <c r="R367" t="n">
-        <v>6.350000000000007</v>
+        <v>3.1500000000000097</v>
       </c>
       <c r="T367" t="n">
-        <v>1.723103195739E12</v>
+        <v>1.723777609672E12</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -20611,10 +21406,10 @@
         <v>1884</v>
       </c>
       <c r="R369" t="n">
-        <v>5.150000000000004</v>
+        <v>3.0500000000000047</v>
       </c>
       <c r="T369" t="n">
-        <v>1.723103201719E12</v>
+        <v>1.723777611509E12</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -20707,10 +21502,10 @@
         <v>1887</v>
       </c>
       <c r="R372" t="n">
-        <v>2.65</v>
+        <v>3.2000000000000006</v>
       </c>
       <c r="T372" t="n">
-        <v>1.723080523331E12</v>
+        <v>1.72377761612E12</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -20803,10 +21598,10 @@
         <v>1292</v>
       </c>
       <c r="R375" t="n">
-        <v>4.200000000000001</v>
+        <v>2.8000000000000007</v>
       </c>
       <c r="T375" t="n">
-        <v>1.723103206569E12</v>
+        <v>1.723533807112E12</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -20867,10 +21662,10 @@
         <v>1890</v>
       </c>
       <c r="R377" t="n">
-        <v>5.100000000000005</v>
+        <v>3.350000000000006</v>
       </c>
       <c r="T377" t="n">
-        <v>1.723103299313E12</v>
+        <v>1.723777308347E12</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -20899,10 +21694,10 @@
         <v>1551</v>
       </c>
       <c r="R378" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T378" t="n">
-        <v>1.723080541232E12</v>
+        <v>1.723454913303E12</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -20931,10 +21726,10 @@
         <v>1891</v>
       </c>
       <c r="R379" t="n">
-        <v>5.150000000000004</v>
+        <v>3.350000000000006</v>
       </c>
       <c r="T379" t="n">
-        <v>1.723103302348E12</v>
+        <v>1.723777310486E12</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -20963,10 +21758,10 @@
         <v>1892</v>
       </c>
       <c r="R380" t="n">
-        <v>5.150000000000004</v>
+        <v>3.0500000000000047</v>
       </c>
       <c r="T380" t="n">
-        <v>1.723103305166E12</v>
+        <v>1.723777620045E12</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -20995,10 +21790,10 @@
         <v>1566</v>
       </c>
       <c r="R381" t="n">
-        <v>5.950000000000008</v>
+        <v>3.1500000000000097</v>
       </c>
       <c r="T381" t="n">
-        <v>1.723103307579E12</v>
+        <v>1.723777622017E12</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -21027,10 +21822,10 @@
         <v>1893</v>
       </c>
       <c r="R382" t="n">
-        <v>2.65</v>
+        <v>3.2000000000000015</v>
       </c>
       <c r="T382" t="n">
-        <v>1.723080551815E12</v>
+        <v>1.723777624477E12</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -21091,10 +21886,10 @@
         <v>1895</v>
       </c>
       <c r="R384" t="n">
-        <v>2.65</v>
+        <v>3.2500000000000004</v>
       </c>
       <c r="T384" t="n">
-        <v>1.723080556114E12</v>
+        <v>1.723777333161E12</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -21123,10 +21918,10 @@
         <v>1218</v>
       </c>
       <c r="R385" t="n">
-        <v>5.100000000000005</v>
+        <v>3.2000000000000086</v>
       </c>
       <c r="T385" t="n">
-        <v>1.723103311974E12</v>
+        <v>1.723777630267E12</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -21187,10 +21982,10 @@
         <v>1896</v>
       </c>
       <c r="R387" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T387" t="n">
-        <v>1.723080566108E12</v>
+        <v>1.723454955669E12</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -21219,10 +22014,10 @@
         <v>1897</v>
       </c>
       <c r="R388" t="n">
-        <v>3.9000000000000017</v>
+        <v>2.8500000000000014</v>
       </c>
       <c r="T388" t="n">
-        <v>1.723103316921E12</v>
+        <v>1.723517377391E12</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -21251,10 +22046,10 @@
         <v>1898</v>
       </c>
       <c r="R389" t="n">
-        <v>4.5000000000000036</v>
+        <v>2.7500000000000036</v>
       </c>
       <c r="T389" t="n">
-        <v>1.723103321727E12</v>
+        <v>1.723777344901E12</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -21315,10 +22110,10 @@
         <v>1895</v>
       </c>
       <c r="R391" t="n">
-        <v>3.9000000000000017</v>
+        <v>3.1500000000000017</v>
       </c>
       <c r="T391" t="n">
-        <v>1.723103324039E12</v>
+        <v>1.723777633347E12</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -21347,10 +22142,10 @@
         <v>873</v>
       </c>
       <c r="R392" t="n">
-        <v>5.5000000000000036</v>
+        <v>3.350000000000006</v>
       </c>
       <c r="T392" t="n">
-        <v>1.723103331008E12</v>
+        <v>1.723777356829E12</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -21379,10 +22174,10 @@
         <v>1895</v>
       </c>
       <c r="R393" t="n">
-        <v>5.150000000000004</v>
+        <v>3.0500000000000047</v>
       </c>
       <c r="T393" t="n">
-        <v>1.723103335817E12</v>
+        <v>1.72377763864E12</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -21411,10 +22206,10 @@
         <v>1895</v>
       </c>
       <c r="R394" t="n">
-        <v>3.800000000000004</v>
+        <v>2.7500000000000036</v>
       </c>
       <c r="T394" t="n">
-        <v>1.723103339043E12</v>
+        <v>1.723517407074E12</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -21475,10 +22270,10 @@
         <v>1900</v>
       </c>
       <c r="R396" t="n">
-        <v>2.8500000000000014</v>
+        <v>2.1500000000000012</v>
       </c>
       <c r="T396" t="n">
-        <v>1.723103341346E12</v>
+        <v>1.723515274098E12</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -21535,10 +22330,10 @@
         <v>4</v>
       </c>
       <c r="R399" t="n">
-        <v>2.0</v>
+        <v>1.65</v>
       </c>
       <c r="T399" t="n">
-        <v>1.723080700363E12</v>
+        <v>1.723454987459E12</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -21555,10 +22350,10 @@
         <v>4</v>
       </c>
       <c r="R400" t="n">
-        <v>2.65</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T400" t="n">
-        <v>1.723080703681E12</v>
+        <v>1.723515278531E12</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -21675,10 +22470,10 @@
         <v>3</v>
       </c>
       <c r="R406" t="n">
-        <v>4.0</v>
+        <v>3.2000000000000015</v>
       </c>
       <c r="T406" t="n">
-        <v>1.723103343993E12</v>
+        <v>1.723777641067E12</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -21735,10 +22530,10 @@
         <v>4</v>
       </c>
       <c r="R409" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T409" t="n">
-        <v>1.723080713043E12</v>
+        <v>1.723454994405E12</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -21875,10 +22670,10 @@
         <v>4</v>
       </c>
       <c r="R416" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T416" t="n">
-        <v>1.723080718198E12</v>
+        <v>1.723454996537E12</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -21895,10 +22690,10 @@
         <v>3</v>
       </c>
       <c r="R417" t="n">
-        <v>4.0</v>
+        <v>3.2000000000000015</v>
       </c>
       <c r="T417" t="n">
-        <v>1.723103345833E12</v>
+        <v>1.723777642621E12</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -22075,10 +22870,10 @@
         <v>4</v>
       </c>
       <c r="R426" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T426" t="n">
-        <v>1.723080725353E12</v>
+        <v>1.723455002362E12</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -22555,10 +23350,10 @@
         <v>4</v>
       </c>
       <c r="R450" t="n">
-        <v>2.3</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T450" t="n">
-        <v>1.72308074975E12</v>
+        <v>1.723455006962E12</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -22635,10 +23430,10 @@
         <v>4</v>
       </c>
       <c r="R454" t="n">
-        <v>3.3</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T454" t="n">
-        <v>1.723103348039E12</v>
+        <v>1.723515291697E12</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -22695,10 +23490,10 @@
         <v>4</v>
       </c>
       <c r="R457" t="n">
-        <v>2.9499999999999997</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="T457" t="n">
-        <v>1.723080760779E12</v>
+        <v>1.72351529337E12</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -22735,10 +23530,10 @@
         <v>3</v>
       </c>
       <c r="R459" t="n">
-        <v>2.8000000000000025</v>
+        <v>2.1000000000000023</v>
       </c>
       <c r="T459" t="n">
-        <v>1.723103349256E12</v>
+        <v>1.723515295195E12</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -22995,10 +23790,10 @@
         <v>4</v>
       </c>
       <c r="R472" t="n">
-        <v>2.9499999999999997</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="T472" t="n">
-        <v>1.723080772427E12</v>
+        <v>1.723515298175E12</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -23235,10 +24030,10 @@
         <v>4</v>
       </c>
       <c r="R484" t="n">
-        <v>2.9499999999999997</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="T484" t="n">
-        <v>1.723080777006E12</v>
+        <v>1.723515300044E12</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -23375,10 +24170,10 @@
         <v>4</v>
       </c>
       <c r="R491" t="n">
-        <v>2.8999999999999995</v>
+        <v>2.1999999999999993</v>
       </c>
       <c r="T491" t="n">
-        <v>1.723103350477E12</v>
+        <v>1.723515301688E12</v>
       </c>
     </row>
     <row r="492" spans="1:4">

--- a/target/classes/初级工题库.xlsx
+++ b/target/classes/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="1981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="1996">
   <si>
     <t>题型</t>
   </si>
@@ -6004,6 +6004,51 @@
   </si>
   <si>
     <t>您一共做了: 4题	您的得分： 75.0	做题时长约为0.3Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 100.0	做题时长约为0.26666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 41题	您的得分： 92.6829268292683	做题时长约为4.733333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 66.66666666666666	做题时长约为0.3333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 12题	您的得分： 91.66666666666666	做题时长约为1.05Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 6题	您的得分： 100.0	做题时长约为0.43333333333333335Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 93题	您的得分： 91.39784946236558	做题时长约为220.26666666666668Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 87.5	做题时长约为1.4Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 6题	您的得分： 100.0	做题时长约为0.31666666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 100.0	做题时长约为0.2Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 81题	您的得分： 98.76543209876543	做题时长约为5.55Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 68题	您的得分： 98.52941176470588	做题时长约为12.933333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 10题	您的得分： 90.0	做题时长约为3.183333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 66.66666666666666	做题时长约为0.18333333333333332Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 203题	您的得分： 88.17733990147784	做题时长约为2676.5Min</t>
   </si>
 </sst>
 </file>
@@ -6063,7 +6108,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2977">
+  <cellXfs count="3548">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -8918,6 +8963,577 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9401,10 +10017,10 @@
         <v>1573</v>
       </c>
       <c r="R2" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T2" t="n">
-        <v>1.723021653529E12</v>
+        <v>1.72379408818E12</v>
       </c>
       <c r="AA2" t="s">
         <v>1903</v>
@@ -9436,10 +10052,10 @@
         <v>1574</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T3" t="n">
-        <v>1.723021689222E12</v>
+        <v>1.723794095813E12</v>
       </c>
       <c r="AA3" t="s">
         <v>1904</v>
@@ -9471,10 +10087,10 @@
         <v>1575</v>
       </c>
       <c r="R4" t="n">
-        <v>2.8999999999999995</v>
+        <v>1.3999999999999995</v>
       </c>
       <c r="T4" t="n">
-        <v>1.723515312036E12</v>
+        <v>1.723794097761E12</v>
       </c>
       <c r="AA4" t="s">
         <v>1905</v>
@@ -9509,10 +10125,10 @@
         <v>1576</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T5" t="n">
-        <v>1.723452547354E12</v>
+        <v>1.723794105824E12</v>
       </c>
       <c r="AA5" t="s">
         <v>1906</v>
@@ -9579,10 +10195,10 @@
         <v>997</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T7" t="n">
-        <v>1.723021703275E12</v>
+        <v>1.723794110665E12</v>
       </c>
       <c r="AA7" t="s">
         <v>1908</v>
@@ -9614,10 +10230,10 @@
         <v>1296</v>
       </c>
       <c r="R8" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T8" t="n">
-        <v>1.723452552792E12</v>
+        <v>1.723794116552E12</v>
       </c>
       <c r="AA8" t="s">
         <v>1909</v>
@@ -9719,10 +10335,10 @@
         <v>1579</v>
       </c>
       <c r="R11" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T11" t="n">
-        <v>1.723021795982E12</v>
+        <v>1.723794130884E12</v>
       </c>
       <c r="AA11" t="s">
         <v>1912</v>
@@ -9754,10 +10370,10 @@
         <v>1580</v>
       </c>
       <c r="R12" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T12" t="n">
-        <v>1.723021801821E12</v>
+        <v>1.72379414515E12</v>
       </c>
       <c r="AA12" t="s">
         <v>1913</v>
@@ -9999,10 +10615,10 @@
         <v>1586</v>
       </c>
       <c r="R19" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T19" t="n">
-        <v>1.723021807575E12</v>
+        <v>1.72379415161E12</v>
       </c>
       <c r="AA19" t="s">
         <v>1920</v>
@@ -10034,10 +10650,10 @@
         <v>1587</v>
       </c>
       <c r="R20" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T20" t="n">
-        <v>1.72345255759E12</v>
+        <v>1.723794155873E12</v>
       </c>
       <c r="AA20" t="s">
         <v>1921</v>
@@ -10104,10 +10720,10 @@
         <v>1589</v>
       </c>
       <c r="R22" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T22" t="n">
-        <v>1.72302181486E12</v>
+        <v>1.723794163215E12</v>
       </c>
       <c r="AA22" t="s">
         <v>1923</v>
@@ -10139,10 +10755,10 @@
         <v>1590</v>
       </c>
       <c r="R23" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T23" t="n">
-        <v>1.723452562014E12</v>
+        <v>1.723794168067E12</v>
       </c>
       <c r="AA23" t="s">
         <v>1924</v>
@@ -10209,10 +10825,10 @@
         <v>1591</v>
       </c>
       <c r="R25" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.723513948004E12</v>
+        <v>1.723794170447E12</v>
       </c>
       <c r="AA25" t="s">
         <v>1926</v>
@@ -10279,10 +10895,10 @@
         <v>1592</v>
       </c>
       <c r="R27" t="n">
-        <v>2.5499999999999994</v>
+        <v>1.4499999999999988</v>
       </c>
       <c r="T27" t="n">
-        <v>1.723513953517E12</v>
+        <v>1.723794172725E12</v>
       </c>
       <c r="AA27" t="s">
         <v>1928</v>
@@ -10349,10 +10965,10 @@
         <v>1594</v>
       </c>
       <c r="R29" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T29" t="n">
-        <v>1.723452587306E12</v>
+        <v>1.723794175546E12</v>
       </c>
       <c r="AA29" t="s">
         <v>1930</v>
@@ -10629,10 +11245,10 @@
         <v>1599</v>
       </c>
       <c r="R37" t="n">
-        <v>2.1500000000000012</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T37" t="n">
-        <v>1.72351395945E12</v>
+        <v>1.723794797977E12</v>
       </c>
       <c r="AA37" t="s">
         <v>1937</v>
@@ -10664,10 +11280,10 @@
         <v>1600</v>
       </c>
       <c r="R38" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T38" t="n">
-        <v>1.723021929391E12</v>
+        <v>1.72379480602E12</v>
       </c>
       <c r="AA38" t="s">
         <v>1938</v>
@@ -10699,10 +11315,10 @@
         <v>1563</v>
       </c>
       <c r="R39" t="n">
-        <v>1.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T39" t="n">
-        <v>1.723452604272E12</v>
+        <v>1.723794810951E12</v>
       </c>
       <c r="AA39" t="s">
         <v>1939</v>
@@ -10734,10 +11350,10 @@
         <v>1563</v>
       </c>
       <c r="R40" t="n">
-        <v>2.1999999999999993</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T40" t="n">
-        <v>1.723514247705E12</v>
+        <v>1.723794813318E12</v>
       </c>
       <c r="AA40" t="s">
         <v>1938</v>
@@ -10909,10 +11525,10 @@
         <v>1603</v>
       </c>
       <c r="R45" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T45" t="n">
-        <v>1.723021949534E12</v>
+        <v>1.723794815968E12</v>
       </c>
       <c r="AA45" t="s">
         <v>1944</v>
@@ -10979,10 +11595,10 @@
         <v>1605</v>
       </c>
       <c r="R47" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T47" t="n">
-        <v>1.723021955107E12</v>
+        <v>1.723794819661E12</v>
       </c>
       <c r="AA47" t="s">
         <v>1946</v>
@@ -11049,10 +11665,10 @@
         <v>1607</v>
       </c>
       <c r="R49" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T49" t="n">
-        <v>1.723021957043E12</v>
+        <v>1.723794822586E12</v>
       </c>
       <c r="AA49" t="s">
         <v>1948</v>
@@ -11084,10 +11700,10 @@
         <v>1608</v>
       </c>
       <c r="R50" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T50" t="n">
-        <v>1.723021965527E12</v>
+        <v>1.723794835515E12</v>
       </c>
       <c r="AA50" t="s">
         <v>1949</v>
@@ -11154,10 +11770,10 @@
         <v>1610</v>
       </c>
       <c r="R52" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T52" t="n">
-        <v>1.723021972072E12</v>
+        <v>1.723794846057E12</v>
       </c>
       <c r="AA52" t="s">
         <v>1951</v>
@@ -11189,10 +11805,10 @@
         <v>1611</v>
       </c>
       <c r="R53" t="n">
-        <v>3.2000000000000015</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T53" t="n">
-        <v>1.723777531015E12</v>
+        <v>1.723794850886E12</v>
       </c>
       <c r="AA53" t="s">
         <v>1936</v>
@@ -11294,10 +11910,10 @@
         <v>1614</v>
       </c>
       <c r="R56" t="n">
-        <v>1.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T56" t="n">
-        <v>1.723022001881E12</v>
+        <v>1.723794855724E12</v>
       </c>
       <c r="AA56" t="s">
         <v>1954</v>
@@ -11749,10 +12365,10 @@
         <v>1626</v>
       </c>
       <c r="R69" t="n">
-        <v>2.5500000000000003</v>
+        <v>1.5</v>
       </c>
       <c r="T69" t="n">
-        <v>1.723514267447E12</v>
+        <v>1.723794859401E12</v>
       </c>
       <c r="AA69" t="s">
         <v>1966</v>
@@ -11784,10 +12400,10 @@
         <v>1297</v>
       </c>
       <c r="R70" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T70" t="n">
-        <v>1.723022097957E12</v>
+        <v>1.723794864288E12</v>
       </c>
       <c r="AA70" t="s">
         <v>1967</v>
@@ -11854,10 +12470,10 @@
         <v>1628</v>
       </c>
       <c r="R72" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T72" t="n">
-        <v>1.723452640472E12</v>
+        <v>1.723794868356E12</v>
       </c>
       <c r="AA72" t="s">
         <v>1969</v>
@@ -11924,10 +12540,10 @@
         <v>1630</v>
       </c>
       <c r="R74" t="n">
-        <v>1.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T74" t="n">
-        <v>1.723022103769E12</v>
+        <v>1.723794871276E12</v>
       </c>
       <c r="AA74" t="s">
         <v>1971</v>
@@ -11994,10 +12610,10 @@
         <v>1632</v>
       </c>
       <c r="R76" t="n">
-        <v>2.8999999999999995</v>
+        <v>1.3499999999999979</v>
       </c>
       <c r="T76" t="n">
-        <v>1.723515323985E12</v>
+        <v>1.723794878258E12</v>
       </c>
       <c r="AA76" t="s">
         <v>1969</v>
@@ -12134,10 +12750,10 @@
         <v>1636</v>
       </c>
       <c r="R80" t="n">
-        <v>1.8999999999999995</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T80" t="n">
-        <v>1.723514309867E12</v>
+        <v>1.723794881556E12</v>
       </c>
       <c r="AA80" t="s">
         <v>1975</v>
@@ -12169,10 +12785,10 @@
         <v>1637</v>
       </c>
       <c r="R81" t="n">
-        <v>2.5500000000000003</v>
+        <v>1.5</v>
       </c>
       <c r="T81" t="n">
-        <v>1.72351431208E12</v>
+        <v>1.723794883673E12</v>
       </c>
       <c r="AA81" t="s">
         <v>1976</v>
@@ -12204,10 +12820,10 @@
         <v>566</v>
       </c>
       <c r="R82" t="n">
-        <v>1.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T82" t="n">
-        <v>1.723452862932E12</v>
+        <v>1.723794887376E12</v>
       </c>
       <c r="AA82" t="s">
         <v>1976</v>
@@ -12239,10 +12855,10 @@
         <v>1638</v>
       </c>
       <c r="R83" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T83" t="n">
-        <v>1.723514313831E12</v>
+        <v>1.72379488949E12</v>
       </c>
       <c r="AA83" t="s">
         <v>1977</v>
@@ -12344,10 +12960,10 @@
         <v>1641</v>
       </c>
       <c r="R86" t="n">
-        <v>1.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T86" t="n">
-        <v>1.72302242146E12</v>
+        <v>1.723794896591E12</v>
       </c>
       <c r="AA86" t="s">
         <v>1980</v>
@@ -12449,10 +13065,13 @@
         <v>1644</v>
       </c>
       <c r="R89" t="n">
-        <v>1.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T89" t="n">
-        <v>1.72345292299E12</v>
+        <v>1.723794902493E12</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>1926</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -12481,10 +13100,13 @@
         <v>1645</v>
       </c>
       <c r="R90" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T90" t="n">
-        <v>1.723022435874E12</v>
+        <v>1.723794905482E12</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>1981</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -12518,6 +13140,9 @@
       <c r="T91" t="n">
         <v>1.722909177906E12</v>
       </c>
+      <c r="AA91" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1">
@@ -12545,10 +13170,13 @@
         <v>1647</v>
       </c>
       <c r="R92" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T92" t="n">
-        <v>1.723453562455E12</v>
+        <v>1.723794955307E12</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -12582,6 +13210,9 @@
       <c r="T93" t="n">
         <v>1.722909191584E12</v>
       </c>
+      <c r="AA93" t="s">
+        <v>1975</v>
+      </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1">
@@ -12614,6 +13245,9 @@
       <c r="T94" t="n">
         <v>1.723022444656E12</v>
       </c>
+      <c r="AA94" t="s">
+        <v>1976</v>
+      </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1">
@@ -12646,6 +13280,9 @@
       <c r="T95" t="n">
         <v>1.723022446327E12</v>
       </c>
+      <c r="AA95" t="s">
+        <v>1942</v>
+      </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1">
@@ -12678,6 +13315,9 @@
       <c r="T96" t="n">
         <v>1.722909237658E12</v>
       </c>
+      <c r="AA96" t="s">
+        <v>1917</v>
+      </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1">
@@ -12710,6 +13350,9 @@
       <c r="T97" t="n">
         <v>1.722909241446E12</v>
       </c>
+      <c r="AA97" t="s">
+        <v>1984</v>
+      </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1">
@@ -12737,10 +13380,13 @@
         <v>1653</v>
       </c>
       <c r="R98" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T98" t="n">
-        <v>1.72351534548E12</v>
+        <v>1.723794985929E12</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>1951</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -12769,10 +13415,13 @@
         <v>1654</v>
       </c>
       <c r="R99" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T99" t="n">
-        <v>1.723453586313E12</v>
+        <v>1.723795041623E12</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -12801,10 +13450,13 @@
         <v>1655</v>
       </c>
       <c r="R100" t="n">
-        <v>2.1999999999999993</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T100" t="n">
-        <v>1.723514320405E12</v>
+        <v>1.723795046135E12</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>1985</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -12838,6 +13490,9 @@
       <c r="T101" t="n">
         <v>1.723022578266E12</v>
       </c>
+      <c r="AA101" t="s">
+        <v>1986</v>
+      </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1">
@@ -12870,6 +13525,9 @@
       <c r="T102" t="n">
         <v>1.722914612665E12</v>
       </c>
+      <c r="AA102" t="s">
+        <v>1951</v>
+      </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1">
@@ -12897,10 +13555,13 @@
         <v>607</v>
       </c>
       <c r="R103" t="n">
-        <v>1.8999999999999995</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T103" t="n">
-        <v>1.72351432659E12</v>
+        <v>1.723795047662E12</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>1987</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -12929,10 +13590,13 @@
         <v>1657</v>
       </c>
       <c r="R104" t="n">
-        <v>1.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T104" t="n">
-        <v>1.723022585713E12</v>
+        <v>1.723795050395E12</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>1988</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -12961,10 +13625,13 @@
         <v>1658</v>
       </c>
       <c r="R105" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T105" t="n">
-        <v>1.723453635783E12</v>
+        <v>1.723795055331E12</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>1989</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -12998,6 +13665,9 @@
       <c r="T106" t="n">
         <v>1.722914662199E12</v>
       </c>
+      <c r="AA106" t="s">
+        <v>1990</v>
+      </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1">
@@ -13030,6 +13700,9 @@
       <c r="T107" t="n">
         <v>1.723022595159E12</v>
       </c>
+      <c r="AA107" t="s">
+        <v>1976</v>
+      </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1">
@@ -13062,6 +13735,9 @@
       <c r="T108" t="n">
         <v>1.722914714561E12</v>
       </c>
+      <c r="AA108" t="s">
+        <v>1976</v>
+      </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1">
@@ -13094,6 +13770,9 @@
       <c r="T109" t="n">
         <v>1.72302259885E12</v>
       </c>
+      <c r="AA109" t="s">
+        <v>1976</v>
+      </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1">
@@ -13126,6 +13805,9 @@
       <c r="T110" t="n">
         <v>1.722914856395E12</v>
       </c>
+      <c r="AA110" t="s">
+        <v>1976</v>
+      </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1">
@@ -13158,6 +13840,9 @@
       <c r="T111" t="n">
         <v>1.722914860273E12</v>
       </c>
+      <c r="AA111" t="s">
+        <v>1991</v>
+      </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1">
@@ -13185,10 +13870,13 @@
         <v>1067</v>
       </c>
       <c r="R112" t="n">
-        <v>1.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T112" t="n">
-        <v>1.723453639501E12</v>
+        <v>1.723795059504E12</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>1951</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -13217,10 +13905,13 @@
         <v>1664</v>
       </c>
       <c r="R113" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T113" t="n">
-        <v>1.72345365582E12</v>
+        <v>1.723795068365E12</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>1992</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -13249,10 +13940,13 @@
         <v>1665</v>
       </c>
       <c r="R114" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T114" t="n">
-        <v>1.723453660992E12</v>
+        <v>1.723795097586E12</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>1975</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -13286,6 +13980,9 @@
       <c r="T115" t="n">
         <v>1.722914941533E12</v>
       </c>
+      <c r="AA115" t="s">
+        <v>1993</v>
+      </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1">
@@ -13318,6 +14015,9 @@
       <c r="T116" t="n">
         <v>1.722914946742E12</v>
       </c>
+      <c r="AA116" t="s">
+        <v>1994</v>
+      </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1">
@@ -13350,6 +14050,9 @@
       <c r="T117" t="n">
         <v>1.722915053823E12</v>
       </c>
+      <c r="AA117" t="s">
+        <v>1917</v>
+      </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1">
@@ -13382,6 +14085,9 @@
       <c r="T118" t="n">
         <v>1.722927007237E12</v>
       </c>
+      <c r="AA118" t="s">
+        <v>1976</v>
+      </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1">
@@ -13409,10 +14115,13 @@
         <v>1670</v>
       </c>
       <c r="R119" t="n">
-        <v>2.5500000000000003</v>
+        <v>1.5</v>
       </c>
       <c r="T119" t="n">
-        <v>1.723514329025E12</v>
+        <v>1.72379510253E12</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -13441,10 +14150,13 @@
         <v>1263</v>
       </c>
       <c r="R120" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T120" t="n">
-        <v>1.723077481403E12</v>
+        <v>1.723795105665E12</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -13473,10 +14185,13 @@
         <v>1671</v>
       </c>
       <c r="R121" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T121" t="n">
-        <v>1.723453668422E12</v>
+        <v>1.723795109304E12</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>1986</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -13505,10 +14220,13 @@
         <v>1672</v>
       </c>
       <c r="R122" t="n">
-        <v>3.2000000000000015</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T122" t="n">
-        <v>1.723777535565E12</v>
+        <v>1.723795111267E12</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -13537,10 +14255,13 @@
         <v>1673</v>
       </c>
       <c r="R123" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T123" t="n">
-        <v>1.723077496384E12</v>
+        <v>1.723795120179E12</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>1951</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -13569,10 +14290,13 @@
         <v>1674</v>
       </c>
       <c r="R124" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="T124" t="n">
-        <v>1.723514357767E12</v>
+        <v>1.723795125412E12</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>1995</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -13601,10 +14325,10 @@
         <v>1675</v>
       </c>
       <c r="R125" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T125" t="n">
-        <v>1.723077523263E12</v>
+        <v>1.723795132509E12</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -13665,10 +14389,10 @@
         <v>1676</v>
       </c>
       <c r="R127" t="n">
-        <v>2.7500000000000036</v>
+        <v>1.3500000000000032</v>
       </c>
       <c r="T127" t="n">
-        <v>1.723777097164E12</v>
+        <v>1.723795134909E12</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -13697,10 +14421,10 @@
         <v>1677</v>
       </c>
       <c r="R128" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T128" t="n">
-        <v>1.7230775337E12</v>
+        <v>1.723795169172E12</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -13729,10 +14453,10 @@
         <v>1678</v>
       </c>
       <c r="R129" t="n">
-        <v>3.2500000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="T129" t="n">
-        <v>1.723777106139E12</v>
+        <v>1.723795171732E12</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -13761,10 +14485,10 @@
         <v>1679</v>
       </c>
       <c r="R130" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T130" t="n">
-        <v>1.723514470077E12</v>
+        <v>1.723795178455E12</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -13793,10 +14517,10 @@
         <v>1680</v>
       </c>
       <c r="R131" t="n">
-        <v>1.8999999999999995</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T131" t="n">
-        <v>1.723514474639E12</v>
+        <v>1.723795182201E12</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -13857,10 +14581,10 @@
         <v>1682</v>
       </c>
       <c r="R133" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T133" t="n">
-        <v>1.723077622969E12</v>
+        <v>1.723795186151E12</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -13953,10 +14677,10 @@
         <v>1684</v>
       </c>
       <c r="R136" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T136" t="n">
-        <v>1.723453799755E12</v>
+        <v>1.723795191406E12</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -14017,10 +14741,10 @@
         <v>1685</v>
       </c>
       <c r="R138" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T138" t="n">
-        <v>1.723077645622E12</v>
+        <v>1.723795202645E12</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -14497,10 +15221,10 @@
         <v>1698</v>
       </c>
       <c r="R153" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T153" t="n">
-        <v>1.723077678434E12</v>
+        <v>1.723795204277E12</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -14593,10 +15317,10 @@
         <v>1701</v>
       </c>
       <c r="R156" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T156" t="n">
-        <v>1.723077684198E12</v>
+        <v>1.723795206172E12</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -14625,10 +15349,10 @@
         <v>1702</v>
       </c>
       <c r="R157" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T157" t="n">
-        <v>1.723077685793E12</v>
+        <v>1.723795208499E12</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -14689,10 +15413,10 @@
         <v>1703</v>
       </c>
       <c r="R159" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T159" t="n">
-        <v>1.723077727902E12</v>
+        <v>1.72379521882E12</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -14785,10 +15509,10 @@
         <v>1706</v>
       </c>
       <c r="R162" t="n">
-        <v>2.8999999999999995</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T162" t="n">
-        <v>1.723514484594E12</v>
+        <v>1.723795223288E12</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -14849,10 +15573,10 @@
         <v>1708</v>
       </c>
       <c r="R164" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T164" t="n">
-        <v>1.723077737062E12</v>
+        <v>1.723795226819E12</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -14881,10 +15605,10 @@
         <v>1709</v>
       </c>
       <c r="R165" t="n">
-        <v>1.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T165" t="n">
-        <v>1.723077756448E12</v>
+        <v>1.723795235393E12</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -14945,10 +15669,10 @@
         <v>1711</v>
       </c>
       <c r="R167" t="n">
-        <v>1.5999999999999996</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T167" t="n">
-        <v>1.723077759429E12</v>
+        <v>1.723795256294E12</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -15009,10 +15733,10 @@
         <v>1713</v>
       </c>
       <c r="R169" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T169" t="n">
-        <v>1.723077763394E12</v>
+        <v>1.723795261081E12</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -15137,10 +15861,10 @@
         <v>1716</v>
       </c>
       <c r="R173" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T173" t="n">
-        <v>1.723514503932E12</v>
+        <v>1.723795271066E12</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -15265,10 +15989,10 @@
         <v>1720</v>
       </c>
       <c r="R177" t="n">
-        <v>3.2499999999999996</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T177" t="n">
-        <v>1.723777538085E12</v>
+        <v>1.723795274116E12</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -15425,10 +16149,10 @@
         <v>1699</v>
       </c>
       <c r="R182" t="n">
-        <v>2.8999999999999995</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T182" t="n">
-        <v>1.723514514173E12</v>
+        <v>1.723795277013E12</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -15521,10 +16245,10 @@
         <v>1727</v>
       </c>
       <c r="R185" t="n">
-        <v>2.8999999999999995</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T185" t="n">
-        <v>1.723514519615E12</v>
+        <v>1.723795329256E12</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -15585,10 +16309,10 @@
         <v>1727</v>
       </c>
       <c r="R187" t="n">
-        <v>2.65</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T187" t="n">
-        <v>1.723514524487E12</v>
+        <v>1.723795359353E12</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -15681,10 +16405,10 @@
         <v>1729</v>
       </c>
       <c r="R190" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T190" t="n">
-        <v>1.723514535869E12</v>
+        <v>1.723795364779E12</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -15713,10 +16437,10 @@
         <v>1729</v>
       </c>
       <c r="R191" t="n">
-        <v>4.100000000000003</v>
+        <v>1.3000000000000025</v>
       </c>
       <c r="T191" t="n">
-        <v>1.723777934366E12</v>
+        <v>1.723795371909E12</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -15745,10 +16469,10 @@
         <v>1385</v>
       </c>
       <c r="R192" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T192" t="n">
-        <v>1.723077825416E12</v>
+        <v>1.723795374949E12</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -15809,10 +16533,10 @@
         <v>1729</v>
       </c>
       <c r="R194" t="n">
-        <v>3.050000000000004</v>
+        <v>1.3000000000000034</v>
       </c>
       <c r="T194" t="n">
-        <v>1.723777548547E12</v>
+        <v>1.72379538234E12</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -16033,10 +16757,10 @@
         <v>1729</v>
       </c>
       <c r="R201" t="n">
-        <v>2.2</v>
+        <v>1.4499999999999997</v>
       </c>
       <c r="T201" t="n">
-        <v>1.723514552714E12</v>
+        <v>1.723795386132E12</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -16577,10 +17301,10 @@
         <v>1747</v>
       </c>
       <c r="R218" t="n">
-        <v>2.8500000000000014</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T218" t="n">
-        <v>1.723533661041E12</v>
+        <v>1.723795452623E12</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -16673,10 +17397,10 @@
         <v>1750</v>
       </c>
       <c r="R221" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="T221" t="n">
-        <v>1.723514562523E12</v>
+        <v>1.723795455315E12</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -16769,10 +17493,10 @@
         <v>1752</v>
       </c>
       <c r="R224" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T224" t="n">
-        <v>1.723078045372E12</v>
+        <v>1.723795460341E12</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -16801,10 +17525,10 @@
         <v>1753</v>
       </c>
       <c r="R225" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T225" t="n">
-        <v>1.723078047287E12</v>
+        <v>1.723795463966E12</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -16897,10 +17621,10 @@
         <v>1755</v>
       </c>
       <c r="R228" t="n">
-        <v>3.1500000000000026</v>
+        <v>1.4000000000000021</v>
       </c>
       <c r="T228" t="n">
-        <v>1.72377755096E12</v>
+        <v>1.723795465828E12</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -17057,10 +17781,10 @@
         <v>1760</v>
       </c>
       <c r="R233" t="n">
-        <v>3.2500000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="T233" t="n">
-        <v>1.723777124031E12</v>
+        <v>1.723795467126E12</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -17089,10 +17813,10 @@
         <v>1761</v>
       </c>
       <c r="R234" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T234" t="n">
-        <v>1.723078099231E12</v>
+        <v>1.723795471459E12</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -17249,10 +17973,10 @@
         <v>1766</v>
       </c>
       <c r="R239" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T239" t="n">
-        <v>1.723454322398E12</v>
+        <v>1.723795478837E12</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -17281,10 +18005,10 @@
         <v>1767</v>
       </c>
       <c r="R240" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T240" t="n">
-        <v>1.723777131484E12</v>
+        <v>1.723795485467E12</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -17313,10 +18037,10 @@
         <v>1768</v>
       </c>
       <c r="R241" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T241" t="n">
-        <v>1.723454366008E12</v>
+        <v>1.723795576436E12</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -17441,10 +18165,10 @@
         <v>1772</v>
       </c>
       <c r="R245" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T245" t="n">
-        <v>1.723515404541E12</v>
+        <v>1.723795579601E12</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -17473,10 +18197,10 @@
         <v>1773</v>
       </c>
       <c r="R246" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T246" t="n">
-        <v>1.723515406161E12</v>
+        <v>1.723795581369E12</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -17569,10 +18293,10 @@
         <v>1776</v>
       </c>
       <c r="R249" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T249" t="n">
-        <v>1.72307824473E12</v>
+        <v>1.723795587561E12</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -17601,10 +18325,10 @@
         <v>1777</v>
       </c>
       <c r="R250" t="n">
-        <v>2.5999999999999996</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T250" t="n">
-        <v>1.723514717288E12</v>
+        <v>1.723795589349E12</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -17697,10 +18421,10 @@
         <v>1779</v>
       </c>
       <c r="R253" t="n">
-        <v>1.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T253" t="n">
-        <v>1.723078270213E12</v>
+        <v>1.723795594765E12</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -17729,10 +18453,10 @@
         <v>1780</v>
       </c>
       <c r="R254" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T254" t="n">
-        <v>1.723078273397E12</v>
+        <v>1.723796042179E12</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -17825,10 +18549,10 @@
         <v>1782</v>
       </c>
       <c r="R257" t="n">
-        <v>4.050000000000005</v>
+        <v>1.6000000000000045</v>
       </c>
       <c r="T257" t="n">
-        <v>1.7237779403E12</v>
+        <v>1.723796045289E12</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -17857,10 +18581,10 @@
         <v>1783</v>
       </c>
       <c r="R258" t="n">
-        <v>1.9499999999999997</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T258" t="n">
-        <v>1.72345439406E12</v>
+        <v>1.723796082002E12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -17918,10 +18642,10 @@
         <v>1784</v>
       </c>
       <c r="R260" t="n">
-        <v>1.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T260" t="n">
-        <v>1.723454396322E12</v>
+        <v>1.723796085957E12</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -18014,10 +18738,10 @@
         <v>1787</v>
       </c>
       <c r="R263" t="n">
-        <v>3.1500000000000017</v>
+        <v>1.4000000000000012</v>
       </c>
       <c r="T263" t="n">
-        <v>1.723777560374E12</v>
+        <v>1.723796090841E12</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -18046,10 +18770,10 @@
         <v>1788</v>
       </c>
       <c r="R264" t="n">
-        <v>1.8999999999999995</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T264" t="n">
-        <v>1.723514755173E12</v>
+        <v>1.723796095957E12</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -18110,10 +18834,10 @@
         <v>1790</v>
       </c>
       <c r="R266" t="n">
-        <v>4.8000000000000105</v>
+        <v>1.3000000000000105</v>
       </c>
       <c r="T266" t="n">
-        <v>1.723777956013E12</v>
+        <v>1.723796098827E12</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -18142,10 +18866,10 @@
         <v>1791</v>
       </c>
       <c r="R267" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T267" t="n">
-        <v>1.723516604997E12</v>
+        <v>1.72379610023E12</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -18206,10 +18930,10 @@
         <v>1793</v>
       </c>
       <c r="R269" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T269" t="n">
-        <v>1.723454482754E12</v>
+        <v>1.723796105223E12</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -18238,10 +18962,10 @@
         <v>945</v>
       </c>
       <c r="R270" t="n">
-        <v>2.65</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T270" t="n">
-        <v>1.723514775959E12</v>
+        <v>1.723796109474E12</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -18270,10 +18994,10 @@
         <v>1383</v>
       </c>
       <c r="R271" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T271" t="n">
-        <v>1.723078374453E12</v>
+        <v>1.723796114489E12</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -18334,10 +19058,10 @@
         <v>1795</v>
       </c>
       <c r="R273" t="n">
-        <v>3.2500000000000004</v>
+        <v>1.4499999999999997</v>
       </c>
       <c r="T273" t="n">
-        <v>1.723777156852E12</v>
+        <v>1.723796117707E12</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -18398,10 +19122,10 @@
         <v>1797</v>
       </c>
       <c r="R275" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T275" t="n">
-        <v>1.723514787279E12</v>
+        <v>1.72379613895E12</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -18558,10 +19282,10 @@
         <v>1802</v>
       </c>
       <c r="R280" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T280" t="n">
-        <v>1.723454511224E12</v>
+        <v>1.723796143195E12</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -18622,10 +19346,10 @@
         <v>1804</v>
       </c>
       <c r="R282" t="n">
-        <v>1.8999999999999995</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T282" t="n">
-        <v>1.723514789701E12</v>
+        <v>1.723796147866E12</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -18686,10 +19410,10 @@
         <v>1806</v>
       </c>
       <c r="R284" t="n">
-        <v>2.8999999999999995</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T284" t="n">
-        <v>1.723777164894E12</v>
+        <v>1.723796149614E12</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -18718,10 +19442,10 @@
         <v>1807</v>
       </c>
       <c r="R285" t="n">
-        <v>3.1999999999999997</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="T285" t="n">
-        <v>1.723777170079E12</v>
+        <v>1.723796152217E12</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -18750,10 +19474,10 @@
         <v>1808</v>
       </c>
       <c r="R286" t="n">
-        <v>3.0500000000000047</v>
+        <v>1.3000000000000043</v>
       </c>
       <c r="T286" t="n">
-        <v>1.723777570058E12</v>
+        <v>1.723796196149E12</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -18782,10 +19506,10 @@
         <v>1809</v>
       </c>
       <c r="R287" t="n">
-        <v>3.1500000000000026</v>
+        <v>1.4000000000000021</v>
       </c>
       <c r="T287" t="n">
-        <v>1.723777575481E12</v>
+        <v>1.72379621459E12</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -18814,10 +19538,10 @@
         <v>1810</v>
       </c>
       <c r="R288" t="n">
-        <v>1.8999999999999995</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T288" t="n">
-        <v>1.723454593022E12</v>
+        <v>1.723796231735E12</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -18846,10 +19570,10 @@
         <v>1811</v>
       </c>
       <c r="R289" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T289" t="n">
-        <v>1.723777181074E12</v>
+        <v>1.723796241748E12</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -18942,10 +19666,10 @@
         <v>1814</v>
       </c>
       <c r="R292" t="n">
-        <v>3.1000000000000028</v>
+        <v>1.3500000000000023</v>
       </c>
       <c r="T292" t="n">
-        <v>1.723777578202E12</v>
+        <v>1.723796259991E12</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -18974,10 +19698,10 @@
         <v>1815</v>
       </c>
       <c r="R293" t="n">
-        <v>2.8999999999999995</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T293" t="n">
-        <v>1.723514830531E12</v>
+        <v>1.72379628832E12</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -19006,10 +19730,10 @@
         <v>1816</v>
       </c>
       <c r="R294" t="n">
-        <v>2.8000000000000025</v>
+        <v>1.4000000000000021</v>
       </c>
       <c r="T294" t="n">
-        <v>1.723516627657E12</v>
+        <v>1.723796290897E12</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -19038,10 +19762,10 @@
         <v>1817</v>
       </c>
       <c r="R295" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T295" t="n">
-        <v>1.723078519435E12</v>
+        <v>1.723796312608E12</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -19230,10 +19954,10 @@
         <v>1823</v>
       </c>
       <c r="R301" t="n">
-        <v>1.8999999999999995</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T301" t="n">
-        <v>1.723514885273E12</v>
+        <v>1.723796316361E12</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -19262,10 +19986,10 @@
         <v>1824</v>
       </c>
       <c r="R302" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T302" t="n">
-        <v>1.723777186774E12</v>
+        <v>1.723796323598E12</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -19358,10 +20082,10 @@
         <v>1827</v>
       </c>
       <c r="R305" t="n">
-        <v>3.150000000000001</v>
+        <v>1.4000000000000004</v>
       </c>
       <c r="T305" t="n">
-        <v>1.723777580316E12</v>
+        <v>1.723796326107E12</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -19390,10 +20114,10 @@
         <v>1493</v>
       </c>
       <c r="R306" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T306" t="n">
-        <v>1.723078549307E12</v>
+        <v>1.72379633498E12</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -19486,10 +20210,10 @@
         <v>1830</v>
       </c>
       <c r="R309" t="n">
-        <v>2.4500000000000024</v>
+        <v>1.4000000000000021</v>
       </c>
       <c r="T309" t="n">
-        <v>1.723514907363E12</v>
+        <v>1.72379633684E12</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -19518,10 +20242,10 @@
         <v>1831</v>
       </c>
       <c r="R310" t="n">
-        <v>4.25</v>
+        <v>1.4499999999999993</v>
       </c>
       <c r="T310" t="n">
-        <v>1.7237779455E12</v>
+        <v>1.723796340202E12</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -19582,10 +20306,10 @@
         <v>1833</v>
       </c>
       <c r="R312" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T312" t="n">
-        <v>1.723514943875E12</v>
+        <v>1.723796442971E12</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -19614,10 +20338,10 @@
         <v>1834</v>
       </c>
       <c r="R313" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T313" t="n">
-        <v>1.723454649607E12</v>
+        <v>1.723796447297E12</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -19646,10 +20370,10 @@
         <v>1835</v>
       </c>
       <c r="R314" t="n">
-        <v>1.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T314" t="n">
-        <v>1.723454656616E12</v>
+        <v>1.72379645018E12</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -19710,10 +20434,10 @@
         <v>1837</v>
       </c>
       <c r="R316" t="n">
-        <v>1.8999999999999995</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T316" t="n">
-        <v>1.723514947269E12</v>
+        <v>1.723796452378E12</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -19774,10 +20498,10 @@
         <v>1173</v>
       </c>
       <c r="R318" t="n">
-        <v>2.1500000000000012</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T318" t="n">
-        <v>1.723514950653E12</v>
+        <v>1.723796455145E12</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -19806,10 +20530,10 @@
         <v>1839</v>
       </c>
       <c r="R319" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T319" t="n">
-        <v>1.723078620504E12</v>
+        <v>1.723796457396E12</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -19838,10 +20562,10 @@
         <v>1840</v>
       </c>
       <c r="R320" t="n">
-        <v>2.8500000000000014</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T320" t="n">
-        <v>1.723533736926E12</v>
+        <v>1.723796459033E12</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -19870,10 +20594,10 @@
         <v>1841</v>
       </c>
       <c r="R321" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T321" t="n">
-        <v>1.723078628619E12</v>
+        <v>1.723796466042E12</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -19902,10 +20626,10 @@
         <v>1842</v>
       </c>
       <c r="R322" t="n">
-        <v>2.8500000000000014</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T322" t="n">
-        <v>1.723777216111E12</v>
+        <v>1.723796494676E12</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -19998,10 +20722,10 @@
         <v>1845</v>
       </c>
       <c r="R325" t="n">
-        <v>1.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T325" t="n">
-        <v>1.723078663599E12</v>
+        <v>1.723954194315E12</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -20030,10 +20754,10 @@
         <v>1846</v>
       </c>
       <c r="R326" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T326" t="n">
-        <v>1.723078667883E12</v>
+        <v>1.723954203317E12</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -20286,10 +21010,10 @@
         <v>1527</v>
       </c>
       <c r="R334" t="n">
-        <v>3.1500000000000026</v>
+        <v>1.3500000000000019</v>
       </c>
       <c r="T334" t="n">
-        <v>1.723777596322E12</v>
+        <v>1.723954209115E12</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -20318,10 +21042,10 @@
         <v>1854</v>
       </c>
       <c r="R335" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T335" t="n">
-        <v>1.723777224884E12</v>
+        <v>1.723954210605E12</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -20382,10 +21106,10 @@
         <v>1856</v>
       </c>
       <c r="R337" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T337" t="n">
-        <v>1.723079889099E12</v>
+        <v>1.72395421568E12</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -20414,10 +21138,10 @@
         <v>1857</v>
       </c>
       <c r="R338" t="n">
-        <v>1.9499999999999997</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T338" t="n">
-        <v>1.723454735817E12</v>
+        <v>1.723954220717E12</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -20446,10 +21170,10 @@
         <v>1643</v>
       </c>
       <c r="R339" t="n">
-        <v>2.8500000000000014</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T339" t="n">
-        <v>1.723777228406E12</v>
+        <v>1.723954228746E12</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -20478,10 +21202,10 @@
         <v>1858</v>
       </c>
       <c r="R340" t="n">
-        <v>2.4500000000000024</v>
+        <v>1.4000000000000021</v>
       </c>
       <c r="T340" t="n">
-        <v>1.723514986122E12</v>
+        <v>1.72395423193E12</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -20510,10 +21234,10 @@
         <v>1859</v>
       </c>
       <c r="R341" t="n">
-        <v>3.6000000000000076</v>
+        <v>1.500000000000007</v>
       </c>
       <c r="T341" t="n">
-        <v>1.723777598582E12</v>
+        <v>1.723954234462E12</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -20542,10 +21266,10 @@
         <v>1860</v>
       </c>
       <c r="R342" t="n">
-        <v>3.350000000000006</v>
+        <v>1.6000000000000054</v>
       </c>
       <c r="T342" t="n">
-        <v>1.723777262706E12</v>
+        <v>1.723954236854E12</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -20574,10 +21298,10 @@
         <v>1861</v>
       </c>
       <c r="R343" t="n">
-        <v>3.300000000000007</v>
+        <v>1.5500000000000065</v>
       </c>
       <c r="T343" t="n">
-        <v>1.723777269397E12</v>
+        <v>1.723954247853E12</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -20670,10 +21394,10 @@
         <v>1864</v>
       </c>
       <c r="R346" t="n">
-        <v>1.5999999999999996</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="T346" t="n">
-        <v>1.723079931761E12</v>
+        <v>1.723954249956E12</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -20702,10 +21426,10 @@
         <v>1865</v>
       </c>
       <c r="R347" t="n">
-        <v>1.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T347" t="n">
-        <v>1.723454793551E12</v>
+        <v>1.72395426013E12</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -20734,10 +21458,10 @@
         <v>1866</v>
       </c>
       <c r="R348" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T348" t="n">
-        <v>1.723515021413E12</v>
+        <v>1.723954264048E12</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -20766,10 +21490,10 @@
         <v>1867</v>
       </c>
       <c r="R349" t="n">
-        <v>3.1500000000000017</v>
+        <v>1.4000000000000012</v>
       </c>
       <c r="T349" t="n">
-        <v>1.723777600611E12</v>
+        <v>1.72395426571E12</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -20894,10 +21618,10 @@
         <v>1869</v>
       </c>
       <c r="R353" t="n">
-        <v>3.1000000000000036</v>
+        <v>1.3500000000000032</v>
       </c>
       <c r="T353" t="n">
-        <v>1.723777603728E12</v>
+        <v>1.723954272264E12</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -20926,10 +21650,10 @@
         <v>1870</v>
       </c>
       <c r="R354" t="n">
-        <v>3.2000000000000015</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T354" t="n">
-        <v>1.72377760591E12</v>
+        <v>1.72395427474E12</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -20990,10 +21714,10 @@
         <v>1872</v>
       </c>
       <c r="R356" t="n">
-        <v>3.150000000000001</v>
+        <v>1.4000000000000004</v>
       </c>
       <c r="T356" t="n">
-        <v>1.723777608053E12</v>
+        <v>1.723954277032E12</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -21054,10 +21778,10 @@
         <v>1874</v>
       </c>
       <c r="R358" t="n">
-        <v>1.8999999999999995</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T358" t="n">
-        <v>1.723515042325E12</v>
+        <v>1.72395427885E12</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -21150,10 +21874,10 @@
         <v>1876</v>
       </c>
       <c r="R361" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T361" t="n">
-        <v>1.723515053367E12</v>
+        <v>1.723954286651E12</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -21246,10 +21970,10 @@
         <v>1879</v>
       </c>
       <c r="R364" t="n">
-        <v>2.8999999999999995</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T364" t="n">
-        <v>1.723515058461E12</v>
+        <v>1.723954288469E12</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -21278,10 +22002,10 @@
         <v>1880</v>
       </c>
       <c r="R365" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T365" t="n">
-        <v>1.723080482766E12</v>
+        <v>1.723954291968E12</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -21342,10 +22066,10 @@
         <v>1882</v>
       </c>
       <c r="R367" t="n">
-        <v>3.1500000000000097</v>
+        <v>1.3000000000000096</v>
       </c>
       <c r="T367" t="n">
-        <v>1.723777609672E12</v>
+        <v>1.723954297713E12</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -21406,10 +22130,10 @@
         <v>1884</v>
       </c>
       <c r="R369" t="n">
-        <v>3.0500000000000047</v>
+        <v>1.3000000000000043</v>
       </c>
       <c r="T369" t="n">
-        <v>1.723777611509E12</v>
+        <v>1.72395429952E12</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -21470,10 +22194,10 @@
         <v>1886</v>
       </c>
       <c r="R371" t="n">
-        <v>1.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T371" t="n">
-        <v>1.723080520472E12</v>
+        <v>1.723954305022E12</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -21502,10 +22226,10 @@
         <v>1887</v>
       </c>
       <c r="R372" t="n">
-        <v>3.2000000000000006</v>
+        <v>1.4500000000000002</v>
       </c>
       <c r="T372" t="n">
-        <v>1.72377761612E12</v>
+        <v>1.723954308736E12</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -21598,10 +22322,10 @@
         <v>1292</v>
       </c>
       <c r="R375" t="n">
-        <v>2.8000000000000007</v>
+        <v>1.35</v>
       </c>
       <c r="T375" t="n">
-        <v>1.723533807112E12</v>
+        <v>1.723954310458E12</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -21662,10 +22386,10 @@
         <v>1890</v>
       </c>
       <c r="R377" t="n">
-        <v>3.350000000000006</v>
+        <v>1.6000000000000054</v>
       </c>
       <c r="T377" t="n">
-        <v>1.723777308347E12</v>
+        <v>1.723954313366E12</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -21694,10 +22418,10 @@
         <v>1551</v>
       </c>
       <c r="R378" t="n">
-        <v>1.8999999999999995</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T378" t="n">
-        <v>1.723454913303E12</v>
+        <v>1.723954317931E12</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -21726,10 +22450,10 @@
         <v>1891</v>
       </c>
       <c r="R379" t="n">
-        <v>3.350000000000006</v>
+        <v>1.6000000000000054</v>
       </c>
       <c r="T379" t="n">
-        <v>1.723777310486E12</v>
+        <v>1.723954319591E12</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -21758,10 +22482,10 @@
         <v>1892</v>
       </c>
       <c r="R380" t="n">
-        <v>3.0500000000000047</v>
+        <v>1.3000000000000043</v>
       </c>
       <c r="T380" t="n">
-        <v>1.723777620045E12</v>
+        <v>1.723954327585E12</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -21790,10 +22514,10 @@
         <v>1566</v>
       </c>
       <c r="R381" t="n">
-        <v>3.1500000000000097</v>
+        <v>2.7500000000000093</v>
       </c>
       <c r="T381" t="n">
-        <v>1.723777622017E12</v>
+        <v>1.723954330774E12</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -21822,10 +22546,10 @@
         <v>1893</v>
       </c>
       <c r="R382" t="n">
-        <v>3.2000000000000015</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T382" t="n">
-        <v>1.723777624477E12</v>
+        <v>1.723954339272E12</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -21886,10 +22610,10 @@
         <v>1895</v>
       </c>
       <c r="R384" t="n">
-        <v>3.2500000000000004</v>
+        <v>2.7499999999999996</v>
       </c>
       <c r="T384" t="n">
-        <v>1.723777333161E12</v>
+        <v>1.723954343061E12</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -21918,10 +22642,10 @@
         <v>1218</v>
       </c>
       <c r="R385" t="n">
-        <v>3.2000000000000086</v>
+        <v>1.4500000000000082</v>
       </c>
       <c r="T385" t="n">
-        <v>1.723777630267E12</v>
+        <v>1.72395435042E12</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -21982,10 +22706,10 @@
         <v>1896</v>
       </c>
       <c r="R387" t="n">
-        <v>1.8999999999999995</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T387" t="n">
-        <v>1.723454955669E12</v>
+        <v>1.723954353236E12</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -22014,10 +22738,10 @@
         <v>1897</v>
       </c>
       <c r="R388" t="n">
-        <v>2.8500000000000014</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T388" t="n">
-        <v>1.723517377391E12</v>
+        <v>1.723954356638E12</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -22046,10 +22770,10 @@
         <v>1898</v>
       </c>
       <c r="R389" t="n">
-        <v>2.7500000000000036</v>
+        <v>1.3500000000000032</v>
       </c>
       <c r="T389" t="n">
-        <v>1.723777344901E12</v>
+        <v>1.72395435906E12</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -22078,10 +22802,10 @@
         <v>1866</v>
       </c>
       <c r="R390" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T390" t="n">
-        <v>1.723080661238E12</v>
+        <v>1.723954364346E12</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -22110,10 +22834,10 @@
         <v>1895</v>
       </c>
       <c r="R391" t="n">
-        <v>3.1500000000000017</v>
+        <v>1.4000000000000012</v>
       </c>
       <c r="T391" t="n">
-        <v>1.723777633347E12</v>
+        <v>1.723954377559E12</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -22142,10 +22866,10 @@
         <v>873</v>
       </c>
       <c r="R392" t="n">
-        <v>3.350000000000006</v>
+        <v>1.6000000000000054</v>
       </c>
       <c r="T392" t="n">
-        <v>1.723777356829E12</v>
+        <v>1.7239543811E12</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -22174,10 +22898,10 @@
         <v>1895</v>
       </c>
       <c r="R393" t="n">
-        <v>3.0500000000000047</v>
+        <v>1.3000000000000043</v>
       </c>
       <c r="T393" t="n">
-        <v>1.72377763864E12</v>
+        <v>1.723954386827E12</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -22206,10 +22930,10 @@
         <v>1895</v>
       </c>
       <c r="R394" t="n">
-        <v>2.7500000000000036</v>
+        <v>1.3500000000000032</v>
       </c>
       <c r="T394" t="n">
-        <v>1.723517407074E12</v>
+        <v>1.723954389898E12</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -22270,10 +22994,10 @@
         <v>1900</v>
       </c>
       <c r="R396" t="n">
-        <v>2.1500000000000012</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T396" t="n">
-        <v>1.723515274098E12</v>
+        <v>1.723954392128E12</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -22330,10 +23054,10 @@
         <v>4</v>
       </c>
       <c r="R399" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T399" t="n">
-        <v>1.723454987459E12</v>
+        <v>1.72395439784E12</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -22350,10 +23074,10 @@
         <v>4</v>
       </c>
       <c r="R400" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T400" t="n">
-        <v>1.723515278531E12</v>
+        <v>1.723954401939E12</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -22370,10 +23094,10 @@
         <v>4</v>
       </c>
       <c r="R401" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="T401" t="n">
-        <v>1.723080705873E12</v>
+        <v>1.723954403475E12</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -22470,10 +23194,10 @@
         <v>3</v>
       </c>
       <c r="R406" t="n">
-        <v>3.2000000000000015</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T406" t="n">
-        <v>1.723777641067E12</v>
+        <v>1.723954405875E12</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -22530,10 +23254,10 @@
         <v>4</v>
       </c>
       <c r="R409" t="n">
-        <v>1.9499999999999997</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T409" t="n">
-        <v>1.723454994405E12</v>
+        <v>1.723954407357E12</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -22670,10 +23394,10 @@
         <v>4</v>
       </c>
       <c r="R416" t="n">
-        <v>1.9499999999999997</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T416" t="n">
-        <v>1.723454996537E12</v>
+        <v>1.723954410238E12</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -22690,10 +23414,10 @@
         <v>3</v>
       </c>
       <c r="R417" t="n">
-        <v>3.2000000000000015</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T417" t="n">
-        <v>1.723777642621E12</v>
+        <v>1.723954411707E12</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -22870,10 +23594,10 @@
         <v>4</v>
       </c>
       <c r="R426" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T426" t="n">
-        <v>1.723455002362E12</v>
+        <v>1.723954415361E12</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -22890,10 +23614,10 @@
         <v>3</v>
       </c>
       <c r="R427" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T427" t="n">
-        <v>1.723080728088E12</v>
+        <v>1.723954417946E12</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -23010,10 +23734,10 @@
         <v>4</v>
       </c>
       <c r="R433" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.8999999999999996</v>
       </c>
       <c r="T433" t="n">
-        <v>1.72308073805E12</v>
+        <v>1.723954421345E12</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -23090,10 +23814,10 @@
         <v>3</v>
       </c>
       <c r="R437" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T437" t="n">
-        <v>1.723080740253E12</v>
+        <v>1.723954423362E12</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -23250,10 +23974,10 @@
         <v>4</v>
       </c>
       <c r="R445" t="n">
-        <v>1.9499999999999997</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T445" t="n">
-        <v>1.723080746133E12</v>
+        <v>1.723954428247E12</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -23350,10 +24074,10 @@
         <v>4</v>
       </c>
       <c r="R450" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T450" t="n">
-        <v>1.723455006962E12</v>
+        <v>1.723954432251E12</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -23430,10 +24154,10 @@
         <v>4</v>
       </c>
       <c r="R454" t="n">
-        <v>2.5999999999999996</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T454" t="n">
-        <v>1.723515291697E12</v>
+        <v>1.723954434413E12</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -23490,10 +24214,10 @@
         <v>4</v>
       </c>
       <c r="R457" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T457" t="n">
-        <v>1.72351529337E12</v>
+        <v>1.723954435861E12</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -23530,10 +24254,10 @@
         <v>3</v>
       </c>
       <c r="R459" t="n">
-        <v>2.1000000000000023</v>
+        <v>1.4000000000000021</v>
       </c>
       <c r="T459" t="n">
-        <v>1.723515295195E12</v>
+        <v>1.723954437147E12</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -23790,10 +24514,10 @@
         <v>4</v>
       </c>
       <c r="R472" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T472" t="n">
-        <v>1.723515298175E12</v>
+        <v>1.723954446494E12</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -23890,10 +24614,10 @@
         <v>3</v>
       </c>
       <c r="R477" t="n">
-        <v>1.65</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T477" t="n">
-        <v>1.72308077538E12</v>
+        <v>1.72395445696E12</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -24030,10 +24754,10 @@
         <v>4</v>
       </c>
       <c r="R484" t="n">
-        <v>2.2499999999999996</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T484" t="n">
-        <v>1.723515300044E12</v>
+        <v>1.723954458221E12</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -24170,10 +24894,10 @@
         <v>4</v>
       </c>
       <c r="R491" t="n">
-        <v>2.1999999999999993</v>
+        <v>1.4999999999999991</v>
       </c>
       <c r="T491" t="n">
-        <v>1.723515301688E12</v>
+        <v>1.723954459759E12</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -24190,10 +24914,10 @@
         <v>3</v>
       </c>
       <c r="R492" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.8999999999999996</v>
       </c>
       <c r="T492" t="n">
-        <v>1.723080780789E12</v>
+        <v>1.723954462275E12</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -24250,10 +24974,10 @@
         <v>3</v>
       </c>
       <c r="R495" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T495" t="n">
-        <v>1.723080783795E12</v>
+        <v>1.723954464849E12</v>
       </c>
     </row>
     <row r="496" spans="1:4">

--- a/target/classes/初级工题库.xlsx
+++ b/target/classes/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4207" uniqueCount="1996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4210" uniqueCount="1999">
   <si>
     <t>题型</t>
   </si>
@@ -6049,6 +6049,15 @@
   </si>
   <si>
     <t>您一共做了: 203题	您的得分： 88.17733990147784	做题时长约为2676.5Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 24题	您的得分： 91.66666666666666	做题时长约为2.216666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 50.0	做题时长约为0.18333333333333332Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 16题	您的得分： 87.5	做题时长约为4.083333333333333Min</t>
   </si>
 </sst>
 </file>
@@ -6108,7 +6117,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3548">
+  <cellXfs count="3590">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -9088,559 +9097,601 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10965,10 +11016,10 @@
         <v>1594</v>
       </c>
       <c r="R29" t="n">
-        <v>2.65</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T29" t="n">
-        <v>1.723794175546E12</v>
+        <v>1.724030384982E12</v>
       </c>
       <c r="AA29" t="s">
         <v>1930</v>
@@ -11910,10 +11961,10 @@
         <v>1614</v>
       </c>
       <c r="R56" t="n">
-        <v>2.3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T56" t="n">
-        <v>1.723794855724E12</v>
+        <v>1.723956538943E12</v>
       </c>
       <c r="AA56" t="s">
         <v>1954</v>
@@ -12540,10 +12591,10 @@
         <v>1630</v>
       </c>
       <c r="R74" t="n">
-        <v>2.3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T74" t="n">
-        <v>1.723794871276E12</v>
+        <v>1.723956542168E12</v>
       </c>
       <c r="AA74" t="s">
         <v>1971</v>
@@ -12960,10 +13011,10 @@
         <v>1641</v>
       </c>
       <c r="R86" t="n">
-        <v>2.3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T86" t="n">
-        <v>1.723794896591E12</v>
+        <v>1.723956552654E12</v>
       </c>
       <c r="AA86" t="s">
         <v>1980</v>
@@ -13415,10 +13466,10 @@
         <v>1654</v>
       </c>
       <c r="R99" t="n">
-        <v>2.65</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T99" t="n">
-        <v>1.723795041623E12</v>
+        <v>1.72403038835E12</v>
       </c>
       <c r="AA99" t="s">
         <v>1976</v>
@@ -13590,10 +13641,10 @@
         <v>1657</v>
       </c>
       <c r="R104" t="n">
-        <v>2.3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T104" t="n">
-        <v>1.723795050395E12</v>
+        <v>1.723956568991E12</v>
       </c>
       <c r="AA104" t="s">
         <v>1988</v>
@@ -13905,10 +13956,10 @@
         <v>1664</v>
       </c>
       <c r="R113" t="n">
-        <v>2.65</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T113" t="n">
-        <v>1.723795068365E12</v>
+        <v>1.724030394391E12</v>
       </c>
       <c r="AA113" t="s">
         <v>1992</v>
@@ -14330,6 +14381,9 @@
       <c r="T125" t="n">
         <v>1.723795132509E12</v>
       </c>
+      <c r="AA125" t="s">
+        <v>1996</v>
+      </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="1">
@@ -14362,6 +14416,9 @@
       <c r="T126" t="n">
         <v>1.723077528827E12</v>
       </c>
+      <c r="AA126" t="s">
+        <v>1997</v>
+      </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1">
@@ -14394,6 +14451,9 @@
       <c r="T127" t="n">
         <v>1.723795134909E12</v>
       </c>
+      <c r="AA127" t="s">
+        <v>1998</v>
+      </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1">
@@ -14677,10 +14737,10 @@
         <v>1684</v>
       </c>
       <c r="R136" t="n">
-        <v>2.65</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T136" t="n">
-        <v>1.723795191406E12</v>
+        <v>1.724030400837E12</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -15605,10 +15665,10 @@
         <v>1709</v>
       </c>
       <c r="R165" t="n">
-        <v>2.3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T165" t="n">
-        <v>1.723795235393E12</v>
+        <v>1.723956592838E12</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -15669,10 +15729,10 @@
         <v>1711</v>
       </c>
       <c r="R167" t="n">
-        <v>2.5999999999999996</v>
+        <v>1.7499999999999996</v>
       </c>
       <c r="T167" t="n">
-        <v>1.723795256294E12</v>
+        <v>1.724030441617E12</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -18037,10 +18097,10 @@
         <v>1768</v>
       </c>
       <c r="R241" t="n">
-        <v>2.65</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T241" t="n">
-        <v>1.723795576436E12</v>
+        <v>1.724030446939E12</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -18421,10 +18481,10 @@
         <v>1779</v>
       </c>
       <c r="R253" t="n">
-        <v>2.3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T253" t="n">
-        <v>1.723795594765E12</v>
+        <v>1.723956620945E12</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -18581,10 +18641,10 @@
         <v>1783</v>
       </c>
       <c r="R258" t="n">
-        <v>2.9499999999999997</v>
+        <v>4.6</v>
       </c>
       <c r="T258" t="n">
-        <v>1.723796082002E12</v>
+        <v>1.724030449116E12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -20722,10 +20782,10 @@
         <v>1845</v>
       </c>
       <c r="R325" t="n">
-        <v>2.3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T325" t="n">
-        <v>1.723954194315E12</v>
+        <v>1.723956636546E12</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -21138,10 +21198,10 @@
         <v>1857</v>
       </c>
       <c r="R338" t="n">
-        <v>2.9499999999999997</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="T338" t="n">
-        <v>1.723954220717E12</v>
+        <v>1.724030452274E12</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -21394,10 +21454,10 @@
         <v>1864</v>
       </c>
       <c r="R346" t="n">
-        <v>2.5999999999999996</v>
+        <v>1.7499999999999996</v>
       </c>
       <c r="T346" t="n">
-        <v>1.723954249956E12</v>
+        <v>1.72403045688E12</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -22194,10 +22254,10 @@
         <v>1886</v>
       </c>
       <c r="R371" t="n">
-        <v>2.3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T371" t="n">
-        <v>1.723954305022E12</v>
+        <v>1.723956645388E12</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -22514,10 +22574,10 @@
         <v>1566</v>
       </c>
       <c r="R381" t="n">
-        <v>2.7500000000000093</v>
+        <v>1.9000000000000092</v>
       </c>
       <c r="T381" t="n">
-        <v>1.723954330774E12</v>
+        <v>1.724030463828E12</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -22610,10 +22670,10 @@
         <v>1895</v>
       </c>
       <c r="R384" t="n">
-        <v>2.7499999999999996</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T384" t="n">
-        <v>1.723954343061E12</v>
+        <v>1.72403047116E12</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -23054,10 +23114,10 @@
         <v>4</v>
       </c>
       <c r="R399" t="n">
-        <v>2.65</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T399" t="n">
-        <v>1.72395439784E12</v>
+        <v>1.724030479586E12</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -23254,10 +23314,10 @@
         <v>4</v>
       </c>
       <c r="R409" t="n">
-        <v>2.9499999999999997</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="T409" t="n">
-        <v>1.723954407357E12</v>
+        <v>1.724030486608E12</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -23394,10 +23454,10 @@
         <v>4</v>
       </c>
       <c r="R416" t="n">
-        <v>2.9499999999999997</v>
+        <v>3.4499999999999997</v>
       </c>
       <c r="T416" t="n">
-        <v>1.723954410238E12</v>
+        <v>1.724030488834E12</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -23814,10 +23874,10 @@
         <v>3</v>
       </c>
       <c r="R437" t="n">
-        <v>2.65</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T437" t="n">
-        <v>1.723954423362E12</v>
+        <v>1.724030491778E12</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -23974,10 +24034,10 @@
         <v>4</v>
       </c>
       <c r="R445" t="n">
-        <v>2.9499999999999997</v>
+        <v>3.4499999999999997</v>
       </c>
       <c r="T445" t="n">
-        <v>1.723954428247E12</v>
+        <v>1.72403062808E12</v>
       </c>
     </row>
     <row r="446" spans="1:4">

--- a/target/classes/初级工题库.xlsx
+++ b/target/classes/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4210" uniqueCount="1999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4225" uniqueCount="2010">
   <si>
     <t>题型</t>
   </si>
@@ -6058,6 +6058,39 @@
   </si>
   <si>
     <t>您一共做了: 16题	您的得分： 87.5	做题时长约为4.083333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 88.0	做题时长约为49.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 87.0	做题时长约为36.833333333333336Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 86.0	做题时长约为181.78333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 81.0	做题时长约为35.233333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 99题	您的得分： 81.81818181818183	做题时长约为31.983333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.11666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 24题	您的得分： 75.0	做题时长约为4.383333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 87.5	做题时长约为0.5666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 6题	您的得分： 100.0	做题时长约为1.05Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 12题	您的得分： 100.0	做题时长约为1.15Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 100.0	做题时长约为0.31666666666666665Min</t>
   </si>
 </sst>
 </file>
@@ -6117,7 +6150,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3590">
+  <cellXfs count="4152">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -9692,6 +9725,568 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10068,10 +10663,10 @@
         <v>1573</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72379408818E12</v>
+        <v>1.724205612277E12</v>
       </c>
       <c r="AA2" t="s">
         <v>1903</v>
@@ -10103,10 +10698,10 @@
         <v>1574</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9499999999999998</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T3" t="n">
-        <v>1.723794095813E12</v>
+        <v>1.724205618066E12</v>
       </c>
       <c r="AA3" t="s">
         <v>1904</v>
@@ -10138,10 +10733,10 @@
         <v>1575</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3999999999999995</v>
+        <v>0.8999999999999995</v>
       </c>
       <c r="T4" t="n">
-        <v>1.723794097761E12</v>
+        <v>1.724205674324E12</v>
       </c>
       <c r="AA4" t="s">
         <v>1905</v>
@@ -10176,10 +10771,10 @@
         <v>1576</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T5" t="n">
-        <v>1.723794105824E12</v>
+        <v>1.724205691872E12</v>
       </c>
       <c r="AA5" t="s">
         <v>1906</v>
@@ -10214,7 +10809,7 @@
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.722848848459E12</v>
+        <v>1.724205719279E12</v>
       </c>
       <c r="AA6" t="s">
         <v>1907</v>
@@ -10246,10 +10841,10 @@
         <v>997</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T7" t="n">
-        <v>1.723794110665E12</v>
+        <v>1.724205724585E12</v>
       </c>
       <c r="AA7" t="s">
         <v>1908</v>
@@ -10281,10 +10876,10 @@
         <v>1296</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T8" t="n">
-        <v>1.723794116552E12</v>
+        <v>1.724205727817E12</v>
       </c>
       <c r="AA8" t="s">
         <v>1909</v>
@@ -10316,10 +10911,10 @@
         <v>551</v>
       </c>
       <c r="R9" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.722849083416E12</v>
+        <v>1.724206210452E12</v>
       </c>
       <c r="AA9" t="s">
         <v>1910</v>
@@ -10351,10 +10946,10 @@
         <v>1578</v>
       </c>
       <c r="R10" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T10" t="n">
-        <v>1.723021711394E12</v>
+        <v>1.724206371646E12</v>
       </c>
       <c r="AA10" t="s">
         <v>1911</v>
@@ -10386,10 +10981,10 @@
         <v>1579</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T11" t="n">
-        <v>1.723794130884E12</v>
+        <v>1.72420638104E12</v>
       </c>
       <c r="AA11" t="s">
         <v>1912</v>
@@ -10421,10 +11016,10 @@
         <v>1580</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72379414515E12</v>
+        <v>1.724206389061E12</v>
       </c>
       <c r="AA12" t="s">
         <v>1913</v>
@@ -10459,7 +11054,7 @@
         <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.722849303932E12</v>
+        <v>1.724206392869E12</v>
       </c>
       <c r="AA13" t="s">
         <v>1914</v>
@@ -10491,10 +11086,10 @@
         <v>1582</v>
       </c>
       <c r="R14" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72284932789E12</v>
+        <v>1.724206435791E12</v>
       </c>
       <c r="AA14" t="s">
         <v>1915</v>
@@ -10526,10 +11121,10 @@
         <v>902</v>
       </c>
       <c r="R15" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T15" t="n">
-        <v>1.723021805415E12</v>
+        <v>1.724206439296E12</v>
       </c>
       <c r="AA15" t="s">
         <v>1916</v>
@@ -10564,7 +11159,7 @@
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.722849416941E12</v>
+        <v>1.724206476089E12</v>
       </c>
       <c r="AA16" t="s">
         <v>1917</v>
@@ -10596,10 +11191,10 @@
         <v>1584</v>
       </c>
       <c r="R17" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.722849425765E12</v>
+        <v>1.724206484561E12</v>
       </c>
       <c r="AA17" t="s">
         <v>1918</v>
@@ -10631,10 +11226,10 @@
         <v>1585</v>
       </c>
       <c r="R18" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.722849429072E12</v>
+        <v>1.724206496264E12</v>
       </c>
       <c r="AA18" t="s">
         <v>1919</v>
@@ -10666,10 +11261,10 @@
         <v>1586</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T19" t="n">
-        <v>1.72379415161E12</v>
+        <v>1.724206502466E12</v>
       </c>
       <c r="AA19" t="s">
         <v>1920</v>
@@ -10701,10 +11296,10 @@
         <v>1587</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T20" t="n">
-        <v>1.723794155873E12</v>
+        <v>1.724206508627E12</v>
       </c>
       <c r="AA20" t="s">
         <v>1921</v>
@@ -10739,7 +11334,7 @@
         <v>0.0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.722849453859E12</v>
+        <v>1.724206510886E12</v>
       </c>
       <c r="AA21" t="s">
         <v>1922</v>
@@ -10771,10 +11366,10 @@
         <v>1589</v>
       </c>
       <c r="R22" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T22" t="n">
-        <v>1.723794163215E12</v>
+        <v>1.724206515383E12</v>
       </c>
       <c r="AA22" t="s">
         <v>1923</v>
@@ -10806,10 +11401,10 @@
         <v>1590</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T23" t="n">
-        <v>1.723794168067E12</v>
+        <v>1.724206534629E12</v>
       </c>
       <c r="AA23" t="s">
         <v>1924</v>
@@ -10844,7 +11439,7 @@
         <v>0.0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.722849497812E12</v>
+        <v>1.724206544342E12</v>
       </c>
       <c r="AA24" t="s">
         <v>1925</v>
@@ -10876,10 +11471,10 @@
         <v>1591</v>
       </c>
       <c r="R25" t="n">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.723794170447E12</v>
+        <v>1.724206549517E12</v>
       </c>
       <c r="AA25" t="s">
         <v>1926</v>
@@ -10911,10 +11506,10 @@
         <v>1592</v>
       </c>
       <c r="R26" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.722849505112E12</v>
+        <v>1.724206554672E12</v>
       </c>
       <c r="AA26" t="s">
         <v>1927</v>
@@ -10946,10 +11541,10 @@
         <v>1592</v>
       </c>
       <c r="R27" t="n">
-        <v>1.4499999999999988</v>
+        <v>0.9499999999999988</v>
       </c>
       <c r="T27" t="n">
-        <v>1.723794172725E12</v>
+        <v>1.724206564663E12</v>
       </c>
       <c r="AA27" t="s">
         <v>1928</v>
@@ -10984,7 +11579,7 @@
         <v>0.0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.722849745397E12</v>
+        <v>1.724206637124E12</v>
       </c>
       <c r="AA28" t="s">
         <v>1929</v>
@@ -11016,10 +11611,10 @@
         <v>1594</v>
       </c>
       <c r="R29" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T29" t="n">
-        <v>1.724030384982E12</v>
+        <v>1.724206643107E12</v>
       </c>
       <c r="AA29" t="s">
         <v>1930</v>
@@ -11054,7 +11649,7 @@
         <v>0.0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.722849761704E12</v>
+        <v>1.72420664903E12</v>
       </c>
       <c r="AA30" t="s">
         <v>1931</v>
@@ -11089,7 +11684,7 @@
         <v>0.0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.722849771015E12</v>
+        <v>1.724206651656E12</v>
       </c>
       <c r="AA31" t="s">
         <v>1932</v>
@@ -11124,7 +11719,7 @@
         <v>0.0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.722849861788E12</v>
+        <v>1.724206659236E12</v>
       </c>
       <c r="AA32" t="s">
         <v>1933</v>
@@ -11156,10 +11751,10 @@
         <v>997</v>
       </c>
       <c r="R33" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.722849864834E12</v>
+        <v>1.724206663191E12</v>
       </c>
       <c r="AA33" t="s">
         <v>1934</v>
@@ -11191,10 +11786,10 @@
         <v>1596</v>
       </c>
       <c r="R34" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.72284987129E12</v>
+        <v>1.724206671761E12</v>
       </c>
       <c r="AA34" t="s">
         <v>1935</v>
@@ -11226,10 +11821,10 @@
         <v>1597</v>
       </c>
       <c r="R35" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.722849876852E12</v>
+        <v>1.72420667793E12</v>
       </c>
       <c r="AA35" t="s">
         <v>1936</v>
@@ -11264,7 +11859,7 @@
         <v>0.0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.722849924659E12</v>
+        <v>1.724206815753E12</v>
       </c>
       <c r="AA36" t="s">
         <v>1926</v>
@@ -11296,10 +11891,10 @@
         <v>1599</v>
       </c>
       <c r="R37" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T37" t="n">
-        <v>1.723794797977E12</v>
+        <v>1.724206820291E12</v>
       </c>
       <c r="AA37" t="s">
         <v>1937</v>
@@ -11331,10 +11926,10 @@
         <v>1600</v>
       </c>
       <c r="R38" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T38" t="n">
-        <v>1.72379480602E12</v>
+        <v>1.724206826827E12</v>
       </c>
       <c r="AA38" t="s">
         <v>1938</v>
@@ -11366,10 +11961,10 @@
         <v>1563</v>
       </c>
       <c r="R39" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="T39" t="n">
-        <v>1.723794810951E12</v>
+        <v>1.724206829414E12</v>
       </c>
       <c r="AA39" t="s">
         <v>1939</v>
@@ -11401,10 +11996,10 @@
         <v>1563</v>
       </c>
       <c r="R40" t="n">
-        <v>1.4999999999999991</v>
+        <v>1.9999999999999991</v>
       </c>
       <c r="T40" t="n">
-        <v>1.723794813318E12</v>
+        <v>1.724227188537E12</v>
       </c>
       <c r="AA40" t="s">
         <v>1938</v>
@@ -11436,10 +12031,10 @@
         <v>997</v>
       </c>
       <c r="R41" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T41" t="n">
-        <v>1.723021944453E12</v>
+        <v>1.724206838685E12</v>
       </c>
       <c r="AA41" t="s">
         <v>1940</v>
@@ -11471,10 +12066,10 @@
         <v>997</v>
       </c>
       <c r="R42" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T42" t="n">
-        <v>1.723021947933E12</v>
+        <v>1.724206846131E12</v>
       </c>
       <c r="AA42" t="s">
         <v>1941</v>
@@ -11509,7 +12104,7 @@
         <v>0.0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.722850022776E12</v>
+        <v>1.724206851651E12</v>
       </c>
       <c r="AA43" t="s">
         <v>1942</v>
@@ -11541,10 +12136,10 @@
         <v>1602</v>
       </c>
       <c r="R44" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.722850025377E12</v>
+        <v>1.72420685526E12</v>
       </c>
       <c r="AA44" t="s">
         <v>1943</v>
@@ -11576,10 +12171,10 @@
         <v>1603</v>
       </c>
       <c r="R45" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T45" t="n">
-        <v>1.723794815968E12</v>
+        <v>1.724206862043E12</v>
       </c>
       <c r="AA45" t="s">
         <v>1944</v>
@@ -11611,10 +12206,10 @@
         <v>1604</v>
       </c>
       <c r="R46" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T46" t="n">
-        <v>1.723021952053E12</v>
+        <v>1.724206867657E12</v>
       </c>
       <c r="AA46" t="s">
         <v>1945</v>
@@ -11646,10 +12241,10 @@
         <v>1605</v>
       </c>
       <c r="R47" t="n">
-        <v>1.2499999999999996</v>
+        <v>1.7499999999999996</v>
       </c>
       <c r="T47" t="n">
-        <v>1.723794819661E12</v>
+        <v>1.724227707283E12</v>
       </c>
       <c r="AA47" t="s">
         <v>1946</v>
@@ -11681,10 +12276,10 @@
         <v>1606</v>
       </c>
       <c r="R48" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T48" t="n">
-        <v>1.722850046313E12</v>
+        <v>1.724206880987E12</v>
       </c>
       <c r="AA48" t="s">
         <v>1947</v>
@@ -11716,10 +12311,10 @@
         <v>1607</v>
       </c>
       <c r="R49" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T49" t="n">
-        <v>1.723794822586E12</v>
+        <v>1.72420688413E12</v>
       </c>
       <c r="AA49" t="s">
         <v>1948</v>
@@ -11751,10 +12346,10 @@
         <v>1608</v>
       </c>
       <c r="R50" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T50" t="n">
-        <v>1.723794835515E12</v>
+        <v>1.724206897944E12</v>
       </c>
       <c r="AA50" t="s">
         <v>1949</v>
@@ -11786,10 +12381,10 @@
         <v>1609</v>
       </c>
       <c r="R51" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T51" t="n">
-        <v>1.723021968161E12</v>
+        <v>1.724206903374E12</v>
       </c>
       <c r="AA51" t="s">
         <v>1950</v>
@@ -11821,10 +12416,10 @@
         <v>1610</v>
       </c>
       <c r="R52" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T52" t="n">
-        <v>1.723794846057E12</v>
+        <v>1.724206912114E12</v>
       </c>
       <c r="AA52" t="s">
         <v>1951</v>
@@ -11856,10 +12451,10 @@
         <v>1611</v>
       </c>
       <c r="R53" t="n">
-        <v>1.450000000000001</v>
+        <v>1.950000000000001</v>
       </c>
       <c r="T53" t="n">
-        <v>1.723794850886E12</v>
+        <v>1.72422719792E12</v>
       </c>
       <c r="AA53" t="s">
         <v>1936</v>
@@ -11891,10 +12486,10 @@
         <v>1612</v>
       </c>
       <c r="R54" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T54" t="n">
-        <v>1.723021996753E12</v>
+        <v>1.72420698372E12</v>
       </c>
       <c r="AA54" t="s">
         <v>1952</v>
@@ -11926,10 +12521,10 @@
         <v>1613</v>
       </c>
       <c r="R55" t="n">
-        <v>0.65</v>
+        <v>1.65</v>
       </c>
       <c r="T55" t="n">
-        <v>1.723021998746E12</v>
+        <v>1.724206995039E12</v>
       </c>
       <c r="AA55" t="s">
         <v>1953</v>
@@ -11961,10 +12556,10 @@
         <v>1614</v>
       </c>
       <c r="R56" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T56" t="n">
-        <v>1.723956538943E12</v>
+        <v>1.724207028309E12</v>
       </c>
       <c r="AA56" t="s">
         <v>1954</v>
@@ -11999,7 +12594,7 @@
         <v>0.0</v>
       </c>
       <c r="T57" t="n">
-        <v>1.722906719884E12</v>
+        <v>1.724207048393E12</v>
       </c>
       <c r="AA57" t="s">
         <v>1955</v>
@@ -12031,10 +12626,10 @@
         <v>1584</v>
       </c>
       <c r="R58" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T58" t="n">
-        <v>1.722906727604E12</v>
+        <v>1.724207073763E12</v>
       </c>
       <c r="AA58" t="s">
         <v>1956</v>
@@ -12069,7 +12664,7 @@
         <v>0.0</v>
       </c>
       <c r="T59" t="n">
-        <v>1.722906733643E12</v>
+        <v>1.724207092166E12</v>
       </c>
       <c r="AA59" t="s">
         <v>1957</v>
@@ -12104,7 +12699,7 @@
         <v>0.0</v>
       </c>
       <c r="T60" t="n">
-        <v>1.722906737162E12</v>
+        <v>1.724207111038E12</v>
       </c>
       <c r="AA60" t="s">
         <v>1958</v>
@@ -12136,10 +12731,10 @@
         <v>1618</v>
       </c>
       <c r="R61" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T61" t="n">
-        <v>1.722906741677E12</v>
+        <v>1.724207112833E12</v>
       </c>
       <c r="AA61" t="s">
         <v>1959</v>
@@ -12174,7 +12769,7 @@
         <v>0.0</v>
       </c>
       <c r="T62" t="n">
-        <v>1.722906814398E12</v>
+        <v>1.724207146572E12</v>
       </c>
       <c r="AA62" t="s">
         <v>1960</v>
@@ -12206,10 +12801,10 @@
         <v>1620</v>
       </c>
       <c r="R63" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T63" t="n">
-        <v>1.722906828806E12</v>
+        <v>1.724207159546E12</v>
       </c>
       <c r="AA63" t="s">
         <v>1961</v>
@@ -12244,7 +12839,7 @@
         <v>0.0</v>
       </c>
       <c r="T64" t="n">
-        <v>1.722906835688E12</v>
+        <v>1.724207166468E12</v>
       </c>
       <c r="AA64" t="s">
         <v>1951</v>
@@ -12276,10 +12871,10 @@
         <v>1622</v>
       </c>
       <c r="R65" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T65" t="n">
-        <v>1.723022047096E12</v>
+        <v>1.724207881405E12</v>
       </c>
       <c r="AA65" t="s">
         <v>1962</v>
@@ -12311,10 +12906,10 @@
         <v>1623</v>
       </c>
       <c r="R66" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="T66" t="n">
-        <v>1.722906906684E12</v>
+        <v>1.724207898842E12</v>
       </c>
       <c r="AA66" t="s">
         <v>1963</v>
@@ -12349,7 +12944,7 @@
         <v>0.0</v>
       </c>
       <c r="T67" t="n">
-        <v>1.722906912301E12</v>
+        <v>1.724207909027E12</v>
       </c>
       <c r="AA67" t="s">
         <v>1964</v>
@@ -12384,7 +12979,7 @@
         <v>0.0</v>
       </c>
       <c r="T68" t="n">
-        <v>1.722906917154E12</v>
+        <v>1.724207921154E12</v>
       </c>
       <c r="AA68" t="s">
         <v>1965</v>
@@ -12416,10 +13011,10 @@
         <v>1626</v>
       </c>
       <c r="R69" t="n">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="T69" t="n">
-        <v>1.723794859401E12</v>
+        <v>1.724208040108E12</v>
       </c>
       <c r="AA69" t="s">
         <v>1966</v>
@@ -12451,10 +13046,10 @@
         <v>1297</v>
       </c>
       <c r="R70" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T70" t="n">
-        <v>1.723794864288E12</v>
+        <v>1.724208042807E12</v>
       </c>
       <c r="AA70" t="s">
         <v>1967</v>
@@ -12489,7 +13084,7 @@
         <v>0.0</v>
       </c>
       <c r="T71" t="n">
-        <v>1.722906977013E12</v>
+        <v>1.72420806437E12</v>
       </c>
       <c r="AA71" t="s">
         <v>1968</v>
@@ -12521,10 +13116,10 @@
         <v>1628</v>
       </c>
       <c r="R72" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T72" t="n">
-        <v>1.723794868356E12</v>
+        <v>1.724208067776E12</v>
       </c>
       <c r="AA72" t="s">
         <v>1969</v>
@@ -12559,7 +13154,7 @@
         <v>0.0</v>
       </c>
       <c r="T73" t="n">
-        <v>1.722908798483E12</v>
+        <v>1.72420807226E12</v>
       </c>
       <c r="AA73" t="s">
         <v>1970</v>
@@ -12591,10 +13186,10 @@
         <v>1630</v>
       </c>
       <c r="R74" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T74" t="n">
-        <v>1.723956542168E12</v>
+        <v>1.724208075138E12</v>
       </c>
       <c r="AA74" t="s">
         <v>1971</v>
@@ -12629,7 +13224,7 @@
         <v>0.0</v>
       </c>
       <c r="T75" t="n">
-        <v>1.722908818652E12</v>
+        <v>1.724208077156E12</v>
       </c>
       <c r="AA75" t="s">
         <v>1951</v>
@@ -12661,10 +13256,10 @@
         <v>1632</v>
       </c>
       <c r="R76" t="n">
-        <v>1.3499999999999979</v>
+        <v>1.8499999999999979</v>
       </c>
       <c r="T76" t="n">
-        <v>1.723794878258E12</v>
+        <v>1.724227202705E12</v>
       </c>
       <c r="AA76" t="s">
         <v>1969</v>
@@ -12699,7 +13294,7 @@
         <v>0.0</v>
       </c>
       <c r="T77" t="n">
-        <v>1.722908862145E12</v>
+        <v>1.724208145944E12</v>
       </c>
       <c r="AA77" t="s">
         <v>1972</v>
@@ -12734,7 +13329,7 @@
         <v>0.0</v>
       </c>
       <c r="T78" t="n">
-        <v>1.722908866221E12</v>
+        <v>1.724208149362E12</v>
       </c>
       <c r="AA78" t="s">
         <v>1973</v>
@@ -12769,7 +13364,7 @@
         <v>0.0</v>
       </c>
       <c r="T79" t="n">
-        <v>1.722908875586E12</v>
+        <v>1.724208195404E12</v>
       </c>
       <c r="AA79" t="s">
         <v>1974</v>
@@ -12801,10 +13396,10 @@
         <v>1636</v>
       </c>
       <c r="R80" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T80" t="n">
-        <v>1.723794881556E12</v>
+        <v>1.724208211674E12</v>
       </c>
       <c r="AA80" t="s">
         <v>1975</v>
@@ -12836,10 +13431,10 @@
         <v>1637</v>
       </c>
       <c r="R81" t="n">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="T81" t="n">
-        <v>1.723794883673E12</v>
+        <v>1.724208225771E12</v>
       </c>
       <c r="AA81" t="s">
         <v>1976</v>
@@ -12871,10 +13466,10 @@
         <v>566</v>
       </c>
       <c r="R82" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T82" t="n">
-        <v>1.723794887376E12</v>
+        <v>1.724227260069E12</v>
       </c>
       <c r="AA82" t="s">
         <v>1976</v>
@@ -12906,10 +13501,10 @@
         <v>1638</v>
       </c>
       <c r="R83" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T83" t="n">
-        <v>1.72379488949E12</v>
+        <v>1.72420824705E12</v>
       </c>
       <c r="AA83" t="s">
         <v>1977</v>
@@ -12944,7 +13539,7 @@
         <v>0.0</v>
       </c>
       <c r="T84" t="n">
-        <v>1.722909093282E12</v>
+        <v>1.724208253802E12</v>
       </c>
       <c r="AA84" t="s">
         <v>1978</v>
@@ -12976,10 +13571,10 @@
         <v>1640</v>
       </c>
       <c r="R85" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T85" t="n">
-        <v>1.722909106699E12</v>
+        <v>1.724208260592E12</v>
       </c>
       <c r="AA85" t="s">
         <v>1979</v>
@@ -13011,10 +13606,10 @@
         <v>1641</v>
       </c>
       <c r="R86" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T86" t="n">
-        <v>1.723956552654E12</v>
+        <v>1.724208272274E12</v>
       </c>
       <c r="AA86" t="s">
         <v>1980</v>
@@ -13049,7 +13644,7 @@
         <v>0.0</v>
       </c>
       <c r="T87" t="n">
-        <v>1.72290912116E12</v>
+        <v>1.724208277334E12</v>
       </c>
       <c r="AA87" t="s">
         <v>1917</v>
@@ -13081,10 +13676,10 @@
         <v>1643</v>
       </c>
       <c r="R88" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T88" t="n">
-        <v>1.722909127284E12</v>
+        <v>1.724208304425E12</v>
       </c>
       <c r="AA88" t="s">
         <v>1976</v>
@@ -13116,10 +13711,10 @@
         <v>1644</v>
       </c>
       <c r="R89" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="T89" t="n">
-        <v>1.723794902493E12</v>
+        <v>1.724208309763E12</v>
       </c>
       <c r="AA89" t="s">
         <v>1926</v>
@@ -13151,10 +13746,10 @@
         <v>1645</v>
       </c>
       <c r="R90" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T90" t="n">
-        <v>1.723794905482E12</v>
+        <v>1.724208311842E12</v>
       </c>
       <c r="AA90" t="s">
         <v>1981</v>
@@ -13189,7 +13784,7 @@
         <v>0.0</v>
       </c>
       <c r="T91" t="n">
-        <v>1.722909177906E12</v>
+        <v>1.724208346911E12</v>
       </c>
       <c r="AA91" t="s">
         <v>1982</v>
@@ -13221,10 +13816,10 @@
         <v>1647</v>
       </c>
       <c r="R92" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T92" t="n">
-        <v>1.723794955307E12</v>
+        <v>1.724208348644E12</v>
       </c>
       <c r="AA92" t="s">
         <v>1983</v>
@@ -13259,7 +13854,7 @@
         <v>0.0</v>
       </c>
       <c r="T93" t="n">
-        <v>1.722909191584E12</v>
+        <v>1.724208359593E12</v>
       </c>
       <c r="AA93" t="s">
         <v>1975</v>
@@ -13291,10 +13886,10 @@
         <v>1649</v>
       </c>
       <c r="R94" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T94" t="n">
-        <v>1.723022444656E12</v>
+        <v>1.724208363021E12</v>
       </c>
       <c r="AA94" t="s">
         <v>1976</v>
@@ -13326,10 +13921,10 @@
         <v>1650</v>
       </c>
       <c r="R95" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T95" t="n">
-        <v>1.723022446327E12</v>
+        <v>1.724208398078E12</v>
       </c>
       <c r="AA95" t="s">
         <v>1942</v>
@@ -13364,7 +13959,7 @@
         <v>0.0</v>
       </c>
       <c r="T96" t="n">
-        <v>1.722909237658E12</v>
+        <v>1.724208496096E12</v>
       </c>
       <c r="AA96" t="s">
         <v>1917</v>
@@ -13396,10 +13991,10 @@
         <v>1652</v>
       </c>
       <c r="R97" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T97" t="n">
-        <v>1.722909241446E12</v>
+        <v>1.724208531244E12</v>
       </c>
       <c r="AA97" t="s">
         <v>1984</v>
@@ -13431,10 +14026,10 @@
         <v>1653</v>
       </c>
       <c r="R98" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T98" t="n">
-        <v>1.723794985929E12</v>
+        <v>1.724208536581E12</v>
       </c>
       <c r="AA98" t="s">
         <v>1951</v>
@@ -13466,10 +14061,10 @@
         <v>1654</v>
       </c>
       <c r="R99" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T99" t="n">
-        <v>1.72403038835E12</v>
+        <v>1.724227273857E12</v>
       </c>
       <c r="AA99" t="s">
         <v>1976</v>
@@ -13501,10 +14096,10 @@
         <v>1655</v>
       </c>
       <c r="R100" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T100" t="n">
-        <v>1.723795046135E12</v>
+        <v>1.724208549007E12</v>
       </c>
       <c r="AA100" t="s">
         <v>1985</v>
@@ -13536,10 +14131,10 @@
         <v>1628</v>
       </c>
       <c r="R101" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T101" t="n">
-        <v>1.723022578266E12</v>
+        <v>1.724208551324E12</v>
       </c>
       <c r="AA101" t="s">
         <v>1986</v>
@@ -13574,7 +14169,7 @@
         <v>0.0</v>
       </c>
       <c r="T102" t="n">
-        <v>1.722914612665E12</v>
+        <v>1.724208798301E12</v>
       </c>
       <c r="AA102" t="s">
         <v>1951</v>
@@ -13606,10 +14201,10 @@
         <v>607</v>
       </c>
       <c r="R103" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T103" t="n">
-        <v>1.723795047662E12</v>
+        <v>1.724208853677E12</v>
       </c>
       <c r="AA103" t="s">
         <v>1987</v>
@@ -13641,10 +14236,10 @@
         <v>1657</v>
       </c>
       <c r="R104" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T104" t="n">
-        <v>1.723956568991E12</v>
+        <v>1.724208858117E12</v>
       </c>
       <c r="AA104" t="s">
         <v>1988</v>
@@ -13676,10 +14271,10 @@
         <v>1658</v>
       </c>
       <c r="R105" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T105" t="n">
-        <v>1.723795055331E12</v>
+        <v>1.724208896307E12</v>
       </c>
       <c r="AA105" t="s">
         <v>1989</v>
@@ -13714,7 +14309,7 @@
         <v>0.0</v>
       </c>
       <c r="T106" t="n">
-        <v>1.722914662199E12</v>
+        <v>1.7242089002E12</v>
       </c>
       <c r="AA106" t="s">
         <v>1990</v>
@@ -13746,10 +14341,10 @@
         <v>1660</v>
       </c>
       <c r="R107" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T107" t="n">
-        <v>1.723022595159E12</v>
+        <v>1.724208904701E12</v>
       </c>
       <c r="AA107" t="s">
         <v>1976</v>
@@ -13781,10 +14376,10 @@
         <v>1661</v>
       </c>
       <c r="R108" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T108" t="n">
-        <v>1.722914714561E12</v>
+        <v>1.724208954358E12</v>
       </c>
       <c r="AA108" t="s">
         <v>1976</v>
@@ -13816,10 +14411,10 @@
         <v>1662</v>
       </c>
       <c r="R109" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T109" t="n">
-        <v>1.72302259885E12</v>
+        <v>1.724209039279E12</v>
       </c>
       <c r="AA109" t="s">
         <v>1976</v>
@@ -13851,10 +14446,10 @@
         <v>1663</v>
       </c>
       <c r="R110" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T110" t="n">
-        <v>1.722914856395E12</v>
+        <v>1.724209048852E12</v>
       </c>
       <c r="AA110" t="s">
         <v>1976</v>
@@ -13886,10 +14481,10 @@
         <v>1662</v>
       </c>
       <c r="R111" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T111" t="n">
-        <v>1.722914860273E12</v>
+        <v>1.724209058354E12</v>
       </c>
       <c r="AA111" t="s">
         <v>1991</v>
@@ -13921,10 +14516,10 @@
         <v>1067</v>
       </c>
       <c r="R112" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="T112" t="n">
-        <v>1.723795059504E12</v>
+        <v>1.724209067362E12</v>
       </c>
       <c r="AA112" t="s">
         <v>1951</v>
@@ -13956,10 +14551,10 @@
         <v>1664</v>
       </c>
       <c r="R113" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T113" t="n">
-        <v>1.724030394391E12</v>
+        <v>1.724209160933E12</v>
       </c>
       <c r="AA113" t="s">
         <v>1992</v>
@@ -13991,10 +14586,10 @@
         <v>1665</v>
       </c>
       <c r="R114" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T114" t="n">
-        <v>1.723795097586E12</v>
+        <v>1.724209167835E12</v>
       </c>
       <c r="AA114" t="s">
         <v>1975</v>
@@ -14029,7 +14624,7 @@
         <v>0.0</v>
       </c>
       <c r="T115" t="n">
-        <v>1.722914941533E12</v>
+        <v>1.724209177996E12</v>
       </c>
       <c r="AA115" t="s">
         <v>1993</v>
@@ -14064,7 +14659,7 @@
         <v>0.0</v>
       </c>
       <c r="T116" t="n">
-        <v>1.722914946742E12</v>
+        <v>1.724209226879E12</v>
       </c>
       <c r="AA116" t="s">
         <v>1994</v>
@@ -14099,7 +14694,7 @@
         <v>0.0</v>
       </c>
       <c r="T117" t="n">
-        <v>1.722915053823E12</v>
+        <v>1.724209260644E12</v>
       </c>
       <c r="AA117" t="s">
         <v>1917</v>
@@ -14134,7 +14729,7 @@
         <v>0.0</v>
       </c>
       <c r="T118" t="n">
-        <v>1.722927007237E12</v>
+        <v>1.7242093586E12</v>
       </c>
       <c r="AA118" t="s">
         <v>1976</v>
@@ -14166,10 +14761,10 @@
         <v>1670</v>
       </c>
       <c r="R119" t="n">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="T119" t="n">
-        <v>1.72379510253E12</v>
+        <v>1.724209361253E12</v>
       </c>
       <c r="AA119" t="s">
         <v>1976</v>
@@ -14201,10 +14796,10 @@
         <v>1263</v>
       </c>
       <c r="R120" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T120" t="n">
-        <v>1.723795105665E12</v>
+        <v>1.724209364976E12</v>
       </c>
       <c r="AA120" t="s">
         <v>1976</v>
@@ -14236,10 +14831,10 @@
         <v>1671</v>
       </c>
       <c r="R121" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T121" t="n">
-        <v>1.723795109304E12</v>
+        <v>1.724209367831E12</v>
       </c>
       <c r="AA121" t="s">
         <v>1986</v>
@@ -14271,10 +14866,10 @@
         <v>1672</v>
       </c>
       <c r="R122" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T122" t="n">
-        <v>1.723795111267E12</v>
+        <v>1.724209373516E12</v>
       </c>
       <c r="AA122" t="s">
         <v>1976</v>
@@ -14306,10 +14901,10 @@
         <v>1673</v>
       </c>
       <c r="R123" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.7499999999999996</v>
       </c>
       <c r="T123" t="n">
-        <v>1.723795120179E12</v>
+        <v>1.724209409529E12</v>
       </c>
       <c r="AA123" t="s">
         <v>1951</v>
@@ -14341,10 +14936,10 @@
         <v>1674</v>
       </c>
       <c r="R124" t="n">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="T124" t="n">
-        <v>1.723795125412E12</v>
+        <v>1.724209490946E12</v>
       </c>
       <c r="AA124" t="s">
         <v>1995</v>
@@ -14376,10 +14971,10 @@
         <v>1675</v>
       </c>
       <c r="R125" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T125" t="n">
-        <v>1.723795132509E12</v>
+        <v>1.724209497456E12</v>
       </c>
       <c r="AA125" t="s">
         <v>1996</v>
@@ -14411,10 +15006,10 @@
         <v>1173</v>
       </c>
       <c r="R126" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T126" t="n">
-        <v>1.723077528827E12</v>
+        <v>1.724209505269E12</v>
       </c>
       <c r="AA126" t="s">
         <v>1997</v>
@@ -14446,10 +15041,10 @@
         <v>1676</v>
       </c>
       <c r="R127" t="n">
-        <v>1.3500000000000032</v>
+        <v>0.8500000000000032</v>
       </c>
       <c r="T127" t="n">
-        <v>1.723795134909E12</v>
+        <v>1.724209507082E12</v>
       </c>
       <c r="AA127" t="s">
         <v>1998</v>
@@ -14481,10 +15076,13 @@
         <v>1677</v>
       </c>
       <c r="R128" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.7499999999999996</v>
       </c>
       <c r="T128" t="n">
-        <v>1.723795169172E12</v>
+        <v>1.724209510009E12</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>1999</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -14513,10 +15111,13 @@
         <v>1678</v>
       </c>
       <c r="R129" t="n">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="T129" t="n">
-        <v>1.723795171732E12</v>
+        <v>1.724209512054E12</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>2000</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -14548,7 +15149,10 @@
         <v>1.5999999999999996</v>
       </c>
       <c r="T130" t="n">
-        <v>1.723795178455E12</v>
+        <v>1.724227584812E12</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>2001</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -14577,10 +15181,13 @@
         <v>1680</v>
       </c>
       <c r="R131" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T131" t="n">
-        <v>1.723795182201E12</v>
+        <v>1.724209570882E12</v>
+      </c>
+      <c r="AA131" t="s">
+        <v>2002</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -14609,10 +15216,13 @@
         <v>1681</v>
       </c>
       <c r="R132" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T132" t="n">
-        <v>1.722928462352E12</v>
+        <v>1.724209584151E12</v>
+      </c>
+      <c r="AA132" t="s">
+        <v>2003</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -14641,10 +15251,13 @@
         <v>1682</v>
       </c>
       <c r="R133" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T133" t="n">
-        <v>1.723795186151E12</v>
+        <v>1.724209595047E12</v>
+      </c>
+      <c r="AA133" t="s">
+        <v>2004</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -14673,10 +15286,13 @@
         <v>1683</v>
       </c>
       <c r="R134" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T134" t="n">
-        <v>1.722928537322E12</v>
+        <v>1.724209614037E12</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>2005</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -14705,10 +15321,13 @@
         <v>1683</v>
       </c>
       <c r="R135" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T135" t="n">
-        <v>1.722928540592E12</v>
+        <v>1.724209669159E12</v>
+      </c>
+      <c r="AA135" t="s">
+        <v>1917</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -14737,10 +15356,13 @@
         <v>1684</v>
       </c>
       <c r="R136" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T136" t="n">
-        <v>1.724030400837E12</v>
+        <v>1.724209680733E12</v>
+      </c>
+      <c r="AA136" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -14772,7 +15394,10 @@
         <v>0.0</v>
       </c>
       <c r="T137" t="n">
-        <v>1.72292856462E12</v>
+        <v>1.72420968381E12</v>
+      </c>
+      <c r="AA137" t="s">
+        <v>2006</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -14801,10 +15426,13 @@
         <v>1685</v>
       </c>
       <c r="R138" t="n">
-        <v>0.9499999999999998</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T138" t="n">
-        <v>1.723795202645E12</v>
+        <v>1.724209692222E12</v>
+      </c>
+      <c r="AA138" t="s">
+        <v>1951</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -14833,10 +15461,13 @@
         <v>1686</v>
       </c>
       <c r="R139" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T139" t="n">
-        <v>1.722928608445E12</v>
+        <v>1.724209700684E12</v>
+      </c>
+      <c r="AA139" t="s">
+        <v>2007</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -14865,10 +15496,13 @@
         <v>1687</v>
       </c>
       <c r="R140" t="n">
-        <v>0.65</v>
+        <v>1.65</v>
       </c>
       <c r="T140" t="n">
-        <v>1.723077648132E12</v>
+        <v>1.724209705529E12</v>
+      </c>
+      <c r="AA140" t="s">
+        <v>1917</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -14897,10 +15531,13 @@
         <v>1688</v>
       </c>
       <c r="R141" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T141" t="n">
-        <v>1.722928945157E12</v>
+        <v>1.72420971795E12</v>
+      </c>
+      <c r="AA141" t="s">
+        <v>2008</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -14932,7 +15569,10 @@
         <v>0.0</v>
       </c>
       <c r="T142" t="n">
-        <v>1.722928948396E12</v>
+        <v>1.724209720511E12</v>
+      </c>
+      <c r="AA142" t="s">
+        <v>2009</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -14964,7 +15604,7 @@
         <v>0.0</v>
       </c>
       <c r="T143" t="n">
-        <v>1.722928958393E12</v>
+        <v>1.724209731705E12</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -14993,10 +15633,10 @@
         <v>1691</v>
       </c>
       <c r="R144" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T144" t="n">
-        <v>1.723077650619E12</v>
+        <v>1.72420973682E12</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -15025,10 +15665,10 @@
         <v>1176</v>
       </c>
       <c r="R145" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T145" t="n">
-        <v>1.722928967882E12</v>
+        <v>1.724209740186E12</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -15060,7 +15700,7 @@
         <v>0.0</v>
       </c>
       <c r="T146" t="n">
-        <v>1.722928976223E12</v>
+        <v>1.724209753705E12</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -15089,10 +15729,10 @@
         <v>1693</v>
       </c>
       <c r="R147" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T147" t="n">
-        <v>1.723077666007E12</v>
+        <v>1.724209761348E12</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -15121,10 +15761,10 @@
         <v>1694</v>
       </c>
       <c r="R148" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T148" t="n">
-        <v>1.723077670969E12</v>
+        <v>1.724209765389E12</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -15153,10 +15793,10 @@
         <v>1695</v>
       </c>
       <c r="R149" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T149" t="n">
-        <v>1.723077675213E12</v>
+        <v>1.724209769223E12</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -15188,7 +15828,7 @@
         <v>0.0</v>
       </c>
       <c r="T150" t="n">
-        <v>1.722929292474E12</v>
+        <v>1.724209793036E12</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -15217,10 +15857,10 @@
         <v>1340</v>
       </c>
       <c r="R151" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T151" t="n">
-        <v>1.722929296577E12</v>
+        <v>1.724209831846E12</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -15252,7 +15892,7 @@
         <v>0.0</v>
       </c>
       <c r="T152" t="n">
-        <v>1.722929588873E12</v>
+        <v>1.724209844496E12</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -15281,10 +15921,10 @@
         <v>1698</v>
       </c>
       <c r="R153" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.7499999999999996</v>
       </c>
       <c r="T153" t="n">
-        <v>1.723795204277E12</v>
+        <v>1.72420984924E12</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -15313,10 +15953,10 @@
         <v>1699</v>
       </c>
       <c r="R154" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T154" t="n">
-        <v>1.722929597378E12</v>
+        <v>1.72420985173E12</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -15345,10 +15985,10 @@
         <v>1700</v>
       </c>
       <c r="R155" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T155" t="n">
-        <v>1.723077682382E12</v>
+        <v>1.724209855277E12</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -15377,10 +16017,10 @@
         <v>1701</v>
       </c>
       <c r="R156" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T156" t="n">
-        <v>1.723795206172E12</v>
+        <v>1.724209857578E12</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -15409,10 +16049,10 @@
         <v>1702</v>
       </c>
       <c r="R157" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.7499999999999996</v>
       </c>
       <c r="T157" t="n">
-        <v>1.723795208499E12</v>
+        <v>1.724209859299E12</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -15441,10 +16081,10 @@
         <v>1700</v>
       </c>
       <c r="R158" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T158" t="n">
-        <v>1.723077689758E12</v>
+        <v>1.724209867752E12</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -15473,10 +16113,10 @@
         <v>1703</v>
       </c>
       <c r="R159" t="n">
-        <v>0.9499999999999998</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T159" t="n">
-        <v>1.72379521882E12</v>
+        <v>1.724209877065E12</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -15508,7 +16148,7 @@
         <v>0.0</v>
       </c>
       <c r="T160" t="n">
-        <v>1.722930087883E12</v>
+        <v>1.724209883231E12</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -15540,7 +16180,7 @@
         <v>0.0</v>
       </c>
       <c r="T161" t="n">
-        <v>1.722930091969E12</v>
+        <v>1.724209890109E12</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -15569,10 +16209,10 @@
         <v>1706</v>
       </c>
       <c r="R162" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T162" t="n">
-        <v>1.723795223288E12</v>
+        <v>1.724209904618E12</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -15601,10 +16241,10 @@
         <v>1707</v>
       </c>
       <c r="R163" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T163" t="n">
-        <v>1.72293010591E12</v>
+        <v>1.724209909822E12</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -15633,10 +16273,10 @@
         <v>1708</v>
       </c>
       <c r="R164" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T164" t="n">
-        <v>1.723795226819E12</v>
+        <v>1.724209916338E12</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -15668,7 +16308,7 @@
         <v>1.7999999999999998</v>
       </c>
       <c r="T165" t="n">
-        <v>1.723956592838E12</v>
+        <v>1.72422759259E12</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -15697,10 +16337,10 @@
         <v>1710</v>
       </c>
       <c r="R166" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T166" t="n">
-        <v>1.722930156439E12</v>
+        <v>1.724210013023E12</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -15729,10 +16369,10 @@
         <v>1711</v>
       </c>
       <c r="R167" t="n">
-        <v>1.7499999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T167" t="n">
-        <v>1.724030441617E12</v>
+        <v>1.724210018949E12</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -15761,10 +16401,10 @@
         <v>1712</v>
       </c>
       <c r="R168" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="T168" t="n">
-        <v>1.722930163494E12</v>
+        <v>1.724210021646E12</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -15793,10 +16433,10 @@
         <v>1713</v>
       </c>
       <c r="R169" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T169" t="n">
-        <v>1.723795261081E12</v>
+        <v>1.724210030447E12</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -15825,10 +16465,10 @@
         <v>1714</v>
       </c>
       <c r="R170" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T170" t="n">
-        <v>1.722930222462E12</v>
+        <v>1.724210055909E12</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -15860,7 +16500,7 @@
         <v>0.0</v>
       </c>
       <c r="T171" t="n">
-        <v>1.722930241933E12</v>
+        <v>1.724210068778E12</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -15889,10 +16529,10 @@
         <v>1711</v>
       </c>
       <c r="R172" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T172" t="n">
-        <v>1.723077767078E12</v>
+        <v>1.724210073259E12</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -15921,10 +16561,10 @@
         <v>1716</v>
       </c>
       <c r="R173" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T173" t="n">
-        <v>1.723795271066E12</v>
+        <v>1.724210083203E12</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -15956,7 +16596,7 @@
         <v>0.0</v>
       </c>
       <c r="T174" t="n">
-        <v>1.722930279599E12</v>
+        <v>1.72421010473E12</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -15988,7 +16628,7 @@
         <v>0.0</v>
       </c>
       <c r="T175" t="n">
-        <v>1.722930334252E12</v>
+        <v>1.724210124724E12</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -16020,7 +16660,7 @@
         <v>0.0</v>
       </c>
       <c r="T176" t="n">
-        <v>1.72293034339E12</v>
+        <v>1.72421019542E12</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -16049,10 +16689,10 @@
         <v>1720</v>
       </c>
       <c r="R177" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T177" t="n">
-        <v>1.723795274116E12</v>
+        <v>1.724210200262E12</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -16084,7 +16724,7 @@
         <v>0.0</v>
       </c>
       <c r="T178" t="n">
-        <v>1.722930353647E12</v>
+        <v>1.724210209209E12</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -16113,10 +16753,10 @@
         <v>1722</v>
       </c>
       <c r="R179" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T179" t="n">
-        <v>1.723077793879E12</v>
+        <v>1.724210212821E12</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -16145,10 +16785,10 @@
         <v>1723</v>
       </c>
       <c r="R180" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T180" t="n">
-        <v>1.722930368662E12</v>
+        <v>1.724210261336E12</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -16180,7 +16820,7 @@
         <v>0.0</v>
       </c>
       <c r="T181" t="n">
-        <v>1.722930372153E12</v>
+        <v>1.724210265488E12</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -16209,10 +16849,10 @@
         <v>1699</v>
       </c>
       <c r="R182" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T182" t="n">
-        <v>1.723795277013E12</v>
+        <v>1.724210269075E12</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -16244,7 +16884,7 @@
         <v>0.0</v>
       </c>
       <c r="T183" t="n">
-        <v>1.722930390945E12</v>
+        <v>1.724210278432E12</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -16273,10 +16913,10 @@
         <v>1726</v>
       </c>
       <c r="R184" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T184" t="n">
-        <v>1.722930443364E12</v>
+        <v>1.724210289115E12</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -16305,10 +16945,10 @@
         <v>1727</v>
       </c>
       <c r="R185" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T185" t="n">
-        <v>1.723795329256E12</v>
+        <v>1.724210372255E12</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -16337,10 +16977,10 @@
         <v>1727</v>
       </c>
       <c r="R186" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="T186" t="n">
-        <v>1.72293045576E12</v>
+        <v>1.724210492543E12</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -16369,10 +17009,10 @@
         <v>1727</v>
       </c>
       <c r="R187" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T187" t="n">
-        <v>1.723795359353E12</v>
+        <v>1.72421049904E12</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -16401,10 +17041,10 @@
         <v>1727</v>
       </c>
       <c r="R188" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T188" t="n">
-        <v>1.722930470255E12</v>
+        <v>1.724210505863E12</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -16436,7 +17076,7 @@
         <v>0.0</v>
       </c>
       <c r="T189" t="n">
-        <v>1.722930479339E12</v>
+        <v>1.724210852577E12</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -16465,10 +17105,10 @@
         <v>1729</v>
       </c>
       <c r="R190" t="n">
-        <v>1.4999999999999991</v>
+        <v>1.9999999999999991</v>
       </c>
       <c r="T190" t="n">
-        <v>1.723795364779E12</v>
+        <v>1.724227295691E12</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -16497,10 +17137,10 @@
         <v>1729</v>
       </c>
       <c r="R191" t="n">
-        <v>1.3000000000000025</v>
+        <v>0.8000000000000025</v>
       </c>
       <c r="T191" t="n">
-        <v>1.723795371909E12</v>
+        <v>1.72421086927E12</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -16529,10 +17169,10 @@
         <v>1385</v>
       </c>
       <c r="R192" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T192" t="n">
-        <v>1.723795374949E12</v>
+        <v>1.724210876143E12</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -16561,10 +17201,10 @@
         <v>1729</v>
       </c>
       <c r="R193" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T193" t="n">
-        <v>1.723077925792E12</v>
+        <v>1.724210886839E12</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -16593,10 +17233,10 @@
         <v>1729</v>
       </c>
       <c r="R194" t="n">
-        <v>1.3000000000000034</v>
+        <v>1.8000000000000034</v>
       </c>
       <c r="T194" t="n">
-        <v>1.72379538234E12</v>
+        <v>1.724227304152E12</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -16625,10 +17265,10 @@
         <v>1729</v>
       </c>
       <c r="R195" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T195" t="n">
-        <v>1.723077936279E12</v>
+        <v>1.724210930494E12</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -16660,7 +17300,7 @@
         <v>0.0</v>
       </c>
       <c r="T196" t="n">
-        <v>1.722930530852E12</v>
+        <v>1.724210935925E12</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -16689,10 +17329,10 @@
         <v>1730</v>
       </c>
       <c r="R197" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T197" t="n">
-        <v>1.723077939777E12</v>
+        <v>1.724210938381E12</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -16724,7 +17364,7 @@
         <v>0.0</v>
       </c>
       <c r="T198" t="n">
-        <v>1.722930564525E12</v>
+        <v>1.724210942722E12</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -16753,10 +17393,10 @@
         <v>1732</v>
       </c>
       <c r="R199" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T199" t="n">
-        <v>1.723077942171E12</v>
+        <v>1.724210946856E12</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -16788,7 +17428,7 @@
         <v>0.0</v>
       </c>
       <c r="T200" t="n">
-        <v>1.722930572484E12</v>
+        <v>1.724210955361E12</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -16817,10 +17457,10 @@
         <v>1729</v>
       </c>
       <c r="R201" t="n">
-        <v>1.4499999999999997</v>
+        <v>0.9499999999999997</v>
       </c>
       <c r="T201" t="n">
-        <v>1.723795386132E12</v>
+        <v>1.724210997524E12</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -16852,7 +17492,7 @@
         <v>0.0</v>
       </c>
       <c r="T202" t="n">
-        <v>1.7229319497E12</v>
+        <v>1.724211114262E12</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -16881,10 +17521,10 @@
         <v>1734</v>
       </c>
       <c r="R203" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T203" t="n">
-        <v>1.722931955194E12</v>
+        <v>1.724211123478E12</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -16916,7 +17556,7 @@
         <v>0.0</v>
       </c>
       <c r="T204" t="n">
-        <v>1.722932007575E12</v>
+        <v>1.724211130191E12</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -16945,10 +17585,10 @@
         <v>1735</v>
       </c>
       <c r="R205" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T205" t="n">
-        <v>1.723077950887E12</v>
+        <v>1.724211133168E12</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -16980,7 +17620,7 @@
         <v>0.0</v>
       </c>
       <c r="T206" t="n">
-        <v>1.722932019396E12</v>
+        <v>1.724211138081E12</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -17009,10 +17649,10 @@
         <v>1736</v>
       </c>
       <c r="R207" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="T207" t="n">
-        <v>1.722932026222E12</v>
+        <v>1.724211144092E12</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -17044,7 +17684,7 @@
         <v>0.0</v>
       </c>
       <c r="T208" t="n">
-        <v>1.7229320369E12</v>
+        <v>1.72421115111E12</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -17076,7 +17716,7 @@
         <v>0.0</v>
       </c>
       <c r="T209" t="n">
-        <v>1.722932044011E12</v>
+        <v>1.72421115556E12</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -17105,10 +17745,10 @@
         <v>1739</v>
       </c>
       <c r="R210" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T210" t="n">
-        <v>1.723077954118E12</v>
+        <v>1.724211160362E12</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -17137,10 +17777,10 @@
         <v>1740</v>
       </c>
       <c r="R211" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T211" t="n">
-        <v>1.72293206643E12</v>
+        <v>1.724211178064E12</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -17169,10 +17809,10 @@
         <v>1741</v>
       </c>
       <c r="R212" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T212" t="n">
-        <v>1.723077958253E12</v>
+        <v>1.724211194894E12</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -17204,7 +17844,7 @@
         <v>0.0</v>
       </c>
       <c r="T213" t="n">
-        <v>1.722932086737E12</v>
+        <v>1.724211215372E12</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -17233,10 +17873,10 @@
         <v>1743</v>
       </c>
       <c r="R214" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T214" t="n">
-        <v>1.722932108312E12</v>
+        <v>1.724211256355E12</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -17268,7 +17908,7 @@
         <v>0.0</v>
       </c>
       <c r="T215" t="n">
-        <v>1.722932110158E12</v>
+        <v>1.724211260122E12</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -17300,7 +17940,7 @@
         <v>0.0</v>
       </c>
       <c r="T216" t="n">
-        <v>1.722932152668E12</v>
+        <v>1.72421126847E12</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -17332,7 +17972,7 @@
         <v>0.0</v>
       </c>
       <c r="T217" t="n">
-        <v>1.722932156675E12</v>
+        <v>1.724211271163E12</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -17361,10 +18001,10 @@
         <v>1747</v>
       </c>
       <c r="R218" t="n">
-        <v>1.450000000000001</v>
+        <v>1.950000000000001</v>
       </c>
       <c r="T218" t="n">
-        <v>1.723795452623E12</v>
+        <v>1.724227331535E12</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -17393,10 +18033,10 @@
         <v>1748</v>
       </c>
       <c r="R219" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="T219" t="n">
-        <v>1.722932182755E12</v>
+        <v>1.724211288578E12</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -17428,7 +18068,7 @@
         <v>0.0</v>
       </c>
       <c r="T220" t="n">
-        <v>1.722932188848E12</v>
+        <v>1.724211306838E12</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -17457,10 +18097,10 @@
         <v>1750</v>
       </c>
       <c r="R221" t="n">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="T221" t="n">
-        <v>1.723795455315E12</v>
+        <v>1.724211314817E12</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -17489,10 +18129,10 @@
         <v>1751</v>
       </c>
       <c r="R222" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T222" t="n">
-        <v>1.722932199935E12</v>
+        <v>1.724211324028E12</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -17521,10 +18161,10 @@
         <v>669</v>
       </c>
       <c r="R223" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T223" t="n">
-        <v>1.722932204956E12</v>
+        <v>1.724211343001E12</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -17553,10 +18193,10 @@
         <v>1752</v>
       </c>
       <c r="R224" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T224" t="n">
-        <v>1.723795460341E12</v>
+        <v>1.724211358455E12</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -17585,10 +18225,10 @@
         <v>1753</v>
       </c>
       <c r="R225" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.7499999999999996</v>
       </c>
       <c r="T225" t="n">
-        <v>1.723795463966E12</v>
+        <v>1.724211372125E12</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -17617,10 +18257,10 @@
         <v>1190</v>
       </c>
       <c r="R226" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T226" t="n">
-        <v>1.722932327035E12</v>
+        <v>1.724211404657E12</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -17649,10 +18289,10 @@
         <v>1754</v>
       </c>
       <c r="R227" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="T227" t="n">
-        <v>1.722932333598E12</v>
+        <v>1.724211422092E12</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -17681,10 +18321,10 @@
         <v>1755</v>
       </c>
       <c r="R228" t="n">
-        <v>1.4000000000000021</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="T228" t="n">
-        <v>1.723795465828E12</v>
+        <v>1.724211427844E12</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -17716,7 +18356,7 @@
         <v>0.0</v>
       </c>
       <c r="T229" t="n">
-        <v>1.722932348993E12</v>
+        <v>1.724211435255E12</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -17745,10 +18385,10 @@
         <v>1757</v>
       </c>
       <c r="R230" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T230" t="n">
-        <v>1.722932353252E12</v>
+        <v>1.724211441861E12</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -17780,7 +18420,7 @@
         <v>0.0</v>
       </c>
       <c r="T231" t="n">
-        <v>1.722932358984E12</v>
+        <v>1.724211444763E12</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -17812,7 +18452,7 @@
         <v>0.0</v>
       </c>
       <c r="T232" t="n">
-        <v>1.722932362665E12</v>
+        <v>1.724211449418E12</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -17841,10 +18481,10 @@
         <v>1760</v>
       </c>
       <c r="R233" t="n">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="T233" t="n">
-        <v>1.723795467126E12</v>
+        <v>1.724211453345E12</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -17873,10 +18513,10 @@
         <v>1761</v>
       </c>
       <c r="R234" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T234" t="n">
-        <v>1.723795471459E12</v>
+        <v>1.724211456084E12</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -17905,10 +18545,10 @@
         <v>1762</v>
       </c>
       <c r="R235" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T235" t="n">
-        <v>1.722932508747E12</v>
+        <v>1.7242114693E12</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -17940,7 +18580,7 @@
         <v>0.0</v>
       </c>
       <c r="T236" t="n">
-        <v>1.722932512672E12</v>
+        <v>1.724211475804E12</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -17969,10 +18609,10 @@
         <v>1764</v>
       </c>
       <c r="R237" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T237" t="n">
-        <v>1.723078103066E12</v>
+        <v>1.724211493795E12</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -18001,10 +18641,10 @@
         <v>1765</v>
       </c>
       <c r="R238" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T238" t="n">
-        <v>1.723078105871E12</v>
+        <v>1.724211506233E12</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -18033,10 +18673,10 @@
         <v>1766</v>
       </c>
       <c r="R239" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T239" t="n">
-        <v>1.723795478837E12</v>
+        <v>1.724211542576E12</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -18065,10 +18705,10 @@
         <v>1767</v>
       </c>
       <c r="R240" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T240" t="n">
-        <v>1.723795485467E12</v>
+        <v>1.724211552642E12</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -18097,10 +18737,10 @@
         <v>1768</v>
       </c>
       <c r="R241" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T241" t="n">
-        <v>1.724030446939E12</v>
+        <v>1.724220885617E12</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -18129,10 +18769,10 @@
         <v>1769</v>
       </c>
       <c r="R242" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T242" t="n">
-        <v>1.723078147283E12</v>
+        <v>1.724220992454E12</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -18161,10 +18801,10 @@
         <v>1770</v>
       </c>
       <c r="R243" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="T243" t="n">
-        <v>1.722932592774E12</v>
+        <v>1.72422108432E12</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -18196,7 +18836,7 @@
         <v>0.0</v>
       </c>
       <c r="T244" t="n">
-        <v>1.722932601595E12</v>
+        <v>1.724221136486E12</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -18225,10 +18865,10 @@
         <v>1772</v>
       </c>
       <c r="R245" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T245" t="n">
-        <v>1.723795579601E12</v>
+        <v>1.724221142797E12</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -18257,10 +18897,10 @@
         <v>1773</v>
       </c>
       <c r="R246" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T246" t="n">
-        <v>1.723795581369E12</v>
+        <v>1.724221145642E12</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -18292,7 +18932,7 @@
         <v>0.0</v>
       </c>
       <c r="T247" t="n">
-        <v>1.722932633456E12</v>
+        <v>1.724221163685E12</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -18324,7 +18964,7 @@
         <v>0.0</v>
       </c>
       <c r="T248" t="n">
-        <v>1.722932638385E12</v>
+        <v>1.724221204001E12</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -18353,10 +18993,10 @@
         <v>1776</v>
       </c>
       <c r="R249" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T249" t="n">
-        <v>1.723795587561E12</v>
+        <v>1.724221210629E12</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -18385,10 +19025,10 @@
         <v>1777</v>
       </c>
       <c r="R250" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T250" t="n">
-        <v>1.723795589349E12</v>
+        <v>1.72422121512E12</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -18417,10 +19057,10 @@
         <v>825</v>
       </c>
       <c r="R251" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T251" t="n">
-        <v>1.723078261971E12</v>
+        <v>1.724221218646E12</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -18449,10 +19089,10 @@
         <v>1778</v>
       </c>
       <c r="R252" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T252" t="n">
-        <v>1.722932676292E12</v>
+        <v>1.724221242192E12</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -18481,10 +19121,10 @@
         <v>1779</v>
       </c>
       <c r="R253" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T253" t="n">
-        <v>1.723956620945E12</v>
+        <v>1.724221398939E12</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -18513,10 +19153,10 @@
         <v>1780</v>
       </c>
       <c r="R254" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T254" t="n">
-        <v>1.723796042179E12</v>
+        <v>1.72422144536E12</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -18545,10 +19185,10 @@
         <v>1763</v>
       </c>
       <c r="R255" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T255" t="n">
-        <v>1.722932708765E12</v>
+        <v>1.724221450221E12</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -18577,10 +19217,10 @@
         <v>1781</v>
       </c>
       <c r="R256" t="n">
-        <v>0.65</v>
+        <v>1.65</v>
       </c>
       <c r="T256" t="n">
-        <v>1.723078276477E12</v>
+        <v>1.724221467797E12</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -18609,10 +19249,10 @@
         <v>1782</v>
       </c>
       <c r="R257" t="n">
-        <v>1.6000000000000045</v>
+        <v>1.1000000000000045</v>
       </c>
       <c r="T257" t="n">
-        <v>1.723796045289E12</v>
+        <v>1.724221475034E12</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -18641,10 +19281,10 @@
         <v>1783</v>
       </c>
       <c r="R258" t="n">
-        <v>4.6</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T258" t="n">
-        <v>1.724030449116E12</v>
+        <v>1.724227709733E12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -18673,7 +19313,7 @@
         <v>0.0</v>
       </c>
       <c r="T259" t="n">
-        <v>1.722932765271E12</v>
+        <v>1.724221528584E12</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -18702,10 +19342,10 @@
         <v>1784</v>
       </c>
       <c r="R260" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="T260" t="n">
-        <v>1.723796085957E12</v>
+        <v>1.724221530803E12</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -18734,10 +19374,10 @@
         <v>1785</v>
       </c>
       <c r="R261" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T261" t="n">
-        <v>1.722932780668E12</v>
+        <v>1.724221536316E12</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -18766,10 +19406,10 @@
         <v>1786</v>
       </c>
       <c r="R262" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T262" t="n">
-        <v>1.723078301408E12</v>
+        <v>1.724221547959E12</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -18798,10 +19438,10 @@
         <v>1787</v>
       </c>
       <c r="R263" t="n">
-        <v>1.4000000000000012</v>
+        <v>0.9000000000000012</v>
       </c>
       <c r="T263" t="n">
-        <v>1.723796090841E12</v>
+        <v>1.72422155397E12</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -18830,10 +19470,10 @@
         <v>1788</v>
       </c>
       <c r="R264" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T264" t="n">
-        <v>1.723796095957E12</v>
+        <v>1.724221558343E12</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -18862,10 +19502,10 @@
         <v>1789</v>
       </c>
       <c r="R265" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T265" t="n">
-        <v>1.72307834885E12</v>
+        <v>1.724221585308E12</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -18894,10 +19534,10 @@
         <v>1790</v>
       </c>
       <c r="R266" t="n">
-        <v>1.3000000000000105</v>
+        <v>1.8000000000000105</v>
       </c>
       <c r="T266" t="n">
-        <v>1.723796098827E12</v>
+        <v>1.724227712397E12</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -18926,10 +19566,10 @@
         <v>1791</v>
       </c>
       <c r="R267" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T267" t="n">
-        <v>1.72379610023E12</v>
+        <v>1.724221621994E12</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -18958,10 +19598,10 @@
         <v>1792</v>
       </c>
       <c r="R268" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="T268" t="n">
-        <v>1.722932905294E12</v>
+        <v>1.724221662431E12</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -18990,10 +19630,10 @@
         <v>1793</v>
       </c>
       <c r="R269" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T269" t="n">
-        <v>1.723796105223E12</v>
+        <v>1.724221669028E12</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -19022,10 +19662,10 @@
         <v>945</v>
       </c>
       <c r="R270" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T270" t="n">
-        <v>1.723796109474E12</v>
+        <v>1.7242216963E12</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -19054,10 +19694,10 @@
         <v>1383</v>
       </c>
       <c r="R271" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T271" t="n">
-        <v>1.723796114489E12</v>
+        <v>1.724221700064E12</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -19086,10 +19726,10 @@
         <v>1794</v>
       </c>
       <c r="R272" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T272" t="n">
-        <v>1.723078379014E12</v>
+        <v>1.724221708427E12</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -19118,10 +19758,10 @@
         <v>1795</v>
       </c>
       <c r="R273" t="n">
-        <v>1.4499999999999997</v>
+        <v>0.9499999999999997</v>
       </c>
       <c r="T273" t="n">
-        <v>1.723796117707E12</v>
+        <v>1.724221756037E12</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -19150,10 +19790,10 @@
         <v>1796</v>
       </c>
       <c r="R274" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="T274" t="n">
-        <v>1.72293298318E12</v>
+        <v>1.724221761827E12</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -19182,10 +19822,10 @@
         <v>1797</v>
       </c>
       <c r="R275" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T275" t="n">
-        <v>1.72379613895E12</v>
+        <v>1.724221774963E12</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -19214,10 +19854,10 @@
         <v>1798</v>
       </c>
       <c r="R276" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T276" t="n">
-        <v>1.7230784086E12</v>
+        <v>1.72422178505E12</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -19249,7 +19889,7 @@
         <v>0.0</v>
       </c>
       <c r="T277" t="n">
-        <v>1.722933006408E12</v>
+        <v>1.724221791939E12</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -19281,7 +19921,7 @@
         <v>0.0</v>
       </c>
       <c r="T278" t="n">
-        <v>1.722933010478E12</v>
+        <v>1.724221795684E12</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -19310,10 +19950,10 @@
         <v>1801</v>
       </c>
       <c r="R279" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T279" t="n">
-        <v>1.723078413945E12</v>
+        <v>1.724221800137E12</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -19342,10 +19982,10 @@
         <v>1802</v>
       </c>
       <c r="R280" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T280" t="n">
-        <v>1.723796143195E12</v>
+        <v>1.724221801862E12</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -19374,10 +20014,10 @@
         <v>1803</v>
       </c>
       <c r="R281" t="n">
-        <v>0.9499999999999998</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T281" t="n">
-        <v>1.723078424215E12</v>
+        <v>1.724221806983E12</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -19406,10 +20046,10 @@
         <v>1804</v>
       </c>
       <c r="R282" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T282" t="n">
-        <v>1.723796147866E12</v>
+        <v>1.724221812714E12</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -19438,10 +20078,10 @@
         <v>1805</v>
       </c>
       <c r="R283" t="n">
-        <v>0.30000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="T283" t="n">
-        <v>1.722933029443E12</v>
+        <v>1.724221815807E12</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -19470,10 +20110,10 @@
         <v>1806</v>
       </c>
       <c r="R284" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T284" t="n">
-        <v>1.723796149614E12</v>
+        <v>1.724221820199E12</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -19502,10 +20142,10 @@
         <v>1807</v>
       </c>
       <c r="R285" t="n">
-        <v>1.3999999999999986</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="T285" t="n">
-        <v>1.723796152217E12</v>
+        <v>1.724221829828E12</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -19534,10 +20174,10 @@
         <v>1808</v>
       </c>
       <c r="R286" t="n">
-        <v>1.3000000000000043</v>
+        <v>0.8000000000000043</v>
       </c>
       <c r="T286" t="n">
-        <v>1.723796196149E12</v>
+        <v>1.724221832908E12</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -19566,10 +20206,10 @@
         <v>1809</v>
       </c>
       <c r="R287" t="n">
-        <v>1.4000000000000021</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="T287" t="n">
-        <v>1.72379621459E12</v>
+        <v>1.724221864193E12</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -19598,10 +20238,10 @@
         <v>1810</v>
       </c>
       <c r="R288" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T288" t="n">
-        <v>1.723796231735E12</v>
+        <v>1.724221877723E12</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -19630,10 +20270,10 @@
         <v>1811</v>
       </c>
       <c r="R289" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T289" t="n">
-        <v>1.723796241748E12</v>
+        <v>1.724221887484E12</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -19665,7 +20305,7 @@
         <v>0.0</v>
       </c>
       <c r="T290" t="n">
-        <v>1.722933104729E12</v>
+        <v>1.724221895443E12</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -19694,10 +20334,10 @@
         <v>1813</v>
       </c>
       <c r="R291" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T291" t="n">
-        <v>1.722933109872E12</v>
+        <v>1.724221900357E12</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -19726,10 +20366,10 @@
         <v>1814</v>
       </c>
       <c r="R292" t="n">
-        <v>1.3500000000000023</v>
+        <v>0.8500000000000023</v>
       </c>
       <c r="T292" t="n">
-        <v>1.723796259991E12</v>
+        <v>1.724221910428E12</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -19758,10 +20398,10 @@
         <v>1815</v>
       </c>
       <c r="R293" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T293" t="n">
-        <v>1.72379628832E12</v>
+        <v>1.724221949084E12</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -19790,10 +20430,10 @@
         <v>1816</v>
       </c>
       <c r="R294" t="n">
-        <v>1.4000000000000021</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="T294" t="n">
-        <v>1.723796290897E12</v>
+        <v>1.724221955893E12</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -19822,10 +20462,10 @@
         <v>1817</v>
       </c>
       <c r="R295" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T295" t="n">
-        <v>1.723796312608E12</v>
+        <v>1.724221959357E12</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -19854,10 +20494,10 @@
         <v>1818</v>
       </c>
       <c r="R296" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T296" t="n">
-        <v>1.723078525597E12</v>
+        <v>1.724221964683E12</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -19889,7 +20529,7 @@
         <v>0.0</v>
       </c>
       <c r="T297" t="n">
-        <v>1.72293322029E12</v>
+        <v>1.724221971661E12</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -19921,7 +20561,7 @@
         <v>0.0</v>
       </c>
       <c r="T298" t="n">
-        <v>1.722933224652E12</v>
+        <v>1.724221999379E12</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -19953,7 +20593,7 @@
         <v>0.0</v>
       </c>
       <c r="T299" t="n">
-        <v>1.722933227402E12</v>
+        <v>1.724222002813E12</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -19985,7 +20625,7 @@
         <v>0.0</v>
       </c>
       <c r="T300" t="n">
-        <v>1.722933231677E12</v>
+        <v>1.724222008246E12</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -20014,10 +20654,10 @@
         <v>1823</v>
       </c>
       <c r="R301" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T301" t="n">
-        <v>1.723796316361E12</v>
+        <v>1.724222013965E12</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -20046,10 +20686,10 @@
         <v>1824</v>
       </c>
       <c r="R302" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T302" t="n">
-        <v>1.723796323598E12</v>
+        <v>1.724222654584E12</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -20078,10 +20718,10 @@
         <v>1825</v>
       </c>
       <c r="R303" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T303" t="n">
-        <v>1.723078539867E12</v>
+        <v>1.72422266366E12</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -20110,10 +20750,10 @@
         <v>1826</v>
       </c>
       <c r="R304" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="T304" t="n">
-        <v>1.722933520275E12</v>
+        <v>1.724222670554E12</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -20142,10 +20782,10 @@
         <v>1827</v>
       </c>
       <c r="R305" t="n">
-        <v>1.4000000000000004</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="T305" t="n">
-        <v>1.723796326107E12</v>
+        <v>1.724222677655E12</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -20174,10 +20814,10 @@
         <v>1493</v>
       </c>
       <c r="R306" t="n">
-        <v>0.9499999999999998</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T306" t="n">
-        <v>1.72379633498E12</v>
+        <v>1.724222677913E12</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -20209,7 +20849,7 @@
         <v>0.0</v>
       </c>
       <c r="T307" t="n">
-        <v>1.722933638346E12</v>
+        <v>1.724222697679E12</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -20241,7 +20881,7 @@
         <v>0.0</v>
       </c>
       <c r="T308" t="n">
-        <v>1.722933675942E12</v>
+        <v>1.724222709294E12</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -20270,10 +20910,10 @@
         <v>1830</v>
       </c>
       <c r="R309" t="n">
-        <v>1.4000000000000021</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="T309" t="n">
-        <v>1.72379633684E12</v>
+        <v>1.724222712238E12</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -20302,10 +20942,10 @@
         <v>1831</v>
       </c>
       <c r="R310" t="n">
-        <v>1.4499999999999993</v>
+        <v>1.9499999999999993</v>
       </c>
       <c r="T310" t="n">
-        <v>1.723796340202E12</v>
+        <v>1.724227715148E12</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -20337,7 +20977,7 @@
         <v>0.0</v>
       </c>
       <c r="T311" t="n">
-        <v>1.722933718644E12</v>
+        <v>1.724222735606E12</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -20366,10 +21006,10 @@
         <v>1833</v>
       </c>
       <c r="R312" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T312" t="n">
-        <v>1.723796442971E12</v>
+        <v>1.724222742569E12</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -20398,10 +21038,10 @@
         <v>1834</v>
       </c>
       <c r="R313" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T313" t="n">
-        <v>1.723796447297E12</v>
+        <v>1.72422274614E12</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -20430,10 +21070,10 @@
         <v>1835</v>
       </c>
       <c r="R314" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T314" t="n">
-        <v>1.72379645018E12</v>
+        <v>1.724227354652E12</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -20465,7 +21105,7 @@
         <v>0.0</v>
       </c>
       <c r="T315" t="n">
-        <v>1.722934081441E12</v>
+        <v>1.724222794573E12</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -20494,10 +21134,10 @@
         <v>1837</v>
       </c>
       <c r="R316" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T316" t="n">
-        <v>1.723796452378E12</v>
+        <v>1.72422280512E12</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -20526,10 +21166,10 @@
         <v>1838</v>
       </c>
       <c r="R317" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="T317" t="n">
-        <v>1.722934113728E12</v>
+        <v>1.72422281422E12</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -20558,10 +21198,10 @@
         <v>1173</v>
       </c>
       <c r="R318" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T318" t="n">
-        <v>1.723796455145E12</v>
+        <v>1.724222822554E12</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -20590,10 +21230,10 @@
         <v>1839</v>
       </c>
       <c r="R319" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.7499999999999996</v>
       </c>
       <c r="T319" t="n">
-        <v>1.723796457396E12</v>
+        <v>1.724222825521E12</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -20622,10 +21262,10 @@
         <v>1840</v>
       </c>
       <c r="R320" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T320" t="n">
-        <v>1.723796459033E12</v>
+        <v>1.724222827627E12</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -20654,10 +21294,10 @@
         <v>1841</v>
       </c>
       <c r="R321" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T321" t="n">
-        <v>1.723796466042E12</v>
+        <v>1.724222833095E12</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -20686,10 +21326,10 @@
         <v>1842</v>
       </c>
       <c r="R322" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T322" t="n">
-        <v>1.723796494676E12</v>
+        <v>1.724222838991E12</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -20718,10 +21358,10 @@
         <v>1843</v>
       </c>
       <c r="R323" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T323" t="n">
-        <v>1.72307865403E12</v>
+        <v>1.724222845985E12</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -20750,10 +21390,10 @@
         <v>1844</v>
       </c>
       <c r="R324" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T324" t="n">
-        <v>1.72307865577E12</v>
+        <v>1.724222849786E12</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -20782,10 +21422,10 @@
         <v>1845</v>
       </c>
       <c r="R325" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T325" t="n">
-        <v>1.723956636546E12</v>
+        <v>1.724222852156E12</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -20814,10 +21454,10 @@
         <v>1846</v>
       </c>
       <c r="R326" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T326" t="n">
-        <v>1.723954203317E12</v>
+        <v>1.724222859268E12</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -20846,10 +21486,10 @@
         <v>1847</v>
       </c>
       <c r="R327" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T327" t="n">
-        <v>1.723078672393E12</v>
+        <v>1.724223208534E12</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -20881,7 +21521,7 @@
         <v>0.0</v>
       </c>
       <c r="T328" t="n">
-        <v>1.722934355983E12</v>
+        <v>1.724223223771E12</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -20913,7 +21553,7 @@
         <v>0.0</v>
       </c>
       <c r="T329" t="n">
-        <v>1.722934362488E12</v>
+        <v>1.724223229307E12</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -20942,10 +21582,10 @@
         <v>1850</v>
       </c>
       <c r="R330" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T330" t="n">
-        <v>1.723078674772E12</v>
+        <v>1.724223232158E12</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -20974,10 +21614,10 @@
         <v>1851</v>
       </c>
       <c r="R331" t="n">
-        <v>0.65</v>
+        <v>1.65</v>
       </c>
       <c r="T331" t="n">
-        <v>1.723078684057E12</v>
+        <v>1.724223238551E12</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -21009,7 +21649,7 @@
         <v>0.0</v>
       </c>
       <c r="T332" t="n">
-        <v>1.722934437974E12</v>
+        <v>1.724223250592E12</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -21038,10 +21678,10 @@
         <v>1853</v>
       </c>
       <c r="R333" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T333" t="n">
-        <v>1.723078918179E12</v>
+        <v>1.724223319743E12</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -21070,10 +21710,10 @@
         <v>1527</v>
       </c>
       <c r="R334" t="n">
-        <v>1.3500000000000019</v>
+        <v>0.8500000000000019</v>
       </c>
       <c r="T334" t="n">
-        <v>1.723954209115E12</v>
+        <v>1.724223323495E12</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -21102,10 +21742,10 @@
         <v>1854</v>
       </c>
       <c r="R335" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T335" t="n">
-        <v>1.723954210605E12</v>
+        <v>1.7242233266E12</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -21134,10 +21774,10 @@
         <v>1855</v>
       </c>
       <c r="R336" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T336" t="n">
-        <v>1.723079886972E12</v>
+        <v>1.724223333974E12</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -21166,10 +21806,10 @@
         <v>1856</v>
       </c>
       <c r="R337" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.7499999999999996</v>
       </c>
       <c r="T337" t="n">
-        <v>1.72395421568E12</v>
+        <v>1.724223596872E12</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -21198,10 +21838,10 @@
         <v>1857</v>
       </c>
       <c r="R338" t="n">
-        <v>2.0999999999999996</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T338" t="n">
-        <v>1.724030452274E12</v>
+        <v>1.72422360021E12</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -21230,10 +21870,10 @@
         <v>1643</v>
       </c>
       <c r="R339" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T339" t="n">
-        <v>1.723954228746E12</v>
+        <v>1.724223603451E12</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -21262,10 +21902,10 @@
         <v>1858</v>
       </c>
       <c r="R340" t="n">
-        <v>1.4000000000000021</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="T340" t="n">
-        <v>1.72395423193E12</v>
+        <v>1.724223622055E12</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -21297,7 +21937,7 @@
         <v>1.500000000000007</v>
       </c>
       <c r="T341" t="n">
-        <v>1.723954234462E12</v>
+        <v>1.724227630997E12</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -21326,10 +21966,10 @@
         <v>1860</v>
       </c>
       <c r="R342" t="n">
-        <v>1.6000000000000054</v>
+        <v>1.1000000000000054</v>
       </c>
       <c r="T342" t="n">
-        <v>1.723954236854E12</v>
+        <v>1.724223637854E12</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -21358,10 +21998,10 @@
         <v>1861</v>
       </c>
       <c r="R343" t="n">
-        <v>1.5500000000000065</v>
+        <v>1.0500000000000065</v>
       </c>
       <c r="T343" t="n">
-        <v>1.723954247853E12</v>
+        <v>1.724223640597E12</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -21393,7 +22033,7 @@
         <v>0.0</v>
       </c>
       <c r="T344" t="n">
-        <v>1.72293580765E12</v>
+        <v>1.724223645519E12</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -21425,7 +22065,7 @@
         <v>0.0</v>
       </c>
       <c r="T345" t="n">
-        <v>1.722935811632E12</v>
+        <v>1.72422364974E12</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -21454,10 +22094,10 @@
         <v>1864</v>
       </c>
       <c r="R346" t="n">
-        <v>1.7499999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T346" t="n">
-        <v>1.72403045688E12</v>
+        <v>1.72422365259E12</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -21486,10 +22126,10 @@
         <v>1865</v>
       </c>
       <c r="R347" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="T347" t="n">
-        <v>1.72395426013E12</v>
+        <v>1.724223681927E12</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -21518,10 +22158,10 @@
         <v>1866</v>
       </c>
       <c r="R348" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T348" t="n">
-        <v>1.723954264048E12</v>
+        <v>1.724223685308E12</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -21550,10 +22190,10 @@
         <v>1867</v>
       </c>
       <c r="R349" t="n">
-        <v>1.4000000000000012</v>
+        <v>0.9000000000000012</v>
       </c>
       <c r="T349" t="n">
-        <v>1.72395426571E12</v>
+        <v>1.724223691006E12</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -21585,7 +22225,7 @@
         <v>0.0</v>
       </c>
       <c r="T350" t="n">
-        <v>1.722935862905E12</v>
+        <v>1.724223708932E12</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -21614,10 +22254,10 @@
         <v>1536</v>
       </c>
       <c r="R351" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="T351" t="n">
-        <v>1.722935866902E12</v>
+        <v>1.724223717514E12</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -21649,7 +22289,7 @@
         <v>0.0</v>
       </c>
       <c r="T352" t="n">
-        <v>1.722935871894E12</v>
+        <v>1.724223827156E12</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -21678,10 +22318,10 @@
         <v>1869</v>
       </c>
       <c r="R353" t="n">
-        <v>1.3500000000000032</v>
+        <v>1.8500000000000032</v>
       </c>
       <c r="T353" t="n">
-        <v>1.723954272264E12</v>
+        <v>1.724227405018E12</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -21710,10 +22350,10 @@
         <v>1870</v>
       </c>
       <c r="R354" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T354" t="n">
-        <v>1.72395427474E12</v>
+        <v>1.724223878292E12</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -21742,10 +22382,10 @@
         <v>1871</v>
       </c>
       <c r="R355" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T355" t="n">
-        <v>1.723079981816E12</v>
+        <v>1.724223894085E12</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -21774,10 +22414,10 @@
         <v>1872</v>
       </c>
       <c r="R356" t="n">
-        <v>1.4000000000000004</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="T356" t="n">
-        <v>1.723954277032E12</v>
+        <v>1.724223903337E12</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -21806,10 +22446,10 @@
         <v>1873</v>
       </c>
       <c r="R357" t="n">
-        <v>0.65</v>
+        <v>1.65</v>
       </c>
       <c r="T357" t="n">
-        <v>1.72308040751E12</v>
+        <v>1.724223922419E12</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -21838,10 +22478,10 @@
         <v>1874</v>
       </c>
       <c r="R358" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T358" t="n">
-        <v>1.72395427885E12</v>
+        <v>1.724223944918E12</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -21870,10 +22510,10 @@
         <v>870</v>
       </c>
       <c r="R359" t="n">
-        <v>0.30000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="T359" t="n">
-        <v>1.722935929953E12</v>
+        <v>1.724223970676E12</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -21902,10 +22542,10 @@
         <v>1875</v>
       </c>
       <c r="R360" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T360" t="n">
-        <v>1.722935933048E12</v>
+        <v>1.724223983077E12</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -21937,7 +22577,7 @@
         <v>1.5999999999999996</v>
       </c>
       <c r="T361" t="n">
-        <v>1.723954286651E12</v>
+        <v>1.724227717599E12</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -21966,10 +22606,10 @@
         <v>1877</v>
       </c>
       <c r="R362" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T362" t="n">
-        <v>1.72308046996E12</v>
+        <v>1.724224007876E12</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -21998,10 +22638,10 @@
         <v>1878</v>
       </c>
       <c r="R363" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T363" t="n">
-        <v>1.723080472349E12</v>
+        <v>1.724224023978E12</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -22030,10 +22670,10 @@
         <v>1879</v>
       </c>
       <c r="R364" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T364" t="n">
-        <v>1.723954288469E12</v>
+        <v>1.724224027669E12</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -22062,10 +22702,10 @@
         <v>1880</v>
       </c>
       <c r="R365" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.7499999999999996</v>
       </c>
       <c r="T365" t="n">
-        <v>1.723954291968E12</v>
+        <v>1.724224033567E12</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -22094,10 +22734,10 @@
         <v>1881</v>
       </c>
       <c r="R366" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T366" t="n">
-        <v>1.723080506279E12</v>
+        <v>1.724224050146E12</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -22126,10 +22766,10 @@
         <v>1882</v>
       </c>
       <c r="R367" t="n">
-        <v>1.3000000000000096</v>
+        <v>0.8000000000000096</v>
       </c>
       <c r="T367" t="n">
-        <v>1.723954297713E12</v>
+        <v>1.724224055611E12</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -22161,7 +22801,7 @@
         <v>0.0</v>
       </c>
       <c r="T368" t="n">
-        <v>1.722936077826E12</v>
+        <v>1.724224112679E12</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -22190,10 +22830,10 @@
         <v>1884</v>
       </c>
       <c r="R369" t="n">
-        <v>1.3000000000000043</v>
+        <v>0.8000000000000043</v>
       </c>
       <c r="T369" t="n">
-        <v>1.72395429952E12</v>
+        <v>1.724224115102E12</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -22222,10 +22862,10 @@
         <v>1885</v>
       </c>
       <c r="R370" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T370" t="n">
-        <v>1.723080516534E12</v>
+        <v>1.724224118365E12</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -22254,10 +22894,10 @@
         <v>1886</v>
       </c>
       <c r="R371" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T371" t="n">
-        <v>1.723956645388E12</v>
+        <v>1.724224121446E12</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -22286,10 +22926,10 @@
         <v>1887</v>
       </c>
       <c r="R372" t="n">
-        <v>1.4500000000000002</v>
+        <v>0.9500000000000002</v>
       </c>
       <c r="T372" t="n">
-        <v>1.723954308736E12</v>
+        <v>1.724224127187E12</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -22321,7 +22961,7 @@
         <v>0.0</v>
       </c>
       <c r="T373" t="n">
-        <v>1.722936126771E12</v>
+        <v>1.724224132072E12</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -22353,7 +22993,7 @@
         <v>0.0</v>
       </c>
       <c r="T374" t="n">
-        <v>1.722936129816E12</v>
+        <v>1.724224135597E12</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -22382,10 +23022,10 @@
         <v>1292</v>
       </c>
       <c r="R375" t="n">
-        <v>1.35</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T375" t="n">
-        <v>1.723954310458E12</v>
+        <v>1.724224139359E12</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -22417,7 +23057,7 @@
         <v>0.0</v>
       </c>
       <c r="T376" t="n">
-        <v>1.722936138362E12</v>
+        <v>1.724224198455E12</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -22449,7 +23089,7 @@
         <v>1.6000000000000054</v>
       </c>
       <c r="T377" t="n">
-        <v>1.723954313366E12</v>
+        <v>1.724227638857E12</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -22478,10 +23118,10 @@
         <v>1551</v>
       </c>
       <c r="R378" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T378" t="n">
-        <v>1.723954317931E12</v>
+        <v>1.724224231662E12</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -22510,10 +23150,10 @@
         <v>1891</v>
       </c>
       <c r="R379" t="n">
-        <v>1.6000000000000054</v>
+        <v>1.1000000000000054</v>
       </c>
       <c r="T379" t="n">
-        <v>1.723954319591E12</v>
+        <v>1.724224233931E12</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -22542,10 +23182,10 @@
         <v>1892</v>
       </c>
       <c r="R380" t="n">
-        <v>1.3000000000000043</v>
+        <v>0.8000000000000043</v>
       </c>
       <c r="T380" t="n">
-        <v>1.723954327585E12</v>
+        <v>1.724224260717E12</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -22574,10 +23214,10 @@
         <v>1566</v>
       </c>
       <c r="R381" t="n">
-        <v>1.9000000000000092</v>
+        <v>1.4000000000000092</v>
       </c>
       <c r="T381" t="n">
-        <v>1.724030463828E12</v>
+        <v>1.724224286711E12</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -22606,10 +23246,10 @@
         <v>1893</v>
       </c>
       <c r="R382" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T382" t="n">
-        <v>1.723954339272E12</v>
+        <v>1.724224364754E12</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -22638,10 +23278,10 @@
         <v>1894</v>
       </c>
       <c r="R383" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T383" t="n">
-        <v>1.722936209124E12</v>
+        <v>1.724224372691E12</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -22670,10 +23310,10 @@
         <v>1895</v>
       </c>
       <c r="R384" t="n">
-        <v>1.8999999999999995</v>
+        <v>1.3999999999999995</v>
       </c>
       <c r="T384" t="n">
-        <v>1.72403047116E12</v>
+        <v>1.724224382458E12</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -22702,10 +23342,10 @@
         <v>1218</v>
       </c>
       <c r="R385" t="n">
-        <v>1.4500000000000082</v>
+        <v>0.9500000000000082</v>
       </c>
       <c r="T385" t="n">
-        <v>1.72395435042E12</v>
+        <v>1.724224598959E12</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -22737,7 +23377,7 @@
         <v>0.0</v>
       </c>
       <c r="T386" t="n">
-        <v>1.722936237418E12</v>
+        <v>1.724224614672E12</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -22766,10 +23406,10 @@
         <v>1896</v>
       </c>
       <c r="R387" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T387" t="n">
-        <v>1.723954353236E12</v>
+        <v>1.724224620294E12</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -22798,10 +23438,10 @@
         <v>1897</v>
       </c>
       <c r="R388" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T388" t="n">
-        <v>1.723954356638E12</v>
+        <v>1.724224625291E12</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -22830,10 +23470,10 @@
         <v>1898</v>
       </c>
       <c r="R389" t="n">
-        <v>1.3500000000000032</v>
+        <v>0.8500000000000032</v>
       </c>
       <c r="T389" t="n">
-        <v>1.72395435906E12</v>
+        <v>1.724224658211E12</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -22862,10 +23502,10 @@
         <v>1866</v>
       </c>
       <c r="R390" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T390" t="n">
-        <v>1.723954364346E12</v>
+        <v>1.724224670709E12</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -22894,10 +23534,10 @@
         <v>1895</v>
       </c>
       <c r="R391" t="n">
-        <v>1.4000000000000012</v>
+        <v>0.9000000000000012</v>
       </c>
       <c r="T391" t="n">
-        <v>1.723954377559E12</v>
+        <v>1.724224680085E12</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -22926,10 +23566,10 @@
         <v>873</v>
       </c>
       <c r="R392" t="n">
-        <v>1.6000000000000054</v>
+        <v>1.1000000000000054</v>
       </c>
       <c r="T392" t="n">
-        <v>1.7239543811E12</v>
+        <v>1.724224718807E12</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -22958,10 +23598,10 @@
         <v>1895</v>
       </c>
       <c r="R393" t="n">
-        <v>1.3000000000000043</v>
+        <v>0.8000000000000043</v>
       </c>
       <c r="T393" t="n">
-        <v>1.723954386827E12</v>
+        <v>1.724224731753E12</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -22990,10 +23630,10 @@
         <v>1895</v>
       </c>
       <c r="R394" t="n">
-        <v>1.3500000000000032</v>
+        <v>0.8500000000000032</v>
       </c>
       <c r="T394" t="n">
-        <v>1.723954389898E12</v>
+        <v>1.724224733192E12</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -23025,7 +23665,7 @@
         <v>0.0</v>
       </c>
       <c r="T395" t="n">
-        <v>1.722936290132E12</v>
+        <v>1.724224735677E12</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -23054,10 +23694,10 @@
         <v>1900</v>
       </c>
       <c r="R396" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T396" t="n">
-        <v>1.723954392128E12</v>
+        <v>1.724224737679E12</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -23074,10 +23714,10 @@
         <v>3</v>
       </c>
       <c r="R397" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T397" t="n">
-        <v>1.722936296496E12</v>
+        <v>1.724224742128E12</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -23094,10 +23734,10 @@
         <v>3</v>
       </c>
       <c r="R398" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T398" t="n">
-        <v>1.722936300748E12</v>
+        <v>1.724224752331E12</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -23114,10 +23754,10 @@
         <v>4</v>
       </c>
       <c r="R399" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T399" t="n">
-        <v>1.724030479586E12</v>
+        <v>1.724224756191E12</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -23137,7 +23777,7 @@
         <v>1.5999999999999996</v>
       </c>
       <c r="T400" t="n">
-        <v>1.723954401939E12</v>
+        <v>1.724227718999E12</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -23154,10 +23794,10 @@
         <v>4</v>
       </c>
       <c r="R401" t="n">
-        <v>0.9499999999999998</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T401" t="n">
-        <v>1.723954403475E12</v>
+        <v>1.724224762245E12</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -23177,7 +23817,7 @@
         <v>0.0</v>
       </c>
       <c r="T402" t="n">
-        <v>1.722990308959E12</v>
+        <v>1.724224867321E12</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -23197,7 +23837,7 @@
         <v>0.0</v>
       </c>
       <c r="T403" t="n">
-        <v>1.722848014541E12</v>
+        <v>1.724224870915E12</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -23217,7 +23857,7 @@
         <v>0.0</v>
       </c>
       <c r="T404" t="n">
-        <v>1.722848017107E12</v>
+        <v>1.724224873985E12</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -23237,7 +23877,7 @@
         <v>0.0</v>
       </c>
       <c r="T405" t="n">
-        <v>1.722848021385E12</v>
+        <v>1.724224877645E12</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -23254,10 +23894,10 @@
         <v>3</v>
       </c>
       <c r="R406" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T406" t="n">
-        <v>1.723954405875E12</v>
+        <v>1.724224881036E12</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -23274,10 +23914,10 @@
         <v>4</v>
       </c>
       <c r="R407" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T407" t="n">
-        <v>1.723080709579E12</v>
+        <v>1.724224884346E12</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -23297,7 +23937,7 @@
         <v>0.0</v>
       </c>
       <c r="T408" t="n">
-        <v>1.722990323177E12</v>
+        <v>1.724224888441E12</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -23314,10 +23954,10 @@
         <v>4</v>
       </c>
       <c r="R409" t="n">
-        <v>2.0999999999999996</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="T409" t="n">
-        <v>1.724030486608E12</v>
+        <v>1.724224890256E12</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -23334,10 +23974,10 @@
         <v>4</v>
       </c>
       <c r="R410" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T410" t="n">
-        <v>1.723080715067E12</v>
+        <v>1.724224893594E12</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -23354,10 +23994,10 @@
         <v>4</v>
       </c>
       <c r="R411" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T411" t="n">
-        <v>1.722990337303E12</v>
+        <v>1.724224898649E12</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -23377,7 +24017,7 @@
         <v>0.0</v>
       </c>
       <c r="T412" t="n">
-        <v>1.722848052438E12</v>
+        <v>1.724224903367E12</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -23397,7 +24037,7 @@
         <v>0.0</v>
       </c>
       <c r="T413" t="n">
-        <v>1.722848070349E12</v>
+        <v>1.724224905803E12</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -23417,7 +24057,7 @@
         <v>0.0</v>
       </c>
       <c r="T414" t="n">
-        <v>1.722848076146E12</v>
+        <v>1.724224947411E12</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -23437,7 +24077,7 @@
         <v>0.0</v>
       </c>
       <c r="T415" t="n">
-        <v>1.722848099748E12</v>
+        <v>1.724224959701E12</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -23454,10 +24094,10 @@
         <v>4</v>
       </c>
       <c r="R416" t="n">
-        <v>3.4499999999999997</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T416" t="n">
-        <v>1.724030488834E12</v>
+        <v>1.724227722722E12</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -23474,10 +24114,10 @@
         <v>3</v>
       </c>
       <c r="R417" t="n">
-        <v>1.450000000000001</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="T417" t="n">
-        <v>1.723954411707E12</v>
+        <v>1.724224965061E12</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -23494,10 +24134,10 @@
         <v>4</v>
       </c>
       <c r="R418" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T418" t="n">
-        <v>1.722990351746E12</v>
+        <v>1.724224966907E12</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -23517,7 +24157,7 @@
         <v>0.0</v>
       </c>
       <c r="T419" t="n">
-        <v>1.722848109976E12</v>
+        <v>1.724225002949E12</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -23537,7 +24177,7 @@
         <v>0.0</v>
       </c>
       <c r="T420" t="n">
-        <v>1.722990354486E12</v>
+        <v>1.724225005072E12</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -23557,7 +24197,7 @@
         <v>0.0</v>
       </c>
       <c r="T421" t="n">
-        <v>1.7228481159E12</v>
+        <v>1.72422500744E12</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -23574,10 +24214,10 @@
         <v>4</v>
       </c>
       <c r="R422" t="n">
-        <v>0.9499999999999998</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T422" t="n">
-        <v>1.723080721357E12</v>
+        <v>1.724225012472E12</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -23594,10 +24234,10 @@
         <v>3</v>
       </c>
       <c r="R423" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T423" t="n">
-        <v>1.722848120157E12</v>
+        <v>1.724225014586E12</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -23617,7 +24257,7 @@
         <v>0.0</v>
       </c>
       <c r="T424" t="n">
-        <v>1.722848124919E12</v>
+        <v>1.724225028153E12</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -23634,10 +24274,10 @@
         <v>4</v>
       </c>
       <c r="R425" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T425" t="n">
-        <v>1.723080723312E12</v>
+        <v>1.724225056809E12</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -23654,10 +24294,10 @@
         <v>4</v>
       </c>
       <c r="R426" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T426" t="n">
-        <v>1.723954415361E12</v>
+        <v>1.72422506411E12</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -23674,10 +24314,10 @@
         <v>3</v>
       </c>
       <c r="R427" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T427" t="n">
-        <v>1.723954417946E12</v>
+        <v>1.724225065971E12</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -23694,10 +24334,10 @@
         <v>4</v>
       </c>
       <c r="R428" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T428" t="n">
-        <v>1.723080730844E12</v>
+        <v>1.724225069272E12</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -23717,7 +24357,7 @@
         <v>0.0</v>
       </c>
       <c r="T429" t="n">
-        <v>1.722848147258E12</v>
+        <v>1.724225071282E12</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -23737,7 +24377,7 @@
         <v>0.0</v>
       </c>
       <c r="T430" t="n">
-        <v>1.722848149591E12</v>
+        <v>1.724225075816E12</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -23754,10 +24394,10 @@
         <v>4</v>
       </c>
       <c r="R431" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T431" t="n">
-        <v>1.722990415452E12</v>
+        <v>1.724225079379E12</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -23777,7 +24417,7 @@
         <v>0.0</v>
       </c>
       <c r="T432" t="n">
-        <v>1.722990417859E12</v>
+        <v>1.724225088653E12</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -23794,10 +24434,10 @@
         <v>4</v>
       </c>
       <c r="R433" t="n">
-        <v>0.8999999999999996</v>
+        <v>0.3999999999999996</v>
       </c>
       <c r="T433" t="n">
-        <v>1.723954421345E12</v>
+        <v>1.72422531798E12</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -23817,7 +24457,7 @@
         <v>0.0</v>
       </c>
       <c r="T434" t="n">
-        <v>1.722848275298E12</v>
+        <v>1.724225320398E12</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -23837,7 +24477,7 @@
         <v>0.0</v>
       </c>
       <c r="T435" t="n">
-        <v>1.722848279533E12</v>
+        <v>1.7242253428E12</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -23854,10 +24494,10 @@
         <v>4</v>
       </c>
       <c r="R436" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T436" t="n">
-        <v>1.722990645107E12</v>
+        <v>1.724225345839E12</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -23874,10 +24514,10 @@
         <v>3</v>
       </c>
       <c r="R437" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T437" t="n">
-        <v>1.724030491778E12</v>
+        <v>1.724225360522E12</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -23897,7 +24537,7 @@
         <v>0.0</v>
       </c>
       <c r="T438" t="n">
-        <v>1.722848287699E12</v>
+        <v>1.724225364559E12</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -23917,7 +24557,7 @@
         <v>0.0</v>
       </c>
       <c r="T439" t="n">
-        <v>1.722848288952E12</v>
+        <v>1.724225421657E12</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -23934,10 +24574,10 @@
         <v>4</v>
       </c>
       <c r="R440" t="n">
-        <v>0.9499999999999998</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T440" t="n">
-        <v>1.723080742042E12</v>
+        <v>1.724225425839E12</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -23954,10 +24594,10 @@
         <v>4</v>
       </c>
       <c r="R441" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T441" t="n">
-        <v>1.723080743946E12</v>
+        <v>1.724225446596E12</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -23977,7 +24617,7 @@
         <v>0.0</v>
       </c>
       <c r="T442" t="n">
-        <v>1.722848452689E12</v>
+        <v>1.724225455439E12</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -23997,7 +24637,7 @@
         <v>0.0</v>
       </c>
       <c r="T443" t="n">
-        <v>1.722848454605E12</v>
+        <v>1.724225457255E12</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -24017,7 +24657,7 @@
         <v>0.0</v>
       </c>
       <c r="T444" t="n">
-        <v>1.722848456977E12</v>
+        <v>1.724225465741E12</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -24034,10 +24674,10 @@
         <v>4</v>
       </c>
       <c r="R445" t="n">
-        <v>3.4499999999999997</v>
+        <v>1.9499999999999993</v>
       </c>
       <c r="T445" t="n">
-        <v>1.72403062808E12</v>
+        <v>1.724227725011E12</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -24057,7 +24697,7 @@
         <v>0.0</v>
       </c>
       <c r="T446" t="n">
-        <v>1.722848480901E12</v>
+        <v>1.724225491572E12</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -24077,7 +24717,7 @@
         <v>0.0</v>
       </c>
       <c r="T447" t="n">
-        <v>1.722848482775E12</v>
+        <v>1.724225497194E12</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -24097,7 +24737,7 @@
         <v>0.0</v>
       </c>
       <c r="T448" t="n">
-        <v>1.722848484273E12</v>
+        <v>1.724225501802E12</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -24117,7 +24757,7 @@
         <v>0.0</v>
       </c>
       <c r="T449" t="n">
-        <v>1.722848485957E12</v>
+        <v>1.72422582394E12</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -24134,10 +24774,10 @@
         <v>4</v>
       </c>
       <c r="R450" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T450" t="n">
-        <v>1.723954432251E12</v>
+        <v>1.724225827718E12</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -24154,10 +24794,10 @@
         <v>4</v>
       </c>
       <c r="R451" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T451" t="n">
-        <v>1.72308075367E12</v>
+        <v>1.724225831661E12</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -24174,10 +24814,10 @@
         <v>3</v>
       </c>
       <c r="R452" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T452" t="n">
-        <v>1.722990665644E12</v>
+        <v>1.72422594847E12</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -24197,7 +24837,7 @@
         <v>0.0</v>
       </c>
       <c r="T453" t="n">
-        <v>1.72284849494E12</v>
+        <v>1.724226004749E12</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -24214,10 +24854,10 @@
         <v>4</v>
       </c>
       <c r="R454" t="n">
-        <v>1.4999999999999991</v>
+        <v>1.9999999999999991</v>
       </c>
       <c r="T454" t="n">
-        <v>1.723954434413E12</v>
+        <v>1.724227440878E12</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -24237,7 +24877,7 @@
         <v>0.0</v>
       </c>
       <c r="T455" t="n">
-        <v>1.722848498918E12</v>
+        <v>1.724226033906E12</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -24254,10 +24894,10 @@
         <v>4</v>
       </c>
       <c r="R456" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T456" t="n">
-        <v>1.723080758664E12</v>
+        <v>1.724226040438E12</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -24274,10 +24914,10 @@
         <v>4</v>
       </c>
       <c r="R457" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T457" t="n">
-        <v>1.723954435861E12</v>
+        <v>1.724226042526E12</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -24294,10 +24934,10 @@
         <v>3</v>
       </c>
       <c r="R458" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T458" t="n">
-        <v>1.722848578878E12</v>
+        <v>1.724226044773E12</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -24314,10 +24954,10 @@
         <v>3</v>
       </c>
       <c r="R459" t="n">
-        <v>1.4000000000000021</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="T459" t="n">
-        <v>1.723954437147E12</v>
+        <v>1.724226049899E12</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -24337,7 +24977,7 @@
         <v>0.0</v>
       </c>
       <c r="T460" t="n">
-        <v>1.722848582005E12</v>
+        <v>1.724226053039E12</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -24357,7 +24997,7 @@
         <v>0.0</v>
       </c>
       <c r="T461" t="n">
-        <v>1.722848583427E12</v>
+        <v>1.724226055331E12</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -24374,10 +25014,10 @@
         <v>4</v>
       </c>
       <c r="R462" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T462" t="n">
-        <v>1.722990679101E12</v>
+        <v>1.724226058479E12</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -24394,10 +25034,10 @@
         <v>4</v>
       </c>
       <c r="R463" t="n">
-        <v>0.9499999999999998</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="T463" t="n">
-        <v>1.723080765743E12</v>
+        <v>1.724226280333E12</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -24414,10 +25054,10 @@
         <v>3</v>
       </c>
       <c r="R464" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T464" t="n">
-        <v>1.722990811571E12</v>
+        <v>1.724226283929E12</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -24434,10 +25074,10 @@
         <v>3</v>
       </c>
       <c r="R465" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T465" t="n">
-        <v>1.722848601355E12</v>
+        <v>1.724226336951E12</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -24454,10 +25094,10 @@
         <v>4</v>
       </c>
       <c r="R466" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T466" t="n">
-        <v>1.722848603246E12</v>
+        <v>1.724226382925E12</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -24474,10 +25114,10 @@
         <v>4</v>
       </c>
       <c r="R467" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T467" t="n">
-        <v>1.723080767955E12</v>
+        <v>1.724226389703E12</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -24494,10 +25134,10 @@
         <v>4</v>
       </c>
       <c r="R468" t="n">
-        <v>0.65</v>
+        <v>1.65</v>
       </c>
       <c r="T468" t="n">
-        <v>1.722990817453E12</v>
+        <v>1.724226395339E12</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -24514,10 +25154,10 @@
         <v>3</v>
       </c>
       <c r="R469" t="n">
-        <v>0.65</v>
+        <v>1.65</v>
       </c>
       <c r="T469" t="n">
-        <v>1.722990820485E12</v>
+        <v>1.724226409173E12</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -24534,10 +25174,10 @@
         <v>3</v>
       </c>
       <c r="R470" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T470" t="n">
-        <v>1.722848684509E12</v>
+        <v>1.724226413482E12</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -24554,10 +25194,10 @@
         <v>4</v>
       </c>
       <c r="R471" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T471" t="n">
-        <v>1.723080770047E12</v>
+        <v>1.724226415382E12</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -24574,10 +25214,10 @@
         <v>4</v>
       </c>
       <c r="R472" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T472" t="n">
-        <v>1.723954446494E12</v>
+        <v>1.724226418158E12</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -24597,7 +25237,7 @@
         <v>0.0</v>
       </c>
       <c r="T473" t="n">
-        <v>1.722848697014E12</v>
+        <v>1.724226421265E12</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -24614,10 +25254,10 @@
         <v>4</v>
       </c>
       <c r="R474" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T474" t="n">
-        <v>1.722990925249E12</v>
+        <v>1.724226425655E12</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -24634,10 +25274,10 @@
         <v>4</v>
       </c>
       <c r="R475" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T475" t="n">
-        <v>1.722990927642E12</v>
+        <v>1.724226427464E12</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -24657,7 +25297,7 @@
         <v>0.0</v>
       </c>
       <c r="T476" t="n">
-        <v>1.722848701693E12</v>
+        <v>1.724226435615E12</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -24674,10 +25314,10 @@
         <v>3</v>
       </c>
       <c r="R477" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="T477" t="n">
-        <v>1.72395445696E12</v>
+        <v>1.724227443067E12</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -24697,7 +25337,7 @@
         <v>0.0</v>
       </c>
       <c r="T478" t="n">
-        <v>1.722848706684E12</v>
+        <v>1.724226543983E12</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -24717,7 +25357,7 @@
         <v>0.0</v>
       </c>
       <c r="T479" t="n">
-        <v>1.722848708641E12</v>
+        <v>1.724226634237E12</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -24737,7 +25377,7 @@
         <v>0.0</v>
       </c>
       <c r="T480" t="n">
-        <v>1.722848710411E12</v>
+        <v>1.724226637473E12</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -24757,7 +25397,7 @@
         <v>0.0</v>
       </c>
       <c r="T481" t="n">
-        <v>1.722990933615E12</v>
+        <v>1.724226639633E12</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -24777,7 +25417,7 @@
         <v>0.0</v>
       </c>
       <c r="T482" t="n">
-        <v>1.722848716129E12</v>
+        <v>1.724226641395E12</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -24794,10 +25434,10 @@
         <v>3</v>
       </c>
       <c r="R483" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T483" t="n">
-        <v>1.722990936357E12</v>
+        <v>1.724226643686E12</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -24814,10 +25454,10 @@
         <v>4</v>
       </c>
       <c r="R484" t="n">
-        <v>1.5499999999999994</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="T484" t="n">
-        <v>1.723954458221E12</v>
+        <v>1.724226645658E12</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -24837,7 +25477,7 @@
         <v>0.0</v>
       </c>
       <c r="T485" t="n">
-        <v>1.722848721505E12</v>
+        <v>1.724226648175E12</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -24854,10 +25494,10 @@
         <v>4</v>
       </c>
       <c r="R486" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T486" t="n">
-        <v>1.722991002658E12</v>
+        <v>1.724226650195E12</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -24877,7 +25517,7 @@
         <v>0.0</v>
       </c>
       <c r="T487" t="n">
-        <v>1.722848725185E12</v>
+        <v>1.724226652402E12</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -24894,10 +25534,10 @@
         <v>4</v>
       </c>
       <c r="R488" t="n">
-        <v>0.65</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="T488" t="n">
-        <v>1.722991004721E12</v>
+        <v>1.724226653709E12</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -24917,7 +25557,7 @@
         <v>0.0</v>
       </c>
       <c r="T489" t="n">
-        <v>1.722991006481E12</v>
+        <v>1.724226659328E12</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -24937,7 +25577,7 @@
         <v>0.0</v>
       </c>
       <c r="T490" t="n">
-        <v>1.72284873342E12</v>
+        <v>1.724226661959E12</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -24954,10 +25594,10 @@
         <v>4</v>
       </c>
       <c r="R491" t="n">
-        <v>1.4999999999999991</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="T491" t="n">
-        <v>1.723954459759E12</v>
+        <v>1.724226664588E12</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -24974,10 +25614,10 @@
         <v>3</v>
       </c>
       <c r="R492" t="n">
-        <v>0.8999999999999996</v>
+        <v>1.8999999999999995</v>
       </c>
       <c r="T492" t="n">
-        <v>1.723954462275E12</v>
+        <v>1.724226669759E12</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -24997,7 +25637,7 @@
         <v>0.0</v>
       </c>
       <c r="T493" t="n">
-        <v>1.722848739786E12</v>
+        <v>1.72422671482E12</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -25014,10 +25654,10 @@
         <v>4</v>
       </c>
       <c r="R494" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T494" t="n">
-        <v>1.722848742926E12</v>
+        <v>1.724226718235E12</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -25034,10 +25674,10 @@
         <v>3</v>
       </c>
       <c r="R495" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="T495" t="n">
-        <v>1.723954464849E12</v>
+        <v>1.724226723072E12</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -25054,10 +25694,10 @@
         <v>4</v>
       </c>
       <c r="R496" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T496" t="n">
-        <v>1.723080785655E12</v>
+        <v>1.724226725171E12</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -25074,10 +25714,10 @@
         <v>4</v>
       </c>
       <c r="R497" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T497" t="n">
-        <v>1.722991026882E12</v>
+        <v>1.724226731673E12</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -25097,7 +25737,7 @@
         <v>0.0</v>
       </c>
       <c r="T498" t="n">
-        <v>1.722848756038E12</v>
+        <v>1.724226734663E12</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -25114,10 +25754,10 @@
         <v>4</v>
       </c>
       <c r="R499" t="n">
-        <v>0.9499999999999998</v>
+        <v>0.44999999999999984</v>
       </c>
       <c r="T499" t="n">
-        <v>1.723080787477E12</v>
+        <v>1.724226737023E12</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -25137,7 +25777,7 @@
         <v>0.0</v>
       </c>
       <c r="T500" t="n">
-        <v>1.722848759364E12</v>
+        <v>1.724226784189E12</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/初级工题库.xlsx
+++ b/target/classes/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4225" uniqueCount="2010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4226" uniqueCount="2011">
   <si>
     <t>题型</t>
   </si>
@@ -6091,6 +6091,9 @@
   </si>
   <si>
     <t>您一共做了: 8题	您的得分： 100.0	做题时长约为0.31666666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 156题	您的得分： 89.74358974358975	做题时长约为18.766666666666666Min</t>
   </si>
 </sst>
 </file>
@@ -6150,7 +6153,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4152">
+  <cellXfs count="4308">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -10242,6 +10245,162 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10698,10 +10857,10 @@
         <v>1574</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T3" t="n">
-        <v>1.724205618066E12</v>
+        <v>1.72422785561E12</v>
       </c>
       <c r="AA3" t="s">
         <v>1904</v>
@@ -10771,10 +10930,10 @@
         <v>1576</v>
       </c>
       <c r="R5" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T5" t="n">
-        <v>1.724205691872E12</v>
+        <v>1.724227868271E12</v>
       </c>
       <c r="AA5" t="s">
         <v>1906</v>
@@ -10876,10 +11035,10 @@
         <v>1296</v>
       </c>
       <c r="R8" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T8" t="n">
-        <v>1.724205727817E12</v>
+        <v>1.724227871202E12</v>
       </c>
       <c r="AA8" t="s">
         <v>1909</v>
@@ -11296,10 +11455,10 @@
         <v>1587</v>
       </c>
       <c r="R20" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T20" t="n">
-        <v>1.724206508627E12</v>
+        <v>1.72422787458E12</v>
       </c>
       <c r="AA20" t="s">
         <v>1921</v>
@@ -11401,10 +11560,10 @@
         <v>1590</v>
       </c>
       <c r="R23" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T23" t="n">
-        <v>1.724206534629E12</v>
+        <v>1.724227878973E12</v>
       </c>
       <c r="AA23" t="s">
         <v>1924</v>
@@ -11471,10 +11630,10 @@
         <v>1591</v>
       </c>
       <c r="R25" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T25" t="n">
-        <v>1.724206549517E12</v>
+        <v>1.724227880905E12</v>
       </c>
       <c r="AA25" t="s">
         <v>1926</v>
@@ -11506,10 +11665,10 @@
         <v>1592</v>
       </c>
       <c r="R26" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.724206554672E12</v>
+        <v>1.724227890808E12</v>
       </c>
       <c r="AA26" t="s">
         <v>1927</v>
@@ -11611,10 +11770,10 @@
         <v>1594</v>
       </c>
       <c r="R29" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T29" t="n">
-        <v>1.724206643107E12</v>
+        <v>1.72422792079E12</v>
       </c>
       <c r="AA29" t="s">
         <v>1930</v>
@@ -11821,10 +11980,10 @@
         <v>1597</v>
       </c>
       <c r="R35" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="T35" t="n">
-        <v>1.72420667793E12</v>
+        <v>1.724227923862E12</v>
       </c>
       <c r="AA35" t="s">
         <v>1936</v>
@@ -11996,10 +12155,10 @@
         <v>1563</v>
       </c>
       <c r="R40" t="n">
-        <v>1.9999999999999991</v>
+        <v>1.7899999999999991</v>
       </c>
       <c r="T40" t="n">
-        <v>1.724227188537E12</v>
+        <v>1.724227928255E12</v>
       </c>
       <c r="AA40" t="s">
         <v>1938</v>
@@ -12241,10 +12400,10 @@
         <v>1605</v>
       </c>
       <c r="R47" t="n">
-        <v>1.7499999999999996</v>
+        <v>1.5399999999999996</v>
       </c>
       <c r="T47" t="n">
-        <v>1.724227707283E12</v>
+        <v>1.724227929868E12</v>
       </c>
       <c r="AA47" t="s">
         <v>1946</v>
@@ -12451,10 +12610,10 @@
         <v>1611</v>
       </c>
       <c r="R53" t="n">
-        <v>1.950000000000001</v>
+        <v>1.740000000000001</v>
       </c>
       <c r="T53" t="n">
-        <v>1.72422719792E12</v>
+        <v>1.724227932955E12</v>
       </c>
       <c r="AA53" t="s">
         <v>1936</v>
@@ -12521,10 +12680,10 @@
         <v>1613</v>
       </c>
       <c r="R55" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T55" t="n">
-        <v>1.724206995039E12</v>
+        <v>1.724227939855E12</v>
       </c>
       <c r="AA55" t="s">
         <v>1953</v>
@@ -12556,10 +12715,10 @@
         <v>1614</v>
       </c>
       <c r="R56" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T56" t="n">
-        <v>1.724207028309E12</v>
+        <v>1.724227942832E12</v>
       </c>
       <c r="AA56" t="s">
         <v>1954</v>
@@ -12906,10 +13065,10 @@
         <v>1623</v>
       </c>
       <c r="R66" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="T66" t="n">
-        <v>1.724207898842E12</v>
+        <v>1.72422794491E12</v>
       </c>
       <c r="AA66" t="s">
         <v>1963</v>
@@ -13011,10 +13170,10 @@
         <v>1626</v>
       </c>
       <c r="R69" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T69" t="n">
-        <v>1.724208040108E12</v>
+        <v>1.724227947407E12</v>
       </c>
       <c r="AA69" t="s">
         <v>1966</v>
@@ -13116,10 +13275,10 @@
         <v>1628</v>
       </c>
       <c r="R72" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T72" t="n">
-        <v>1.724208067776E12</v>
+        <v>1.724227950059E12</v>
       </c>
       <c r="AA72" t="s">
         <v>1969</v>
@@ -13186,10 +13345,10 @@
         <v>1630</v>
       </c>
       <c r="R74" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T74" t="n">
-        <v>1.724208075138E12</v>
+        <v>1.724227955138E12</v>
       </c>
       <c r="AA74" t="s">
         <v>1971</v>
@@ -13256,10 +13415,10 @@
         <v>1632</v>
       </c>
       <c r="R76" t="n">
-        <v>1.8499999999999979</v>
+        <v>1.639999999999998</v>
       </c>
       <c r="T76" t="n">
-        <v>1.724227202705E12</v>
+        <v>1.724227960845E12</v>
       </c>
       <c r="AA76" t="s">
         <v>1969</v>
@@ -13396,10 +13555,10 @@
         <v>1636</v>
       </c>
       <c r="R80" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T80" t="n">
-        <v>1.724208211674E12</v>
+        <v>1.724227971245E12</v>
       </c>
       <c r="AA80" t="s">
         <v>1975</v>
@@ -13431,10 +13590,10 @@
         <v>1637</v>
       </c>
       <c r="R81" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T81" t="n">
-        <v>1.724208225771E12</v>
+        <v>1.724227974236E12</v>
       </c>
       <c r="AA81" t="s">
         <v>1976</v>
@@ -13466,10 +13625,10 @@
         <v>566</v>
       </c>
       <c r="R82" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="T82" t="n">
-        <v>1.724227260069E12</v>
+        <v>1.724227980037E12</v>
       </c>
       <c r="AA82" t="s">
         <v>1976</v>
@@ -13501,10 +13660,10 @@
         <v>1638</v>
       </c>
       <c r="R83" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T83" t="n">
-        <v>1.72420824705E12</v>
+        <v>1.72422798316E12</v>
       </c>
       <c r="AA83" t="s">
         <v>1977</v>
@@ -13571,10 +13730,10 @@
         <v>1640</v>
       </c>
       <c r="R85" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T85" t="n">
-        <v>1.724208260592E12</v>
+        <v>1.724227985208E12</v>
       </c>
       <c r="AA85" t="s">
         <v>1979</v>
@@ -13606,10 +13765,10 @@
         <v>1641</v>
       </c>
       <c r="R86" t="n">
-        <v>1.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T86" t="n">
-        <v>1.724208272274E12</v>
+        <v>1.724227995653E12</v>
       </c>
       <c r="AA86" t="s">
         <v>1980</v>
@@ -13676,10 +13835,10 @@
         <v>1643</v>
       </c>
       <c r="R88" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T88" t="n">
-        <v>1.724208304425E12</v>
+        <v>1.724228040447E12</v>
       </c>
       <c r="AA88" t="s">
         <v>1976</v>
@@ -13816,10 +13975,10 @@
         <v>1647</v>
       </c>
       <c r="R92" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T92" t="n">
-        <v>1.724208348644E12</v>
+        <v>1.72422805812E12</v>
       </c>
       <c r="AA92" t="s">
         <v>1983</v>
@@ -14026,10 +14185,10 @@
         <v>1653</v>
       </c>
       <c r="R98" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T98" t="n">
-        <v>1.724208536581E12</v>
+        <v>1.72422807481E12</v>
       </c>
       <c r="AA98" t="s">
         <v>1951</v>
@@ -14061,10 +14220,10 @@
         <v>1654</v>
       </c>
       <c r="R99" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T99" t="n">
-        <v>1.724227273857E12</v>
+        <v>1.724228080444E12</v>
       </c>
       <c r="AA99" t="s">
         <v>1976</v>
@@ -14201,10 +14360,10 @@
         <v>607</v>
       </c>
       <c r="R103" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T103" t="n">
-        <v>1.724208853677E12</v>
+        <v>1.724228084501E12</v>
       </c>
       <c r="AA103" t="s">
         <v>1987</v>
@@ -14236,10 +14395,10 @@
         <v>1657</v>
       </c>
       <c r="R104" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T104" t="n">
-        <v>1.724208858117E12</v>
+        <v>1.72422808839E12</v>
       </c>
       <c r="AA104" t="s">
         <v>1988</v>
@@ -14271,10 +14430,10 @@
         <v>1658</v>
       </c>
       <c r="R105" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T105" t="n">
-        <v>1.724208896307E12</v>
+        <v>1.724228127247E12</v>
       </c>
       <c r="AA105" t="s">
         <v>1989</v>
@@ -14551,10 +14710,10 @@
         <v>1664</v>
       </c>
       <c r="R113" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T113" t="n">
-        <v>1.724209160933E12</v>
+        <v>1.72422813022E12</v>
       </c>
       <c r="AA113" t="s">
         <v>1992</v>
@@ -14586,10 +14745,10 @@
         <v>1665</v>
       </c>
       <c r="R114" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T114" t="n">
-        <v>1.724209167835E12</v>
+        <v>1.724228159473E12</v>
       </c>
       <c r="AA114" t="s">
         <v>1975</v>
@@ -14761,10 +14920,10 @@
         <v>1670</v>
       </c>
       <c r="R119" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T119" t="n">
-        <v>1.724209361253E12</v>
+        <v>1.724228162923E12</v>
       </c>
       <c r="AA119" t="s">
         <v>1976</v>
@@ -14831,10 +14990,10 @@
         <v>1671</v>
       </c>
       <c r="R121" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T121" t="n">
-        <v>1.724209367831E12</v>
+        <v>1.724228165263E12</v>
       </c>
       <c r="AA121" t="s">
         <v>1986</v>
@@ -14936,10 +15095,10 @@
         <v>1674</v>
       </c>
       <c r="R124" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T124" t="n">
-        <v>1.724209490946E12</v>
+        <v>1.724228169228E12</v>
       </c>
       <c r="AA124" t="s">
         <v>1995</v>
@@ -15111,10 +15270,10 @@
         <v>1678</v>
       </c>
       <c r="R129" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T129" t="n">
-        <v>1.724209512054E12</v>
+        <v>1.724228172342E12</v>
       </c>
       <c r="AA129" t="s">
         <v>2000</v>
@@ -15146,10 +15305,10 @@
         <v>1679</v>
       </c>
       <c r="R130" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.3899999999999997</v>
       </c>
       <c r="T130" t="n">
-        <v>1.724227584812E12</v>
+        <v>1.7242282333E12</v>
       </c>
       <c r="AA130" t="s">
         <v>2001</v>
@@ -15181,10 +15340,10 @@
         <v>1680</v>
       </c>
       <c r="R131" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T131" t="n">
-        <v>1.724209570882E12</v>
+        <v>1.724228252486E12</v>
       </c>
       <c r="AA131" t="s">
         <v>2002</v>
@@ -15216,10 +15375,10 @@
         <v>1681</v>
       </c>
       <c r="R132" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T132" t="n">
-        <v>1.724209584151E12</v>
+        <v>1.724228262447E12</v>
       </c>
       <c r="AA132" t="s">
         <v>2003</v>
@@ -15286,10 +15445,10 @@
         <v>1683</v>
       </c>
       <c r="R134" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T134" t="n">
-        <v>1.724209614037E12</v>
+        <v>1.724228272351E12</v>
       </c>
       <c r="AA134" t="s">
         <v>2005</v>
@@ -15321,10 +15480,10 @@
         <v>1683</v>
       </c>
       <c r="R135" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T135" t="n">
-        <v>1.724209669159E12</v>
+        <v>1.724228275297E12</v>
       </c>
       <c r="AA135" t="s">
         <v>1917</v>
@@ -15356,10 +15515,10 @@
         <v>1684</v>
       </c>
       <c r="R136" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T136" t="n">
-        <v>1.724209680733E12</v>
+        <v>1.724228278715E12</v>
       </c>
       <c r="AA136" t="s">
         <v>1976</v>
@@ -15426,10 +15585,10 @@
         <v>1685</v>
       </c>
       <c r="R138" t="n">
-        <v>1.9499999999999997</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T138" t="n">
-        <v>1.724209692222E12</v>
+        <v>1.724228351319E12</v>
       </c>
       <c r="AA138" t="s">
         <v>1951</v>
@@ -15496,10 +15655,10 @@
         <v>1687</v>
       </c>
       <c r="R140" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="T140" t="n">
-        <v>1.724209705529E12</v>
+        <v>1.724228354927E12</v>
       </c>
       <c r="AA140" t="s">
         <v>1917</v>
@@ -15606,6 +15765,9 @@
       <c r="T143" t="n">
         <v>1.724209731705E12</v>
       </c>
+      <c r="AA143" t="s">
+        <v>2010</v>
+      </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1">
@@ -16113,10 +16275,10 @@
         <v>1703</v>
       </c>
       <c r="R159" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T159" t="n">
-        <v>1.724209877065E12</v>
+        <v>1.724228363887E12</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -16305,10 +16467,10 @@
         <v>1709</v>
       </c>
       <c r="R165" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="T165" t="n">
-        <v>1.72422759259E12</v>
+        <v>1.724228369729E12</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -16369,10 +16531,10 @@
         <v>1711</v>
       </c>
       <c r="R167" t="n">
-        <v>1.2499999999999996</v>
+        <v>1.0399999999999996</v>
       </c>
       <c r="T167" t="n">
-        <v>1.724210018949E12</v>
+        <v>1.724228373132E12</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -16401,10 +16563,10 @@
         <v>1712</v>
       </c>
       <c r="R168" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="T168" t="n">
-        <v>1.724210021646E12</v>
+        <v>1.724228376943E12</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -16561,10 +16723,10 @@
         <v>1716</v>
       </c>
       <c r="R173" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T173" t="n">
-        <v>1.724210083203E12</v>
+        <v>1.724228386968E12</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -16977,10 +17139,10 @@
         <v>1727</v>
       </c>
       <c r="R186" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="T186" t="n">
-        <v>1.724210492543E12</v>
+        <v>1.724228397896E12</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -17009,10 +17171,10 @@
         <v>1727</v>
       </c>
       <c r="R187" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T187" t="n">
-        <v>1.72421049904E12</v>
+        <v>1.724228405569E12</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -17041,10 +17203,10 @@
         <v>1727</v>
       </c>
       <c r="R188" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T188" t="n">
-        <v>1.724210505863E12</v>
+        <v>1.724228423661E12</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -17105,10 +17267,10 @@
         <v>1729</v>
       </c>
       <c r="R190" t="n">
-        <v>1.9999999999999991</v>
+        <v>2.999999999999999</v>
       </c>
       <c r="T190" t="n">
-        <v>1.724227295691E12</v>
+        <v>1.724228434924E12</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -17233,10 +17395,10 @@
         <v>1729</v>
       </c>
       <c r="R194" t="n">
-        <v>1.8000000000000034</v>
+        <v>2.8000000000000034</v>
       </c>
       <c r="T194" t="n">
-        <v>1.724227304152E12</v>
+        <v>1.724228469446E12</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -17649,10 +17811,10 @@
         <v>1736</v>
       </c>
       <c r="R207" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="T207" t="n">
-        <v>1.724211144092E12</v>
+        <v>1.724228486758E12</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -18001,10 +18163,10 @@
         <v>1747</v>
       </c>
       <c r="R218" t="n">
-        <v>1.950000000000001</v>
+        <v>1.740000000000001</v>
       </c>
       <c r="T218" t="n">
-        <v>1.724227331535E12</v>
+        <v>1.724228489429E12</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -18033,10 +18195,10 @@
         <v>1748</v>
       </c>
       <c r="R219" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="T219" t="n">
-        <v>1.724211288578E12</v>
+        <v>1.724228494647E12</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -18097,10 +18259,10 @@
         <v>1750</v>
       </c>
       <c r="R221" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T221" t="n">
-        <v>1.724211314817E12</v>
+        <v>1.72422853099E12</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -18161,10 +18323,10 @@
         <v>669</v>
       </c>
       <c r="R223" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T223" t="n">
-        <v>1.724211343001E12</v>
+        <v>1.724228532731E12</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -18289,10 +18451,10 @@
         <v>1754</v>
       </c>
       <c r="R227" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="T227" t="n">
-        <v>1.724211422092E12</v>
+        <v>1.724228541728E12</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -18481,10 +18643,10 @@
         <v>1760</v>
       </c>
       <c r="R233" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T233" t="n">
-        <v>1.724211453345E12</v>
+        <v>1.724228543488E12</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -18673,10 +18835,10 @@
         <v>1766</v>
       </c>
       <c r="R239" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T239" t="n">
-        <v>1.724211542576E12</v>
+        <v>1.724228548028E12</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -18705,10 +18867,10 @@
         <v>1767</v>
       </c>
       <c r="R240" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T240" t="n">
-        <v>1.724211552642E12</v>
+        <v>1.724228565973E12</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -18737,10 +18899,10 @@
         <v>1768</v>
       </c>
       <c r="R241" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T241" t="n">
-        <v>1.724220885617E12</v>
+        <v>1.72422857168E12</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -18801,10 +18963,10 @@
         <v>1770</v>
       </c>
       <c r="R243" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="T243" t="n">
-        <v>1.72422108432E12</v>
+        <v>1.724228588178E12</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -18865,10 +19027,10 @@
         <v>1772</v>
       </c>
       <c r="R245" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T245" t="n">
-        <v>1.724221142797E12</v>
+        <v>1.724228591141E12</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -18897,10 +19059,10 @@
         <v>1773</v>
       </c>
       <c r="R246" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T246" t="n">
-        <v>1.724221145642E12</v>
+        <v>1.724228593518E12</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -19025,10 +19187,10 @@
         <v>1777</v>
       </c>
       <c r="R250" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T250" t="n">
-        <v>1.72422121512E12</v>
+        <v>1.724228597588E12</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -19121,10 +19283,10 @@
         <v>1779</v>
       </c>
       <c r="R253" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T253" t="n">
-        <v>1.724221398939E12</v>
+        <v>1.724228601522E12</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -19217,10 +19379,10 @@
         <v>1781</v>
       </c>
       <c r="R256" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="T256" t="n">
-        <v>1.724221467797E12</v>
+        <v>1.724228607252E12</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -19249,10 +19411,10 @@
         <v>1782</v>
       </c>
       <c r="R257" t="n">
-        <v>1.1000000000000045</v>
+        <v>0.8900000000000046</v>
       </c>
       <c r="T257" t="n">
-        <v>1.724221475034E12</v>
+        <v>1.724228610387E12</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -19281,10 +19443,10 @@
         <v>1783</v>
       </c>
       <c r="R258" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.3899999999999997</v>
       </c>
       <c r="T258" t="n">
-        <v>1.724227709733E12</v>
+        <v>1.724228614747E12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -19374,10 +19536,10 @@
         <v>1785</v>
       </c>
       <c r="R261" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T261" t="n">
-        <v>1.724221536316E12</v>
+        <v>1.724228620185E12</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -19470,10 +19632,10 @@
         <v>1788</v>
       </c>
       <c r="R264" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T264" t="n">
-        <v>1.724221558343E12</v>
+        <v>1.724228623739E12</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -19534,10 +19696,10 @@
         <v>1790</v>
       </c>
       <c r="R266" t="n">
-        <v>1.8000000000000105</v>
+        <v>1.5900000000000105</v>
       </c>
       <c r="T266" t="n">
-        <v>1.724227712397E12</v>
+        <v>1.724228634635E12</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -19566,10 +19728,10 @@
         <v>1791</v>
       </c>
       <c r="R267" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T267" t="n">
-        <v>1.724221621994E12</v>
+        <v>1.724228636275E12</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -19598,10 +19760,10 @@
         <v>1792</v>
       </c>
       <c r="R268" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="T268" t="n">
-        <v>1.724221662431E12</v>
+        <v>1.72422863883E12</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -19630,10 +19792,10 @@
         <v>1793</v>
       </c>
       <c r="R269" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T269" t="n">
-        <v>1.724221669028E12</v>
+        <v>1.724228643321E12</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -19662,10 +19824,10 @@
         <v>945</v>
       </c>
       <c r="R270" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T270" t="n">
-        <v>1.7242216963E12</v>
+        <v>1.724228648275E12</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -19790,10 +19952,10 @@
         <v>1796</v>
       </c>
       <c r="R274" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="T274" t="n">
-        <v>1.724221761827E12</v>
+        <v>1.724228652421E12</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -19822,10 +19984,10 @@
         <v>1797</v>
       </c>
       <c r="R275" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T275" t="n">
-        <v>1.724221774963E12</v>
+        <v>1.724228655434E12</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -19982,10 +20144,10 @@
         <v>1802</v>
       </c>
       <c r="R280" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T280" t="n">
-        <v>1.724221801862E12</v>
+        <v>1.724228657492E12</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -20014,10 +20176,10 @@
         <v>1803</v>
       </c>
       <c r="R281" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T281" t="n">
-        <v>1.724221806983E12</v>
+        <v>1.724228660354E12</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -20046,10 +20208,10 @@
         <v>1804</v>
       </c>
       <c r="R282" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T282" t="n">
-        <v>1.724221812714E12</v>
+        <v>1.72422866506E12</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -20238,10 +20400,10 @@
         <v>1810</v>
       </c>
       <c r="R288" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T288" t="n">
-        <v>1.724221877723E12</v>
+        <v>1.72422866794E12</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -20270,10 +20432,10 @@
         <v>1811</v>
       </c>
       <c r="R289" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T289" t="n">
-        <v>1.724221887484E12</v>
+        <v>1.724228670521E12</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -20334,10 +20496,10 @@
         <v>1813</v>
       </c>
       <c r="R291" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T291" t="n">
-        <v>1.724221900357E12</v>
+        <v>1.724228673196E12</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -20654,10 +20816,10 @@
         <v>1823</v>
       </c>
       <c r="R301" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T301" t="n">
-        <v>1.724222013965E12</v>
+        <v>1.724228676521E12</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -20686,10 +20848,10 @@
         <v>1824</v>
       </c>
       <c r="R302" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T302" t="n">
-        <v>1.724222654584E12</v>
+        <v>1.724228680177E12</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -20750,10 +20912,10 @@
         <v>1826</v>
       </c>
       <c r="R304" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="T304" t="n">
-        <v>1.724222670554E12</v>
+        <v>1.72422868367E12</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -20814,10 +20976,10 @@
         <v>1493</v>
       </c>
       <c r="R306" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T306" t="n">
-        <v>1.724222677913E12</v>
+        <v>1.724228688722E12</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -20942,10 +21104,10 @@
         <v>1831</v>
       </c>
       <c r="R310" t="n">
-        <v>1.9499999999999993</v>
+        <v>1.7399999999999993</v>
       </c>
       <c r="T310" t="n">
-        <v>1.724227715148E12</v>
+        <v>1.724228692233E12</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -21006,10 +21168,10 @@
         <v>1833</v>
       </c>
       <c r="R312" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T312" t="n">
-        <v>1.724222742569E12</v>
+        <v>1.724228697822E12</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -21038,10 +21200,10 @@
         <v>1834</v>
       </c>
       <c r="R313" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T313" t="n">
-        <v>1.72422274614E12</v>
+        <v>1.724228702663E12</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -21070,10 +21232,10 @@
         <v>1835</v>
       </c>
       <c r="R314" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="T314" t="n">
-        <v>1.724227354652E12</v>
+        <v>1.724228704676E12</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -21134,10 +21296,10 @@
         <v>1837</v>
       </c>
       <c r="R316" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T316" t="n">
-        <v>1.72422280512E12</v>
+        <v>1.72422870655E12</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -21166,10 +21328,10 @@
         <v>1838</v>
       </c>
       <c r="R317" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="T317" t="n">
-        <v>1.72422281422E12</v>
+        <v>1.72422870973E12</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -21422,10 +21584,10 @@
         <v>1845</v>
       </c>
       <c r="R325" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T325" t="n">
-        <v>1.724222852156E12</v>
+        <v>1.724228712309E12</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -21614,10 +21776,10 @@
         <v>1851</v>
       </c>
       <c r="R331" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="T331" t="n">
-        <v>1.724223238551E12</v>
+        <v>1.724228718061E12</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -21742,10 +21904,10 @@
         <v>1854</v>
       </c>
       <c r="R335" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T335" t="n">
-        <v>1.7242233266E12</v>
+        <v>1.724228721342E12</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -21838,10 +22000,10 @@
         <v>1857</v>
       </c>
       <c r="R338" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.3899999999999997</v>
       </c>
       <c r="T338" t="n">
-        <v>1.72422360021E12</v>
+        <v>1.724228728864E12</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -21934,10 +22096,10 @@
         <v>1859</v>
       </c>
       <c r="R341" t="n">
-        <v>1.500000000000007</v>
+        <v>1.2900000000000071</v>
       </c>
       <c r="T341" t="n">
-        <v>1.724227630997E12</v>
+        <v>1.724228730959E12</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -21966,10 +22128,10 @@
         <v>1860</v>
       </c>
       <c r="R342" t="n">
-        <v>1.1000000000000054</v>
+        <v>0.8900000000000055</v>
       </c>
       <c r="T342" t="n">
-        <v>1.724223637854E12</v>
+        <v>1.724228733744E12</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -21998,10 +22160,10 @@
         <v>1861</v>
       </c>
       <c r="R343" t="n">
-        <v>1.0500000000000065</v>
+        <v>0.8400000000000065</v>
       </c>
       <c r="T343" t="n">
-        <v>1.724223640597E12</v>
+        <v>1.724228736742E12</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -22094,10 +22256,10 @@
         <v>1864</v>
       </c>
       <c r="R346" t="n">
-        <v>1.2499999999999996</v>
+        <v>1.0399999999999996</v>
       </c>
       <c r="T346" t="n">
-        <v>1.72422365259E12</v>
+        <v>1.724228738569E12</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -22158,10 +22320,10 @@
         <v>1866</v>
       </c>
       <c r="R348" t="n">
-        <v>1.0999999999999996</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="T348" t="n">
-        <v>1.724223685308E12</v>
+        <v>1.724228741862E12</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -22254,10 +22416,10 @@
         <v>1536</v>
       </c>
       <c r="R351" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="T351" t="n">
-        <v>1.724223717514E12</v>
+        <v>1.724228749873E12</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -22318,10 +22480,10 @@
         <v>1869</v>
       </c>
       <c r="R353" t="n">
-        <v>1.8500000000000032</v>
+        <v>2.850000000000003</v>
       </c>
       <c r="T353" t="n">
-        <v>1.724227405018E12</v>
+        <v>1.724228761598E12</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -22446,10 +22608,10 @@
         <v>1873</v>
       </c>
       <c r="R357" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T357" t="n">
-        <v>1.724223922419E12</v>
+        <v>1.72422876767E12</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -22478,10 +22640,10 @@
         <v>1874</v>
       </c>
       <c r="R358" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T358" t="n">
-        <v>1.724223944918E12</v>
+        <v>1.724228770412E12</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -22510,10 +22672,10 @@
         <v>870</v>
       </c>
       <c r="R359" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="T359" t="n">
-        <v>1.724223970676E12</v>
+        <v>1.724228776519E12</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -22542,10 +22704,10 @@
         <v>1875</v>
       </c>
       <c r="R360" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T360" t="n">
-        <v>1.724223983077E12</v>
+        <v>1.724228812619E12</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -22574,10 +22736,10 @@
         <v>1876</v>
       </c>
       <c r="R361" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.3899999999999997</v>
       </c>
       <c r="T361" t="n">
-        <v>1.724227717599E12</v>
+        <v>1.724228815433E12</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -22894,10 +23056,10 @@
         <v>1886</v>
       </c>
       <c r="R371" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T371" t="n">
-        <v>1.724224121446E12</v>
+        <v>1.724228818276E12</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -23086,10 +23248,10 @@
         <v>1890</v>
       </c>
       <c r="R377" t="n">
-        <v>1.6000000000000054</v>
+        <v>1.3900000000000055</v>
       </c>
       <c r="T377" t="n">
-        <v>1.724227638857E12</v>
+        <v>1.724228824645E12</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -23118,10 +23280,10 @@
         <v>1551</v>
       </c>
       <c r="R378" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T378" t="n">
-        <v>1.724224231662E12</v>
+        <v>1.724228835913E12</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -23150,10 +23312,10 @@
         <v>1891</v>
       </c>
       <c r="R379" t="n">
-        <v>1.1000000000000054</v>
+        <v>0.8900000000000055</v>
       </c>
       <c r="T379" t="n">
-        <v>1.724224233931E12</v>
+        <v>1.724228837487E12</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -23214,10 +23376,10 @@
         <v>1566</v>
       </c>
       <c r="R381" t="n">
-        <v>1.4000000000000092</v>
+        <v>1.1900000000000093</v>
       </c>
       <c r="T381" t="n">
-        <v>1.724224286711E12</v>
+        <v>1.724228842555E12</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -23278,10 +23440,10 @@
         <v>1894</v>
       </c>
       <c r="R383" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T383" t="n">
-        <v>1.724224372691E12</v>
+        <v>1.724228845524E12</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -23310,10 +23472,10 @@
         <v>1895</v>
       </c>
       <c r="R384" t="n">
-        <v>1.3999999999999995</v>
+        <v>2.3999999999999995</v>
       </c>
       <c r="T384" t="n">
-        <v>1.724224382458E12</v>
+        <v>1.724228887939E12</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -23406,10 +23568,10 @@
         <v>1896</v>
       </c>
       <c r="R387" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T387" t="n">
-        <v>1.724224620294E12</v>
+        <v>1.724228892734E12</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -23566,10 +23728,10 @@
         <v>873</v>
       </c>
       <c r="R392" t="n">
-        <v>1.1000000000000054</v>
+        <v>0.8900000000000055</v>
       </c>
       <c r="T392" t="n">
-        <v>1.724224718807E12</v>
+        <v>1.724228898072E12</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -23714,10 +23876,10 @@
         <v>3</v>
       </c>
       <c r="R397" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T397" t="n">
-        <v>1.724224742128E12</v>
+        <v>1.72422890176E12</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -23734,10 +23896,10 @@
         <v>3</v>
       </c>
       <c r="R398" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T398" t="n">
-        <v>1.724224752331E12</v>
+        <v>1.724228904899E12</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -23754,10 +23916,10 @@
         <v>4</v>
       </c>
       <c r="R399" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T399" t="n">
-        <v>1.724224756191E12</v>
+        <v>1.724228909368E12</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -23774,10 +23936,10 @@
         <v>4</v>
       </c>
       <c r="R400" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.3899999999999997</v>
       </c>
       <c r="T400" t="n">
-        <v>1.724227718999E12</v>
+        <v>1.724228911657E12</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -23794,10 +23956,10 @@
         <v>4</v>
       </c>
       <c r="R401" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T401" t="n">
-        <v>1.724224762245E12</v>
+        <v>1.724228913629E12</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -23954,10 +24116,10 @@
         <v>4</v>
       </c>
       <c r="R409" t="n">
-        <v>1.5999999999999996</v>
+        <v>1.3899999999999997</v>
       </c>
       <c r="T409" t="n">
-        <v>1.724224890256E12</v>
+        <v>1.724228917273E12</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -24094,10 +24256,10 @@
         <v>4</v>
       </c>
       <c r="R416" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T416" t="n">
-        <v>1.724227722722E12</v>
+        <v>1.724228919533E12</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -24134,10 +24296,10 @@
         <v>4</v>
       </c>
       <c r="R418" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T418" t="n">
-        <v>1.724224966907E12</v>
+        <v>1.724228923141E12</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -24214,10 +24376,10 @@
         <v>4</v>
       </c>
       <c r="R422" t="n">
-        <v>1.9499999999999997</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="T422" t="n">
-        <v>1.724225012472E12</v>
+        <v>1.724228926008E12</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -24234,10 +24396,10 @@
         <v>3</v>
       </c>
       <c r="R423" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T423" t="n">
-        <v>1.724225014586E12</v>
+        <v>1.724228929267E12</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -24294,10 +24456,10 @@
         <v>4</v>
       </c>
       <c r="R426" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T426" t="n">
-        <v>1.72422506411E12</v>
+        <v>1.72422893148E12</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -24314,10 +24476,10 @@
         <v>3</v>
       </c>
       <c r="R427" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T427" t="n">
-        <v>1.724225065971E12</v>
+        <v>1.72422893314E12</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -24514,10 +24676,10 @@
         <v>3</v>
       </c>
       <c r="R437" t="n">
-        <v>1.2999999999999998</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="T437" t="n">
-        <v>1.724225360522E12</v>
+        <v>1.724228935175E12</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -24574,10 +24736,10 @@
         <v>4</v>
       </c>
       <c r="R440" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T440" t="n">
-        <v>1.724225425839E12</v>
+        <v>1.724228936771E12</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -24674,10 +24836,10 @@
         <v>4</v>
       </c>
       <c r="R445" t="n">
-        <v>1.9499999999999993</v>
+        <v>1.7399999999999993</v>
       </c>
       <c r="T445" t="n">
-        <v>1.724227725011E12</v>
+        <v>1.724228939091E12</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -24774,10 +24936,10 @@
         <v>4</v>
       </c>
       <c r="R450" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T450" t="n">
-        <v>1.724225827718E12</v>
+        <v>1.724228942109E12</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -24854,10 +25016,10 @@
         <v>4</v>
       </c>
       <c r="R454" t="n">
-        <v>1.9999999999999991</v>
+        <v>1.7899999999999991</v>
       </c>
       <c r="T454" t="n">
-        <v>1.724227440878E12</v>
+        <v>1.724228943952E12</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -24914,10 +25076,10 @@
         <v>4</v>
       </c>
       <c r="R457" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T457" t="n">
-        <v>1.724226042526E12</v>
+        <v>1.724228945529E12</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -24934,10 +25096,10 @@
         <v>3</v>
       </c>
       <c r="R458" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T458" t="n">
-        <v>1.724226044773E12</v>
+        <v>1.724228948372E12</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -25014,10 +25176,10 @@
         <v>4</v>
       </c>
       <c r="R462" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T462" t="n">
-        <v>1.724226058479E12</v>
+        <v>1.724228950661E12</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -25034,10 +25196,10 @@
         <v>4</v>
       </c>
       <c r="R463" t="n">
-        <v>1.9499999999999997</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="T463" t="n">
-        <v>1.724226280333E12</v>
+        <v>1.724228952288E12</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -25074,10 +25236,10 @@
         <v>3</v>
       </c>
       <c r="R465" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T465" t="n">
-        <v>1.724226336951E12</v>
+        <v>1.724228954074E12</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -25094,10 +25256,10 @@
         <v>4</v>
       </c>
       <c r="R466" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T466" t="n">
-        <v>1.724226382925E12</v>
+        <v>1.724228955953E12</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -25134,10 +25296,10 @@
         <v>4</v>
       </c>
       <c r="R468" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="T468" t="n">
-        <v>1.724226395339E12</v>
+        <v>1.724228957287E12</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -25154,10 +25316,10 @@
         <v>3</v>
       </c>
       <c r="R469" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="T469" t="n">
-        <v>1.724226409173E12</v>
+        <v>1.724228960521E12</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -25174,10 +25336,10 @@
         <v>3</v>
       </c>
       <c r="R470" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T470" t="n">
-        <v>1.724226413482E12</v>
+        <v>1.724228964382E12</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -25314,10 +25476,10 @@
         <v>3</v>
       </c>
       <c r="R477" t="n">
-        <v>1.7999999999999998</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="T477" t="n">
-        <v>1.724227443067E12</v>
+        <v>1.724228966504E12</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -25454,10 +25616,10 @@
         <v>4</v>
       </c>
       <c r="R484" t="n">
-        <v>1.0499999999999994</v>
+        <v>0.8399999999999994</v>
       </c>
       <c r="T484" t="n">
-        <v>1.724226645658E12</v>
+        <v>1.724228967753E12</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -25614,10 +25776,10 @@
         <v>3</v>
       </c>
       <c r="R492" t="n">
-        <v>1.8999999999999995</v>
+        <v>1.6899999999999995</v>
       </c>
       <c r="T492" t="n">
-        <v>1.724226669759E12</v>
+        <v>1.724228969641E12</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -25654,10 +25816,10 @@
         <v>4</v>
       </c>
       <c r="R494" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T494" t="n">
-        <v>1.724226718235E12</v>
+        <v>1.72422897323E12</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -25674,10 +25836,10 @@
         <v>3</v>
       </c>
       <c r="R495" t="n">
-        <v>1.0999999999999996</v>
+        <v>0.8899999999999997</v>
       </c>
       <c r="T495" t="n">
-        <v>1.724226723072E12</v>
+        <v>1.724228975011E12</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -25714,10 +25876,10 @@
         <v>4</v>
       </c>
       <c r="R497" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T497" t="n">
-        <v>1.724226731673E12</v>
+        <v>1.724228976592E12</v>
       </c>
     </row>
     <row r="498" spans="1:4">

--- a/target/classes/初级工题库.xlsx
+++ b/target/classes/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4226" uniqueCount="2011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4237" uniqueCount="2018">
   <si>
     <t>题型</t>
   </si>
@@ -6094,6 +6094,27 @@
   </si>
   <si>
     <t>您一共做了: 156题	您的得分： 89.74358974358975	做题时长约为18.766666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 16题	您的得分： 81.25	做题时长约为2.6666666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.2833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.16666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 13题	您的得分： 92.3076923076923	做题时长约为0.7166666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 9题	您的得分： 88.88888888888889	做题时长约为0.5833333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 9题	您的得分： 100.0	做题时长约为0.7666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 79题	您的得分： 97.46835443037975	做题时长约为12.833333333333334Min</t>
   </si>
 </sst>
 </file>
@@ -6153,7 +6174,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4308">
+  <cellXfs count="4443">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -10308,64 +10329,199 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10857,10 +11013,10 @@
         <v>1574</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T3" t="n">
-        <v>1.72422785561E12</v>
+        <v>1.724242602405E12</v>
       </c>
       <c r="AA3" t="s">
         <v>1904</v>
@@ -11665,10 +11821,10 @@
         <v>1592</v>
       </c>
       <c r="R26" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="T26" t="n">
-        <v>1.724227890808E12</v>
+        <v>1.724242608018E12</v>
       </c>
       <c r="AA26" t="s">
         <v>1927</v>
@@ -11770,10 +11926,10 @@
         <v>1594</v>
       </c>
       <c r="R29" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T29" t="n">
-        <v>1.72422792079E12</v>
+        <v>1.724242613741E12</v>
       </c>
       <c r="AA29" t="s">
         <v>1930</v>
@@ -11980,10 +12136,10 @@
         <v>1597</v>
       </c>
       <c r="R35" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T35" t="n">
-        <v>1.724227923862E12</v>
+        <v>1.724242618508E12</v>
       </c>
       <c r="AA35" t="s">
         <v>1936</v>
@@ -12155,10 +12311,10 @@
         <v>1563</v>
       </c>
       <c r="R40" t="n">
-        <v>1.7899999999999991</v>
+        <v>1.5799999999999992</v>
       </c>
       <c r="T40" t="n">
-        <v>1.724227928255E12</v>
+        <v>1.724242625565E12</v>
       </c>
       <c r="AA40" t="s">
         <v>1938</v>
@@ -12400,10 +12556,10 @@
         <v>1605</v>
       </c>
       <c r="R47" t="n">
-        <v>1.5399999999999996</v>
+        <v>1.3299999999999996</v>
       </c>
       <c r="T47" t="n">
-        <v>1.724227929868E12</v>
+        <v>1.724242629899E12</v>
       </c>
       <c r="AA47" t="s">
         <v>1946</v>
@@ -12610,10 +12766,10 @@
         <v>1611</v>
       </c>
       <c r="R53" t="n">
-        <v>1.740000000000001</v>
+        <v>1.5300000000000011</v>
       </c>
       <c r="T53" t="n">
-        <v>1.724227932955E12</v>
+        <v>1.724242632645E12</v>
       </c>
       <c r="AA53" t="s">
         <v>1936</v>
@@ -12680,10 +12836,10 @@
         <v>1613</v>
       </c>
       <c r="R55" t="n">
-        <v>2.65</v>
+        <v>1.6</v>
       </c>
       <c r="T55" t="n">
-        <v>1.724227939855E12</v>
+        <v>1.724242634404E12</v>
       </c>
       <c r="AA55" t="s">
         <v>1953</v>
@@ -12715,10 +12871,10 @@
         <v>1614</v>
       </c>
       <c r="R56" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T56" t="n">
-        <v>1.724227942832E12</v>
+        <v>1.724242636928E12</v>
       </c>
       <c r="AA56" t="s">
         <v>1954</v>
@@ -13065,10 +13221,10 @@
         <v>1623</v>
       </c>
       <c r="R66" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T66" t="n">
-        <v>1.72422794491E12</v>
+        <v>1.724242638986E12</v>
       </c>
       <c r="AA66" t="s">
         <v>1963</v>
@@ -13345,10 +13501,10 @@
         <v>1630</v>
       </c>
       <c r="R74" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T74" t="n">
-        <v>1.724227955138E12</v>
+        <v>1.724242641385E12</v>
       </c>
       <c r="AA74" t="s">
         <v>1971</v>
@@ -13415,10 +13571,10 @@
         <v>1632</v>
       </c>
       <c r="R76" t="n">
-        <v>1.639999999999998</v>
+        <v>1.429999999999998</v>
       </c>
       <c r="T76" t="n">
-        <v>1.724227960845E12</v>
+        <v>1.724242665121E12</v>
       </c>
       <c r="AA76" t="s">
         <v>1969</v>
@@ -13625,10 +13781,10 @@
         <v>566</v>
       </c>
       <c r="R82" t="n">
-        <v>1.5899999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="T82" t="n">
-        <v>1.724227980037E12</v>
+        <v>1.724242668633E12</v>
       </c>
       <c r="AA82" t="s">
         <v>1976</v>
@@ -13765,10 +13921,10 @@
         <v>1641</v>
       </c>
       <c r="R86" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="T86" t="n">
-        <v>1.724227995653E12</v>
+        <v>1.724242674673E12</v>
       </c>
       <c r="AA86" t="s">
         <v>1980</v>
@@ -14220,10 +14376,10 @@
         <v>1654</v>
       </c>
       <c r="R99" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T99" t="n">
-        <v>1.724228080444E12</v>
+        <v>1.724242678161E12</v>
       </c>
       <c r="AA99" t="s">
         <v>1976</v>
@@ -14395,10 +14551,10 @@
         <v>1657</v>
       </c>
       <c r="R104" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T104" t="n">
-        <v>1.72422808839E12</v>
+        <v>1.724242699329E12</v>
       </c>
       <c r="AA104" t="s">
         <v>1988</v>
@@ -14710,10 +14866,10 @@
         <v>1664</v>
       </c>
       <c r="R113" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T113" t="n">
-        <v>1.72422813022E12</v>
+        <v>1.724242704733E12</v>
       </c>
       <c r="AA113" t="s">
         <v>1992</v>
@@ -15305,10 +15461,10 @@
         <v>1679</v>
       </c>
       <c r="R130" t="n">
-        <v>1.3899999999999997</v>
+        <v>1.1799999999999997</v>
       </c>
       <c r="T130" t="n">
-        <v>1.7242282333E12</v>
+        <v>1.72424271709E12</v>
       </c>
       <c r="AA130" t="s">
         <v>2001</v>
@@ -15515,10 +15671,10 @@
         <v>1684</v>
       </c>
       <c r="R136" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T136" t="n">
-        <v>1.724228278715E12</v>
+        <v>1.724242719187E12</v>
       </c>
       <c r="AA136" t="s">
         <v>1976</v>
@@ -15585,10 +15741,10 @@
         <v>1685</v>
       </c>
       <c r="R138" t="n">
-        <v>2.9499999999999997</v>
+        <v>2.06</v>
       </c>
       <c r="T138" t="n">
-        <v>1.724228351319E12</v>
+        <v>1.724242731884E12</v>
       </c>
       <c r="AA138" t="s">
         <v>1951</v>
@@ -15655,10 +15811,10 @@
         <v>1687</v>
       </c>
       <c r="R140" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="T140" t="n">
-        <v>1.724228354927E12</v>
+        <v>1.724242735147E12</v>
       </c>
       <c r="AA140" t="s">
         <v>1917</v>
@@ -15800,6 +15956,9 @@
       <c r="T144" t="n">
         <v>1.72420973682E12</v>
       </c>
+      <c r="AA144" t="s">
+        <v>2011</v>
+      </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1">
@@ -15832,6 +15991,9 @@
       <c r="T145" t="n">
         <v>1.724209740186E12</v>
       </c>
+      <c r="AA145" t="s">
+        <v>1940</v>
+      </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1">
@@ -15864,6 +16026,9 @@
       <c r="T146" t="n">
         <v>1.724209753705E12</v>
       </c>
+      <c r="AA146" t="s">
+        <v>2012</v>
+      </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1">
@@ -15896,6 +16061,9 @@
       <c r="T147" t="n">
         <v>1.724209761348E12</v>
       </c>
+      <c r="AA147" t="s">
+        <v>2013</v>
+      </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1">
@@ -15928,6 +16096,9 @@
       <c r="T148" t="n">
         <v>1.724209765389E12</v>
       </c>
+      <c r="AA148" t="s">
+        <v>1976</v>
+      </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1">
@@ -15960,6 +16131,9 @@
       <c r="T149" t="n">
         <v>1.724209769223E12</v>
       </c>
+      <c r="AA149" t="s">
+        <v>1951</v>
+      </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1">
@@ -15992,6 +16166,9 @@
       <c r="T150" t="n">
         <v>1.724209793036E12</v>
       </c>
+      <c r="AA150" t="s">
+        <v>2014</v>
+      </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1">
@@ -16024,6 +16201,9 @@
       <c r="T151" t="n">
         <v>1.724209831846E12</v>
       </c>
+      <c r="AA151" t="s">
+        <v>1916</v>
+      </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1">
@@ -16056,6 +16236,9 @@
       <c r="T152" t="n">
         <v>1.724209844496E12</v>
       </c>
+      <c r="AA152" t="s">
+        <v>2015</v>
+      </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1">
@@ -16088,6 +16271,9 @@
       <c r="T153" t="n">
         <v>1.72420984924E12</v>
       </c>
+      <c r="AA153" t="s">
+        <v>2016</v>
+      </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1">
@@ -16120,6 +16306,9 @@
       <c r="T154" t="n">
         <v>1.72420985173E12</v>
       </c>
+      <c r="AA154" t="s">
+        <v>2017</v>
+      </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1">
@@ -16275,10 +16464,10 @@
         <v>1703</v>
       </c>
       <c r="R159" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T159" t="n">
-        <v>1.724228363887E12</v>
+        <v>1.724242738948E12</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -16467,10 +16656,10 @@
         <v>1709</v>
       </c>
       <c r="R165" t="n">
-        <v>1.5899999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="T165" t="n">
-        <v>1.724228369729E12</v>
+        <v>1.724242746692E12</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -16531,10 +16720,10 @@
         <v>1711</v>
       </c>
       <c r="R167" t="n">
-        <v>1.0399999999999996</v>
+        <v>0.8299999999999996</v>
       </c>
       <c r="T167" t="n">
-        <v>1.724228373132E12</v>
+        <v>1.724242751601E12</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -16563,10 +16752,10 @@
         <v>1712</v>
       </c>
       <c r="R168" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T168" t="n">
-        <v>1.724228376943E12</v>
+        <v>1.724242755805E12</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -17139,10 +17328,10 @@
         <v>1727</v>
       </c>
       <c r="R186" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="T186" t="n">
-        <v>1.724228397896E12</v>
+        <v>1.724242772237E12</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -17203,10 +17392,10 @@
         <v>1727</v>
       </c>
       <c r="R188" t="n">
-        <v>2.0</v>
+        <v>1.58</v>
       </c>
       <c r="T188" t="n">
-        <v>1.724228423661E12</v>
+        <v>1.724242813779E12</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -17267,10 +17456,10 @@
         <v>1729</v>
       </c>
       <c r="R190" t="n">
-        <v>2.999999999999999</v>
+        <v>2.9499999999999993</v>
       </c>
       <c r="T190" t="n">
-        <v>1.724228434924E12</v>
+        <v>1.72424282195E12</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -17395,10 +17584,10 @@
         <v>1729</v>
       </c>
       <c r="R194" t="n">
-        <v>2.8000000000000034</v>
+        <v>2.9600000000000035</v>
       </c>
       <c r="T194" t="n">
-        <v>1.724228469446E12</v>
+        <v>1.724242825359E12</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -17811,10 +18000,10 @@
         <v>1736</v>
       </c>
       <c r="R207" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T207" t="n">
-        <v>1.724228486758E12</v>
+        <v>1.724242826566E12</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -18163,10 +18352,10 @@
         <v>1747</v>
       </c>
       <c r="R218" t="n">
-        <v>1.740000000000001</v>
+        <v>1.5300000000000011</v>
       </c>
       <c r="T218" t="n">
-        <v>1.724228489429E12</v>
+        <v>1.7242428284E12</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -18195,10 +18384,10 @@
         <v>1748</v>
       </c>
       <c r="R219" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T219" t="n">
-        <v>1.724228494647E12</v>
+        <v>1.724242833693E12</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -18451,10 +18640,10 @@
         <v>1754</v>
       </c>
       <c r="R227" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T227" t="n">
-        <v>1.724228541728E12</v>
+        <v>1.724242902845E12</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -18899,10 +19088,10 @@
         <v>1768</v>
       </c>
       <c r="R241" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T241" t="n">
-        <v>1.72422857168E12</v>
+        <v>1.724242906829E12</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -18963,10 +19152,10 @@
         <v>1770</v>
       </c>
       <c r="R243" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T243" t="n">
-        <v>1.724228588178E12</v>
+        <v>1.72424292813E12</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -19283,10 +19472,10 @@
         <v>1779</v>
       </c>
       <c r="R253" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T253" t="n">
-        <v>1.724228601522E12</v>
+        <v>1.724242955134E12</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -19379,10 +19568,10 @@
         <v>1781</v>
       </c>
       <c r="R256" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="T256" t="n">
-        <v>1.724228607252E12</v>
+        <v>1.724242960151E12</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -19443,10 +19632,10 @@
         <v>1783</v>
       </c>
       <c r="R258" t="n">
-        <v>1.3899999999999997</v>
+        <v>1.1799999999999997</v>
       </c>
       <c r="T258" t="n">
-        <v>1.724228614747E12</v>
+        <v>1.724242998836E12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -19696,10 +19885,10 @@
         <v>1790</v>
       </c>
       <c r="R266" t="n">
-        <v>1.5900000000000105</v>
+        <v>1.3800000000000106</v>
       </c>
       <c r="T266" t="n">
-        <v>1.724228634635E12</v>
+        <v>1.724243017297E12</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -19760,10 +19949,10 @@
         <v>1792</v>
       </c>
       <c r="R268" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T268" t="n">
-        <v>1.72422863883E12</v>
+        <v>1.724243027963E12</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -19952,10 +20141,10 @@
         <v>1796</v>
       </c>
       <c r="R274" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T274" t="n">
-        <v>1.724228652421E12</v>
+        <v>1.724243031045E12</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -20176,10 +20365,10 @@
         <v>1803</v>
       </c>
       <c r="R281" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T281" t="n">
-        <v>1.724228660354E12</v>
+        <v>1.724243035243E12</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -20912,10 +21101,10 @@
         <v>1826</v>
       </c>
       <c r="R304" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T304" t="n">
-        <v>1.72422868367E12</v>
+        <v>1.724243049323E12</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -20976,10 +21165,10 @@
         <v>1493</v>
       </c>
       <c r="R306" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T306" t="n">
-        <v>1.724228688722E12</v>
+        <v>1.724243074107E12</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -21104,10 +21293,10 @@
         <v>1831</v>
       </c>
       <c r="R310" t="n">
-        <v>1.7399999999999993</v>
+        <v>1.5299999999999994</v>
       </c>
       <c r="T310" t="n">
-        <v>1.724228692233E12</v>
+        <v>1.72424309626E12</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -21232,10 +21421,10 @@
         <v>1835</v>
       </c>
       <c r="R314" t="n">
-        <v>1.5899999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="T314" t="n">
-        <v>1.724228704676E12</v>
+        <v>1.724243101834E12</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -21328,10 +21517,10 @@
         <v>1838</v>
       </c>
       <c r="R317" t="n">
-        <v>1.09</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T317" t="n">
-        <v>1.72422870973E12</v>
+        <v>1.724243105301E12</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -21584,10 +21773,10 @@
         <v>1845</v>
       </c>
       <c r="R325" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T325" t="n">
-        <v>1.724228712309E12</v>
+        <v>1.724243113192E12</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -21776,10 +21965,10 @@
         <v>1851</v>
       </c>
       <c r="R331" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="T331" t="n">
-        <v>1.724228718061E12</v>
+        <v>1.724243115688E12</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -22000,10 +22189,10 @@
         <v>1857</v>
       </c>
       <c r="R338" t="n">
-        <v>1.3899999999999997</v>
+        <v>1.1799999999999997</v>
       </c>
       <c r="T338" t="n">
-        <v>1.724228728864E12</v>
+        <v>1.724243245119E12</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -22096,10 +22285,10 @@
         <v>1859</v>
       </c>
       <c r="R341" t="n">
-        <v>1.2900000000000071</v>
+        <v>1.0800000000000072</v>
       </c>
       <c r="T341" t="n">
-        <v>1.724228730959E12</v>
+        <v>1.72424325347E12</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -22256,10 +22445,10 @@
         <v>1864</v>
       </c>
       <c r="R346" t="n">
-        <v>1.0399999999999996</v>
+        <v>0.8299999999999996</v>
       </c>
       <c r="T346" t="n">
-        <v>1.724228738569E12</v>
+        <v>1.724243256929E12</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -22320,10 +22509,10 @@
         <v>1866</v>
       </c>
       <c r="R348" t="n">
-        <v>2.0999999999999996</v>
+        <v>1.6799999999999997</v>
       </c>
       <c r="T348" t="n">
-        <v>1.724228741862E12</v>
+        <v>1.724243260572E12</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -22416,10 +22605,10 @@
         <v>1536</v>
       </c>
       <c r="R351" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="T351" t="n">
-        <v>1.724228749873E12</v>
+        <v>1.72424326211E12</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -22480,10 +22669,10 @@
         <v>1869</v>
       </c>
       <c r="R353" t="n">
-        <v>2.850000000000003</v>
+        <v>1.8000000000000034</v>
       </c>
       <c r="T353" t="n">
-        <v>1.724228761598E12</v>
+        <v>1.724243277968E12</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -22608,10 +22797,10 @@
         <v>1873</v>
       </c>
       <c r="R357" t="n">
-        <v>2.65</v>
+        <v>1.6</v>
       </c>
       <c r="T357" t="n">
-        <v>1.72422876767E12</v>
+        <v>1.724243281363E12</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -22672,10 +22861,10 @@
         <v>870</v>
       </c>
       <c r="R359" t="n">
-        <v>1.09</v>
+        <v>2.09</v>
       </c>
       <c r="T359" t="n">
-        <v>1.724228776519E12</v>
+        <v>1.724243284923E12</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -22736,10 +22925,10 @@
         <v>1876</v>
       </c>
       <c r="R361" t="n">
-        <v>1.3899999999999997</v>
+        <v>1.1799999999999997</v>
       </c>
       <c r="T361" t="n">
-        <v>1.724228815433E12</v>
+        <v>1.724243298172E12</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -23056,10 +23245,10 @@
         <v>1886</v>
       </c>
       <c r="R371" t="n">
-        <v>1.0899999999999999</v>
+        <v>2.09</v>
       </c>
       <c r="T371" t="n">
-        <v>1.724228818276E12</v>
+        <v>1.724243298182E12</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -23248,10 +23437,10 @@
         <v>1890</v>
       </c>
       <c r="R377" t="n">
-        <v>1.3900000000000055</v>
+        <v>1.1800000000000055</v>
       </c>
       <c r="T377" t="n">
-        <v>1.724228824645E12</v>
+        <v>1.724243309664E12</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -23376,10 +23565,10 @@
         <v>1566</v>
       </c>
       <c r="R381" t="n">
-        <v>1.1900000000000093</v>
+        <v>0.9800000000000093</v>
       </c>
       <c r="T381" t="n">
-        <v>1.724228842555E12</v>
+        <v>1.724243312726E12</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -23440,10 +23629,10 @@
         <v>1894</v>
       </c>
       <c r="R383" t="n">
-        <v>2.0</v>
+        <v>1.58</v>
       </c>
       <c r="T383" t="n">
-        <v>1.724228845524E12</v>
+        <v>1.724243330108E12</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -23472,10 +23661,10 @@
         <v>1895</v>
       </c>
       <c r="R384" t="n">
-        <v>2.3999999999999995</v>
+        <v>1.7699999999999996</v>
       </c>
       <c r="T384" t="n">
-        <v>1.724228887939E12</v>
+        <v>1.724243332962E12</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -23916,10 +24105,10 @@
         <v>4</v>
       </c>
       <c r="R399" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T399" t="n">
-        <v>1.724228909368E12</v>
+        <v>1.724243336938E12</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -23936,10 +24125,10 @@
         <v>4</v>
       </c>
       <c r="R400" t="n">
-        <v>1.3899999999999997</v>
+        <v>1.1799999999999997</v>
       </c>
       <c r="T400" t="n">
-        <v>1.724228911657E12</v>
+        <v>1.724243338671E12</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -23956,10 +24145,10 @@
         <v>4</v>
       </c>
       <c r="R401" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T401" t="n">
-        <v>1.724228913629E12</v>
+        <v>1.724243340772E12</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -24116,10 +24305,10 @@
         <v>4</v>
       </c>
       <c r="R409" t="n">
-        <v>1.3899999999999997</v>
+        <v>1.1799999999999997</v>
       </c>
       <c r="T409" t="n">
-        <v>1.724228917273E12</v>
+        <v>1.72424334246E12</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -24256,10 +24445,10 @@
         <v>4</v>
       </c>
       <c r="R416" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T416" t="n">
-        <v>1.724228919533E12</v>
+        <v>1.724243344887E12</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -24376,10 +24565,10 @@
         <v>4</v>
       </c>
       <c r="R422" t="n">
-        <v>2.9499999999999997</v>
+        <v>1.9</v>
       </c>
       <c r="T422" t="n">
-        <v>1.724228926008E12</v>
+        <v>1.724243345949E12</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -24676,10 +24865,10 @@
         <v>3</v>
       </c>
       <c r="R437" t="n">
-        <v>1.0899999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T437" t="n">
-        <v>1.724228935175E12</v>
+        <v>1.724243347676E12</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -24736,10 +24925,10 @@
         <v>4</v>
       </c>
       <c r="R440" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T440" t="n">
-        <v>1.724228936771E12</v>
+        <v>1.724243348938E12</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -24836,10 +25025,10 @@
         <v>4</v>
       </c>
       <c r="R445" t="n">
-        <v>1.7399999999999993</v>
+        <v>1.5299999999999994</v>
       </c>
       <c r="T445" t="n">
-        <v>1.724228939091E12</v>
+        <v>1.724243350435E12</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -25016,10 +25205,10 @@
         <v>4</v>
       </c>
       <c r="R454" t="n">
-        <v>1.7899999999999991</v>
+        <v>1.5799999999999992</v>
       </c>
       <c r="T454" t="n">
-        <v>1.724228943952E12</v>
+        <v>1.724243352152E12</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -25196,10 +25385,10 @@
         <v>4</v>
       </c>
       <c r="R463" t="n">
-        <v>1.7399999999999998</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="T463" t="n">
-        <v>1.724228952288E12</v>
+        <v>1.724243354461E12</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -25296,10 +25485,10 @@
         <v>4</v>
       </c>
       <c r="R468" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="T468" t="n">
-        <v>1.724228957287E12</v>
+        <v>1.724243356251E12</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -25316,10 +25505,10 @@
         <v>3</v>
       </c>
       <c r="R469" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="T469" t="n">
-        <v>1.724228960521E12</v>
+        <v>1.724243360882E12</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -25336,10 +25525,10 @@
         <v>3</v>
       </c>
       <c r="R470" t="n">
-        <v>2.0</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="T470" t="n">
-        <v>1.724228964382E12</v>
+        <v>1.724243362715E12</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -25476,10 +25665,10 @@
         <v>3</v>
       </c>
       <c r="R477" t="n">
-        <v>1.5899999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="T477" t="n">
-        <v>1.724228966504E12</v>
+        <v>1.72424336735E12</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -25776,10 +25965,10 @@
         <v>3</v>
       </c>
       <c r="R492" t="n">
-        <v>1.6899999999999995</v>
+        <v>1.4799999999999995</v>
       </c>
       <c r="T492" t="n">
-        <v>1.724228969641E12</v>
+        <v>1.724243369701E12</v>
       </c>
     </row>
     <row r="493" spans="1:4">

--- a/target/classes/初级工题库.xlsx
+++ b/target/classes/初级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4237" uniqueCount="2018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4252" uniqueCount="2028">
   <si>
     <t>题型</t>
   </si>
@@ -6115,6 +6115,36 @@
   </si>
   <si>
     <t>您一共做了: 79题	您的得分： 97.46835443037975	做题时长约为12.833333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 6题	您的得分： 100.0	做题时长约为1.2166666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 53题	您的得分： 86.79245283018868	做题时长约为6.5Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 7题	您的得分： 100.0	做题时长约为0.65Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.08333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 100.0	做题时长约为0.35Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 155题	您的得分： 91.61290322580645	做题时长约为24.566666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 13题	您的得分： 76.92307692307693	做题时长约为1.05Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 66.66666666666666	做题时长约为0.2833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 13题	您的得分： 100.0	做题时长约为0.6Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.55Min</t>
   </si>
 </sst>
 </file>
@@ -6174,7 +6204,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4443">
+  <cellXfs count="4713">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -10522,6 +10552,276 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11013,10 +11313,10 @@
         <v>1574</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>1.724242602405E12</v>
+        <v>1.724293481904E12</v>
       </c>
       <c r="AA3" t="s">
         <v>1904</v>
@@ -11048,10 +11348,10 @@
         <v>1575</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8999999999999995</v>
+        <v>0.1999999999999995</v>
       </c>
       <c r="T4" t="n">
-        <v>1.724205674324E12</v>
+        <v>1.724293876985E12</v>
       </c>
       <c r="AA4" t="s">
         <v>1905</v>
@@ -11086,10 +11386,10 @@
         <v>1576</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T5" t="n">
-        <v>1.724227868271E12</v>
+        <v>1.724293895458E12</v>
       </c>
       <c r="AA5" t="s">
         <v>1906</v>
@@ -11191,10 +11491,10 @@
         <v>1296</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T8" t="n">
-        <v>1.724227871202E12</v>
+        <v>1.724293897432E12</v>
       </c>
       <c r="AA8" t="s">
         <v>1909</v>
@@ -11611,10 +11911,10 @@
         <v>1587</v>
       </c>
       <c r="R20" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T20" t="n">
-        <v>1.72422787458E12</v>
+        <v>1.724293899851E12</v>
       </c>
       <c r="AA20" t="s">
         <v>1921</v>
@@ -11716,10 +12016,10 @@
         <v>1590</v>
       </c>
       <c r="R23" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T23" t="n">
-        <v>1.724227878973E12</v>
+        <v>1.724293910025E12</v>
       </c>
       <c r="AA23" t="s">
         <v>1924</v>
@@ -11821,10 +12121,10 @@
         <v>1592</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>0.27</v>
       </c>
       <c r="T26" t="n">
-        <v>1.724242608018E12</v>
+        <v>1.724293914825E12</v>
       </c>
       <c r="AA26" t="s">
         <v>1927</v>
@@ -11856,10 +12156,10 @@
         <v>1592</v>
       </c>
       <c r="R27" t="n">
-        <v>0.9499999999999988</v>
+        <v>0.2499999999999989</v>
       </c>
       <c r="T27" t="n">
-        <v>1.724206564663E12</v>
+        <v>1.724293920786E12</v>
       </c>
       <c r="AA27" t="s">
         <v>1928</v>
@@ -11926,10 +12226,10 @@
         <v>1594</v>
       </c>
       <c r="R29" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T29" t="n">
-        <v>1.724242613741E12</v>
+        <v>1.724293923461E12</v>
       </c>
       <c r="AA29" t="s">
         <v>1930</v>
@@ -12136,10 +12436,10 @@
         <v>1597</v>
       </c>
       <c r="R35" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T35" t="n">
-        <v>1.724242618508E12</v>
+        <v>1.724293929187E12</v>
       </c>
       <c r="AA35" t="s">
         <v>1936</v>
@@ -12206,10 +12506,10 @@
         <v>1599</v>
       </c>
       <c r="R37" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T37" t="n">
-        <v>1.724206820291E12</v>
+        <v>1.724293930962E12</v>
       </c>
       <c r="AA37" t="s">
         <v>1937</v>
@@ -12311,10 +12611,10 @@
         <v>1563</v>
       </c>
       <c r="R40" t="n">
-        <v>1.5799999999999992</v>
+        <v>0.17999999999999927</v>
       </c>
       <c r="T40" t="n">
-        <v>1.724242625565E12</v>
+        <v>1.724293934612E12</v>
       </c>
       <c r="AA40" t="s">
         <v>1938</v>
@@ -12556,10 +12856,10 @@
         <v>1605</v>
       </c>
       <c r="R47" t="n">
-        <v>1.3299999999999996</v>
+        <v>0.6299999999999997</v>
       </c>
       <c r="T47" t="n">
-        <v>1.724242629899E12</v>
+        <v>1.72429270759E12</v>
       </c>
       <c r="AA47" t="s">
         <v>1946</v>
@@ -12766,10 +13066,10 @@
         <v>1611</v>
       </c>
       <c r="R53" t="n">
-        <v>1.5300000000000011</v>
+        <v>0.13000000000000123</v>
       </c>
       <c r="T53" t="n">
-        <v>1.724242632645E12</v>
+        <v>1.724293938007E12</v>
       </c>
       <c r="AA53" t="s">
         <v>1936</v>
@@ -12836,10 +13136,10 @@
         <v>1613</v>
       </c>
       <c r="R55" t="n">
-        <v>1.6</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="T55" t="n">
-        <v>1.724242634404E12</v>
+        <v>1.724293939909E12</v>
       </c>
       <c r="AA55" t="s">
         <v>1953</v>
@@ -12871,10 +13171,10 @@
         <v>1614</v>
       </c>
       <c r="R56" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T56" t="n">
-        <v>1.724242636928E12</v>
+        <v>1.724293941742E12</v>
       </c>
       <c r="AA56" t="s">
         <v>1954</v>
@@ -13221,10 +13521,10 @@
         <v>1623</v>
       </c>
       <c r="R66" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T66" t="n">
-        <v>1.724242638986E12</v>
+        <v>1.72429394319E12</v>
       </c>
       <c r="AA66" t="s">
         <v>1963</v>
@@ -13431,10 +13731,10 @@
         <v>1628</v>
       </c>
       <c r="R72" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T72" t="n">
-        <v>1.724227950059E12</v>
+        <v>1.724293944656E12</v>
       </c>
       <c r="AA72" t="s">
         <v>1969</v>
@@ -13501,10 +13801,10 @@
         <v>1630</v>
       </c>
       <c r="R74" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T74" t="n">
-        <v>1.724242641385E12</v>
+        <v>1.724293946319E12</v>
       </c>
       <c r="AA74" t="s">
         <v>1971</v>
@@ -13571,10 +13871,10 @@
         <v>1632</v>
       </c>
       <c r="R76" t="n">
-        <v>1.429999999999998</v>
+        <v>0.729999999999998</v>
       </c>
       <c r="T76" t="n">
-        <v>1.724242665121E12</v>
+        <v>1.724292723654E12</v>
       </c>
       <c r="AA76" t="s">
         <v>1969</v>
@@ -13711,10 +14011,10 @@
         <v>1636</v>
       </c>
       <c r="R80" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T80" t="n">
-        <v>1.724227971245E12</v>
+        <v>1.724293951217E12</v>
       </c>
       <c r="AA80" t="s">
         <v>1975</v>
@@ -13781,10 +14081,10 @@
         <v>566</v>
       </c>
       <c r="R82" t="n">
-        <v>1.38</v>
+        <v>0.28</v>
       </c>
       <c r="T82" t="n">
-        <v>1.724242668633E12</v>
+        <v>1.724293962785E12</v>
       </c>
       <c r="AA82" t="s">
         <v>1976</v>
@@ -13816,10 +14116,10 @@
         <v>1638</v>
       </c>
       <c r="R83" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T83" t="n">
-        <v>1.72422798316E12</v>
+        <v>1.724293966237E12</v>
       </c>
       <c r="AA83" t="s">
         <v>1977</v>
@@ -13921,10 +14221,10 @@
         <v>1641</v>
       </c>
       <c r="R86" t="n">
-        <v>1.67</v>
+        <v>0.27</v>
       </c>
       <c r="T86" t="n">
-        <v>1.724242674673E12</v>
+        <v>1.724293969986E12</v>
       </c>
       <c r="AA86" t="s">
         <v>1980</v>
@@ -14131,10 +14431,10 @@
         <v>1647</v>
       </c>
       <c r="R92" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T92" t="n">
-        <v>1.72422805812E12</v>
+        <v>1.724293972255E12</v>
       </c>
       <c r="AA92" t="s">
         <v>1983</v>
@@ -14341,10 +14641,10 @@
         <v>1653</v>
       </c>
       <c r="R98" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T98" t="n">
-        <v>1.72422807481E12</v>
+        <v>1.724294010591E12</v>
       </c>
       <c r="AA98" t="s">
         <v>1951</v>
@@ -14376,10 +14676,10 @@
         <v>1654</v>
       </c>
       <c r="R99" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T99" t="n">
-        <v>1.724242678161E12</v>
+        <v>1.724294012879E12</v>
       </c>
       <c r="AA99" t="s">
         <v>1976</v>
@@ -14411,10 +14711,10 @@
         <v>1655</v>
       </c>
       <c r="R100" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.29999999999999916</v>
       </c>
       <c r="T100" t="n">
-        <v>1.724208549007E12</v>
+        <v>1.724294017978E12</v>
       </c>
       <c r="AA100" t="s">
         <v>1985</v>
@@ -14516,10 +14816,10 @@
         <v>607</v>
       </c>
       <c r="R103" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T103" t="n">
-        <v>1.724228084501E12</v>
+        <v>1.724294021627E12</v>
       </c>
       <c r="AA103" t="s">
         <v>1987</v>
@@ -14551,10 +14851,10 @@
         <v>1657</v>
       </c>
       <c r="R104" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T104" t="n">
-        <v>1.724242699329E12</v>
+        <v>1.724294026626E12</v>
       </c>
       <c r="AA104" t="s">
         <v>1988</v>
@@ -14586,10 +14886,10 @@
         <v>1658</v>
       </c>
       <c r="R105" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.7899999999999996</v>
       </c>
       <c r="T105" t="n">
-        <v>1.724228127247E12</v>
+        <v>1.724295100436E12</v>
       </c>
       <c r="AA105" t="s">
         <v>1989</v>
@@ -14866,10 +15166,10 @@
         <v>1664</v>
       </c>
       <c r="R113" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T113" t="n">
-        <v>1.724242704733E12</v>
+        <v>1.724294043337E12</v>
       </c>
       <c r="AA113" t="s">
         <v>1992</v>
@@ -14901,10 +15201,10 @@
         <v>1665</v>
       </c>
       <c r="R114" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T114" t="n">
-        <v>1.724228159473E12</v>
+        <v>1.724294047494E12</v>
       </c>
       <c r="AA114" t="s">
         <v>1975</v>
@@ -15146,10 +15446,10 @@
         <v>1671</v>
       </c>
       <c r="R121" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T121" t="n">
-        <v>1.724228165263E12</v>
+        <v>1.724294049247E12</v>
       </c>
       <c r="AA121" t="s">
         <v>1986</v>
@@ -15181,10 +15481,10 @@
         <v>1672</v>
       </c>
       <c r="R122" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.5500000000000012</v>
       </c>
       <c r="T122" t="n">
-        <v>1.724209373516E12</v>
+        <v>1.724295064005E12</v>
       </c>
       <c r="AA122" t="s">
         <v>1976</v>
@@ -15356,10 +15656,10 @@
         <v>1676</v>
       </c>
       <c r="R127" t="n">
-        <v>0.8500000000000032</v>
+        <v>0.15000000000000324</v>
       </c>
       <c r="T127" t="n">
-        <v>1.724209507082E12</v>
+        <v>1.724294061302E12</v>
       </c>
       <c r="AA127" t="s">
         <v>1998</v>
@@ -15461,10 +15761,10 @@
         <v>1679</v>
       </c>
       <c r="R130" t="n">
-        <v>1.1799999999999997</v>
+        <v>0.47999999999999976</v>
       </c>
       <c r="T130" t="n">
-        <v>1.72424271709E12</v>
+        <v>1.724292745876E12</v>
       </c>
       <c r="AA130" t="s">
         <v>2001</v>
@@ -15496,10 +15796,10 @@
         <v>1680</v>
       </c>
       <c r="R131" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T131" t="n">
-        <v>1.724228252486E12</v>
+        <v>1.72429410806E12</v>
       </c>
       <c r="AA131" t="s">
         <v>2002</v>
@@ -15671,10 +15971,10 @@
         <v>1684</v>
       </c>
       <c r="R136" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T136" t="n">
-        <v>1.724242719187E12</v>
+        <v>1.724294111378E12</v>
       </c>
       <c r="AA136" t="s">
         <v>1976</v>
@@ -15741,10 +16041,10 @@
         <v>1685</v>
       </c>
       <c r="R138" t="n">
-        <v>2.06</v>
+        <v>0.6600000000000001</v>
       </c>
       <c r="T138" t="n">
-        <v>1.724242731884E12</v>
+        <v>1.724292748011E12</v>
       </c>
       <c r="AA138" t="s">
         <v>1951</v>
@@ -15811,10 +16111,10 @@
         <v>1687</v>
       </c>
       <c r="R140" t="n">
-        <v>1.23</v>
+        <v>0.53</v>
       </c>
       <c r="T140" t="n">
-        <v>1.724242735147E12</v>
+        <v>1.724292749495E12</v>
       </c>
       <c r="AA140" t="s">
         <v>1917</v>
@@ -16341,6 +16641,9 @@
       <c r="T155" t="n">
         <v>1.724209855277E12</v>
       </c>
+      <c r="AA155" t="s">
+        <v>2018</v>
+      </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1">
@@ -16373,6 +16676,9 @@
       <c r="T156" t="n">
         <v>1.724209857578E12</v>
       </c>
+      <c r="AA156" t="s">
+        <v>1972</v>
+      </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="1">
@@ -16405,6 +16711,9 @@
       <c r="T157" t="n">
         <v>1.724209859299E12</v>
       </c>
+      <c r="AA157" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="1">
@@ -16437,6 +16746,9 @@
       <c r="T158" t="n">
         <v>1.724209867752E12</v>
       </c>
+      <c r="AA158" t="s">
+        <v>2020</v>
+      </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1">
@@ -16464,10 +16776,13 @@
         <v>1703</v>
       </c>
       <c r="R159" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T159" t="n">
-        <v>1.724242738948E12</v>
+        <v>1.724294113264E12</v>
+      </c>
+      <c r="AA159" t="s">
+        <v>2021</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -16501,6 +16816,9 @@
       <c r="T160" t="n">
         <v>1.724209883231E12</v>
       </c>
+      <c r="AA160" t="s">
+        <v>2022</v>
+      </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="1">
@@ -16533,6 +16851,9 @@
       <c r="T161" t="n">
         <v>1.724209890109E12</v>
       </c>
+      <c r="AA161" t="s">
+        <v>1916</v>
+      </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="1">
@@ -16560,10 +16881,13 @@
         <v>1706</v>
       </c>
       <c r="R162" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.29999999999999916</v>
       </c>
       <c r="T162" t="n">
-        <v>1.724209904618E12</v>
+        <v>1.724294121691E12</v>
+      </c>
+      <c r="AA162" t="s">
+        <v>2023</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -16597,6 +16921,9 @@
       <c r="T163" t="n">
         <v>1.724209909822E12</v>
       </c>
+      <c r="AA163" t="s">
+        <v>2024</v>
+      </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1">
@@ -16629,6 +16956,9 @@
       <c r="T164" t="n">
         <v>1.724209916338E12</v>
       </c>
+      <c r="AA164" t="s">
+        <v>2025</v>
+      </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="1">
@@ -16656,10 +16986,13 @@
         <v>1709</v>
       </c>
       <c r="R165" t="n">
-        <v>1.38</v>
+        <v>0.28</v>
       </c>
       <c r="T165" t="n">
-        <v>1.724242746692E12</v>
+        <v>1.724294128069E12</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>1917</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -16693,6 +17026,9 @@
       <c r="T166" t="n">
         <v>1.724210013023E12</v>
       </c>
+      <c r="AA166" t="s">
+        <v>1951</v>
+      </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1">
@@ -16720,10 +17056,13 @@
         <v>1711</v>
       </c>
       <c r="R167" t="n">
-        <v>0.8299999999999996</v>
+        <v>0.12999999999999967</v>
       </c>
       <c r="T167" t="n">
-        <v>1.724242751601E12</v>
+        <v>1.724294132497E12</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>2026</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -16752,10 +17091,13 @@
         <v>1712</v>
       </c>
       <c r="R168" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T168" t="n">
-        <v>1.724242755805E12</v>
+        <v>1.724294134678E12</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>2027</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -16789,6 +17131,9 @@
       <c r="T169" t="n">
         <v>1.724210030447E12</v>
       </c>
+      <c r="AA169" t="s">
+        <v>2013</v>
+      </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="1">
@@ -16912,10 +17257,10 @@
         <v>1716</v>
       </c>
       <c r="R173" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T173" t="n">
-        <v>1.724228386968E12</v>
+        <v>1.724294142345E12</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -17040,10 +17385,10 @@
         <v>1720</v>
       </c>
       <c r="R177" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.29999999999999916</v>
       </c>
       <c r="T177" t="n">
-        <v>1.724210200262E12</v>
+        <v>1.72429414486E12</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -17200,10 +17545,10 @@
         <v>1699</v>
       </c>
       <c r="R182" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.5999999999999992</v>
       </c>
       <c r="T182" t="n">
-        <v>1.724210269075E12</v>
+        <v>1.724295065913E12</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -17296,10 +17641,10 @@
         <v>1727</v>
       </c>
       <c r="R185" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.5999999999999992</v>
       </c>
       <c r="T185" t="n">
-        <v>1.724210372255E12</v>
+        <v>1.724295068194E12</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -17328,10 +17673,10 @@
         <v>1727</v>
       </c>
       <c r="R186" t="n">
-        <v>1.67</v>
+        <v>0.27</v>
       </c>
       <c r="T186" t="n">
-        <v>1.724242772237E12</v>
+        <v>1.72429416325E12</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -17360,10 +17705,10 @@
         <v>1727</v>
       </c>
       <c r="R187" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T187" t="n">
-        <v>1.724228405569E12</v>
+        <v>1.724294173174E12</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -17392,10 +17737,10 @@
         <v>1727</v>
       </c>
       <c r="R188" t="n">
-        <v>1.58</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T188" t="n">
-        <v>1.724242813779E12</v>
+        <v>1.724294176457E12</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -17456,10 +17801,10 @@
         <v>1729</v>
       </c>
       <c r="R190" t="n">
-        <v>2.9499999999999993</v>
+        <v>0.14999999999999925</v>
       </c>
       <c r="T190" t="n">
-        <v>1.72424282195E12</v>
+        <v>1.724294178685E12</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -17488,10 +17833,10 @@
         <v>1729</v>
       </c>
       <c r="R191" t="n">
-        <v>0.8000000000000025</v>
+        <v>0.10000000000000253</v>
       </c>
       <c r="T191" t="n">
-        <v>1.72421086927E12</v>
+        <v>1.724294183865E12</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -17584,10 +17929,10 @@
         <v>1729</v>
       </c>
       <c r="R194" t="n">
-        <v>2.9600000000000035</v>
+        <v>0.16000000000000347</v>
       </c>
       <c r="T194" t="n">
-        <v>1.724242825359E12</v>
+        <v>1.724294188559E12</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -17808,10 +18153,10 @@
         <v>1729</v>
       </c>
       <c r="R201" t="n">
-        <v>0.9499999999999997</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T201" t="n">
-        <v>1.724210997524E12</v>
+        <v>1.724295126118E12</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -18000,10 +18345,10 @@
         <v>1736</v>
       </c>
       <c r="R207" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T207" t="n">
-        <v>1.724242826566E12</v>
+        <v>1.724294235194E12</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -18352,10 +18697,10 @@
         <v>1747</v>
       </c>
       <c r="R218" t="n">
-        <v>1.5300000000000011</v>
+        <v>0.13000000000000123</v>
       </c>
       <c r="T218" t="n">
-        <v>1.7242428284E12</v>
+        <v>1.724294248784E12</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -18384,10 +18729,10 @@
         <v>1748</v>
       </c>
       <c r="R219" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T219" t="n">
-        <v>1.724242833693E12</v>
+        <v>1.724294254124E12</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -18640,10 +18985,10 @@
         <v>1754</v>
       </c>
       <c r="R227" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T227" t="n">
-        <v>1.724242902845E12</v>
+        <v>1.724294261027E12</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -18672,10 +19017,10 @@
         <v>1755</v>
       </c>
       <c r="R228" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.20000000000000218</v>
       </c>
       <c r="T228" t="n">
-        <v>1.724211427844E12</v>
+        <v>1.724294263139E12</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -19024,10 +19369,10 @@
         <v>1766</v>
       </c>
       <c r="R239" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T239" t="n">
-        <v>1.724228548028E12</v>
+        <v>1.724294280598E12</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -19056,10 +19401,10 @@
         <v>1767</v>
       </c>
       <c r="R240" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T240" t="n">
-        <v>1.724228565973E12</v>
+        <v>1.724294286693E12</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -19088,10 +19433,10 @@
         <v>1768</v>
       </c>
       <c r="R241" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T241" t="n">
-        <v>1.724242906829E12</v>
+        <v>1.724294300317E12</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -19152,10 +19497,10 @@
         <v>1770</v>
       </c>
       <c r="R243" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T243" t="n">
-        <v>1.72424292813E12</v>
+        <v>1.724294314711E12</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -19216,10 +19561,10 @@
         <v>1772</v>
       </c>
       <c r="R245" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T245" t="n">
-        <v>1.724228591141E12</v>
+        <v>1.7242943179E12</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -19248,10 +19593,10 @@
         <v>1773</v>
       </c>
       <c r="R246" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T246" t="n">
-        <v>1.724228593518E12</v>
+        <v>1.724294323178E12</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -19376,10 +19721,10 @@
         <v>1777</v>
       </c>
       <c r="R250" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T250" t="n">
-        <v>1.724228597588E12</v>
+        <v>1.72429432824E12</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -19472,10 +19817,10 @@
         <v>1779</v>
       </c>
       <c r="R253" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T253" t="n">
-        <v>1.724242955134E12</v>
+        <v>1.724294331487E12</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -19568,10 +19913,10 @@
         <v>1781</v>
       </c>
       <c r="R256" t="n">
-        <v>1.23</v>
+        <v>0.53</v>
       </c>
       <c r="T256" t="n">
-        <v>1.724242960151E12</v>
+        <v>1.724292824642E12</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -19600,10 +19945,10 @@
         <v>1782</v>
       </c>
       <c r="R257" t="n">
-        <v>0.8900000000000046</v>
+        <v>0.1900000000000046</v>
       </c>
       <c r="T257" t="n">
-        <v>1.724228610387E12</v>
+        <v>1.724294334029E12</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -19632,10 +19977,10 @@
         <v>1783</v>
       </c>
       <c r="R258" t="n">
-        <v>1.1799999999999997</v>
+        <v>0.47999999999999976</v>
       </c>
       <c r="T258" t="n">
-        <v>1.724242998836E12</v>
+        <v>1.724292828039E12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -19789,10 +20134,10 @@
         <v>1787</v>
       </c>
       <c r="R263" t="n">
-        <v>0.9000000000000012</v>
+        <v>0.2000000000000013</v>
       </c>
       <c r="T263" t="n">
-        <v>1.72422155397E12</v>
+        <v>1.724294359582E12</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -19821,10 +20166,10 @@
         <v>1788</v>
       </c>
       <c r="R264" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T264" t="n">
-        <v>1.724228623739E12</v>
+        <v>1.724294362007E12</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -19885,10 +20230,10 @@
         <v>1790</v>
       </c>
       <c r="R266" t="n">
-        <v>1.3800000000000106</v>
+        <v>0.6800000000000106</v>
       </c>
       <c r="T266" t="n">
-        <v>1.724243017297E12</v>
+        <v>1.724292831086E12</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -19917,10 +20262,10 @@
         <v>1791</v>
       </c>
       <c r="R267" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T267" t="n">
-        <v>1.724228636275E12</v>
+        <v>1.724294363544E12</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -19949,10 +20294,10 @@
         <v>1792</v>
       </c>
       <c r="R268" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T268" t="n">
-        <v>1.724243027963E12</v>
+        <v>1.72429437052E12</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -19981,10 +20326,10 @@
         <v>1793</v>
       </c>
       <c r="R269" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T269" t="n">
-        <v>1.724228643321E12</v>
+        <v>1.72429437384E12</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -20013,10 +20358,10 @@
         <v>945</v>
       </c>
       <c r="R270" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T270" t="n">
-        <v>1.724228648275E12</v>
+        <v>1.724294380345E12</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -20109,10 +20454,10 @@
         <v>1795</v>
       </c>
       <c r="R273" t="n">
-        <v>0.9499999999999997</v>
+        <v>0.24999999999999978</v>
       </c>
       <c r="T273" t="n">
-        <v>1.724221756037E12</v>
+        <v>1.7242943845E12</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -20141,10 +20486,10 @@
         <v>1796</v>
       </c>
       <c r="R274" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T274" t="n">
-        <v>1.724243031045E12</v>
+        <v>1.724294390341E12</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -20173,10 +20518,10 @@
         <v>1797</v>
       </c>
       <c r="R275" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T275" t="n">
-        <v>1.724228655434E12</v>
+        <v>1.724294393294E12</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -20333,10 +20678,10 @@
         <v>1802</v>
       </c>
       <c r="R280" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T280" t="n">
-        <v>1.724228657492E12</v>
+        <v>1.724294409019E12</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -20365,10 +20710,10 @@
         <v>1803</v>
       </c>
       <c r="R281" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T281" t="n">
-        <v>1.724243035243E12</v>
+        <v>1.724294412207E12</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -20397,10 +20742,10 @@
         <v>1804</v>
       </c>
       <c r="R282" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T282" t="n">
-        <v>1.72422866506E12</v>
+        <v>1.724294416712E12</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -20461,10 +20806,10 @@
         <v>1806</v>
       </c>
       <c r="R284" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.29999999999999916</v>
       </c>
       <c r="T284" t="n">
-        <v>1.724221820199E12</v>
+        <v>1.7242944206E12</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -20493,10 +20838,10 @@
         <v>1807</v>
       </c>
       <c r="R285" t="n">
-        <v>0.8999999999999986</v>
+        <v>0.19999999999999862</v>
       </c>
       <c r="T285" t="n">
-        <v>1.724221829828E12</v>
+        <v>1.724294434281E12</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -20525,10 +20870,10 @@
         <v>1808</v>
       </c>
       <c r="R286" t="n">
-        <v>0.8000000000000043</v>
+        <v>0.10000000000000431</v>
       </c>
       <c r="T286" t="n">
-        <v>1.724221832908E12</v>
+        <v>1.724294439697E12</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -20557,10 +20902,10 @@
         <v>1809</v>
       </c>
       <c r="R287" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.20000000000000218</v>
       </c>
       <c r="T287" t="n">
-        <v>1.724221864193E12</v>
+        <v>1.724294442934E12</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -20589,10 +20934,10 @@
         <v>1810</v>
       </c>
       <c r="R288" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T288" t="n">
-        <v>1.72422866794E12</v>
+        <v>1.72429444604E12</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -20621,10 +20966,10 @@
         <v>1811</v>
       </c>
       <c r="R289" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T289" t="n">
-        <v>1.724228670521E12</v>
+        <v>1.724294449271E12</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -20717,10 +21062,10 @@
         <v>1814</v>
       </c>
       <c r="R292" t="n">
-        <v>0.8500000000000023</v>
+        <v>0.15000000000000235</v>
       </c>
       <c r="T292" t="n">
-        <v>1.724221910428E12</v>
+        <v>1.724294453241E12</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -20749,10 +21094,10 @@
         <v>1815</v>
       </c>
       <c r="R293" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.29999999999999916</v>
       </c>
       <c r="T293" t="n">
-        <v>1.724221949084E12</v>
+        <v>1.724294455988E12</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -20781,10 +21126,10 @@
         <v>1816</v>
       </c>
       <c r="R294" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.20000000000000218</v>
       </c>
       <c r="T294" t="n">
-        <v>1.724221955893E12</v>
+        <v>1.724294457841E12</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -21005,10 +21350,10 @@
         <v>1823</v>
       </c>
       <c r="R301" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.4399999999999995</v>
       </c>
       <c r="T301" t="n">
-        <v>1.724228676521E12</v>
+        <v>1.724295074978E12</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -21037,10 +21382,10 @@
         <v>1824</v>
       </c>
       <c r="R302" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.4399999999999995</v>
       </c>
       <c r="T302" t="n">
-        <v>1.724228680177E12</v>
+        <v>1.72429507771E12</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -21101,10 +21446,10 @@
         <v>1826</v>
       </c>
       <c r="R304" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T304" t="n">
-        <v>1.724243049323E12</v>
+        <v>1.724294484518E12</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -21133,10 +21478,10 @@
         <v>1827</v>
       </c>
       <c r="R305" t="n">
-        <v>0.9000000000000004</v>
+        <v>0.5000000000000004</v>
       </c>
       <c r="T305" t="n">
-        <v>1.724222677655E12</v>
+        <v>1.724295080253E12</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -21165,10 +21510,10 @@
         <v>1493</v>
       </c>
       <c r="R306" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T306" t="n">
-        <v>1.724243074107E12</v>
+        <v>1.724294503032E12</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -21261,10 +21606,10 @@
         <v>1830</v>
       </c>
       <c r="R309" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.20000000000000218</v>
       </c>
       <c r="T309" t="n">
-        <v>1.724222712238E12</v>
+        <v>1.724294505652E12</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -21293,10 +21638,10 @@
         <v>1831</v>
       </c>
       <c r="R310" t="n">
-        <v>1.5299999999999994</v>
+        <v>0.12999999999999945</v>
       </c>
       <c r="T310" t="n">
-        <v>1.72424309626E12</v>
+        <v>1.724294518829E12</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -21357,10 +21702,10 @@
         <v>1833</v>
       </c>
       <c r="R312" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T312" t="n">
-        <v>1.724228697822E12</v>
+        <v>1.724294523974E12</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -21389,10 +21734,10 @@
         <v>1834</v>
       </c>
       <c r="R313" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.48999999999999977</v>
       </c>
       <c r="T313" t="n">
-        <v>1.724228702663E12</v>
+        <v>1.724295082357E12</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -21421,10 +21766,10 @@
         <v>1835</v>
       </c>
       <c r="R314" t="n">
-        <v>1.38</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="T314" t="n">
-        <v>1.724243101834E12</v>
+        <v>1.724292845922E12</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -21485,10 +21830,10 @@
         <v>1837</v>
       </c>
       <c r="R316" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T316" t="n">
-        <v>1.72422870655E12</v>
+        <v>1.724294544504E12</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -21517,10 +21862,10 @@
         <v>1838</v>
       </c>
       <c r="R317" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.18000000000000016</v>
       </c>
       <c r="T317" t="n">
-        <v>1.724243105301E12</v>
+        <v>1.724294546271E12</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -21549,10 +21894,10 @@
         <v>1173</v>
       </c>
       <c r="R318" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.5500000000000012</v>
       </c>
       <c r="T318" t="n">
-        <v>1.724222822554E12</v>
+        <v>1.724295084786E12</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -21613,10 +21958,10 @@
         <v>1840</v>
       </c>
       <c r="R320" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T320" t="n">
-        <v>1.724222827627E12</v>
+        <v>1.72429457515E12</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -21677,10 +22022,10 @@
         <v>1842</v>
       </c>
       <c r="R322" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T322" t="n">
-        <v>1.724222838991E12</v>
+        <v>1.724294579042E12</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -21773,10 +22118,10 @@
         <v>1845</v>
       </c>
       <c r="R325" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T325" t="n">
-        <v>1.724243113192E12</v>
+        <v>1.724294583591E12</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -21965,10 +22310,10 @@
         <v>1851</v>
       </c>
       <c r="R331" t="n">
-        <v>1.23</v>
+        <v>0.53</v>
       </c>
       <c r="T331" t="n">
-        <v>1.724243115688E12</v>
+        <v>1.724292849303E12</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -22061,10 +22406,10 @@
         <v>1527</v>
       </c>
       <c r="R334" t="n">
-        <v>0.8500000000000019</v>
+        <v>0.1500000000000019</v>
       </c>
       <c r="T334" t="n">
-        <v>1.724223323495E12</v>
+        <v>1.724294587909E12</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -22093,10 +22438,10 @@
         <v>1854</v>
       </c>
       <c r="R335" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T335" t="n">
-        <v>1.724228721342E12</v>
+        <v>1.724294590279E12</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -22189,10 +22534,10 @@
         <v>1857</v>
       </c>
       <c r="R338" t="n">
-        <v>1.1799999999999997</v>
+        <v>0.47999999999999976</v>
       </c>
       <c r="T338" t="n">
-        <v>1.724243245119E12</v>
+        <v>1.724292851388E12</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -22221,10 +22566,10 @@
         <v>1643</v>
       </c>
       <c r="R339" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T339" t="n">
-        <v>1.724223603451E12</v>
+        <v>1.724294594038E12</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -22253,10 +22598,10 @@
         <v>1858</v>
       </c>
       <c r="R340" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.20000000000000218</v>
       </c>
       <c r="T340" t="n">
-        <v>1.724223622055E12</v>
+        <v>1.724294597348E12</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -22285,10 +22630,10 @@
         <v>1859</v>
       </c>
       <c r="R341" t="n">
-        <v>1.0800000000000072</v>
+        <v>0.3800000000000072</v>
       </c>
       <c r="T341" t="n">
-        <v>1.72424325347E12</v>
+        <v>1.724292855914E12</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -22317,10 +22662,10 @@
         <v>1860</v>
       </c>
       <c r="R342" t="n">
-        <v>0.8900000000000055</v>
+        <v>0.1900000000000055</v>
       </c>
       <c r="T342" t="n">
-        <v>1.724228733744E12</v>
+        <v>1.724294621304E12</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -22349,10 +22694,10 @@
         <v>1861</v>
       </c>
       <c r="R343" t="n">
-        <v>0.8400000000000065</v>
+        <v>0.14000000000000656</v>
       </c>
       <c r="T343" t="n">
-        <v>1.724228736742E12</v>
+        <v>1.724294625673E12</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -22445,10 +22790,10 @@
         <v>1864</v>
       </c>
       <c r="R346" t="n">
-        <v>0.8299999999999996</v>
+        <v>0.12999999999999967</v>
       </c>
       <c r="T346" t="n">
-        <v>1.724243256929E12</v>
+        <v>1.724294629153E12</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -22509,10 +22854,10 @@
         <v>1866</v>
       </c>
       <c r="R348" t="n">
-        <v>1.6799999999999997</v>
+        <v>0.2799999999999998</v>
       </c>
       <c r="T348" t="n">
-        <v>1.724243260572E12</v>
+        <v>1.724294647922E12</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -22541,10 +22886,10 @@
         <v>1867</v>
       </c>
       <c r="R349" t="n">
-        <v>0.9000000000000012</v>
+        <v>0.2000000000000013</v>
       </c>
       <c r="T349" t="n">
-        <v>1.724223691006E12</v>
+        <v>1.724294650908E12</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -22605,10 +22950,10 @@
         <v>1536</v>
       </c>
       <c r="R351" t="n">
-        <v>2.04</v>
+        <v>0.6400000000000001</v>
       </c>
       <c r="T351" t="n">
-        <v>1.72424326211E12</v>
+        <v>1.724292862697E12</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -22669,10 +23014,10 @@
         <v>1869</v>
       </c>
       <c r="R353" t="n">
-        <v>1.8000000000000034</v>
+        <v>0.7000000000000033</v>
       </c>
       <c r="T353" t="n">
-        <v>1.724243277968E12</v>
+        <v>1.724293432958E12</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -22701,10 +23046,10 @@
         <v>1870</v>
       </c>
       <c r="R354" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T354" t="n">
-        <v>1.724223878292E12</v>
+        <v>1.724294654905E12</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -22765,10 +23110,10 @@
         <v>1872</v>
       </c>
       <c r="R356" t="n">
-        <v>0.9000000000000004</v>
+        <v>0.2000000000000004</v>
       </c>
       <c r="T356" t="n">
-        <v>1.724223903337E12</v>
+        <v>1.724294662429E12</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -22797,10 +23142,10 @@
         <v>1873</v>
       </c>
       <c r="R357" t="n">
-        <v>1.6</v>
+        <v>0.5000000000000002</v>
       </c>
       <c r="T357" t="n">
-        <v>1.724243281363E12</v>
+        <v>1.724295086723E12</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -22829,10 +23174,10 @@
         <v>1874</v>
       </c>
       <c r="R358" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T358" t="n">
-        <v>1.724228770412E12</v>
+        <v>1.724294676449E12</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -22861,10 +23206,10 @@
         <v>870</v>
       </c>
       <c r="R359" t="n">
-        <v>2.09</v>
+        <v>0.69</v>
       </c>
       <c r="T359" t="n">
-        <v>1.724243284923E12</v>
+        <v>1.72429294139E12</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -22925,10 +23270,10 @@
         <v>1876</v>
       </c>
       <c r="R361" t="n">
-        <v>1.1799999999999997</v>
+        <v>0.47999999999999976</v>
       </c>
       <c r="T361" t="n">
-        <v>1.724243298172E12</v>
+        <v>1.724292943818E12</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -23021,10 +23366,10 @@
         <v>1879</v>
       </c>
       <c r="R364" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.29999999999999916</v>
       </c>
       <c r="T364" t="n">
-        <v>1.724224027669E12</v>
+        <v>1.724294680639E12</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -23117,10 +23462,10 @@
         <v>1882</v>
       </c>
       <c r="R367" t="n">
-        <v>0.8000000000000096</v>
+        <v>0.10000000000000964</v>
       </c>
       <c r="T367" t="n">
-        <v>1.724224055611E12</v>
+        <v>1.724294687332E12</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -23181,10 +23526,10 @@
         <v>1884</v>
       </c>
       <c r="R369" t="n">
-        <v>0.8000000000000043</v>
+        <v>0.10000000000000431</v>
       </c>
       <c r="T369" t="n">
-        <v>1.724224115102E12</v>
+        <v>1.724294689989E12</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -23245,10 +23590,10 @@
         <v>1886</v>
       </c>
       <c r="R371" t="n">
-        <v>2.09</v>
+        <v>0.0</v>
       </c>
       <c r="T371" t="n">
-        <v>1.724243298182E12</v>
+        <v>1.724292671325E12</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -23277,10 +23622,10 @@
         <v>1887</v>
       </c>
       <c r="R372" t="n">
-        <v>0.9500000000000002</v>
+        <v>0.2500000000000002</v>
       </c>
       <c r="T372" t="n">
-        <v>1.724224127187E12</v>
+        <v>1.724294695074E12</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -23373,10 +23718,10 @@
         <v>1292</v>
       </c>
       <c r="R375" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.15000000000000013</v>
       </c>
       <c r="T375" t="n">
-        <v>1.724224139359E12</v>
+        <v>1.724294697776E12</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -23437,10 +23782,10 @@
         <v>1890</v>
       </c>
       <c r="R377" t="n">
-        <v>1.1800000000000055</v>
+        <v>0.48000000000000553</v>
       </c>
       <c r="T377" t="n">
-        <v>1.724243309664E12</v>
+        <v>1.72429295283E12</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -23469,10 +23814,10 @@
         <v>1551</v>
       </c>
       <c r="R378" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T378" t="n">
-        <v>1.724228835913E12</v>
+        <v>1.724294737476E12</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -23501,10 +23846,10 @@
         <v>1891</v>
       </c>
       <c r="R379" t="n">
-        <v>0.8900000000000055</v>
+        <v>0.1900000000000055</v>
       </c>
       <c r="T379" t="n">
-        <v>1.724228837487E12</v>
+        <v>1.72429474376E12</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -23533,10 +23878,10 @@
         <v>1892</v>
       </c>
       <c r="R380" t="n">
-        <v>0.8000000000000043</v>
+        <v>0.10000000000000431</v>
       </c>
       <c r="T380" t="n">
-        <v>1.724224260717E12</v>
+        <v>1.724294767046E12</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -23565,10 +23910,10 @@
         <v>1566</v>
       </c>
       <c r="R381" t="n">
-        <v>0.9800000000000093</v>
+        <v>0.28000000000000935</v>
       </c>
       <c r="T381" t="n">
-        <v>1.724243312726E12</v>
+        <v>1.724294773545E12</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -23597,10 +23942,10 @@
         <v>1893</v>
       </c>
       <c r="R382" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T382" t="n">
-        <v>1.724224364754E12</v>
+        <v>1.724294778083E12</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -23629,10 +23974,10 @@
         <v>1894</v>
       </c>
       <c r="R383" t="n">
-        <v>1.58</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T383" t="n">
-        <v>1.724243330108E12</v>
+        <v>1.7242934546E12</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -23661,10 +24006,10 @@
         <v>1895</v>
       </c>
       <c r="R384" t="n">
-        <v>1.7699999999999996</v>
+        <v>0.6699999999999995</v>
       </c>
       <c r="T384" t="n">
-        <v>1.724243332962E12</v>
+        <v>1.724293437467E12</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -23693,10 +24038,10 @@
         <v>1218</v>
       </c>
       <c r="R385" t="n">
-        <v>0.9500000000000082</v>
+        <v>0.45000000000000795</v>
       </c>
       <c r="T385" t="n">
-        <v>1.724224598959E12</v>
+        <v>1.72429514556E12</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -23757,10 +24102,10 @@
         <v>1896</v>
       </c>
       <c r="R387" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T387" t="n">
-        <v>1.724228892734E12</v>
+        <v>1.724294847642E12</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -23789,10 +24134,10 @@
         <v>1897</v>
       </c>
       <c r="R388" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T388" t="n">
-        <v>1.724224625291E12</v>
+        <v>1.724294854218E12</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -23821,10 +24166,10 @@
         <v>1898</v>
       </c>
       <c r="R389" t="n">
-        <v>0.8500000000000032</v>
+        <v>0.15000000000000324</v>
       </c>
       <c r="T389" t="n">
-        <v>1.724224658211E12</v>
+        <v>1.724294870518E12</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -23885,10 +24230,10 @@
         <v>1895</v>
       </c>
       <c r="R391" t="n">
-        <v>0.9000000000000012</v>
+        <v>0.2000000000000013</v>
       </c>
       <c r="T391" t="n">
-        <v>1.724224680085E12</v>
+        <v>1.724294877022E12</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -23917,10 +24262,10 @@
         <v>873</v>
       </c>
       <c r="R392" t="n">
-        <v>0.8900000000000055</v>
+        <v>0.1900000000000055</v>
       </c>
       <c r="T392" t="n">
-        <v>1.724228898072E12</v>
+        <v>1.724294883501E12</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -23949,10 +24294,10 @@
         <v>1895</v>
       </c>
       <c r="R393" t="n">
-        <v>0.8000000000000043</v>
+        <v>0.10000000000000431</v>
       </c>
       <c r="T393" t="n">
-        <v>1.724224731753E12</v>
+        <v>1.724294889286E12</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -23981,10 +24326,10 @@
         <v>1895</v>
       </c>
       <c r="R394" t="n">
-        <v>0.8500000000000032</v>
+        <v>0.15000000000000324</v>
       </c>
       <c r="T394" t="n">
-        <v>1.724224733192E12</v>
+        <v>1.724294898032E12</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -24045,10 +24390,10 @@
         <v>1900</v>
       </c>
       <c r="R396" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T396" t="n">
-        <v>1.724224737679E12</v>
+        <v>1.724294900547E12</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -24105,10 +24450,10 @@
         <v>4</v>
       </c>
       <c r="R399" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T399" t="n">
-        <v>1.724243336938E12</v>
+        <v>1.724294905014E12</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -24125,10 +24470,10 @@
         <v>4</v>
       </c>
       <c r="R400" t="n">
-        <v>1.1799999999999997</v>
+        <v>0.47999999999999976</v>
       </c>
       <c r="T400" t="n">
-        <v>1.724243338671E12</v>
+        <v>1.72429304443E12</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -24145,10 +24490,10 @@
         <v>4</v>
       </c>
       <c r="R401" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T401" t="n">
-        <v>1.724243340772E12</v>
+        <v>1.724294907804E12</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -24245,10 +24590,10 @@
         <v>3</v>
       </c>
       <c r="R406" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.5500000000000012</v>
       </c>
       <c r="T406" t="n">
-        <v>1.724224881036E12</v>
+        <v>1.724295095436E12</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -24305,10 +24650,10 @@
         <v>4</v>
       </c>
       <c r="R409" t="n">
-        <v>1.1799999999999997</v>
+        <v>0.47999999999999976</v>
       </c>
       <c r="T409" t="n">
-        <v>1.72424334246E12</v>
+        <v>1.724293048782E12</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -24445,10 +24790,10 @@
         <v>4</v>
       </c>
       <c r="R416" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T416" t="n">
-        <v>1.724243344887E12</v>
+        <v>1.724294912655E12</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -24465,10 +24810,10 @@
         <v>3</v>
       </c>
       <c r="R417" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="T417" t="n">
-        <v>1.724224965061E12</v>
+        <v>1.724294917756E12</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -24565,10 +24910,10 @@
         <v>4</v>
       </c>
       <c r="R422" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="T422" t="n">
-        <v>1.724243345949E12</v>
+        <v>1.724293439158E12</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -24645,10 +24990,10 @@
         <v>4</v>
       </c>
       <c r="R426" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T426" t="n">
-        <v>1.72422893148E12</v>
+        <v>1.724294919833E12</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -24665,10 +25010,10 @@
         <v>3</v>
       </c>
       <c r="R427" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T427" t="n">
-        <v>1.72422893314E12</v>
+        <v>1.724294921532E12</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -24865,10 +25210,10 @@
         <v>3</v>
       </c>
       <c r="R437" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="T437" t="n">
-        <v>1.724243347676E12</v>
+        <v>1.724294923183E12</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -24925,10 +25270,10 @@
         <v>4</v>
       </c>
       <c r="R440" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T440" t="n">
-        <v>1.724243348938E12</v>
+        <v>1.724294924654E12</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -25025,10 +25370,10 @@
         <v>4</v>
       </c>
       <c r="R445" t="n">
-        <v>1.5299999999999994</v>
+        <v>0.12999999999999945</v>
       </c>
       <c r="T445" t="n">
-        <v>1.724243350435E12</v>
+        <v>1.72429492627E12</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -25125,10 +25470,10 @@
         <v>4</v>
       </c>
       <c r="R450" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T450" t="n">
-        <v>1.724228942109E12</v>
+        <v>1.724294928052E12</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -25205,10 +25550,10 @@
         <v>4</v>
       </c>
       <c r="R454" t="n">
-        <v>1.5799999999999992</v>
+        <v>0.17999999999999927</v>
       </c>
       <c r="T454" t="n">
-        <v>1.724243352152E12</v>
+        <v>1.724294929922E12</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -25265,10 +25610,10 @@
         <v>4</v>
       </c>
       <c r="R457" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T457" t="n">
-        <v>1.724228945529E12</v>
+        <v>1.724294931616E12</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -25305,10 +25650,10 @@
         <v>3</v>
       </c>
       <c r="R459" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.20000000000000218</v>
       </c>
       <c r="T459" t="n">
-        <v>1.724226049899E12</v>
+        <v>1.724294932979E12</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -25385,10 +25730,10 @@
         <v>4</v>
       </c>
       <c r="R463" t="n">
-        <v>1.5299999999999998</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="T463" t="n">
-        <v>1.724243354461E12</v>
+        <v>1.724294934914E12</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -25485,10 +25830,10 @@
         <v>4</v>
       </c>
       <c r="R468" t="n">
-        <v>1.23</v>
+        <v>0.53</v>
       </c>
       <c r="T468" t="n">
-        <v>1.724243356251E12</v>
+        <v>1.724293061321E12</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -25505,10 +25850,10 @@
         <v>3</v>
       </c>
       <c r="R469" t="n">
-        <v>1.23</v>
+        <v>0.13000000000000012</v>
       </c>
       <c r="T469" t="n">
-        <v>1.724243360882E12</v>
+        <v>1.724294936602E12</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -25525,10 +25870,10 @@
         <v>3</v>
       </c>
       <c r="R470" t="n">
-        <v>1.9500000000000002</v>
+        <v>0.15000000000000013</v>
       </c>
       <c r="T470" t="n">
-        <v>1.724243362715E12</v>
+        <v>1.724294938559E12</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -25565,10 +25910,10 @@
         <v>4</v>
       </c>
       <c r="R472" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.29999999999999916</v>
       </c>
       <c r="T472" t="n">
-        <v>1.724226418158E12</v>
+        <v>1.724294945127E12</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -25665,10 +26010,10 @@
         <v>3</v>
       </c>
       <c r="R477" t="n">
-        <v>1.38</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="T477" t="n">
-        <v>1.72424336735E12</v>
+        <v>1.724293076309E12</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -25805,10 +26150,10 @@
         <v>4</v>
       </c>
       <c r="R484" t="n">
-        <v>0.8399999999999994</v>
+        <v>0.13999999999999946</v>
       </c>
       <c r="T484" t="n">
-        <v>1.724228967753E12</v>
+        <v>1.72429494747E12</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -25945,10 +26290,10 @@
         <v>4</v>
       </c>
       <c r="R491" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.29999999999999916</v>
       </c>
       <c r="T491" t="n">
-        <v>1.724226664588E12</v>
+        <v>1.724294950313E12</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -25965,10 +26310,10 @@
         <v>3</v>
       </c>
       <c r="R492" t="n">
-        <v>1.4799999999999995</v>
+        <v>0.7799999999999996</v>
       </c>
       <c r="T492" t="n">
-        <v>1.724243369701E12</v>
+        <v>1.724293080705E12</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -26025,10 +26370,10 @@
         <v>3</v>
       </c>
       <c r="R495" t="n">
-        <v>0.8899999999999997</v>
+        <v>0.18999999999999972</v>
       </c>
       <c r="T495" t="n">
-        <v>1.724228975011E12</v>
+        <v>1.72429495284E12</v>
       </c>
     </row>
     <row r="496" spans="1:4">

--- a/target/classes/初级工题库.xlsx
+++ b/target/classes/初级工题库.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3277" uniqueCount="2050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301" uniqueCount="2069">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -6211,12 +6211,70 @@
   </si>
   <si>
     <t>您一共做了: 99题	您的得分： 90.9090909090909	做题时长约为8.483333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 0.0	做题时长约为0.13333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 87.5	做题时长约为1.3833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 19题	您的得分： 78.94736842105263	做题时长约为2.283333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 10题	您的得分： 100.0	做题时长约为0.4666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 18题	您的得分： 100.0	做题时长约为0.8333333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.05Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 16题	您的得分： 100.0	做题时长约为0.7666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 10题	您的得分： 100.0	做题时长约为0.7166666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 50题	您的得分： 88.0	做题时长约为6.783333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 18题	您的得分： 100.0	做题时长约为1.0166666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 13题	您的得分： 92.3076923076923	做题时长约为1.3833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 35题	您的得分： 100.0	做题时长约为2.8833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 50题	您的得分： 98.0	做题时长约为6.0Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 19题	您的得分： 100.0	做题时长约为1.0666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 6题	您的得分： 100.0	做题时长约为0.3333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 50题	您的得分： 100.0	做题时长约为3.8Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 50题	您的得分： 100.0	做题时长约为13.05Min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -6267,19 +6325,403 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="386">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -6288,10 +6730,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -6447,7 +6889,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -6456,13 +6898,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -6472,7 +6914,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -6481,7 +6923,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -6490,7 +6932,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -6500,12 +6942,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -6536,7 +6978,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -6555,7 +6997,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -6933,11 +7375,11 @@
       <c r="H9" t="s">
         <v>570</v>
       </c>
-      <c r="R9">
-        <v>5</v>
-      </c>
-      <c r="T9">
-        <v>1724374703582</v>
+      <c r="R9" t="n">
+        <v>3.9800000000000004</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.724415737881E12</v>
       </c>
       <c r="AA9" t="s">
         <v>1927</v>
@@ -7318,11 +7760,11 @@
       <c r="H20" t="s">
         <v>1606</v>
       </c>
-      <c r="R20">
-        <v>5.949999999999998</v>
-      </c>
-      <c r="T20">
-        <v>1724375095844</v>
+      <c r="R20" t="n">
+        <v>3.929999999999999</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.724415740792E12</v>
       </c>
       <c r="AA20" t="s">
         <v>1938</v>
@@ -7528,11 +7970,11 @@
       <c r="H26" t="s">
         <v>1611</v>
       </c>
-      <c r="R26">
-        <v>6.35</v>
-      </c>
-      <c r="T26">
-        <v>1724375416246</v>
+      <c r="R26" t="n">
+        <v>3.6500000000000004</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.724415743166E12</v>
       </c>
       <c r="AA26" t="s">
         <v>1944</v>
@@ -7948,11 +8390,11 @@
       <c r="H38" t="s">
         <v>1619</v>
       </c>
-      <c r="R38">
-        <v>7.249999999999998</v>
-      </c>
-      <c r="T38">
-        <v>1724375756901</v>
+      <c r="R38" t="n">
+        <v>3.869999999999999</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.724415746794E12</v>
       </c>
       <c r="AA38" t="s">
         <v>1955</v>
@@ -8263,11 +8705,11 @@
       <c r="H47" t="s">
         <v>1624</v>
       </c>
-      <c r="R47">
-        <v>8.149999999999999</v>
-      </c>
-      <c r="T47">
-        <v>1724375819769</v>
+      <c r="R47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.724415748098E12</v>
       </c>
       <c r="AA47" t="s">
         <v>1963</v>
@@ -8403,11 +8845,11 @@
       <c r="H51" t="s">
         <v>1628</v>
       </c>
-      <c r="R51">
-        <v>5.75</v>
-      </c>
-      <c r="T51">
-        <v>1724375852883</v>
+      <c r="R51" t="n">
+        <v>3.7300000000000004</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.724415789303E12</v>
       </c>
       <c r="AA51" t="s">
         <v>1967</v>
@@ -8858,11 +9300,11 @@
       <c r="H64" t="s">
         <v>1640</v>
       </c>
-      <c r="R64">
-        <v>5</v>
-      </c>
-      <c r="T64">
-        <v>1724375986297</v>
+      <c r="R64" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.724415793191E12</v>
       </c>
       <c r="AA64" t="s">
         <v>1968</v>
@@ -8928,11 +9370,11 @@
       <c r="H66" t="s">
         <v>1642</v>
       </c>
-      <c r="R66">
-        <v>5.9</v>
-      </c>
-      <c r="T66">
-        <v>1724376064272</v>
+      <c r="R66" t="n">
+        <v>3.880000000000001</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.724415794197E12</v>
       </c>
       <c r="AA66" t="s">
         <v>1980</v>
@@ -10048,11 +10490,11 @@
       <c r="H98" t="s">
         <v>1672</v>
       </c>
-      <c r="R98">
-        <v>5.699999999999998</v>
-      </c>
-      <c r="T98">
-        <v>1724378848198</v>
+      <c r="R98" t="n">
+        <v>3.679999999999999</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.724415797062E12</v>
       </c>
       <c r="AA98" t="s">
         <v>1968</v>
@@ -10293,11 +10735,11 @@
       <c r="H105" t="s">
         <v>1677</v>
       </c>
-      <c r="R105">
-        <v>8.949999999999998</v>
-      </c>
-      <c r="T105">
-        <v>1724378974113</v>
+      <c r="R105" t="n">
+        <v>3.6899999999999995</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.724416323159E12</v>
       </c>
       <c r="AA105" t="s">
         <v>2006</v>
@@ -10468,11 +10910,11 @@
       <c r="H110" t="s">
         <v>1682</v>
       </c>
-      <c r="R110">
-        <v>5</v>
-      </c>
-      <c r="T110">
-        <v>1724379105361</v>
+      <c r="R110" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.724416326823E12</v>
       </c>
       <c r="AA110" t="s">
         <v>1993</v>
@@ -10713,11 +11155,11 @@
       <c r="H117" t="s">
         <v>1687</v>
       </c>
-      <c r="R117">
-        <v>5</v>
-      </c>
-      <c r="T117">
-        <v>1724379364134</v>
+      <c r="R117" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.724416329107E12</v>
       </c>
       <c r="AA117" t="s">
         <v>1934</v>
@@ -10748,11 +11190,11 @@
       <c r="H118" t="s">
         <v>1688</v>
       </c>
-      <c r="R118">
-        <v>5</v>
-      </c>
-      <c r="T118">
-        <v>1724379372707</v>
+      <c r="R118" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.724416341965E12</v>
       </c>
       <c r="AA118" t="s">
         <v>1993</v>
@@ -10923,11 +11365,11 @@
       <c r="H123" t="s">
         <v>1692</v>
       </c>
-      <c r="R123">
-        <v>8.749999999999998</v>
-      </c>
-      <c r="T123">
-        <v>1724379410043</v>
+      <c r="R123" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.724416345453E12</v>
       </c>
       <c r="AA123" t="s">
         <v>1968</v>
@@ -11308,11 +11750,11 @@
       <c r="H134" t="s">
         <v>1702</v>
       </c>
-      <c r="R134">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="T134">
-        <v>1724379564221</v>
+      <c r="R134" t="n">
+        <v>3.870000000000001</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1.724416349054E12</v>
       </c>
       <c r="AA134" t="s">
         <v>2022</v>
@@ -11938,11 +12380,11 @@
       <c r="H152" t="s">
         <v>1716</v>
       </c>
-      <c r="R152">
-        <v>5</v>
-      </c>
-      <c r="T152">
-        <v>1724379928293</v>
+      <c r="R152" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.724416353446E12</v>
       </c>
       <c r="AA152" t="s">
         <v>2032</v>
@@ -12428,11 +12870,11 @@
       <c r="H166" t="s">
         <v>1729</v>
       </c>
-      <c r="R166">
-        <v>5</v>
-      </c>
-      <c r="T166">
-        <v>1724380161089</v>
+      <c r="R166" t="n">
+        <v>3.9800000000000004</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.724416356148E12</v>
       </c>
       <c r="AA166" t="s">
         <v>1968</v>
@@ -12603,11 +13045,11 @@
       <c r="H171" t="s">
         <v>1734</v>
       </c>
-      <c r="R171">
-        <v>5</v>
-      </c>
-      <c r="T171">
-        <v>1724380206729</v>
+      <c r="R171" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1.724416365885E12</v>
       </c>
       <c r="AA171" t="s">
         <v>2046</v>
@@ -12708,11 +13150,11 @@
       <c r="H174" t="s">
         <v>1736</v>
       </c>
-      <c r="R174">
-        <v>5</v>
-      </c>
-      <c r="T174">
-        <v>1724380249053</v>
+      <c r="R174" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1.724416372253E12</v>
       </c>
       <c r="AA174" t="s">
         <v>2049</v>
@@ -12749,6 +13191,9 @@
       <c r="T175">
         <v>1724380263761</v>
       </c>
+      <c r="AA175" t="s">
+        <v>2050</v>
+      </c>
     </row>
     <row r="176" spans="1:27">
       <c r="A176">
@@ -12781,6 +13226,9 @@
       <c r="T176">
         <v>1724380297212</v>
       </c>
+      <c r="AA176" t="s">
+        <v>2051</v>
+      </c>
     </row>
     <row r="177" spans="1:20">
       <c r="A177">
@@ -12813,6 +13261,9 @@
       <c r="T177">
         <v>1724380298917</v>
       </c>
+      <c r="AA177" t="s">
+        <v>2052</v>
+      </c>
     </row>
     <row r="178" spans="1:20">
       <c r="A178">
@@ -12845,6 +13296,9 @@
       <c r="T178">
         <v>1724380302245</v>
       </c>
+      <c r="AA178" t="s">
+        <v>2053</v>
+      </c>
     </row>
     <row r="179" spans="1:20">
       <c r="A179">
@@ -12877,6 +13331,9 @@
       <c r="T179">
         <v>1724380306547</v>
       </c>
+      <c r="AA179" t="s">
+        <v>1943</v>
+      </c>
     </row>
     <row r="180" spans="1:20">
       <c r="A180">
@@ -12909,6 +13366,9 @@
       <c r="T180">
         <v>1724380335620</v>
       </c>
+      <c r="AA180" t="s">
+        <v>2054</v>
+      </c>
     </row>
     <row r="181" spans="1:20">
       <c r="A181">
@@ -12941,6 +13401,9 @@
       <c r="T181">
         <v>1724380357891</v>
       </c>
+      <c r="AA181" t="s">
+        <v>2055</v>
+      </c>
     </row>
     <row r="182" spans="1:20">
       <c r="A182">
@@ -12973,6 +13436,9 @@
       <c r="T182">
         <v>1724380361018</v>
       </c>
+      <c r="AA182" t="s">
+        <v>2056</v>
+      </c>
     </row>
     <row r="183" spans="1:20">
       <c r="A183">
@@ -13005,6 +13471,9 @@
       <c r="T183">
         <v>1724380365277</v>
       </c>
+      <c r="AA183" t="s">
+        <v>1968</v>
+      </c>
     </row>
     <row r="184" spans="1:20">
       <c r="A184">
@@ -13037,6 +13506,9 @@
       <c r="T184">
         <v>1724380368099</v>
       </c>
+      <c r="AA184" t="s">
+        <v>2057</v>
+      </c>
     </row>
     <row r="185" spans="1:20">
       <c r="A185">
@@ -13069,6 +13541,9 @@
       <c r="T185">
         <v>1724380370698</v>
       </c>
+      <c r="AA185" t="s">
+        <v>2058</v>
+      </c>
     </row>
     <row r="186" spans="1:20">
       <c r="A186">
@@ -13101,6 +13576,9 @@
       <c r="T186">
         <v>1724380376528</v>
       </c>
+      <c r="AA186" t="s">
+        <v>2059</v>
+      </c>
     </row>
     <row r="187" spans="1:20">
       <c r="A187">
@@ -13133,6 +13611,9 @@
       <c r="T187">
         <v>1724380382031</v>
       </c>
+      <c r="AA187" t="s">
+        <v>2060</v>
+      </c>
     </row>
     <row r="188" spans="1:20">
       <c r="A188">
@@ -13165,6 +13646,9 @@
       <c r="T188">
         <v>1724380386416</v>
       </c>
+      <c r="AA188" t="s">
+        <v>2061</v>
+      </c>
     </row>
     <row r="189" spans="1:20">
       <c r="A189">
@@ -13197,6 +13681,9 @@
       <c r="T189">
         <v>1724380390515</v>
       </c>
+      <c r="AA189" t="s">
+        <v>2021</v>
+      </c>
     </row>
     <row r="190" spans="1:20">
       <c r="A190">
@@ -13229,6 +13716,9 @@
       <c r="T190">
         <v>1724380399627</v>
       </c>
+      <c r="AA190" t="s">
+        <v>2062</v>
+      </c>
     </row>
     <row r="191" spans="1:20">
       <c r="A191">
@@ -13261,6 +13751,9 @@
       <c r="T191">
         <v>1724380407088</v>
       </c>
+      <c r="AA191" t="s">
+        <v>1968</v>
+      </c>
     </row>
     <row r="192" spans="1:20">
       <c r="A192">
@@ -13293,6 +13786,9 @@
       <c r="T192">
         <v>1724380411733</v>
       </c>
+      <c r="AA192" t="s">
+        <v>2063</v>
+      </c>
     </row>
     <row r="193" spans="1:20">
       <c r="A193">
@@ -13325,6 +13821,9 @@
       <c r="T193">
         <v>1724380417203</v>
       </c>
+      <c r="AA193" t="s">
+        <v>2064</v>
+      </c>
     </row>
     <row r="194" spans="1:20">
       <c r="A194">
@@ -13357,6 +13856,9 @@
       <c r="T194">
         <v>1724380421188</v>
       </c>
+      <c r="AA194" t="s">
+        <v>2065</v>
+      </c>
     </row>
     <row r="195" spans="1:20">
       <c r="A195">
@@ -13389,6 +13891,9 @@
       <c r="T195">
         <v>1724380425436</v>
       </c>
+      <c r="AA195" t="s">
+        <v>2066</v>
+      </c>
     </row>
     <row r="196" spans="1:20">
       <c r="A196">
@@ -13421,6 +13926,9 @@
       <c r="T196">
         <v>1724380430867</v>
       </c>
+      <c r="AA196" t="s">
+        <v>1968</v>
+      </c>
     </row>
     <row r="197" spans="1:20">
       <c r="A197">
@@ -13453,6 +13961,9 @@
       <c r="T197">
         <v>1724380434303</v>
       </c>
+      <c r="AA197" t="s">
+        <v>2067</v>
+      </c>
     </row>
     <row r="198" spans="1:20">
       <c r="A198">
@@ -13479,11 +13990,14 @@
       <c r="H198" t="s">
         <v>1750</v>
       </c>
-      <c r="R198">
-        <v>5</v>
-      </c>
-      <c r="T198">
-        <v>1724380474542</v>
+      <c r="R198" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1.72441637428E12</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>2068</v>
       </c>
     </row>
     <row r="199" spans="1:20">
@@ -13575,11 +14089,11 @@
       <c r="H201" t="s">
         <v>1748</v>
       </c>
-      <c r="R201">
-        <v>9.25</v>
-      </c>
-      <c r="T201">
-        <v>1724380494910</v>
+      <c r="R201" t="n">
+        <v>3.9700000000000024</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1.724416378296E12</v>
       </c>
     </row>
     <row r="202" spans="1:20">
@@ -13639,11 +14153,11 @@
       <c r="H203" t="s">
         <v>1753</v>
       </c>
-      <c r="R203">
-        <v>5</v>
-      </c>
-      <c r="T203">
-        <v>1724380597959</v>
+      <c r="R203" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1.724416382118E12</v>
       </c>
     </row>
     <row r="204" spans="1:20">
@@ -14407,11 +14921,11 @@
       <c r="H227" t="s">
         <v>1773</v>
       </c>
-      <c r="R227">
-        <v>5.9</v>
-      </c>
-      <c r="T227">
-        <v>1724380854843</v>
+      <c r="R227" t="n">
+        <v>3.540000000000001</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1.724416385529E12</v>
       </c>
     </row>
     <row r="228" spans="1:20">
@@ -15207,11 +15721,11 @@
       <c r="H252" t="s">
         <v>1797</v>
       </c>
-      <c r="R252">
-        <v>5</v>
-      </c>
-      <c r="T252">
-        <v>1724381069652</v>
+      <c r="R252" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T252" t="n">
+        <v>1.724416391157E12</v>
       </c>
     </row>
     <row r="253" spans="1:20">
@@ -15492,11 +16006,11 @@
       <c r="H261" t="s">
         <v>1804</v>
       </c>
-      <c r="R261">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="T261">
-        <v>1724381101237</v>
+      <c r="R261" t="n">
+        <v>3.870000000000001</v>
+      </c>
+      <c r="T261" t="n">
+        <v>1.724416393356E12</v>
       </c>
     </row>
     <row r="262" spans="1:20">
@@ -15524,11 +16038,11 @@
       <c r="H262" t="s">
         <v>1805</v>
       </c>
-      <c r="R262">
-        <v>5.75</v>
-      </c>
-      <c r="T262">
-        <v>1724381164578</v>
+      <c r="R262" t="n">
+        <v>3.7300000000000004</v>
+      </c>
+      <c r="T262" t="n">
+        <v>1.724416402106E12</v>
       </c>
     </row>
     <row r="263" spans="1:20">
@@ -15620,11 +16134,11 @@
       <c r="H265" t="s">
         <v>1808</v>
       </c>
-      <c r="R265">
-        <v>7.249999999999998</v>
-      </c>
-      <c r="T265">
-        <v>1724381183258</v>
+      <c r="R265" t="n">
+        <v>3.869999999999999</v>
+      </c>
+      <c r="T265" t="n">
+        <v>1.724416404645E12</v>
       </c>
     </row>
     <row r="266" spans="1:20">
@@ -16196,11 +16710,11 @@
       <c r="H283" t="s">
         <v>1824</v>
       </c>
-      <c r="R283">
-        <v>5</v>
-      </c>
-      <c r="T283">
-        <v>1724381480425</v>
+      <c r="R283" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T283" t="n">
+        <v>1.724416415477E12</v>
       </c>
     </row>
     <row r="284" spans="1:20">
@@ -16580,11 +17094,11 @@
       <c r="H295" t="s">
         <v>1836</v>
       </c>
-      <c r="R295">
-        <v>7.249999999999998</v>
-      </c>
-      <c r="T295">
-        <v>1724381614670</v>
+      <c r="R295" t="n">
+        <v>3.869999999999999</v>
+      </c>
+      <c r="T295" t="n">
+        <v>1.724416417231E12</v>
       </c>
     </row>
     <row r="296" spans="1:20">
@@ -16804,11 +17318,11 @@
       <c r="H302" t="s">
         <v>1843</v>
       </c>
-      <c r="R302">
-        <v>7.199999999999998</v>
-      </c>
-      <c r="T302">
-        <v>1724381739906</v>
+      <c r="R302" t="n">
+        <v>3.8000000000000007</v>
+      </c>
+      <c r="T302" t="n">
+        <v>1.724416418849E12</v>
       </c>
     </row>
     <row r="303" spans="1:20">
@@ -17060,11 +17574,11 @@
       <c r="H310" t="s">
         <v>1850</v>
       </c>
-      <c r="R310">
-        <v>5.649999999999997</v>
-      </c>
-      <c r="T310">
-        <v>1724381821410</v>
+      <c r="R310" t="n">
+        <v>3.6299999999999972</v>
+      </c>
+      <c r="T310" t="n">
+        <v>1.724416423718E12</v>
       </c>
     </row>
     <row r="311" spans="1:20">
@@ -17156,11 +17670,11 @@
       <c r="H313" t="s">
         <v>1853</v>
       </c>
-      <c r="R313">
-        <v>7.449999999999999</v>
-      </c>
-      <c r="T313">
-        <v>1724381875386</v>
+      <c r="R313" t="n">
+        <v>3.5500000000000007</v>
+      </c>
+      <c r="T313" t="n">
+        <v>1.724416426246E12</v>
       </c>
     </row>
     <row r="314" spans="1:20">
@@ -17316,11 +17830,11 @@
       <c r="H318" t="s">
         <v>1192</v>
       </c>
-      <c r="R318">
-        <v>7.750000000000005</v>
-      </c>
-      <c r="T318">
-        <v>1724381893527</v>
+      <c r="R318" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T318" t="n">
+        <v>1.724405301101E12</v>
       </c>
     </row>
     <row r="319" spans="1:20">
@@ -17476,11 +17990,11 @@
       <c r="H323" t="s">
         <v>1862</v>
       </c>
-      <c r="R323">
-        <v>5.75</v>
-      </c>
-      <c r="T323">
-        <v>1724381917036</v>
+      <c r="R323" t="n">
+        <v>3.5500000000000007</v>
+      </c>
+      <c r="T323" t="n">
+        <v>1.724416429121E12</v>
       </c>
     </row>
     <row r="324" spans="1:20">
@@ -17764,11 +18278,11 @@
       <c r="H332" t="s">
         <v>1871</v>
       </c>
-      <c r="R332">
-        <v>5</v>
-      </c>
-      <c r="T332">
-        <v>1724381962252</v>
+      <c r="R332" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T332" t="n">
+        <v>1.724416432186E12</v>
       </c>
     </row>
     <row r="333" spans="1:20">
@@ -17796,11 +18310,11 @@
       <c r="H333" t="s">
         <v>1872</v>
       </c>
-      <c r="R333">
-        <v>5.75</v>
-      </c>
-      <c r="T333">
-        <v>1724381977622</v>
+      <c r="R333" t="n">
+        <v>3.5500000000000007</v>
+      </c>
+      <c r="T333" t="n">
+        <v>1.724416433919E12</v>
       </c>
     </row>
     <row r="334" spans="1:20">
@@ -18084,11 +18598,11 @@
       <c r="H342" t="s">
         <v>1879</v>
       </c>
-      <c r="R342">
-        <v>5.950000000000028</v>
-      </c>
-      <c r="T342">
-        <v>1724382037499</v>
+      <c r="R342" t="n">
+        <v>3.930000000000028</v>
+      </c>
+      <c r="T342" t="n">
+        <v>1.724416443861E12</v>
       </c>
     </row>
     <row r="343" spans="1:20">
@@ -18500,11 +19014,11 @@
       <c r="H355" t="s">
         <v>1890</v>
       </c>
-      <c r="R355">
-        <v>7.249999999999998</v>
-      </c>
-      <c r="T355">
-        <v>1724382131695</v>
+      <c r="R355" t="n">
+        <v>3.869999999999999</v>
+      </c>
+      <c r="T355" t="n">
+        <v>1.724416456553E12</v>
       </c>
     </row>
     <row r="356" spans="1:20">
@@ -18628,11 +19142,11 @@
       <c r="H359" t="s">
         <v>889</v>
       </c>
-      <c r="R359">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="T359">
-        <v>1724382151796</v>
+      <c r="R359" t="n">
+        <v>3.710000000000001</v>
+      </c>
+      <c r="T359" t="n">
+        <v>1.724416457888E12</v>
       </c>
     </row>
     <row r="360" spans="1:20">
@@ -19204,11 +19718,11 @@
       <c r="H377" t="s">
         <v>1909</v>
       </c>
-      <c r="R377">
-        <v>7.400000000000028</v>
-      </c>
-      <c r="T377">
-        <v>1724382330568</v>
+      <c r="R377" t="n">
+        <v>3.680000000000029</v>
+      </c>
+      <c r="T377" t="n">
+        <v>1.724416461655E12</v>
       </c>
     </row>
     <row r="378" spans="1:20">
@@ -19268,11 +19782,11 @@
       <c r="H379" t="s">
         <v>1910</v>
       </c>
-      <c r="R379">
-        <v>5.950000000000028</v>
-      </c>
-      <c r="T379">
-        <v>1724382350411</v>
+      <c r="R379" t="n">
+        <v>3.930000000000028</v>
+      </c>
+      <c r="T379" t="n">
+        <v>1.724416464515E12</v>
       </c>
     </row>
     <row r="380" spans="1:20">
@@ -19300,11 +19814,11 @@
       <c r="H380" t="s">
         <v>1911</v>
       </c>
-      <c r="R380">
-        <v>5.500000000000021</v>
-      </c>
-      <c r="T380">
-        <v>1724382363533</v>
+      <c r="R380" t="n">
+        <v>3.4800000000000217</v>
+      </c>
+      <c r="T380" t="n">
+        <v>1.724416470296E12</v>
       </c>
     </row>
     <row r="381" spans="1:20">
@@ -19992,11 +20506,11 @@
       <c r="D405" t="s">
         <v>4</v>
       </c>
-      <c r="R405">
-        <v>5</v>
-      </c>
-      <c r="T405">
-        <v>1724382529778</v>
+      <c r="R405" t="n">
+        <v>3.9800000000000004</v>
+      </c>
+      <c r="T405" t="n">
+        <v>1.724416471616E12</v>
       </c>
     </row>
     <row r="406" spans="1:20">
@@ -20112,11 +20626,11 @@
       <c r="D411" t="s">
         <v>5</v>
       </c>
-      <c r="R411">
-        <v>5.75</v>
-      </c>
-      <c r="T411">
-        <v>1724382588685</v>
+      <c r="R411" t="n">
+        <v>3.7300000000000004</v>
+      </c>
+      <c r="T411" t="n">
+        <v>1.724416473358E12</v>
       </c>
     </row>
     <row r="412" spans="1:20">
@@ -20352,11 +20866,11 @@
       <c r="D423" t="s">
         <v>4</v>
       </c>
-      <c r="R423">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="T423">
-        <v>1724382618451</v>
+      <c r="R423" t="n">
+        <v>3.870000000000001</v>
+      </c>
+      <c r="T423" t="n">
+        <v>1.724416474162E12</v>
       </c>
     </row>
     <row r="424" spans="1:20">
@@ -20592,11 +21106,11 @@
       <c r="D435" t="s">
         <v>4</v>
       </c>
-      <c r="R435">
-        <v>5</v>
-      </c>
-      <c r="T435">
-        <v>1724382652257</v>
+      <c r="R435" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T435" t="n">
+        <v>1.724416478113E12</v>
       </c>
     </row>
     <row r="436" spans="1:20">
@@ -20852,11 +21366,11 @@
       <c r="D448" t="s">
         <v>4</v>
       </c>
-      <c r="R448">
-        <v>5</v>
-      </c>
-      <c r="T448">
-        <v>1724382690782</v>
+      <c r="R448" t="n">
+        <v>3.9800000000000004</v>
+      </c>
+      <c r="T448" t="n">
+        <v>1.724416481009E12</v>
       </c>
     </row>
     <row r="449" spans="1:20">
@@ -21232,11 +21746,11 @@
       <c r="D467" t="s">
         <v>5</v>
       </c>
-      <c r="R467">
-        <v>7.249999999999998</v>
-      </c>
-      <c r="T467">
-        <v>1724382746355</v>
+      <c r="R467" t="n">
+        <v>3.8499999999999996</v>
+      </c>
+      <c r="T467" t="n">
+        <v>1.724416482624E12</v>
       </c>
     </row>
     <row r="468" spans="1:20">
@@ -21332,11 +21846,11 @@
       <c r="D472" t="s">
         <v>5</v>
       </c>
-      <c r="R472">
-        <v>6.499999999999996</v>
-      </c>
-      <c r="T472">
-        <v>1724382949414</v>
+      <c r="R472" t="n">
+        <v>3.7999999999999963</v>
+      </c>
+      <c r="T472" t="n">
+        <v>1.724416485672E12</v>
       </c>
     </row>
     <row r="473" spans="1:20">
@@ -21492,11 +22006,11 @@
       <c r="D480" t="s">
         <v>5</v>
       </c>
-      <c r="R480">
-        <v>5</v>
-      </c>
-      <c r="T480">
-        <v>1724382969652</v>
+      <c r="R480" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T480" t="n">
+        <v>1.724416487874E12</v>
       </c>
     </row>
     <row r="481" spans="1:20">
@@ -21512,11 +22026,11 @@
       <c r="D481" t="s">
         <v>5</v>
       </c>
-      <c r="R481">
-        <v>5</v>
-      </c>
-      <c r="T481">
-        <v>1724382974449</v>
+      <c r="R481" t="n">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="T481" t="n">
+        <v>1.724416489267E12</v>
       </c>
     </row>
     <row r="482" spans="1:20">
@@ -21900,6 +22414,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>